--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassic\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="223">
   <si>
     <t>wuqi01</t>
   </si>
@@ -864,12 +864,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>命中</t>
-  </si>
-  <si>
-    <t>回避</t>
-  </si>
-  <si>
     <t>速度</t>
   </si>
   <si>
@@ -886,14 +880,6 @@
   </si>
   <si>
     <t>DefP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DhitP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1774,7 +1760,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="51">
     <dxf>
       <font>
         <b val="0"/>
@@ -1837,60 +1823,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2637,60 +2569,6 @@
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -2805,60 +2683,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3242,42 +3066,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:R11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A3:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:P11" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A3:P11"/>
   <sortState ref="A4:T40">
     <sortCondition ref="A27"/>
   </sortState>
-  <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="54"/>
-    <tableColumn id="2" name="Name" dataDxfId="53"/>
-    <tableColumn id="3" name="Quality" dataDxfId="52"/>
-    <tableColumn id="4" name="Level" dataDxfId="51"/>
-    <tableColumn id="5" name="Position" dataDxfId="50"/>
-    <tableColumn id="7" name="LvNeed" dataDxfId="49"/>
-    <tableColumn id="8" name="Value" dataDxfId="48"/>
-    <tableColumn id="9" name="AtkP" dataDxfId="47"/>
-    <tableColumn id="10" name="DefP" dataDxfId="46"/>
-    <tableColumn id="11" name="MagP" dataDxfId="45"/>
-    <tableColumn id="13" name="HitP" dataDxfId="44"/>
-    <tableColumn id="14" name="DhitP" dataDxfId="43"/>
-    <tableColumn id="15" name="SpdP" dataDxfId="42"/>
-    <tableColumn id="16" name="VitP" dataDxfId="41"/>
-    <tableColumn id="18" name="Job" dataDxfId="40"/>
-    <tableColumn id="19" name="EnergyRate" dataDxfId="39"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="48"/>
+    <tableColumn id="2" name="Name" dataDxfId="47"/>
+    <tableColumn id="3" name="Quality" dataDxfId="46"/>
+    <tableColumn id="4" name="Level" dataDxfId="45"/>
+    <tableColumn id="5" name="Position" dataDxfId="44"/>
+    <tableColumn id="7" name="LvNeed" dataDxfId="43"/>
+    <tableColumn id="8" name="Value" dataDxfId="42"/>
+    <tableColumn id="9" name="AtkP" dataDxfId="41"/>
+    <tableColumn id="10" name="DefP" dataDxfId="40"/>
+    <tableColumn id="11" name="MagP" dataDxfId="39"/>
+    <tableColumn id="15" name="SpdP" dataDxfId="38"/>
+    <tableColumn id="16" name="VitP" dataDxfId="37"/>
+    <tableColumn id="18" name="Job" dataDxfId="36"/>
+    <tableColumn id="19" name="EnergyRate" dataDxfId="35"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="38"/>
+    <tableColumn id="17" name="Url" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:R31" totalsRowShown="0">
-  <autoFilter ref="A3:R31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P31" totalsRowShown="0">
+  <autoFilter ref="A3:P31"/>
   <sortState ref="A4:J31">
     <sortCondition ref="A3:A31"/>
   </sortState>
-  <tableColumns count="18">
+  <tableColumns count="16">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Quality"/>
@@ -3288,8 +3110,6 @@
     <tableColumn id="11" name="AtkP"/>
     <tableColumn id="12" name="DefP"/>
     <tableColumn id="13" name="MagP"/>
-    <tableColumn id="15" name="HitP"/>
-    <tableColumn id="16" name="DhitP"/>
     <tableColumn id="17" name="SpdP"/>
     <tableColumn id="8" name="VitP"/>
     <tableColumn id="7" name="Job"/>
@@ -3302,51 +3122,47 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A3:R32" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A3:R32"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="35"/>
-    <tableColumn id="2" name="Name" dataDxfId="34"/>
-    <tableColumn id="3" name="Quality" dataDxfId="33"/>
-    <tableColumn id="4" name="Level" dataDxfId="32"/>
-    <tableColumn id="5" name="Position" dataDxfId="31"/>
-    <tableColumn id="8" name="LvNeed" dataDxfId="30"/>
-    <tableColumn id="9" name="Value" dataDxfId="29"/>
-    <tableColumn id="10" name="AtkP" dataDxfId="28"/>
-    <tableColumn id="7" name="DefP" dataDxfId="27"/>
-    <tableColumn id="11" name="MagP" dataDxfId="26"/>
-    <tableColumn id="13" name="HitP" dataDxfId="25"/>
-    <tableColumn id="14" name="DhitP" dataDxfId="24"/>
-    <tableColumn id="15" name="SpdP" dataDxfId="23"/>
-    <tableColumn id="16" name="VitP" dataDxfId="22"/>
-    <tableColumn id="19" name="Job" dataDxfId="21"/>
-    <tableColumn id="18" name="EnergyRate" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A3:P32" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A3:P32"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" name="Name" dataDxfId="30"/>
+    <tableColumn id="3" name="Quality" dataDxfId="29"/>
+    <tableColumn id="4" name="Level" dataDxfId="28"/>
+    <tableColumn id="5" name="Position" dataDxfId="27"/>
+    <tableColumn id="8" name="LvNeed" dataDxfId="26"/>
+    <tableColumn id="9" name="Value" dataDxfId="25"/>
+    <tableColumn id="10" name="AtkP" dataDxfId="24"/>
+    <tableColumn id="7" name="DefP" dataDxfId="23"/>
+    <tableColumn id="11" name="MagP" dataDxfId="22"/>
+    <tableColumn id="15" name="SpdP" dataDxfId="21"/>
+    <tableColumn id="16" name="VitP" dataDxfId="20"/>
+    <tableColumn id="19" name="Job" dataDxfId="19"/>
+    <tableColumn id="18" name="EnergyRate" dataDxfId="18"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="19"/>
+    <tableColumn id="17" name="Url" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:R26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A3:R26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P26" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A3:P26"/>
   <sortState ref="A4:J26">
     <sortCondition ref="A3:A26"/>
   </sortState>
-  <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Quality" dataDxfId="14"/>
-    <tableColumn id="4" name="Level" dataDxfId="13"/>
-    <tableColumn id="5" name="Position" dataDxfId="12"/>
-    <tableColumn id="7" name="LvNeed" dataDxfId="11"/>
-    <tableColumn id="8" name="Value" dataDxfId="10"/>
-    <tableColumn id="9" name="AtkP" dataDxfId="9"/>
-    <tableColumn id="10" name="DefP" dataDxfId="8"/>
-    <tableColumn id="11" name="MagP" dataDxfId="7"/>
-    <tableColumn id="13" name="HitP" dataDxfId="6"/>
-    <tableColumn id="14" name="DhitP" dataDxfId="5"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" name="Quality" dataDxfId="12"/>
+    <tableColumn id="4" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" name="Position" dataDxfId="10"/>
+    <tableColumn id="7" name="LvNeed" dataDxfId="9"/>
+    <tableColumn id="8" name="Value" dataDxfId="8"/>
+    <tableColumn id="9" name="AtkP" dataDxfId="7"/>
+    <tableColumn id="10" name="DefP" dataDxfId="6"/>
+    <tableColumn id="11" name="MagP" dataDxfId="5"/>
     <tableColumn id="15" name="SpdP" dataDxfId="4"/>
     <tableColumn id="16" name="VitP" dataDxfId="3"/>
     <tableColumn id="18" name="Job" dataDxfId="2"/>
@@ -3645,24 +3461,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="14" width="5.5" customWidth="1"/>
+    <col min="8" max="12" width="5.5" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="10.125" customWidth="1"/>
-    <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="10.125" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="79.5" customHeight="1">
+    <row r="1" spans="1:16" ht="79.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -3697,28 +3513,22 @@
         <v>192</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3747,7 +3557,7 @@
         <v>171</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>171</v>
@@ -3755,26 +3565,20 @@
       <c r="L2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>171</v>
+      <c r="N2" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -3797,42 +3601,36 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>204</v>
+      <c r="M3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" t="s">
+        <v>207</v>
       </c>
       <c r="O3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>221</v>
-      </c>
-      <c r="R3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>119</v>
@@ -3867,26 +3665,20 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
+      <c r="M4" s="12">
         <v>11000001</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4">
+      <c r="N4" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4">
         <v>31000001</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:16">
       <c r="A5" s="7">
         <v>21100102</v>
       </c>
@@ -3923,26 +3715,20 @@
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
+      <c r="M5" s="12">
         <v>11000002</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q5">
+      <c r="N5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5">
         <v>31000002</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16">
       <c r="A6" s="7">
         <v>21100103</v>
       </c>
@@ -3979,31 +3765,25 @@
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
+      <c r="M6" s="12">
         <v>11000003</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q6">
+      <c r="N6" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6">
         <v>31000003</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:16">
       <c r="A7" s="7">
         <v>21100104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -4035,26 +3815,20 @@
       <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
+      <c r="M7" s="12">
         <v>11000004</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q7">
+      <c r="N7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O7">
         <v>31000004</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:16">
       <c r="A8" s="7">
         <v>21100105</v>
       </c>
@@ -4091,26 +3865,20 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
+      <c r="M8" s="12">
         <v>11000005</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8">
+      <c r="N8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="O8">
         <v>31000005</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="A9" s="7">
         <v>21100106</v>
       </c>
@@ -4147,26 +3915,20 @@
       <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
+      <c r="M9" s="12">
         <v>11000006</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q9">
+      <c r="N9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="O9">
         <v>31000006</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16">
       <c r="A10" s="7">
         <v>21100107</v>
       </c>
@@ -4203,28 +3965,22 @@
       <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
+      <c r="M10" s="12">
         <v>11000007</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q10">
+      <c r="N10" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10">
         <v>31000007</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>114</v>
@@ -4259,23 +4015,17 @@
       <c r="L11" s="7">
         <v>0</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
+      <c r="M11" s="12">
         <v>11000008</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q11">
+      <c r="N11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O11">
         <v>31000008</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>222</v>
+      <c r="P11" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4291,22 +4041,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="14" width="5.125" customWidth="1"/>
-    <col min="15" max="17" width="8.625" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="42.75" customHeight="1">
+    <row r="1" spans="1:16" ht="42.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -4341,28 +4091,22 @@
         <v>192</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -4385,40 +4129,34 @@
         <v>171</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>171</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>171</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>203</v>
+      <c r="N2" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -4441,45 +4179,39 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>205</v>
+      <c r="M3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" t="s">
+        <v>207</v>
       </c>
       <c r="O3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>221</v>
-      </c>
-      <c r="R3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>21200101</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4514,23 +4246,17 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
+      <c r="N4" t="s">
+        <v>214</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>21200311</v>
       </c>
@@ -4570,23 +4296,17 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
+      <c r="N5" t="s">
+        <v>214</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>21200421</v>
       </c>
@@ -4626,23 +4346,17 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>0</v>
+      <c r="N6" t="s">
+        <v>214</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>21200501</v>
       </c>
@@ -4682,23 +4396,17 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
+      <c r="N7" t="s">
+        <v>214</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>21200711</v>
       </c>
@@ -4738,23 +4446,17 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="N8" t="s">
+        <v>214</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>21200721</v>
       </c>
@@ -4794,23 +4496,17 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="N9" t="s">
+        <v>214</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>21200811</v>
       </c>
@@ -4850,23 +4546,17 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="N10" t="s">
+        <v>214</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>21201001</v>
       </c>
@@ -4906,23 +4596,17 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>0</v>
+      <c r="N11" t="s">
+        <v>214</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>21201011</v>
       </c>
@@ -4962,23 +4646,17 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="N12" t="s">
+        <v>214</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>21201211</v>
       </c>
@@ -5018,23 +4696,17 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
+      <c r="N13" t="s">
+        <v>214</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>21201212</v>
       </c>
@@ -5074,23 +4746,17 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>0</v>
+      <c r="N14" t="s">
+        <v>214</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>21201411</v>
       </c>
@@ -5130,23 +4796,17 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>0</v>
+      <c r="N15" t="s">
+        <v>214</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>21201421</v>
       </c>
@@ -5186,23 +4846,17 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
+      <c r="N16" t="s">
+        <v>214</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>21201501</v>
       </c>
@@ -5242,23 +4896,17 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
+      <c r="N17" t="s">
+        <v>214</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>21201521</v>
       </c>
@@ -5298,23 +4946,17 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>0</v>
+      <c r="N18" t="s">
+        <v>214</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>21201711</v>
       </c>
@@ -5354,23 +4996,17 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
+      <c r="N19" t="s">
+        <v>214</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>21201811</v>
       </c>
@@ -5410,23 +5046,17 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>0</v>
+      <c r="N20" t="s">
+        <v>214</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>21201831</v>
       </c>
@@ -5466,23 +5096,17 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
+      <c r="N21" t="s">
+        <v>214</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>21202001</v>
       </c>
@@ -5522,23 +5146,17 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
+      <c r="N22" t="s">
+        <v>214</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21202111</v>
       </c>
@@ -5578,23 +5196,17 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>0</v>
+      <c r="N23" t="s">
+        <v>214</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>21202221</v>
       </c>
@@ -5634,23 +5246,17 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>0</v>
+      <c r="N24" t="s">
+        <v>214</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>21202311</v>
       </c>
@@ -5690,23 +5296,17 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25">
-        <v>0</v>
+      <c r="N25" t="s">
+        <v>214</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>21202431</v>
       </c>
@@ -5746,23 +5346,17 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26">
-        <v>0</v>
+      <c r="N26" t="s">
+        <v>214</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>21202501</v>
       </c>
@@ -5802,23 +5396,17 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27">
-        <v>0</v>
+      <c r="N27" t="s">
+        <v>214</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>21202611</v>
       </c>
@@ -5858,23 +5446,17 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28">
-        <v>0</v>
+      <c r="N28" t="s">
+        <v>214</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>21202811</v>
       </c>
@@ -5914,23 +5496,17 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29">
-        <v>0</v>
+      <c r="N29" t="s">
+        <v>214</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>21202821</v>
       </c>
@@ -5970,23 +5546,17 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30">
-        <v>0</v>
+      <c r="N30" t="s">
+        <v>214</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>21202921</v>
       </c>
@@ -6026,19 +5596,13 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31">
-        <v>0</v>
+      <c r="N31" t="s">
+        <v>214</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6055,21 +5619,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="15" width="5.375" customWidth="1"/>
-    <col min="16" max="17" width="9.5" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="5.375" customWidth="1"/>
+    <col min="14" max="15" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="65.25" customHeight="1">
+    <row r="1" spans="1:16" ht="65.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -6104,28 +5668,22 @@
         <v>192</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -6154,7 +5712,7 @@
         <v>171</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>171</v>
@@ -6162,26 +5720,20 @@
       <c r="L2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>171</v>
+      <c r="N2" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -6204,40 +5756,34 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>204</v>
+      <c r="M3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" t="s">
+        <v>207</v>
       </c>
       <c r="O3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>221</v>
-      </c>
-      <c r="R3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>21300101</v>
       </c>
@@ -6277,23 +5823,17 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="N4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>21300311</v>
       </c>
@@ -6333,23 +5873,17 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="N5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>21300421</v>
       </c>
@@ -6389,23 +5923,17 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="N6" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>21300501</v>
       </c>
@@ -6445,23 +5973,17 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="N7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>21300611</v>
       </c>
@@ -6501,23 +6023,17 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="N8" t="s">
+        <v>214</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>21300612</v>
       </c>
@@ -6557,23 +6073,17 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="N9" t="s">
+        <v>214</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>21300721</v>
       </c>
@@ -6613,23 +6123,17 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="N10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>21300811</v>
       </c>
@@ -6669,23 +6173,17 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="N11" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>21301001</v>
       </c>
@@ -6725,23 +6223,17 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="N12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>21301011</v>
       </c>
@@ -6781,23 +6273,17 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="N13" t="s">
+        <v>214</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>21301111</v>
       </c>
@@ -6837,23 +6323,17 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="N14" t="s">
+        <v>214</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>21301211</v>
       </c>
@@ -6893,23 +6373,17 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="N15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>21301311</v>
       </c>
@@ -6949,23 +6423,17 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="s">
+      <c r="N16" t="s">
+        <v>214</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>21301421</v>
       </c>
@@ -7005,23 +6473,17 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="N17" t="s">
+        <v>214</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>21301501</v>
       </c>
@@ -7061,23 +6523,17 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="s">
+      <c r="N18" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>21301711</v>
       </c>
@@ -7117,23 +6573,17 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="s">
+      <c r="N19" t="s">
+        <v>214</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>21301821</v>
       </c>
@@ -7173,23 +6623,17 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="s">
+      <c r="N20" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>21301911</v>
       </c>
@@ -7229,23 +6673,17 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="s">
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>21301931</v>
       </c>
@@ -7285,23 +6723,17 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="N22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21302001</v>
       </c>
@@ -7341,23 +6773,17 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>21302111</v>
       </c>
@@ -7397,23 +6823,17 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>21302211</v>
       </c>
@@ -7453,23 +6873,17 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="s">
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>21302221</v>
       </c>
@@ -7509,23 +6923,17 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>21302431</v>
       </c>
@@ -7565,23 +6973,17 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="s">
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>21302501</v>
       </c>
@@ -7621,23 +7023,17 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="s">
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>21302611</v>
       </c>
@@ -7677,23 +7073,17 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="s">
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>21302621</v>
       </c>
@@ -7733,23 +7123,17 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="s">
+      <c r="N30" t="s">
+        <v>214</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>21302811</v>
       </c>
@@ -7789,23 +7173,17 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="s">
+      <c r="N31" t="s">
+        <v>214</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>21302931</v>
       </c>
@@ -7845,19 +7223,13 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="s">
+      <c r="N32" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7873,21 +7245,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="15" width="4.75" customWidth="1"/>
-    <col min="16" max="17" width="5.875" customWidth="1"/>
-    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.75" customWidth="1"/>
+    <col min="14" max="15" width="5.875" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="64.5" customHeight="1">
+    <row r="1" spans="1:16" ht="64.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -7922,28 +7294,22 @@
         <v>192</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -7972,7 +7338,7 @@
         <v>171</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>171</v>
@@ -7980,26 +7346,20 @@
       <c r="L2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>171</v>
+      <c r="N2" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -8022,40 +7382,34 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>204</v>
+      <c r="M3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" t="s">
+        <v>207</v>
       </c>
       <c r="O3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>221</v>
-      </c>
-      <c r="R3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>21400101</v>
       </c>
@@ -8090,28 +7444,22 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>200</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="N4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>21400501</v>
       </c>
@@ -8146,28 +7494,22 @@
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>200</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="N5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>21400691</v>
       </c>
@@ -8202,28 +7544,22 @@
         <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>200</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="N6" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>21401001</v>
       </c>
@@ -8258,28 +7594,22 @@
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>200</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="N7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>21401002</v>
       </c>
@@ -8314,28 +7644,22 @@
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>200</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="N8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>21401003</v>
       </c>
@@ -8370,28 +7694,22 @@
         <v>0</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>200</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="N9" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>21401011</v>
       </c>
@@ -8426,28 +7744,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>200</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="N10" t="s">
+        <v>213</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>21401111</v>
       </c>
@@ -8482,28 +7794,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>200</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="N11" t="s">
+        <v>213</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>21401311</v>
       </c>
@@ -8538,28 +7844,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>200</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="N12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>21401501</v>
       </c>
@@ -8594,28 +7894,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>200</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="N13" t="s">
+        <v>213</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>21401502</v>
       </c>
@@ -8650,28 +7944,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>200</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="N14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>21401503</v>
       </c>
@@ -8706,28 +7994,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>200</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="N15" t="s">
+        <v>213</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>21401511</v>
       </c>
@@ -8762,28 +8044,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>200</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="s">
+      <c r="N16" t="s">
+        <v>213</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>21401512</v>
       </c>
@@ -8818,28 +8094,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7">
-        <v>200</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="N17" t="s">
+        <v>213</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>21401513</v>
       </c>
@@ -8874,28 +8144,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7">
-        <v>200</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="s">
+      <c r="N18" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>21401514</v>
       </c>
@@ -8930,28 +8194,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>200</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="s">
+      <c r="N19" t="s">
+        <v>213</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>21401711</v>
       </c>
@@ -8986,28 +8244,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>200</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="s">
+      <c r="N20" t="s">
+        <v>213</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>21402001</v>
       </c>
@@ -9042,28 +8294,22 @@
         <v>0</v>
       </c>
       <c r="L21" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>200</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="s">
+      <c r="N21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>21402002</v>
       </c>
@@ -9098,28 +8344,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>200</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21402003</v>
       </c>
@@ -9154,28 +8394,22 @@
         <v>0</v>
       </c>
       <c r="L23" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>200</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>21402501</v>
       </c>
@@ -9210,28 +8444,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>200</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>21402502</v>
       </c>
@@ -9266,28 +8494,22 @@
         <v>0</v>
       </c>
       <c r="L25" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>200</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="s">
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>21402503</v>
       </c>
@@ -9322,24 +8544,18 @@
         <v>0</v>
       </c>
       <c r="L26" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>200</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>169</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="216">
   <si>
     <t>wuqi01</t>
   </si>
@@ -857,43 +857,21 @@
     <t>攻击</t>
   </si>
   <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>魔攻</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>AtkP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>AtkP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpdP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>VitP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -973,10 +951,6 @@
   </si>
   <si>
     <t>21100108|InitJobEquipEnd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1760,7 +1734,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="42">
     <dxf>
       <font>
         <b val="0"/>
@@ -1843,89 +1817,6 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -2488,87 +2379,6 @@
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -2703,89 +2513,6 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -3066,40 +2793,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:P11" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A3:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A3:M11"/>
   <sortState ref="A4:T40">
     <sortCondition ref="A27"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="48"/>
-    <tableColumn id="2" name="Name" dataDxfId="47"/>
-    <tableColumn id="3" name="Quality" dataDxfId="46"/>
-    <tableColumn id="4" name="Level" dataDxfId="45"/>
-    <tableColumn id="5" name="Position" dataDxfId="44"/>
-    <tableColumn id="7" name="LvNeed" dataDxfId="43"/>
-    <tableColumn id="8" name="Value" dataDxfId="42"/>
-    <tableColumn id="9" name="AtkP" dataDxfId="41"/>
-    <tableColumn id="10" name="DefP" dataDxfId="40"/>
-    <tableColumn id="11" name="MagP" dataDxfId="39"/>
-    <tableColumn id="15" name="SpdP" dataDxfId="38"/>
-    <tableColumn id="16" name="VitP" dataDxfId="37"/>
-    <tableColumn id="18" name="Job" dataDxfId="36"/>
-    <tableColumn id="19" name="EnergyRate" dataDxfId="35"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Id" dataDxfId="39"/>
+    <tableColumn id="2" name="Name" dataDxfId="38"/>
+    <tableColumn id="3" name="Quality" dataDxfId="37"/>
+    <tableColumn id="4" name="Level" dataDxfId="36"/>
+    <tableColumn id="5" name="Position" dataDxfId="35"/>
+    <tableColumn id="7" name="LvNeed" dataDxfId="34"/>
+    <tableColumn id="8" name="Value" dataDxfId="33"/>
+    <tableColumn id="9" name="AtkP" dataDxfId="32"/>
+    <tableColumn id="16" name="VitP" dataDxfId="31"/>
+    <tableColumn id="18" name="Job" dataDxfId="30"/>
+    <tableColumn id="19" name="EnergyRate" dataDxfId="29"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="34"/>
+    <tableColumn id="17" name="Url" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P31" totalsRowShown="0">
-  <autoFilter ref="A3:P31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:M31" totalsRowShown="0">
+  <autoFilter ref="A3:M31"/>
   <sortState ref="A4:J31">
     <sortCondition ref="A3:A31"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="13">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Quality"/>
@@ -3108,9 +2832,6 @@
     <tableColumn id="18" name="LvNeed"/>
     <tableColumn id="19" name="Value"/>
     <tableColumn id="11" name="AtkP"/>
-    <tableColumn id="12" name="DefP"/>
-    <tableColumn id="13" name="MagP"/>
-    <tableColumn id="17" name="SpdP"/>
     <tableColumn id="8" name="VitP"/>
     <tableColumn id="7" name="Job"/>
     <tableColumn id="9" name="EnergyRate"/>
@@ -3122,48 +2843,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A3:P32" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A3:P32"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Quality" dataDxfId="29"/>
-    <tableColumn id="4" name="Level" dataDxfId="28"/>
-    <tableColumn id="5" name="Position" dataDxfId="27"/>
-    <tableColumn id="8" name="LvNeed" dataDxfId="26"/>
-    <tableColumn id="9" name="Value" dataDxfId="25"/>
-    <tableColumn id="10" name="AtkP" dataDxfId="24"/>
-    <tableColumn id="7" name="DefP" dataDxfId="23"/>
-    <tableColumn id="11" name="MagP" dataDxfId="22"/>
-    <tableColumn id="15" name="SpdP" dataDxfId="21"/>
-    <tableColumn id="16" name="VitP" dataDxfId="20"/>
-    <tableColumn id="19" name="Job" dataDxfId="19"/>
-    <tableColumn id="18" name="EnergyRate" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A3:M32" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A3:M32"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Id" dataDxfId="25"/>
+    <tableColumn id="2" name="Name" dataDxfId="24"/>
+    <tableColumn id="3" name="Quality" dataDxfId="23"/>
+    <tableColumn id="4" name="Level" dataDxfId="22"/>
+    <tableColumn id="5" name="Position" dataDxfId="21"/>
+    <tableColumn id="8" name="LvNeed" dataDxfId="20"/>
+    <tableColumn id="9" name="Value" dataDxfId="19"/>
+    <tableColumn id="10" name="AtkP" dataDxfId="18"/>
+    <tableColumn id="16" name="VitP" dataDxfId="17"/>
+    <tableColumn id="19" name="Job" dataDxfId="16"/>
+    <tableColumn id="18" name="EnergyRate" dataDxfId="15"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="17"/>
+    <tableColumn id="17" name="Url" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P26" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A3:P26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:M26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:M26"/>
   <sortState ref="A4:J26">
     <sortCondition ref="A3:A26"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" name="Quality" dataDxfId="12"/>
-    <tableColumn id="4" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" name="Position" dataDxfId="10"/>
-    <tableColumn id="7" name="LvNeed" dataDxfId="9"/>
-    <tableColumn id="8" name="Value" dataDxfId="8"/>
-    <tableColumn id="9" name="AtkP" dataDxfId="7"/>
-    <tableColumn id="10" name="DefP" dataDxfId="6"/>
-    <tableColumn id="11" name="MagP" dataDxfId="5"/>
-    <tableColumn id="15" name="SpdP" dataDxfId="4"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Id" dataDxfId="11"/>
+    <tableColumn id="2" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" name="Quality" dataDxfId="9"/>
+    <tableColumn id="4" name="Level" dataDxfId="8"/>
+    <tableColumn id="5" name="Position" dataDxfId="7"/>
+    <tableColumn id="7" name="LvNeed" dataDxfId="6"/>
+    <tableColumn id="8" name="Value" dataDxfId="5"/>
+    <tableColumn id="9" name="AtkP" dataDxfId="4"/>
     <tableColumn id="16" name="VitP" dataDxfId="3"/>
     <tableColumn id="18" name="Job" dataDxfId="2"/>
     <tableColumn id="19" name="EnergyRate" dataDxfId="1"/>
@@ -3461,24 +3176,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="12" width="5.5" customWidth="1"/>
-    <col min="13" max="13" width="10.125" customWidth="1"/>
-    <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="79.5" customHeight="1">
+    <row r="1" spans="1:13" ht="79.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -3504,31 +3219,22 @@
         <v>189</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>198</v>
+      <c r="J1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3556,29 +3262,20 @@
       <c r="I2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>171</v>
+      <c r="K2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -3601,36 +3298,27 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>200</v>
+      <c r="K3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" t="s">
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>119</v>
@@ -3656,29 +3344,20 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="J4" s="12">
         <v>11000001</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="O4">
+      <c r="K4" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L4">
         <v>31000001</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:13">
       <c r="A5" s="7">
         <v>21100102</v>
       </c>
@@ -3706,29 +3385,20 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="J5" s="12">
         <v>11000002</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="O5">
+      <c r="K5" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5">
         <v>31000002</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:13">
       <c r="A6" s="7">
         <v>21100103</v>
       </c>
@@ -3756,34 +3426,25 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="J6" s="12">
         <v>11000003</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="O6">
+      <c r="K6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6">
         <v>31000003</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:13">
       <c r="A7" s="7">
         <v>21100104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -3806,29 +3467,20 @@
       <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="J7" s="12">
         <v>11000004</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="O7">
+      <c r="K7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7">
         <v>31000004</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:13">
       <c r="A8" s="7">
         <v>21100105</v>
       </c>
@@ -3856,29 +3508,20 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="J8" s="12">
         <v>11000005</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="O8">
+      <c r="K8" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8">
         <v>31000005</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:13">
       <c r="A9" s="7">
         <v>21100106</v>
       </c>
@@ -3906,29 +3549,20 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="7">
-        <v>30</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="J9" s="12">
         <v>11000006</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="O9">
+      <c r="K9" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L9">
         <v>31000006</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:13">
       <c r="A10" s="7">
         <v>21100107</v>
       </c>
@@ -3956,31 +3590,22 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="7">
-        <v>30</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="J10" s="12">
         <v>11000007</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="O10">
+      <c r="K10" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10">
         <v>31000007</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>114</v>
@@ -4006,26 +3631,17 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="7">
-        <v>30</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="J11" s="12">
         <v>11000008</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="K11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11">
+        <v>31000008</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="O11">
-        <v>31000008</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4041,22 +3657,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="15" width="8.625" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="12" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42.75" customHeight="1">
+    <row r="1" spans="1:13" ht="42.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -4082,31 +3698,22 @@
         <v>189</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>198</v>
+      <c r="J1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -4129,34 +3736,25 @@
         <v>171</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>199</v>
+      <c r="K2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -4179,39 +3777,30 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" t="s">
         <v>201</v>
       </c>
+      <c r="L3" t="s">
+        <v>211</v>
+      </c>
       <c r="M3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>21200101</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4237,26 +3826,17 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>208</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>214</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>21200311</v>
       </c>
@@ -4287,26 +3867,17 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>208</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="M5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>21200421</v>
       </c>
@@ -4337,26 +3908,17 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>208</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>214</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>21200501</v>
       </c>
@@ -4387,26 +3949,17 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>208</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="M7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>21200711</v>
       </c>
@@ -4437,26 +3990,17 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>208</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>214</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="M8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>21200721</v>
       </c>
@@ -4487,26 +4031,17 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>208</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>214</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="M9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>21200811</v>
       </c>
@@ -4537,26 +4072,17 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>208</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>214</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="M10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>21201001</v>
       </c>
@@ -4587,26 +4113,17 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>208</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>214</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="M11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>21201011</v>
       </c>
@@ -4637,26 +4154,17 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>208</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>214</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>21201211</v>
       </c>
@@ -4687,26 +4195,17 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>208</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>214</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="M13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>21201212</v>
       </c>
@@ -4737,26 +4236,17 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>208</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>214</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>21201411</v>
       </c>
@@ -4787,26 +4277,17 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
+      <c r="K15" t="s">
+        <v>208</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>214</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="M15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>21201421</v>
       </c>
@@ -4837,26 +4318,17 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
+      <c r="K16" t="s">
+        <v>208</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>214</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="M16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>21201501</v>
       </c>
@@ -4887,26 +4359,17 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
+      <c r="K17" t="s">
+        <v>208</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>214</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="M17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>21201521</v>
       </c>
@@ -4937,26 +4400,17 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
+      <c r="K18" t="s">
+        <v>208</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>214</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="M18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>21201711</v>
       </c>
@@ -4987,26 +4441,17 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
+      <c r="K19" t="s">
+        <v>208</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>214</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="M19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>21201811</v>
       </c>
@@ -5037,26 +4482,17 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="K20" t="s">
+        <v>208</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>214</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="M20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>21201831</v>
       </c>
@@ -5087,26 +4523,17 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
+      <c r="K21" t="s">
+        <v>208</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>214</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="M21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21202001</v>
       </c>
@@ -5137,26 +4564,17 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
+      <c r="K22" t="s">
+        <v>208</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>214</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="M22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21202111</v>
       </c>
@@ -5187,26 +4605,17 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
+      <c r="K23" t="s">
+        <v>208</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>214</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="M23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>21202221</v>
       </c>
@@ -5237,26 +4646,17 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>208</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>214</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="M24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>21202311</v>
       </c>
@@ -5287,26 +4687,17 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>208</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>214</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="M25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>21202431</v>
       </c>
@@ -5337,26 +4728,17 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
+      <c r="K26" t="s">
+        <v>208</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>214</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="M26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>21202501</v>
       </c>
@@ -5387,26 +4769,17 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
+      <c r="K27" t="s">
+        <v>208</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>214</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="M27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>21202611</v>
       </c>
@@ -5437,26 +4810,17 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>0</v>
+      <c r="K28" t="s">
+        <v>208</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>214</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="M28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>21202811</v>
       </c>
@@ -5487,26 +4851,17 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
+      <c r="K29" t="s">
+        <v>208</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>214</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="M29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>21202821</v>
       </c>
@@ -5537,26 +4892,17 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" t="s">
+        <v>208</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>214</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="M30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>21202921</v>
       </c>
@@ -5587,22 +4933,13 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>0</v>
+      <c r="K31" t="s">
+        <v>208</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>214</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="M31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5619,21 +4956,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="13" width="5.375" customWidth="1"/>
-    <col min="14" max="15" width="9.5" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="12" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="65.25" customHeight="1">
+    <row r="1" spans="1:13" ht="65.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -5659,31 +4996,22 @@
         <v>189</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>198</v>
+      <c r="J1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -5711,29 +5039,20 @@
       <c r="I2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>171</v>
+      <c r="K2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5756,34 +5075,25 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>200</v>
+      <c r="K3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" t="s">
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>21300101</v>
       </c>
@@ -5809,31 +5119,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>214</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="K4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>21300311</v>
       </c>
@@ -5859,31 +5160,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>21300421</v>
       </c>
@@ -5909,31 +5201,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>214</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>21300501</v>
       </c>
@@ -5959,31 +5242,22 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>21300611</v>
       </c>
@@ -6009,31 +5283,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>214</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="K8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>21300612</v>
       </c>
@@ -6059,31 +5324,22 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>214</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="K9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>21300721</v>
       </c>
@@ -6109,31 +5365,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>214</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="K10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>21300811</v>
       </c>
@@ -6159,31 +5406,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>214</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>21301001</v>
       </c>
@@ -6209,31 +5447,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>214</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
+      <c r="K12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>21301011</v>
       </c>
@@ -6259,31 +5488,22 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>214</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>21301111</v>
       </c>
@@ -6309,31 +5529,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>214</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>21301211</v>
       </c>
@@ -6359,31 +5570,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>214</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>21301311</v>
       </c>
@@ -6409,31 +5611,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>214</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
+      <c r="K16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>21301421</v>
       </c>
@@ -6459,31 +5652,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>214</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
+      <c r="K17" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>21301501</v>
       </c>
@@ -6509,31 +5693,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>214</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
+      <c r="K18" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>21301711</v>
       </c>
@@ -6559,31 +5734,22 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>214</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
+      <c r="K19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>21301821</v>
       </c>
@@ -6609,31 +5775,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>214</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="s">
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>21301911</v>
       </c>
@@ -6659,31 +5816,22 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>214</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21301931</v>
       </c>
@@ -6709,31 +5857,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
       </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>214</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21302001</v>
       </c>
@@ -6759,31 +5898,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>214</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="s">
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>21302111</v>
       </c>
@@ -6809,31 +5939,22 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7">
         <v>0</v>
       </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>214</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>21302211</v>
       </c>
@@ -6859,31 +5980,22 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
       </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>214</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>21302221</v>
       </c>
@@ -6909,31 +6021,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>214</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>21302431</v>
       </c>
@@ -6959,31 +6062,22 @@
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7">
         <v>0</v>
       </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>214</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2" t="s">
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>21302501</v>
       </c>
@@ -7009,31 +6103,22 @@
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
       </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>214</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="s">
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>21302611</v>
       </c>
@@ -7059,31 +6144,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7">
         <v>0</v>
       </c>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>214</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2" t="s">
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>21302621</v>
       </c>
@@ -7109,31 +6185,22 @@
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
         <v>0</v>
       </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>214</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="s">
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>21302811</v>
       </c>
@@ -7159,31 +6226,22 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
         <v>0</v>
       </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>214</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="s">
+      <c r="K31" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>21302931</v>
       </c>
@@ -7209,27 +6267,18 @@
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
         <v>0</v>
       </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>214</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2" t="s">
+      <c r="K32" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7245,21 +6294,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="13" width="4.75" customWidth="1"/>
-    <col min="14" max="15" width="5.875" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="12" width="5.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="64.5" customHeight="1">
+    <row r="1" spans="1:13" ht="64.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -7285,31 +6334,22 @@
         <v>189</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>198</v>
+      <c r="J1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -7337,29 +6377,20 @@
       <c r="I2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>171</v>
+      <c r="K2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -7382,34 +6413,25 @@
         <v>185</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>200</v>
+      <c r="K3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" t="s">
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>21400101</v>
       </c>
@@ -7435,31 +6457,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>200</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>214</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="K4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>21400501</v>
       </c>
@@ -7485,31 +6498,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>200</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>21400691</v>
       </c>
@@ -7535,31 +6539,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>200</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>21401001</v>
       </c>
@@ -7585,31 +6580,22 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>200</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>21401002</v>
       </c>
@@ -7635,31 +6621,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>200</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>21401003</v>
       </c>
@@ -7685,31 +6662,22 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>200</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>21401011</v>
       </c>
@@ -7735,31 +6703,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>200</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>213</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="K10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>21401111</v>
       </c>
@@ -7785,31 +6744,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>200</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>213</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="K11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>21401311</v>
       </c>
@@ -7835,31 +6785,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>200</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>213</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
+      <c r="K12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>21401501</v>
       </c>
@@ -7885,31 +6826,22 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>200</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>213</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="K13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>21401502</v>
       </c>
@@ -7935,31 +6867,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>200</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>213</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="K14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>21401503</v>
       </c>
@@ -7985,31 +6908,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>200</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>213</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>21401511</v>
       </c>
@@ -8035,31 +6949,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>200</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>213</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>21401512</v>
       </c>
@@ -8085,31 +6990,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>200</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>213</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
+      <c r="K17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>21401513</v>
       </c>
@@ -8135,31 +7031,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>200</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>213</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
+      <c r="K18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>21401514</v>
       </c>
@@ -8185,31 +7072,22 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>200</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>213</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
+      <c r="K19" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>21401711</v>
       </c>
@@ -8235,31 +7113,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>200</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>213</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="s">
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>21402001</v>
       </c>
@@ -8285,31 +7154,22 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>200</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21402002</v>
       </c>
@@ -8335,31 +7195,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
       </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>200</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>213</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21402003</v>
       </c>
@@ -8385,31 +7236,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>200</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>213</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="s">
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>21402501</v>
       </c>
@@ -8435,31 +7277,22 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24" s="7">
         <v>0</v>
       </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>200</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>213</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>21402502</v>
       </c>
@@ -8485,31 +7318,22 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
       </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>200</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>213</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>21402503</v>
       </c>
@@ -8535,27 +7359,18 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J26" s="7">
         <v>0</v>
       </c>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>200</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>169</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="219">
   <si>
     <t>wuqi01</t>
   </si>
@@ -950,7 +950,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>21100108|InitJobEquipEnd</t>
+    <t>21100109|InitJobEquipEnd</t>
+  </si>
+  <si>
+    <t>40;15;45</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>toukui29</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨盔</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2793,8 +2804,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A3:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M12" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A3:M12"/>
   <sortState ref="A4:T40">
     <sortCondition ref="A27"/>
   </sortState>
@@ -3176,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3604,8 +3615,8 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="7" t="s">
-        <v>215</v>
+      <c r="A11" s="7">
+        <v>21100108</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>114</v>
@@ -3642,6 +3653,47 @@
       </c>
       <c r="M11" s="11" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>70</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>11000009</v>
+      </c>
+      <c r="K12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12">
+        <v>31000009</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6296,8 +6348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="221">
   <si>
     <t>wuqi01</t>
   </si>
@@ -950,9 +950,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>21100109|InitJobEquipEnd</t>
-  </si>
-  <si>
     <t>40;15;45</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -962,6 +959,17 @@
   </si>
   <si>
     <t>骨盔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>21100110|InitJobEquipEnd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>toukui15</t>
+  </si>
+  <si>
+    <t>斗篷</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1525,6 +1533,17 @@
       <right style="thin">
         <color theme="4"/>
       </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1660,7 +1679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,6 +1717,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2804,8 +2826,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M12" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A3:M12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M13" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A3:M13"/>
   <sortState ref="A4:T40">
     <sortCondition ref="A27"/>
   </sortState>
@@ -3187,21 +3209,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="79.5" customHeight="1">
@@ -3656,11 +3678,11 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="7" t="s">
-        <v>215</v>
+      <c r="A12" s="7">
+        <v>21100109</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
@@ -3687,13 +3709,54 @@
         <v>11000009</v>
       </c>
       <c r="K12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L12">
         <v>31000009</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>11000010</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13">
+        <v>31000010</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3715,13 +3778,13 @@
       <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="9" width="5.125" customWidth="1"/>
-    <col min="10" max="12" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="12" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1">
@@ -5014,12 +5077,12 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="10" width="5.375" customWidth="1"/>
-    <col min="11" max="12" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="12" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65.25" customHeight="1">
@@ -6352,12 +6415,12 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="12" width="5.875" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="12" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="64.5" customHeight="1">

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -1784,6 +1784,41 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2178,60 +2213,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2886,37 +2867,37 @@
     <tableColumn id="5" name="Position" dataDxfId="21"/>
     <tableColumn id="8" name="LvNeed" dataDxfId="20"/>
     <tableColumn id="9" name="Value" dataDxfId="19"/>
-    <tableColumn id="10" name="AtkP" dataDxfId="18"/>
-    <tableColumn id="16" name="VitP" dataDxfId="17"/>
-    <tableColumn id="19" name="Job" dataDxfId="16"/>
-    <tableColumn id="18" name="EnergyRate" dataDxfId="15"/>
+    <tableColumn id="10" name="AtkP" dataDxfId="1"/>
+    <tableColumn id="16" name="VitP" dataDxfId="0"/>
+    <tableColumn id="19" name="Job" dataDxfId="18"/>
+    <tableColumn id="18" name="EnergyRate" dataDxfId="17"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="14"/>
+    <tableColumn id="17" name="Url" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:M26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:M26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A3:M26"/>
   <sortState ref="A4:J26">
     <sortCondition ref="A3:A26"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="11"/>
-    <tableColumn id="2" name="Name" dataDxfId="10"/>
-    <tableColumn id="3" name="Quality" dataDxfId="9"/>
-    <tableColumn id="4" name="Level" dataDxfId="8"/>
-    <tableColumn id="5" name="Position" dataDxfId="7"/>
-    <tableColumn id="7" name="LvNeed" dataDxfId="6"/>
-    <tableColumn id="8" name="Value" dataDxfId="5"/>
-    <tableColumn id="9" name="AtkP" dataDxfId="4"/>
-    <tableColumn id="16" name="VitP" dataDxfId="3"/>
-    <tableColumn id="18" name="Job" dataDxfId="2"/>
-    <tableColumn id="19" name="EnergyRate" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Quality" dataDxfId="11"/>
+    <tableColumn id="4" name="Level" dataDxfId="10"/>
+    <tableColumn id="5" name="Position" dataDxfId="9"/>
+    <tableColumn id="7" name="LvNeed" dataDxfId="8"/>
+    <tableColumn id="8" name="Value" dataDxfId="7"/>
+    <tableColumn id="9" name="AtkP" dataDxfId="6"/>
+    <tableColumn id="16" name="VitP" dataDxfId="5"/>
+    <tableColumn id="18" name="Job" dataDxfId="4"/>
+    <tableColumn id="19" name="EnergyRate" dataDxfId="3"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="0"/>
+    <tableColumn id="17" name="Url" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3212,18 +3193,18 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="79.5" customHeight="1">
@@ -3778,13 +3759,13 @@
       <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="12" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="12" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1">
@@ -5074,15 +5055,16 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="12" width="9.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="12" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65.25" customHeight="1">
@@ -5234,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -5275,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -5316,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -5357,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -5398,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -5439,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -5480,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -5521,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -5562,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
@@ -5603,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
@@ -5644,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
@@ -5685,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -5726,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -5767,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -5808,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -5849,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -5890,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -5931,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -5972,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -6013,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
@@ -6054,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="7">
         <v>0</v>
@@ -6095,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
@@ -6136,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="7">
         <v>0</v>
@@ -6177,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="7">
         <v>0</v>
@@ -6218,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
@@ -6259,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J29" s="7">
         <v>0</v>
@@ -6300,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J30" s="7">
         <v>0</v>
@@ -6341,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J31" s="7">
         <v>0</v>
@@ -6382,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="7">
         <v>0</v>
@@ -6415,12 +6397,12 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="10" width="4.77734375" customWidth="1"/>
-    <col min="11" max="12" width="5.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="12" width="5.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="64.5" customHeight="1">

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -1784,41 +1784,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2196,6 +2161,41 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2867,37 +2867,37 @@
     <tableColumn id="5" name="Position" dataDxfId="21"/>
     <tableColumn id="8" name="LvNeed" dataDxfId="20"/>
     <tableColumn id="9" name="Value" dataDxfId="19"/>
-    <tableColumn id="10" name="AtkP" dataDxfId="1"/>
-    <tableColumn id="16" name="VitP" dataDxfId="0"/>
-    <tableColumn id="19" name="Job" dataDxfId="18"/>
-    <tableColumn id="18" name="EnergyRate" dataDxfId="17"/>
+    <tableColumn id="10" name="AtkP" dataDxfId="18"/>
+    <tableColumn id="16" name="VitP" dataDxfId="17"/>
+    <tableColumn id="19" name="Job" dataDxfId="16"/>
+    <tableColumn id="18" name="EnergyRate" dataDxfId="15"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="16"/>
+    <tableColumn id="17" name="Url" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:M26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:M26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A3:M26"/>
   <sortState ref="A4:J26">
     <sortCondition ref="A3:A26"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Quality" dataDxfId="11"/>
-    <tableColumn id="4" name="Level" dataDxfId="10"/>
-    <tableColumn id="5" name="Position" dataDxfId="9"/>
-    <tableColumn id="7" name="LvNeed" dataDxfId="8"/>
-    <tableColumn id="8" name="Value" dataDxfId="7"/>
-    <tableColumn id="9" name="AtkP" dataDxfId="6"/>
-    <tableColumn id="16" name="VitP" dataDxfId="5"/>
-    <tableColumn id="18" name="Job" dataDxfId="4"/>
-    <tableColumn id="19" name="EnergyRate" dataDxfId="3"/>
+    <tableColumn id="1" name="Id" dataDxfId="11"/>
+    <tableColumn id="2" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" name="Quality" dataDxfId="9"/>
+    <tableColumn id="4" name="Level" dataDxfId="8"/>
+    <tableColumn id="5" name="Position" dataDxfId="7"/>
+    <tableColumn id="7" name="LvNeed" dataDxfId="6"/>
+    <tableColumn id="8" name="Value" dataDxfId="5"/>
+    <tableColumn id="9" name="AtkP" dataDxfId="4"/>
+    <tableColumn id="16" name="VitP" dataDxfId="3"/>
+    <tableColumn id="18" name="Job" dataDxfId="2"/>
+    <tableColumn id="19" name="EnergyRate" dataDxfId="1"/>
     <tableColumn id="20" name="SpecialSkill"/>
-    <tableColumn id="17" name="Url" dataDxfId="2"/>
+    <tableColumn id="17" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3192,19 +3192,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="79.5" customHeight="1">
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -3721,8 +3721,8 @@
       <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="10">
-        <v>70</v>
+      <c r="H13" s="7">
+        <v>50</v>
       </c>
       <c r="I13" s="10">
         <v>0</v>
@@ -3756,16 +3756,16 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="9" width="5.125" customWidth="1"/>
-    <col min="10" max="12" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="12" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1">
@@ -5058,13 +5058,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="10" width="5.375" customWidth="1"/>
-    <col min="11" max="12" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="12" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65.25" customHeight="1">
@@ -6393,16 +6393,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="12" width="5.875" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="12" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="64.5" customHeight="1">
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J24" s="7">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J26" s="7">
         <v>0</v>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="225">
   <si>
     <t>wuqi01</t>
   </si>
@@ -901,26 +901,6 @@
     <t>EnergyRate</t>
   </si>
   <si>
-    <t>45;25;30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>50;20;30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>35;15;50</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>40;15;45</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>45;15;40</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>0;0;0</t>
   </si>
   <si>
@@ -950,10 +930,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>40;15;45</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>toukui29</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -970,6 +946,46 @@
   </si>
   <si>
     <t>斗篷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60;20;20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60;20;20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60;15;25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60;25;15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55;20;25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;10;40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;15;35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55;10;35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55;10;35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;20;30</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3192,19 +3208,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="79.5" customHeight="1">
@@ -3242,7 +3258,7 @@
         <v>199</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>180</v>
@@ -3283,7 +3299,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>172</v>
@@ -3324,7 +3340,7 @@
         <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
         <v>187</v>
@@ -3332,7 +3348,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>119</v>
@@ -3361,8 +3377,8 @@
       <c r="J4" s="12">
         <v>11000001</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>202</v>
+      <c r="K4" t="s">
+        <v>215</v>
       </c>
       <c r="L4">
         <v>31000001</v>
@@ -3402,8 +3418,8 @@
       <c r="J5" s="12">
         <v>11000002</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>202</v>
+      <c r="K5" t="s">
+        <v>216</v>
       </c>
       <c r="L5">
         <v>31000002</v>
@@ -3443,8 +3459,8 @@
       <c r="J6" s="12">
         <v>11000003</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>202</v>
+      <c r="K6" t="s">
+        <v>217</v>
       </c>
       <c r="L6">
         <v>31000003</v>
@@ -3458,7 +3474,7 @@
         <v>21100104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -3484,8 +3500,8 @@
       <c r="J7" s="12">
         <v>11000004</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>202</v>
+      <c r="K7" t="s">
+        <v>218</v>
       </c>
       <c r="L7">
         <v>31000004</v>
@@ -3525,8 +3541,8 @@
       <c r="J8" s="12">
         <v>11000005</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>203</v>
+      <c r="K8" t="s">
+        <v>219</v>
       </c>
       <c r="L8">
         <v>31000005</v>
@@ -3566,8 +3582,8 @@
       <c r="J9" s="12">
         <v>11000006</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>204</v>
+      <c r="K9" t="s">
+        <v>220</v>
       </c>
       <c r="L9">
         <v>31000006</v>
@@ -3607,8 +3623,8 @@
       <c r="J10" s="12">
         <v>11000007</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>205</v>
+      <c r="K10" t="s">
+        <v>221</v>
       </c>
       <c r="L10">
         <v>31000007</v>
@@ -3648,14 +3664,14 @@
       <c r="J11" s="12">
         <v>11000008</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>206</v>
+      <c r="K11" t="s">
+        <v>222</v>
       </c>
       <c r="L11">
         <v>31000008</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3663,7 +3679,7 @@
         <v>21100109</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
@@ -3690,21 +3706,21 @@
         <v>11000009</v>
       </c>
       <c r="K12" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L12">
         <v>31000009</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
@@ -3730,14 +3746,14 @@
       <c r="J13" s="12">
         <v>11000010</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>215</v>
+      <c r="K13" t="s">
+        <v>224</v>
       </c>
       <c r="L13">
         <v>31000010</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3759,13 +3775,13 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="12" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="12" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1">
@@ -3803,7 +3819,7 @@
         <v>199</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>180</v>
@@ -3844,7 +3860,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>172</v>
@@ -3885,7 +3901,7 @@
         <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
         <v>187</v>
@@ -3923,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3964,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4005,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4046,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4087,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4128,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4169,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4210,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4251,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4292,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4333,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4374,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4415,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4456,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4497,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4538,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4579,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4620,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4661,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4702,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4743,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4784,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4825,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4866,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4907,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4948,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4989,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5030,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5058,13 +5074,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="12" width="9.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="12" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65.25" customHeight="1">
@@ -5102,7 +5118,7 @@
         <v>199</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>180</v>
@@ -5143,7 +5159,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>172</v>
@@ -5184,7 +5200,7 @@
         <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
         <v>187</v>
@@ -5222,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -5263,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -5304,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5345,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5386,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5427,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5468,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5509,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5550,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5591,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5632,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -5673,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5714,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -5755,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -5796,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5837,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5878,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5919,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5960,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -6001,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -6042,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -6083,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -6124,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -6165,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -6206,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -6247,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -6288,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -6329,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -6370,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -6393,16 +6409,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="10" width="4.77734375" customWidth="1"/>
-    <col min="11" max="12" width="5.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="12" width="5.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="64.5" customHeight="1">
@@ -6440,7 +6456,7 @@
         <v>199</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>180</v>
@@ -6481,7 +6497,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>172</v>
@@ -6522,7 +6538,7 @@
         <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
         <v>187</v>
@@ -6560,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -6601,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -6642,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -6683,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -6724,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -6765,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -6806,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -6847,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -6888,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -6929,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6970,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -7011,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -7052,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -7093,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -7134,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -7175,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -7216,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -7257,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -7298,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -7339,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -7380,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -7421,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -7462,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L26">
         <v>0</v>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -3209,18 +3209,18 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="79.5" customHeight="1">
@@ -3775,13 +3775,13 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="9" width="5.125" customWidth="1"/>
-    <col min="10" max="12" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="12" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1">
@@ -5074,13 +5074,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="10" width="5.375" customWidth="1"/>
-    <col min="11" max="12" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="12" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65.25" customHeight="1">
@@ -6413,12 +6413,12 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="12" width="5.875" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="12" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="64.5" customHeight="1">

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="头盔" sheetId="3" r:id="rId1"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="216">
   <si>
     <t>wuqi01</t>
   </si>
@@ -949,43 +949,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>60;20;20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>60;20;20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>60;15;25</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>60;25;15</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55;20;25</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>50;10;40</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>50;15;35</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55;10;35</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55;10;35</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>50;20;30</t>
+    <t>15;0;-15</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3208,19 +3172,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="79.5" customHeight="1">
@@ -3378,7 +3342,7 @@
         <v>11000001</v>
       </c>
       <c r="K4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L4">
         <v>31000001</v>
@@ -3419,7 +3383,7 @@
         <v>11000002</v>
       </c>
       <c r="K5" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L5">
         <v>31000002</v>
@@ -3460,7 +3424,7 @@
         <v>11000003</v>
       </c>
       <c r="K6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L6">
         <v>31000003</v>
@@ -3501,7 +3465,7 @@
         <v>11000004</v>
       </c>
       <c r="K7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="L7">
         <v>31000004</v>
@@ -3542,7 +3506,7 @@
         <v>11000005</v>
       </c>
       <c r="K8" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L8">
         <v>31000005</v>
@@ -3583,7 +3547,7 @@
         <v>11000006</v>
       </c>
       <c r="K9" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="L9">
         <v>31000006</v>
@@ -3624,7 +3588,7 @@
         <v>11000007</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="L10">
         <v>31000007</v>
@@ -3665,7 +3629,7 @@
         <v>11000008</v>
       </c>
       <c r="K11" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L11">
         <v>31000008</v>
@@ -3706,7 +3670,7 @@
         <v>11000009</v>
       </c>
       <c r="K12" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="L12">
         <v>31000009</v>
@@ -3747,7 +3711,7 @@
         <v>11000010</v>
       </c>
       <c r="K13" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L13">
         <v>31000010</v>
@@ -3775,13 +3739,13 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="12" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="12" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1">
@@ -5074,13 +5038,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="12" width="9.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="12" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65.25" customHeight="1">
@@ -6409,16 +6373,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="10" width="4.77734375" customWidth="1"/>
-    <col min="11" max="12" width="5.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="5.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="64.5" customHeight="1">
@@ -6658,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L6">
         <v>0</v>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,71 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Real</author>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Real:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
--30</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>到</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>+30</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表示调整</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="224">
   <si>
     <t>wuqi01</t>
   </si>
@@ -666,10 +603,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>AtkP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>生命</t>
   </si>
   <si>
@@ -677,10 +610,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>VitP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>木棍</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -701,14 +630,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>技能描述</t>
-  </si>
-  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>SpecialSkill</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>toukui16</t>
@@ -760,13 +682,61 @@
   </si>
   <si>
     <t>计数项:Id</t>
+  </si>
+  <si>
+    <t>AtkR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VitR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroSkillId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄技能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonSkillId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonSkillRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,26 +915,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -982,7 +932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,6 +1140,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1468,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1490,13 +1452,13 @@
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -1521,6 +1483,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,34 +1551,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -1633,6 +1589,67 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3174,23 +3191,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:L93" totalsRowShown="0">
-  <autoFilter ref="A3:L93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P93" totalsRowShown="0">
+  <autoFilter ref="A3:P93"/>
   <sortState ref="A4:L93">
     <sortCondition ref="A3:A93"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="16">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Quality" dataDxfId="0"/>
+    <tableColumn id="3" name="Quality" dataDxfId="7"/>
     <tableColumn id="4" name="Level"/>
     <tableColumn id="5" name="Position"/>
     <tableColumn id="19" name="Value"/>
-    <tableColumn id="11" name="AtkP"/>
-    <tableColumn id="8" name="VitP"/>
+    <tableColumn id="11" name="AtkR"/>
+    <tableColumn id="8" name="VitR"/>
+    <tableColumn id="6" name="Spd" dataDxfId="6"/>
+    <tableColumn id="12" name="Range" dataDxfId="5"/>
     <tableColumn id="9" name="EnergyRate"/>
     <tableColumn id="7" name="Durable"/>
-    <tableColumn id="20" name="SpecialSkill"/>
+    <tableColumn id="20" name="HeroSkillId"/>
+    <tableColumn id="13" name="CommonSkillId"/>
+    <tableColumn id="14" name="CommonSkillRate"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3483,11 +3504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3495,14 +3516,14 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="8" width="5.125" customWidth="1"/>
-    <col min="9" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="15" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" customHeight="1">
+    <row r="1" spans="1:16" ht="42.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>173</v>
       </c>
@@ -3525,22 +3546,34 @@
         <v>187</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>209</v>
+        <v>189</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3563,22 +3596,34 @@
         <v>188</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -3598,380 +3643,402 @@
         <v>184</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="19">
+        <v>21100101</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="J3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L4" s="22">
+        <v>10</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="19">
+        <v>21100102</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" s="22">
+        <v>10</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="19">
+        <v>21100103</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="22">
+        <v>10</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="19">
+        <v>21100104</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="22">
+        <v>10</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="19">
+        <v>21100105</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="22">
+        <v>10</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="19">
+        <v>21100106</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="22">
+        <v>10</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="19">
+        <v>21100107</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="22">
+        <v>10</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="19">
+        <v>21100108</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="22">
+        <v>10</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="19">
+        <v>21100109</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="L3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="7">
-        <v>21100101</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C12" s="20">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" s="22">
+        <v>10</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="19">
+        <v>21100110</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="7">
-        <v>21100102</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>50</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="7">
-        <v>21100103</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>50</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="7">
-        <v>21100104</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>50</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7">
-        <v>21100105</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="7">
-        <v>21100106</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="7">
-        <v>21100107</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>50</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="7">
-        <v>21100108</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>50</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="22">
+        <v>10</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7">
-        <v>21100109</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>50</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7">
-        <v>21100110</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
+    <row r="14" spans="1:16">
+      <c r="A14" s="18">
         <v>21200101</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3983,27 +4050,24 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
-        <v>21200311</v>
+        <v>21200111</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4018,27 +4082,24 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:16">
       <c r="A16">
-        <v>21200421</v>
+        <v>21200121</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4053,27 +4114,24 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:16">
       <c r="A17">
-        <v>21200501</v>
+        <v>21200201</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -4088,27 +4146,24 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="P17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:16">
       <c r="A18">
-        <v>21200711</v>
+        <v>21200211</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -4123,33 +4178,30 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:16">
       <c r="A19">
-        <v>21200721</v>
+        <v>21200212</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4158,33 +4210,30 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
-        <v>21200811</v>
+        <v>21200221</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4193,27 +4242,24 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
-        <v>21201001</v>
+        <v>21200301</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>13</v>
@@ -4227,28 +4273,25 @@
       <c r="E21" s="17">
         <v>2</v>
       </c>
-      <c r="F21" s="17">
-        <v>350</v>
+      <c r="F21">
+        <v>35</v>
       </c>
       <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="L21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="P21" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:16">
       <c r="A22">
-        <v>21201011</v>
+        <v>21200311</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>15</v>
@@ -4262,31 +4305,34 @@
       <c r="E22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="17">
-        <v>420</v>
+      <c r="F22">
+        <v>42</v>
       </c>
       <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>198</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="L22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>55510009</v>
+      </c>
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:16">
       <c r="A23">
-        <v>21201211</v>
+        <v>21200312</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4297,31 +4343,31 @@
       <c r="E23" s="17">
         <v>2</v>
       </c>
-      <c r="F23" s="17">
-        <v>420</v>
+      <c r="F23">
+        <v>42</v>
       </c>
       <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>10</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
-        <v>21201212</v>
+        <v>21200313</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4332,28 +4378,25 @@
       <c r="E24" s="17">
         <v>2</v>
       </c>
-      <c r="F24" s="17">
-        <v>420</v>
+      <c r="F24">
+        <v>42</v>
       </c>
       <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
-        <v>21201411</v>
+        <v>21200314</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>23</v>
@@ -4367,28 +4410,25 @@
       <c r="E25" s="17">
         <v>2</v>
       </c>
-      <c r="F25" s="17">
-        <v>500</v>
+      <c r="F25">
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="L25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="P25" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:16">
       <c r="A26">
-        <v>21201421</v>
+        <v>21200321</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -4402,28 +4442,25 @@
       <c r="E26" s="17">
         <v>2</v>
       </c>
-      <c r="F26" s="17">
-        <v>525</v>
+      <c r="F26">
+        <v>52</v>
       </c>
       <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
-      <c r="L26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="P26" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:16">
       <c r="A27">
-        <v>21201501</v>
+        <v>21200401</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>25</v>
@@ -4437,34 +4474,31 @@
       <c r="E27" s="17">
         <v>2</v>
       </c>
-      <c r="F27" s="17">
-        <v>600</v>
+      <c r="F27">
+        <v>60</v>
       </c>
       <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>198</v>
-      </c>
-      <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="L27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="P27" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:16">
       <c r="A28">
-        <v>21201521</v>
+        <v>21200411</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="17">
         <v>4</v>
@@ -4472,31 +4506,28 @@
       <c r="E28" s="17">
         <v>2</v>
       </c>
-      <c r="F28" s="17">
-        <v>900</v>
+      <c r="F28">
+        <v>72</v>
       </c>
       <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>198</v>
-      </c>
-      <c r="J28">
-        <v>10</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
-        <v>21201711</v>
+        <v>21200412</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -4507,34 +4538,31 @@
       <c r="E29" s="17">
         <v>2</v>
       </c>
-      <c r="F29" s="17">
-        <v>720</v>
+      <c r="F29">
+        <v>72</v>
       </c>
       <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>198</v>
-      </c>
-      <c r="J29">
-        <v>10</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
-        <v>21201811</v>
+        <v>21200421</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="17">
         <v>4</v>
@@ -4542,28 +4570,28 @@
       <c r="E30" s="17">
         <v>2</v>
       </c>
-      <c r="F30" s="17">
-        <v>720</v>
+      <c r="F30">
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>198</v>
-      </c>
-      <c r="J30">
-        <v>10</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
-        <v>21201831</v>
+        <v>21200431</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>33</v>
@@ -4577,28 +4605,25 @@
       <c r="E31" s="17">
         <v>2</v>
       </c>
-      <c r="F31" s="17">
-        <v>1200</v>
+      <c r="F31">
+        <v>120</v>
       </c>
       <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="L31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="P31" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:16">
       <c r="A32">
-        <v>21202001</v>
+        <v>21200501</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>35</v>
@@ -4612,34 +4637,31 @@
       <c r="E32" s="11">
         <v>2</v>
       </c>
-      <c r="F32" s="11">
-        <v>900</v>
+      <c r="F32">
+        <v>90</v>
       </c>
       <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>196</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>21200502</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1">
         <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J32">
-        <v>10</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>21202111</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -4647,34 +4669,31 @@
       <c r="E33" s="11">
         <v>2</v>
       </c>
-      <c r="F33" s="11">
-        <v>1080</v>
+      <c r="F33">
+        <v>125</v>
       </c>
       <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>198</v>
-      </c>
-      <c r="J33">
-        <v>10</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
-        <v>21202221</v>
+        <v>21200511</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="11">
         <v>5</v>
@@ -4682,28 +4701,25 @@
       <c r="E34" s="11">
         <v>2</v>
       </c>
-      <c r="F34" s="11">
-        <v>1350</v>
+      <c r="F34">
+        <v>108</v>
       </c>
       <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>196</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
-        <v>21202311</v>
+        <v>21200512</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>41</v>
@@ -4717,34 +4733,31 @@
       <c r="E35" s="11">
         <v>2</v>
       </c>
-      <c r="F35" s="11">
-        <v>1080</v>
+      <c r="F35">
+        <v>108</v>
       </c>
       <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>198</v>
-      </c>
-      <c r="J35">
-        <v>10</v>
-      </c>
-      <c r="L35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="P35" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:16">
       <c r="A36">
-        <v>21202431</v>
+        <v>21200513</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="11">
         <v>5</v>
@@ -4752,34 +4765,31 @@
       <c r="E36" s="11">
         <v>2</v>
       </c>
-      <c r="F36" s="11">
-        <v>1800</v>
+      <c r="F36">
+        <v>150</v>
       </c>
       <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
-        <v>21202501</v>
+        <v>21200514</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="11">
         <v>5</v>
@@ -4787,34 +4797,31 @@
       <c r="E37" s="11">
         <v>2</v>
       </c>
-      <c r="F37" s="11">
-        <v>1250</v>
+      <c r="F37">
+        <v>150</v>
       </c>
       <c r="G37">
-        <v>100</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>198</v>
-      </c>
-      <c r="J37">
-        <v>10</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
-        <v>21202611</v>
+        <v>21200521</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="11">
         <v>5</v>
@@ -4822,34 +4829,31 @@
       <c r="E38" s="11">
         <v>2</v>
       </c>
-      <c r="F38" s="11">
-        <v>1500</v>
+      <c r="F38">
+        <v>135</v>
       </c>
       <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>198</v>
-      </c>
-      <c r="J38">
-        <v>10</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
-        <v>21202811</v>
+        <v>21200522</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="11">
         <v>5</v>
@@ -4857,34 +4861,31 @@
       <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="11">
-        <v>1500</v>
+      <c r="F39">
+        <v>180</v>
       </c>
       <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>198</v>
-      </c>
-      <c r="J39">
-        <v>10</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
-        <v>21202821</v>
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="17">
+        <v>21200523</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="11">
         <v>5</v>
@@ -4892,31 +4893,30 @@
       <c r="E40" s="11">
         <v>2</v>
       </c>
-      <c r="F40" s="11">
-        <v>1875</v>
+      <c r="F40">
+        <v>250</v>
       </c>
       <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>198</v>
-      </c>
-      <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" t="s">
+        <v>196</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="10">
-        <v>21202921</v>
+        <v>21200531</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -4927,1041 +4927,1127 @@
       <c r="E41" s="11">
         <v>2</v>
       </c>
-      <c r="F41" s="11">
-        <v>2500</v>
+      <c r="F41">
+        <v>180</v>
       </c>
       <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" t="s">
+        <v>196</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="18">
+        <v>21300101</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20">
+        <v>3</v>
+      </c>
+      <c r="F42" s="22">
+        <v>10</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22">
+        <v>5</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L42" s="22">
+        <v>10</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="22">
+        <v>21300111</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="20">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1</v>
+      </c>
+      <c r="E43" s="20">
+        <v>3</v>
+      </c>
+      <c r="F43" s="22">
+        <v>12</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22">
+        <v>5</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" s="22">
+        <v>10</v>
+      </c>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="22">
+        <v>21300121</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="20">
+        <v>2</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1</v>
+      </c>
+      <c r="E44" s="20">
+        <v>3</v>
+      </c>
+      <c r="F44" s="22">
+        <v>15</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22">
+        <v>5</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L44" s="22">
+        <v>10</v>
+      </c>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="22">
+        <v>21300201</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0</v>
+      </c>
+      <c r="D45" s="24">
+        <v>2</v>
+      </c>
+      <c r="E45" s="20">
+        <v>3</v>
+      </c>
+      <c r="F45" s="22">
+        <v>20</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22">
+        <v>10</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L45" s="22">
+        <v>10</v>
+      </c>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="22">
+        <v>21300211</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="20">
+        <v>1</v>
+      </c>
+      <c r="D46" s="24">
+        <v>2</v>
+      </c>
+      <c r="E46" s="20">
+        <v>3</v>
+      </c>
+      <c r="F46" s="22">
+        <v>24</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22">
+        <v>10</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L46" s="22">
+        <v>10</v>
+      </c>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="22">
+        <v>21300212</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" s="24">
+        <v>2</v>
+      </c>
+      <c r="E47" s="20">
+        <v>3</v>
+      </c>
+      <c r="F47" s="22">
+        <v>24</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22">
+        <v>10</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L47" s="22">
+        <v>10</v>
+      </c>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="22">
+        <v>21300213</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+      <c r="D48" s="24">
+        <v>2</v>
+      </c>
+      <c r="E48" s="20">
+        <v>3</v>
+      </c>
+      <c r="F48" s="22">
+        <v>24</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22">
+        <v>10</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" s="22">
+        <v>10</v>
+      </c>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="22">
+        <v>21300221</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="20">
+        <v>2</v>
+      </c>
+      <c r="D49" s="24">
+        <v>2</v>
+      </c>
+      <c r="E49" s="20">
+        <v>3</v>
+      </c>
+      <c r="F49" s="22">
+        <v>30</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22">
+        <v>10</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="22">
+        <v>10</v>
+      </c>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="22">
+        <v>21300301</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+      <c r="D50" s="24">
+        <v>3</v>
+      </c>
+      <c r="E50" s="20">
+        <v>3</v>
+      </c>
+      <c r="F50" s="22">
+        <v>35</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22">
+        <v>15</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" s="22">
+        <v>10</v>
+      </c>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="22">
+        <v>21300311</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1</v>
+      </c>
+      <c r="D51" s="24">
+        <v>3</v>
+      </c>
+      <c r="E51" s="20">
+        <v>3</v>
+      </c>
+      <c r="F51" s="22">
+        <v>42</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22">
+        <v>15</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L51" s="22">
+        <v>10</v>
+      </c>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="22">
+        <v>21300312</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+      <c r="D52" s="24">
+        <v>3</v>
+      </c>
+      <c r="E52" s="20">
+        <v>3</v>
+      </c>
+      <c r="F52" s="22">
+        <v>50</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22">
+        <v>15</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L52" s="22">
+        <v>10</v>
+      </c>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="22">
+        <v>21300313</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="20">
+        <v>1</v>
+      </c>
+      <c r="D53" s="24">
+        <v>3</v>
+      </c>
+      <c r="E53" s="20">
+        <v>3</v>
+      </c>
+      <c r="F53" s="22">
+        <v>42</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22">
+        <v>15</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L53" s="22">
+        <v>10</v>
+      </c>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="22">
+        <v>21300314</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1</v>
+      </c>
+      <c r="D54" s="24">
+        <v>3</v>
+      </c>
+      <c r="E54" s="20">
+        <v>3</v>
+      </c>
+      <c r="F54" s="22">
+        <v>42</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22">
+        <v>15</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L54" s="22">
+        <v>10</v>
+      </c>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="22">
+        <v>21300321</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="20">
+        <v>2</v>
+      </c>
+      <c r="D55" s="24">
+        <v>3</v>
+      </c>
+      <c r="E55" s="20">
+        <v>3</v>
+      </c>
+      <c r="F55" s="22">
+        <v>52</v>
+      </c>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22">
+        <v>15</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L55" s="22">
+        <v>10</v>
+      </c>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="22">
+        <v>21300401</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="20">
+        <v>0</v>
+      </c>
+      <c r="D56" s="24">
+        <v>4</v>
+      </c>
+      <c r="E56" s="20">
+        <v>3</v>
+      </c>
+      <c r="F56" s="22">
+        <v>60</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22">
+        <v>20</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L56" s="22">
+        <v>10</v>
+      </c>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="22">
+        <v>21300411</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="20">
+        <v>1</v>
+      </c>
+      <c r="D57" s="24">
+        <v>4</v>
+      </c>
+      <c r="E57" s="20">
+        <v>3</v>
+      </c>
+      <c r="F57" s="22">
+        <v>72</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22">
+        <v>20</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L57" s="22">
+        <v>10</v>
+      </c>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="22">
+        <v>21300412</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+      <c r="D58" s="24">
+        <v>4</v>
+      </c>
+      <c r="E58" s="20">
+        <v>3</v>
+      </c>
+      <c r="F58" s="22">
+        <v>72</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22">
+        <v>20</v>
+      </c>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L58" s="22">
+        <v>10</v>
+      </c>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="22">
+        <v>21300421</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="20">
+        <v>2</v>
+      </c>
+      <c r="D59" s="24">
+        <v>4</v>
+      </c>
+      <c r="E59" s="20">
+        <v>3</v>
+      </c>
+      <c r="F59" s="22">
+        <v>90</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22">
+        <v>20</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L59" s="22">
+        <v>10</v>
+      </c>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="22">
+        <v>21300431</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="20">
+        <v>3</v>
+      </c>
+      <c r="D60" s="24">
+        <v>4</v>
+      </c>
+      <c r="E60" s="20">
+        <v>3</v>
+      </c>
+      <c r="F60" s="22">
+        <v>120</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22">
+        <v>20</v>
+      </c>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L60" s="22">
+        <v>10</v>
+      </c>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="22">
+        <v>21300501</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0</v>
+      </c>
+      <c r="D61" s="24">
+        <v>5</v>
+      </c>
+      <c r="E61" s="20">
+        <v>3</v>
+      </c>
+      <c r="F61" s="22">
+        <v>90</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22">
+        <v>25</v>
+      </c>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L61" s="22">
+        <v>10</v>
+      </c>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="22">
+        <v>21300502</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="24">
+        <v>5</v>
+      </c>
+      <c r="E62" s="20">
+        <v>3</v>
+      </c>
+      <c r="F62" s="22">
+        <v>125</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22">
+        <v>25</v>
+      </c>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L62" s="22">
+        <v>10</v>
+      </c>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="22">
+        <v>21300511</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+      <c r="D63" s="24">
+        <v>5</v>
+      </c>
+      <c r="E63" s="20">
+        <v>3</v>
+      </c>
+      <c r="F63" s="22">
+        <v>108</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22">
+        <v>25</v>
+      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L63" s="22">
+        <v>10</v>
+      </c>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="22">
+        <v>21300512</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="20">
+        <v>1</v>
+      </c>
+      <c r="D64" s="24">
+        <v>5</v>
+      </c>
+      <c r="E64" s="20">
+        <v>3</v>
+      </c>
+      <c r="F64" s="22">
+        <v>108</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22">
+        <v>25</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L64" s="22">
+        <v>10</v>
+      </c>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="22">
+        <v>21300513</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="20">
+        <v>1</v>
+      </c>
+      <c r="D65" s="24">
+        <v>5</v>
+      </c>
+      <c r="E65" s="20">
+        <v>3</v>
+      </c>
+      <c r="F65" s="22">
+        <v>150</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22">
+        <v>25</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L65" s="22">
+        <v>10</v>
+      </c>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="22">
+        <v>21300514</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1</v>
+      </c>
+      <c r="D66" s="24">
+        <v>5</v>
+      </c>
+      <c r="E66" s="20">
+        <v>3</v>
+      </c>
+      <c r="F66" s="22">
+        <v>150</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22">
+        <v>25</v>
+      </c>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L66" s="22">
+        <v>10</v>
+      </c>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="22">
+        <v>21300521</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="20">
+        <v>2</v>
+      </c>
+      <c r="D67" s="24">
+        <v>5</v>
+      </c>
+      <c r="E67" s="20">
+        <v>3</v>
+      </c>
+      <c r="F67" s="22">
+        <v>135</v>
+      </c>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22">
+        <v>25</v>
+      </c>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L67" s="22">
+        <v>10</v>
+      </c>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41">
-        <v>10</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
-        <v>21300101</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="22">
+        <v>21300522</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="20">
+        <v>2</v>
+      </c>
+      <c r="D68" s="24">
+        <v>5</v>
+      </c>
+      <c r="E68" s="20">
         <v>3</v>
       </c>
-      <c r="F42" s="1">
-        <v>100</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>100</v>
-      </c>
-      <c r="I42" t="s">
-        <v>198</v>
-      </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
-        <v>21300311</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="F68" s="22">
+        <v>180</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22">
+        <v>25</v>
+      </c>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L68" s="22">
+        <v>10</v>
+      </c>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="22">
+        <v>21300531</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="20">
         <v>3</v>
       </c>
-      <c r="F43" s="1">
-        <v>120</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>100</v>
-      </c>
-      <c r="I43" t="s">
-        <v>198</v>
-      </c>
-      <c r="J43">
-        <v>10</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44">
-        <v>21300421</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D69" s="24">
+        <v>5</v>
+      </c>
+      <c r="E69" s="20">
         <v>3</v>
       </c>
-      <c r="F44" s="1">
-        <v>150</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>100</v>
-      </c>
-      <c r="I44" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44">
-        <v>10</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
-        <v>21300501</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="11">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="F69" s="22">
+        <v>180</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22">
+        <v>25</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L69" s="22">
+        <v>10</v>
+      </c>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="22">
+        <v>21300532</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="20">
         <v>3</v>
       </c>
-      <c r="F45" s="1">
-        <v>200</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>100</v>
-      </c>
-      <c r="I45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45">
-        <v>10</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46">
-        <v>21300611</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="11">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D70" s="24">
+        <v>5</v>
+      </c>
+      <c r="E70" s="20">
         <v>3</v>
       </c>
-      <c r="F46" s="1">
-        <v>240</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-      <c r="H46" s="7">
-        <v>100</v>
-      </c>
-      <c r="I46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J46">
-        <v>10</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
-        <v>21300612</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="11">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3</v>
-      </c>
-      <c r="F47" s="1">
-        <v>240</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="7">
-        <v>100</v>
-      </c>
-      <c r="I47" t="s">
-        <v>198</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48">
-        <v>21300721</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2</v>
-      </c>
-      <c r="D48" s="11">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>300</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
-        <v>100</v>
-      </c>
-      <c r="I48" t="s">
-        <v>198</v>
-      </c>
-      <c r="J48">
-        <v>10</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49">
-        <v>21300811</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="11">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1">
-        <v>240</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
-        <v>100</v>
-      </c>
-      <c r="I49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49">
-        <v>10</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
-        <v>21301001</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="11">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1">
-        <v>350</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
-        <v>100</v>
-      </c>
-      <c r="I50" t="s">
-        <v>198</v>
-      </c>
-      <c r="J50">
-        <v>10</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51">
-        <v>21301011</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3</v>
-      </c>
-      <c r="F51" s="1">
-        <v>420</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <v>100</v>
-      </c>
-      <c r="I51" t="s">
-        <v>198</v>
-      </c>
-      <c r="J51">
-        <v>10</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52">
-        <v>21301111</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="11">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>3</v>
-      </c>
-      <c r="F52" s="1">
-        <v>500</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="7">
-        <v>100</v>
-      </c>
-      <c r="I52" t="s">
-        <v>198</v>
-      </c>
-      <c r="J52">
-        <v>10</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53">
-        <v>21301211</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="11">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1">
-        <v>420</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7">
-        <v>100</v>
-      </c>
-      <c r="I53" t="s">
-        <v>198</v>
-      </c>
-      <c r="J53">
-        <v>10</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54">
-        <v>21301311</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="11">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1">
-        <v>420</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>100</v>
-      </c>
-      <c r="I54" t="s">
-        <v>198</v>
-      </c>
-      <c r="J54">
-        <v>10</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55">
-        <v>21301421</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-      <c r="D55" s="11">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>3</v>
-      </c>
-      <c r="F55" s="1">
-        <v>525</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>100</v>
-      </c>
-      <c r="I55" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55">
-        <v>10</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56">
-        <v>21301501</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="11">
-        <v>4</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1">
-        <v>600</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
-        <v>100</v>
-      </c>
-      <c r="I56" t="s">
-        <v>198</v>
-      </c>
-      <c r="J56">
-        <v>10</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
-        <v>21301711</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="11">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1">
-        <v>3</v>
-      </c>
-      <c r="F57" s="1">
-        <v>720</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="7">
-        <v>100</v>
-      </c>
-      <c r="I57" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57">
-        <v>10</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58">
-        <v>21301821</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="11">
-        <v>4</v>
-      </c>
-      <c r="E58" s="1">
-        <v>3</v>
-      </c>
-      <c r="F58" s="1">
-        <v>900</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
-      <c r="H58" s="7">
-        <v>100</v>
-      </c>
-      <c r="I58" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58">
-        <v>10</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59">
-        <v>21301911</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="11">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1">
-        <v>3</v>
-      </c>
-      <c r="F59" s="1">
-        <v>720</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="7">
-        <v>100</v>
-      </c>
-      <c r="I59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J59">
-        <v>10</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60">
-        <v>21301931</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60" s="11">
-        <v>4</v>
-      </c>
-      <c r="E60" s="1">
-        <v>3</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7">
-        <v>100</v>
-      </c>
-      <c r="I60" t="s">
-        <v>198</v>
-      </c>
-      <c r="J60">
-        <v>10</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61">
-        <v>21302001</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="11">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1">
-        <v>900</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="7">
-        <v>100</v>
-      </c>
-      <c r="I61" t="s">
-        <v>198</v>
-      </c>
-      <c r="J61">
-        <v>10</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62">
-        <v>21302111</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="11">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <v>3</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G62" s="7">
-        <v>0</v>
-      </c>
-      <c r="H62" s="7">
-        <v>100</v>
-      </c>
-      <c r="I62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J62">
-        <v>10</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63">
-        <v>21302211</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="11">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="7">
-        <v>100</v>
-      </c>
-      <c r="I63" t="s">
-        <v>198</v>
-      </c>
-      <c r="J63">
-        <v>10</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64">
-        <v>21302221</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2</v>
-      </c>
-      <c r="D64" s="11">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1">
-        <v>3</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1350</v>
-      </c>
-      <c r="G64" s="7">
-        <v>0</v>
-      </c>
-      <c r="H64" s="7">
-        <v>100</v>
-      </c>
-      <c r="I64" t="s">
-        <v>198</v>
-      </c>
-      <c r="J64">
-        <v>10</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65">
-        <v>21302431</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="1">
-        <v>3</v>
-      </c>
-      <c r="D65" s="11">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7">
-        <v>100</v>
-      </c>
-      <c r="I65" t="s">
-        <v>198</v>
-      </c>
-      <c r="J65">
-        <v>10</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66">
-        <v>21302501</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
-      <c r="H66" s="7">
-        <v>100</v>
-      </c>
-      <c r="I66" t="s">
-        <v>198</v>
-      </c>
-      <c r="J66">
-        <v>10</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67">
-        <v>21302611</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="11">
-        <v>5</v>
-      </c>
-      <c r="E67" s="1">
-        <v>3</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
-      <c r="H67" s="7">
-        <v>100</v>
-      </c>
-      <c r="I67" t="s">
-        <v>198</v>
-      </c>
-      <c r="J67">
-        <v>10</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68">
-        <v>21302621</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="11">
-        <v>5</v>
-      </c>
-      <c r="E68" s="1">
-        <v>3</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1875</v>
-      </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
-        <v>100</v>
-      </c>
-      <c r="I68" t="s">
-        <v>198</v>
-      </c>
-      <c r="J68">
-        <v>10</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69">
-        <v>21302811</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="11">
-        <v>5</v>
-      </c>
-      <c r="E69" s="1">
-        <v>3</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
-      <c r="H69" s="7">
-        <v>100</v>
-      </c>
-      <c r="I69" t="s">
-        <v>198</v>
-      </c>
-      <c r="J69">
-        <v>10</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70">
-        <v>21302931</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="1">
-        <v>3</v>
-      </c>
-      <c r="D70" s="11">
-        <v>5</v>
-      </c>
-      <c r="E70" s="1">
-        <v>3</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
-        <v>100</v>
-      </c>
-      <c r="I70" t="s">
-        <v>198</v>
-      </c>
-      <c r="J70">
-        <v>10</v>
-      </c>
-      <c r="L70" s="2" t="s">
+      <c r="F70" s="22">
+        <v>250</v>
+      </c>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22">
+        <v>25</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L70" s="22">
+        <v>10</v>
+      </c>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>21400101</v>
       </c>
@@ -5977,28 +6063,26 @@
       <c r="E71" s="1">
         <v>4</v>
       </c>
-      <c r="F71" s="1">
-        <v>100</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
-      <c r="H71" s="7">
-        <v>30</v>
-      </c>
-      <c r="I71" t="s">
-        <v>198</v>
-      </c>
-      <c r="J71">
-        <v>10</v>
-      </c>
-      <c r="L71" s="2" t="s">
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" t="s">
+        <v>196</v>
+      </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
+      <c r="P71" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:16">
       <c r="A72">
-        <v>21400501</v>
+        <v>21400201</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>146</v>
@@ -6012,28 +6096,26 @@
       <c r="E72" s="1">
         <v>4</v>
       </c>
-      <c r="F72" s="1">
-        <v>200</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
-        <v>30</v>
-      </c>
-      <c r="I72" t="s">
-        <v>198</v>
-      </c>
-      <c r="J72">
-        <v>10</v>
-      </c>
-      <c r="L72" s="2" t="s">
+      <c r="F72">
+        <v>20</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" t="s">
+        <v>196</v>
+      </c>
+      <c r="L72">
+        <v>10</v>
+      </c>
+      <c r="P72" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:16">
       <c r="A73">
-        <v>21400691</v>
+        <v>21400211</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>148</v>
@@ -6047,28 +6129,26 @@
       <c r="E73" s="1">
         <v>4</v>
       </c>
-      <c r="F73" s="1">
-        <v>240</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
-      <c r="H73" s="7">
-        <v>30</v>
-      </c>
-      <c r="I73" t="s">
-        <v>208</v>
-      </c>
-      <c r="J73">
-        <v>10</v>
-      </c>
-      <c r="L73" s="2" t="s">
+      <c r="F73">
+        <v>24</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" t="s">
+        <v>204</v>
+      </c>
+      <c r="L73">
+        <v>10</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:16">
       <c r="A74">
-        <v>21401001</v>
+        <v>21400301</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>128</v>
@@ -6082,28 +6162,26 @@
       <c r="E74" s="1">
         <v>4</v>
       </c>
-      <c r="F74" s="1">
-        <v>350</v>
-      </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="7">
-        <v>30</v>
-      </c>
-      <c r="I74" t="s">
-        <v>197</v>
-      </c>
-      <c r="J74">
-        <v>10</v>
-      </c>
-      <c r="L74" s="2" t="s">
+      <c r="F74">
+        <v>35</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" t="s">
+        <v>195</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:16">
       <c r="A75">
-        <v>21401002</v>
+        <v>21400302</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>152</v>
@@ -6117,28 +6195,26 @@
       <c r="E75" s="1">
         <v>4</v>
       </c>
-      <c r="F75" s="1">
-        <v>350</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
-      <c r="H75" s="7">
-        <v>30</v>
-      </c>
-      <c r="I75" t="s">
-        <v>197</v>
-      </c>
-      <c r="J75">
-        <v>10</v>
-      </c>
-      <c r="L75" s="2" t="s">
+      <c r="F75">
+        <v>35</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" t="s">
+        <v>195</v>
+      </c>
+      <c r="L75">
+        <v>10</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:16">
       <c r="A76">
-        <v>21401003</v>
+        <v>21400303</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>150</v>
@@ -6152,28 +6228,26 @@
       <c r="E76" s="1">
         <v>4</v>
       </c>
-      <c r="F76" s="1">
-        <v>350</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
-      <c r="H76" s="7">
-        <v>30</v>
-      </c>
-      <c r="I76" t="s">
-        <v>197</v>
-      </c>
-      <c r="J76">
-        <v>10</v>
-      </c>
-      <c r="L76" s="2" t="s">
+      <c r="F76">
+        <v>35</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" t="s">
+        <v>195</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="P76" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:16">
       <c r="A77">
-        <v>21401011</v>
+        <v>21400311</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>154</v>
@@ -6187,101 +6261,95 @@
       <c r="E77" s="1">
         <v>4</v>
       </c>
-      <c r="F77" s="1">
-        <v>420</v>
-      </c>
-      <c r="G77" s="7">
+      <c r="F77">
+        <v>42</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" t="s">
+        <v>195</v>
+      </c>
+      <c r="L77">
+        <v>10</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>21400401</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="1">
         <v>0</v>
       </c>
-      <c r="H77" s="7">
-        <v>30</v>
-      </c>
-      <c r="I77" t="s">
-        <v>197</v>
-      </c>
-      <c r="J77">
-        <v>10</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="17">
-        <v>21401111</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
       <c r="D78" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" s="1">
         <v>4</v>
       </c>
-      <c r="F78" s="1">
-        <v>500</v>
-      </c>
-      <c r="G78" s="7">
+      <c r="F78">
+        <v>60</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" t="s">
+        <v>195</v>
+      </c>
+      <c r="L78">
+        <v>10</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>21400402</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="1">
         <v>0</v>
       </c>
-      <c r="H78" s="7">
-        <v>30</v>
-      </c>
-      <c r="I78" t="s">
-        <v>197</v>
-      </c>
-      <c r="J78">
-        <v>10</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79">
-        <v>21401311</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
       <c r="D79" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
       </c>
-      <c r="F79" s="1">
-        <v>400</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0</v>
-      </c>
-      <c r="H79" s="7">
-        <v>30</v>
-      </c>
-      <c r="I79" t="s">
-        <v>197</v>
-      </c>
-      <c r="J79">
-        <v>10</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="F79">
+        <v>60</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" t="s">
+        <v>195</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
-        <v>21401501</v>
+        <v>21400403</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -6292,98 +6360,92 @@
       <c r="E80" s="1">
         <v>4</v>
       </c>
-      <c r="F80" s="1">
-        <v>600</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80" s="7">
-        <v>30</v>
-      </c>
-      <c r="I80" t="s">
-        <v>197</v>
-      </c>
-      <c r="J80">
-        <v>10</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81">
-        <v>21401502</v>
+      <c r="F80">
+        <v>60</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" t="s">
+        <v>195</v>
+      </c>
+      <c r="L80">
+        <v>10</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="17">
+        <v>21400411</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
       </c>
-      <c r="F81" s="1">
-        <v>600</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="7">
-        <v>30</v>
-      </c>
-      <c r="I81" t="s">
-        <v>197</v>
-      </c>
-      <c r="J81">
-        <v>10</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" t="s">
+        <v>195</v>
+      </c>
+      <c r="L81">
+        <v>10</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82">
-        <v>21401503</v>
+        <v>21400412</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
       </c>
-      <c r="F82" s="1">
-        <v>600</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
-      <c r="H82" s="7">
-        <v>30</v>
-      </c>
-      <c r="I82" t="s">
-        <v>197</v>
-      </c>
-      <c r="J82">
-        <v>10</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="F82">
+        <v>40</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83">
-        <v>21401511</v>
+        <v>21400413</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>134</v>
@@ -6397,31 +6459,29 @@
       <c r="E83" s="1">
         <v>4</v>
       </c>
-      <c r="F83" s="1">
-        <v>720</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>30</v>
-      </c>
-      <c r="I83" t="s">
-        <v>197</v>
-      </c>
-      <c r="J83">
-        <v>10</v>
-      </c>
-      <c r="L83" s="2" t="s">
+      <c r="F83">
+        <v>72</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" t="s">
+        <v>195</v>
+      </c>
+      <c r="L83">
+        <v>10</v>
+      </c>
+      <c r="P83" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:16">
       <c r="A84">
-        <v>21401512</v>
+        <v>21400414</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -6432,31 +6492,29 @@
       <c r="E84" s="1">
         <v>4</v>
       </c>
-      <c r="F84" s="1">
-        <v>720</v>
-      </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
-      <c r="H84" s="7">
-        <v>30</v>
-      </c>
-      <c r="I84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J84">
-        <v>10</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="F84">
+        <v>72</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" t="s">
+        <v>195</v>
+      </c>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85">
-        <v>21401513</v>
+        <v>21400415</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -6467,31 +6525,29 @@
       <c r="E85" s="1">
         <v>4</v>
       </c>
-      <c r="F85" s="1">
-        <v>720</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="7">
-        <v>30</v>
-      </c>
-      <c r="I85" t="s">
-        <v>197</v>
-      </c>
-      <c r="J85">
-        <v>10</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="F85">
+        <v>72</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" t="s">
+        <v>195</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86">
-        <v>21401514</v>
+        <v>21400416</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -6502,31 +6558,29 @@
       <c r="E86" s="1">
         <v>4</v>
       </c>
-      <c r="F86" s="1">
-        <v>720</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
-      <c r="H86" s="7">
-        <v>30</v>
-      </c>
-      <c r="I86" t="s">
-        <v>197</v>
-      </c>
-      <c r="J86">
-        <v>10</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="F86">
+        <v>72</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" t="s">
+        <v>195</v>
+      </c>
+      <c r="L86">
+        <v>10</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87">
-        <v>21401711</v>
+        <v>21400417</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -6537,28 +6591,26 @@
       <c r="E87" s="1">
         <v>4</v>
       </c>
-      <c r="F87" s="1">
-        <v>720</v>
-      </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
-      <c r="H87" s="7">
-        <v>30</v>
-      </c>
-      <c r="I87" t="s">
-        <v>197</v>
-      </c>
-      <c r="J87">
-        <v>10</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="F87">
+        <v>72</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" t="s">
+        <v>195</v>
+      </c>
+      <c r="L87">
+        <v>10</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88">
-        <v>21402001</v>
+        <v>21400501</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>142</v>
@@ -6572,28 +6624,26 @@
       <c r="E88" s="1">
         <v>4</v>
       </c>
-      <c r="F88" s="1">
-        <v>900</v>
-      </c>
-      <c r="G88" s="7">
-        <v>0</v>
-      </c>
-      <c r="H88" s="7">
-        <v>30</v>
-      </c>
-      <c r="I88" t="s">
-        <v>197</v>
-      </c>
-      <c r="J88">
-        <v>10</v>
-      </c>
-      <c r="L88" s="2" t="s">
+      <c r="F88">
+        <v>90</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" t="s">
+        <v>195</v>
+      </c>
+      <c r="L88">
+        <v>10</v>
+      </c>
+      <c r="P88" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:16">
       <c r="A89">
-        <v>21402002</v>
+        <v>21400502</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>166</v>
@@ -6607,28 +6657,26 @@
       <c r="E89" s="1">
         <v>4</v>
       </c>
-      <c r="F89" s="1">
-        <v>900</v>
-      </c>
-      <c r="G89" s="7">
-        <v>0</v>
-      </c>
-      <c r="H89" s="7">
-        <v>30</v>
-      </c>
-      <c r="I89" t="s">
-        <v>197</v>
-      </c>
-      <c r="J89">
-        <v>10</v>
-      </c>
-      <c r="L89" s="2" t="s">
+      <c r="F89">
+        <v>90</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" t="s">
+        <v>195</v>
+      </c>
+      <c r="L89">
+        <v>10</v>
+      </c>
+      <c r="P89" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:16">
       <c r="A90">
-        <v>21402003</v>
+        <v>21400503</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>164</v>
@@ -6642,28 +6690,26 @@
       <c r="E90" s="1">
         <v>4</v>
       </c>
-      <c r="F90" s="1">
-        <v>900</v>
-      </c>
-      <c r="G90" s="7">
-        <v>0</v>
-      </c>
-      <c r="H90" s="7">
-        <v>30</v>
-      </c>
-      <c r="I90" t="s">
-        <v>197</v>
-      </c>
-      <c r="J90">
-        <v>10</v>
-      </c>
-      <c r="L90" s="2" t="s">
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" t="s">
+        <v>195</v>
+      </c>
+      <c r="L90">
+        <v>10</v>
+      </c>
+      <c r="P90" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:16">
       <c r="A91">
-        <v>21402501</v>
+        <v>21400504</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>144</v>
@@ -6677,28 +6723,26 @@
       <c r="E91" s="1">
         <v>4</v>
       </c>
-      <c r="F91" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G91" s="7">
-        <v>0</v>
-      </c>
-      <c r="H91" s="7">
-        <v>30</v>
-      </c>
-      <c r="I91" t="s">
-        <v>197</v>
-      </c>
-      <c r="J91">
-        <v>10</v>
-      </c>
-      <c r="L91" s="2" t="s">
+      <c r="F91">
+        <v>125</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" t="s">
+        <v>195</v>
+      </c>
+      <c r="L91">
+        <v>10</v>
+      </c>
+      <c r="P91" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:16">
       <c r="A92">
-        <v>21402502</v>
+        <v>21400505</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>170</v>
@@ -6712,28 +6756,26 @@
       <c r="E92" s="1">
         <v>4</v>
       </c>
-      <c r="F92" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G92" s="7">
-        <v>0</v>
-      </c>
-      <c r="H92" s="7">
-        <v>30</v>
-      </c>
-      <c r="I92" t="s">
-        <v>197</v>
-      </c>
-      <c r="J92">
-        <v>10</v>
-      </c>
-      <c r="L92" s="2" t="s">
+      <c r="F92">
+        <v>125</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" t="s">
+        <v>195</v>
+      </c>
+      <c r="L92">
+        <v>10</v>
+      </c>
+      <c r="P92" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:16">
       <c r="A93">
-        <v>21402503</v>
+        <v>21400506</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>168</v>
@@ -6747,49 +6789,46 @@
       <c r="E93" s="1">
         <v>4</v>
       </c>
-      <c r="F93" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G93" s="7">
-        <v>0</v>
-      </c>
-      <c r="H93" s="7">
-        <v>30</v>
-      </c>
-      <c r="I93" t="s">
-        <v>197</v>
-      </c>
-      <c r="J93">
-        <v>10</v>
-      </c>
-      <c r="L93" s="2" t="s">
+      <c r="F93">
+        <v>125</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" t="s">
+        <v>195</v>
+      </c>
+      <c r="L93">
+        <v>10</v>
+      </c>
+      <c r="P93" s="2" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C4:C93">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6813,15 +6852,15 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6836,7 +6875,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6935,7 +6974,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="14">
         <v>36</v>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,15 +15,49 @@
     <sheet name="武器" sheetId="5" r:id="rId1"/>
     <sheet name="~计数" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+LP:PP:MP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="230">
   <si>
     <t>wuqi01</t>
   </si>
@@ -170,12 +204,6 @@
   </si>
   <si>
     <t>wuqi24</t>
-  </si>
-  <si>
-    <t>碧霞</t>
-  </si>
-  <si>
-    <t>wuqi25</t>
   </si>
   <si>
     <t>碎冰</t>
@@ -620,9 +648,6 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>EnergyRate</t>
-  </si>
-  <si>
     <t>0;0;0</t>
   </si>
   <si>
@@ -729,14 +754,49 @@
   </si>
   <si>
     <t>CommonSkillRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5;0;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>短弓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,6 +990,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1430,7 +1503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,6 +1579,12 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1551,7 +1630,10 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1589,6 +1671,9 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -1653,74 +1738,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3191,27 +3208,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P93" totalsRowShown="0">
-  <autoFilter ref="A3:P93"/>
-  <sortState ref="A4:L93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q93" totalsRowShown="0">
+  <autoFilter ref="A3:Q93"/>
+  <sortState ref="A4:Q93">
     <sortCondition ref="A3:A93"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="17">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Quality" dataDxfId="7"/>
+    <tableColumn id="3" name="Quality" dataDxfId="9"/>
     <tableColumn id="4" name="Level"/>
     <tableColumn id="5" name="Position"/>
     <tableColumn id="19" name="Value"/>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Spd" dataDxfId="6"/>
-    <tableColumn id="12" name="Range" dataDxfId="5"/>
-    <tableColumn id="9" name="EnergyRate"/>
+    <tableColumn id="6" name="Spd" dataDxfId="8"/>
+    <tableColumn id="12" name="Range" dataDxfId="7"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="6"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
+    <tableColumn id="15" name="Disable" dataDxfId="0"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3219,14 +3237,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3294,6 +3312,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3329,6 +3364,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3504,14 +3556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5.5" customWidth="1"/>
@@ -3519,166 +3571,175 @@
     <col min="7" max="10" width="5.125" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="15" width="8.625" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42.75" customHeight="1">
+    <row r="1" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="K3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O3" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="P3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" t="s">
         <v>183</v>
       </c>
-      <c r="F3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O3" t="s">
-        <v>223</v>
-      </c>
-      <c r="P3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>21100101</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -3696,8 +3757,8 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="22" t="s">
-        <v>196</v>
+      <c r="K4" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L4" s="22">
         <v>10</v>
@@ -3705,16 +3766,19 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
-      <c r="P4" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>21100102</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -3732,8 +3796,8 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="22" t="s">
-        <v>196</v>
+      <c r="K5" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L5" s="22">
         <v>10</v>
@@ -3741,16 +3805,19 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>21100103</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -3768,8 +3835,8 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="22" t="s">
-        <v>196</v>
+      <c r="K6" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L6" s="22">
         <v>10</v>
@@ -3777,16 +3844,19 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>21100104</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
@@ -3804,8 +3874,8 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="22" t="s">
-        <v>196</v>
+      <c r="K7" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L7" s="22">
         <v>10</v>
@@ -3813,16 +3883,19 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>21100105</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -3840,8 +3913,8 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="22" t="s">
-        <v>196</v>
+      <c r="K8" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L8" s="22">
         <v>10</v>
@@ -3849,16 +3922,19 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>21100106</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
@@ -3876,8 +3952,8 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="22" t="s">
-        <v>196</v>
+      <c r="K9" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L9" s="22">
         <v>10</v>
@@ -3885,16 +3961,19 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>21100107</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
@@ -3912,8 +3991,8 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="22" t="s">
-        <v>196</v>
+      <c r="K10" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L10" s="22">
         <v>10</v>
@@ -3921,16 +4000,19 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>21100108</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -3948,8 +4030,8 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="22" t="s">
-        <v>196</v>
+      <c r="K11" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L11" s="22">
         <v>10</v>
@@ -3957,16 +4039,19 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>21100109</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
@@ -3984,8 +4069,8 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="22" t="s">
-        <v>196</v>
+      <c r="K12" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L12" s="22">
         <v>10</v>
@@ -3993,16 +4078,19 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>21100110</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="20">
         <v>0</v>
@@ -4020,8 +4108,8 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="22" t="s">
-        <v>196</v>
+      <c r="K13" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L13" s="22">
         <v>10</v>
@@ -4029,16 +4117,19 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>21200101</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4055,17 +4146,18 @@
       <c r="G14">
         <v>5</v>
       </c>
-      <c r="K14" t="s">
-        <v>196</v>
+      <c r="K14" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L14">
         <v>10</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="26"/>
+      <c r="Q14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>21200111</v>
       </c>
@@ -4085,91 +4177,94 @@
         <v>12</v>
       </c>
       <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>21200112</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="K15" t="s">
-        <v>196</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="K16" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>21200121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16">
-        <v>21200121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="P16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17">
-        <v>21200201</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
+      <c r="D17" s="12">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="K17" t="s">
-        <v>196</v>
+        <v>7</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
-      <c r="P17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="P17" s="26"/>
+      <c r="Q17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>21200211</v>
+        <v>21200201</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4178,27 +4273,28 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
-      <c r="K18" t="s">
-        <v>196</v>
+      <c r="K18" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L18">
         <v>10</v>
       </c>
-      <c r="P18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="P18" s="26"/>
+      <c r="Q18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>21200212</v>
+        <v>21200211</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4213,27 +4309,28 @@
         <v>24</v>
       </c>
       <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="K19" t="s">
-        <v>196</v>
+        <v>11</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L19">
         <v>10</v>
       </c>
-      <c r="P19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="26"/>
+      <c r="Q19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>21200221</v>
+        <v>21200212</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4242,62 +4339,76 @@
         <v>2</v>
       </c>
       <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>55510007</v>
+      </c>
+      <c r="O20">
+        <v>70</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21200221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>30</v>
       </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="K20" t="s">
-        <v>196</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21">
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>55510002</v>
+      </c>
+      <c r="O21">
+        <v>50</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>21200301</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>3</v>
-      </c>
-      <c r="E21" s="17">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>35</v>
-      </c>
-      <c r="G21">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22">
-        <v>21200311</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
       </c>
       <c r="D22" s="17">
         <v>3</v>
@@ -4306,33 +4417,28 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="K22" t="s">
-        <v>196</v>
+        <v>15</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L22">
         <v>10</v>
       </c>
-      <c r="N22">
-        <v>55510009</v>
-      </c>
-      <c r="O22">
-        <v>30</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>21200312</v>
+        <v>21200311</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4349,25 +4455,29 @@
       <c r="G23">
         <v>5</v>
       </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23" t="s">
-        <v>196</v>
+      <c r="K23" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L23">
         <v>10</v>
       </c>
-      <c r="P23" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="N23">
+        <v>55510009</v>
+      </c>
+      <c r="O23">
+        <v>30</v>
+      </c>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>21200313</v>
+        <v>21200312</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4382,24 +4492,28 @@
         <v>42</v>
       </c>
       <c r="G24">
-        <v>15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>196</v>
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
-      <c r="P24" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="26"/>
+      <c r="Q24" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>21200314</v>
+        <v>21200313</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -4411,30 +4525,37 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>15</v>
-      </c>
-      <c r="K25" t="s">
-        <v>196</v>
+        <v>11</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L25">
         <v>10</v>
       </c>
-      <c r="P25" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="N25">
+        <v>55510010</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>21200321</v>
+        <v>21200314</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="17">
         <v>3</v>
@@ -4443,62 +4564,64 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>15</v>
       </c>
-      <c r="K26" t="s">
-        <v>196</v>
+      <c r="K26" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L26">
         <v>10</v>
       </c>
-      <c r="P26" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="26"/>
+      <c r="Q26" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>21200401</v>
+        <v>21200321</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="17">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>196</v>
+        <v>16</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L27">
         <v>10</v>
       </c>
-      <c r="P27" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="26"/>
+      <c r="Q27" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>21200411</v>
+        <v>21200401</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="17">
         <v>4</v>
@@ -4507,27 +4630,28 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G28">
         <v>20</v>
       </c>
-      <c r="K28" t="s">
-        <v>196</v>
+      <c r="K28" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L28">
         <v>10</v>
       </c>
-      <c r="P28" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="P28" s="26"/>
+      <c r="Q28" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>21200412</v>
+        <v>21200411</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -4542,27 +4666,28 @@
         <v>72</v>
       </c>
       <c r="G29">
-        <v>20</v>
-      </c>
-      <c r="K29" t="s">
-        <v>196</v>
+        <v>21</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L29">
         <v>10</v>
       </c>
-      <c r="P29" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="P29" s="26"/>
+      <c r="Q29" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>21200421</v>
+        <v>21200412</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="17">
         <v>4</v>
@@ -4571,33 +4696,31 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="I30">
+        <v>21</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>21200421</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
         <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>196</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="P30" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31">
-        <v>21200431</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
       </c>
       <c r="D31" s="17">
         <v>4</v>
@@ -4606,59 +4729,64 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G31">
-        <v>20</v>
-      </c>
-      <c r="K31" t="s">
-        <v>196</v>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L31">
         <v>10</v>
       </c>
-      <c r="P31" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="P31" s="26"/>
+      <c r="Q31" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>21200501</v>
+        <v>21200431</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="11">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G32">
-        <v>25</v>
-      </c>
-      <c r="K32" t="s">
-        <v>196</v>
+        <v>23</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L32">
         <v>10</v>
       </c>
-      <c r="P32" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="26"/>
+      <c r="Q32" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>21200502</v>
+        <v>21200501</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -4670,30 +4798,31 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G33">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
-        <v>196</v>
+      <c r="K33" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L33">
         <v>10</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="26"/>
+      <c r="Q33" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>21200511</v>
+        <v>21200502</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="11">
         <v>5</v>
@@ -4702,27 +4831,28 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G34">
         <v>25</v>
       </c>
-      <c r="K34" t="s">
-        <v>196</v>
+      <c r="K34" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L34">
         <v>10</v>
       </c>
-      <c r="P34" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" s="26"/>
+      <c r="Q34" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>21200512</v>
+        <v>21200511</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -4737,24 +4867,25 @@
         <v>108</v>
       </c>
       <c r="G35">
-        <v>25</v>
-      </c>
-      <c r="K35" t="s">
-        <v>196</v>
+        <v>26</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L35">
         <v>10</v>
       </c>
-      <c r="P35" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="26"/>
+      <c r="Q35" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>21200513</v>
+        <v>21200512</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -4766,27 +4897,28 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="G36">
-        <v>25</v>
-      </c>
-      <c r="K36" t="s">
-        <v>196</v>
+        <v>26</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L36">
         <v>10</v>
       </c>
-      <c r="P36" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="P36" s="26"/>
+      <c r="Q36" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>21200514</v>
+        <v>21200513</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -4801,19 +4933,20 @@
         <v>150</v>
       </c>
       <c r="G37">
-        <v>25</v>
-      </c>
-      <c r="K37" t="s">
-        <v>196</v>
+        <v>26</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L37">
         <v>10</v>
       </c>
-      <c r="P37" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="26"/>
+      <c r="Q37" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>21200521</v>
       </c>
@@ -4833,24 +4966,25 @@
         <v>135</v>
       </c>
       <c r="G38">
-        <v>25</v>
-      </c>
-      <c r="K38" t="s">
-        <v>196</v>
+        <v>27</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L38">
         <v>10</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="P38" s="26"/>
+      <c r="Q38" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>21200522</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -4865,24 +4999,25 @@
         <v>180</v>
       </c>
       <c r="G39">
-        <v>25</v>
-      </c>
-      <c r="K39" t="s">
-        <v>196</v>
+        <v>27</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L39">
         <v>10</v>
       </c>
-      <c r="P39" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="26"/>
+      <c r="Q39" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="17">
         <v>21200523</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -4897,21 +5032,22 @@
         <v>250</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" t="s">
-        <v>196</v>
+      <c r="K40" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L40">
         <v>10</v>
       </c>
-      <c r="P40" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="26"/>
+      <c r="Q40" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <v>21200531</v>
       </c>
@@ -4931,26 +5067,27 @@
         <v>180</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" t="s">
-        <v>196</v>
+      <c r="K41" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L41">
         <v>10</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="26"/>
+      <c r="Q41" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="18">
         <v>21300101</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="20">
         <v>0</v>
@@ -4970,8 +5107,8 @@
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
-      <c r="K42" s="22" t="s">
-        <v>196</v>
+      <c r="K42" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L42" s="22">
         <v>10</v>
@@ -4979,16 +5116,17 @@
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42" s="25"/>
+      <c r="Q42" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="22">
         <v>21300111</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="20">
         <v>1</v>
@@ -5004,12 +5142,12 @@
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="22" t="s">
-        <v>196</v>
+      <c r="K43" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L43" s="22">
         <v>10</v>
@@ -5017,16 +5155,17 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="P43" s="25"/>
+      <c r="Q43" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="22">
         <v>21300121</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="20">
         <v>2</v>
@@ -5042,12 +5181,12 @@
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="22" t="s">
-        <v>196</v>
+      <c r="K44" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L44" s="22">
         <v>10</v>
@@ -5055,16 +5194,17 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
-      <c r="P44" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="25"/>
+      <c r="Q44" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="22">
         <v>21300201</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="20">
         <v>0</v>
@@ -5084,8 +5224,8 @@
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
-      <c r="K45" s="22" t="s">
-        <v>196</v>
+      <c r="K45" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L45" s="22">
         <v>10</v>
@@ -5093,16 +5233,17 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
-      <c r="P45" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="25"/>
+      <c r="Q45" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="22">
         <v>21300211</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="20">
         <v>1</v>
@@ -5118,12 +5259,12 @@
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
-      <c r="K46" s="22" t="s">
-        <v>196</v>
+      <c r="K46" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L46" s="22">
         <v>10</v>
@@ -5131,16 +5272,17 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
-      <c r="P46" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="25"/>
+      <c r="Q46" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="22">
         <v>21300212</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47" s="20">
         <v>1</v>
@@ -5156,12 +5298,12 @@
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
-      <c r="K47" s="22" t="s">
-        <v>196</v>
+      <c r="K47" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L47" s="22">
         <v>10</v>
@@ -5169,16 +5311,17 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
-      <c r="P47" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="25"/>
+      <c r="Q47" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="22">
         <v>21300213</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="20">
         <v>1</v>
@@ -5194,12 +5337,12 @@
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
-      <c r="K48" s="22" t="s">
-        <v>196</v>
+      <c r="K48" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L48" s="22">
         <v>10</v>
@@ -5207,16 +5350,17 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
-      <c r="P48" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="P48" s="25"/>
+      <c r="Q48" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="22">
         <v>21300221</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="20">
         <v>2</v>
@@ -5232,12 +5376,12 @@
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="22" t="s">
-        <v>196</v>
+      <c r="K49" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L49" s="22">
         <v>10</v>
@@ -5245,16 +5389,17 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
-      <c r="P49" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="P49" s="25"/>
+      <c r="Q49" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="22">
         <v>21300301</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="20">
         <v>0</v>
@@ -5274,8 +5419,8 @@
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="22" t="s">
-        <v>196</v>
+      <c r="K50" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L50" s="22">
         <v>10</v>
@@ -5283,16 +5428,17 @@
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
-      <c r="P50" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="P50" s="25"/>
+      <c r="Q50" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="22">
         <v>21300311</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="20">
         <v>1</v>
@@ -5308,12 +5454,12 @@
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="22" t="s">
-        <v>196</v>
+      <c r="K51" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L51" s="22">
         <v>10</v>
@@ -5321,16 +5467,17 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
-      <c r="P51" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="P51" s="25"/>
+      <c r="Q51" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="22">
         <v>21300312</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="20">
         <v>1</v>
@@ -5346,12 +5493,12 @@
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
-      <c r="K52" s="22" t="s">
-        <v>196</v>
+      <c r="K52" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L52" s="22">
         <v>10</v>
@@ -5359,16 +5506,17 @@
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
-      <c r="P52" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="25"/>
+      <c r="Q52" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="22">
         <v>21300313</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="20">
         <v>1</v>
@@ -5384,12 +5532,12 @@
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="22" t="s">
-        <v>196</v>
+      <c r="K53" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L53" s="22">
         <v>10</v>
@@ -5397,16 +5545,17 @@
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
-      <c r="P53" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="P53" s="25"/>
+      <c r="Q53" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="22">
         <v>21300314</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="20">
         <v>1</v>
@@ -5422,12 +5571,12 @@
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
-      <c r="K54" s="22" t="s">
-        <v>196</v>
+      <c r="K54" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L54" s="22">
         <v>10</v>
@@ -5435,16 +5584,17 @@
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
-      <c r="P54" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="P54" s="25"/>
+      <c r="Q54" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="22">
         <v>21300321</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="20">
         <v>2</v>
@@ -5460,12 +5610,12 @@
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="22" t="s">
-        <v>196</v>
+      <c r="K55" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L55" s="22">
         <v>10</v>
@@ -5473,16 +5623,17 @@
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
-      <c r="P55" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="P55" s="25"/>
+      <c r="Q55" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="22">
         <v>21300401</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="20">
         <v>0</v>
@@ -5502,8 +5653,8 @@
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
-      <c r="K56" s="22" t="s">
-        <v>196</v>
+      <c r="K56" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L56" s="22">
         <v>10</v>
@@ -5511,16 +5662,17 @@
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
-      <c r="P56" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="P56" s="25"/>
+      <c r="Q56" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="22">
         <v>21300411</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57" s="20">
         <v>1</v>
@@ -5536,12 +5688,12 @@
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
-      <c r="K57" s="22" t="s">
-        <v>196</v>
+      <c r="K57" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L57" s="22">
         <v>10</v>
@@ -5549,16 +5701,17 @@
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
-      <c r="P57" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="P57" s="25"/>
+      <c r="Q57" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="22">
         <v>21300412</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="20">
         <v>1</v>
@@ -5574,12 +5727,12 @@
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
-      <c r="K58" s="22" t="s">
-        <v>196</v>
+      <c r="K58" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L58" s="22">
         <v>10</v>
@@ -5587,16 +5740,17 @@
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
-      <c r="P58" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="P58" s="25"/>
+      <c r="Q58" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="22">
         <v>21300421</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="20">
         <v>2</v>
@@ -5612,12 +5766,12 @@
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
-      <c r="K59" s="22" t="s">
-        <v>196</v>
+      <c r="K59" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L59" s="22">
         <v>10</v>
@@ -5625,16 +5779,17 @@
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
-      <c r="P59" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="P59" s="25"/>
+      <c r="Q59" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="22">
         <v>21300431</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" s="20">
         <v>3</v>
@@ -5650,12 +5805,12 @@
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
-      <c r="K60" s="22" t="s">
-        <v>196</v>
+      <c r="K60" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L60" s="22">
         <v>10</v>
@@ -5663,16 +5818,17 @@
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
-      <c r="P60" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="P60" s="25"/>
+      <c r="Q60" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="22">
         <v>21300501</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="20">
         <v>0</v>
@@ -5692,8 +5848,8 @@
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
-      <c r="K61" s="22" t="s">
-        <v>196</v>
+      <c r="K61" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L61" s="22">
         <v>10</v>
@@ -5701,16 +5857,17 @@
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
-      <c r="P61" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="P61" s="25"/>
+      <c r="Q61" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="22">
         <v>21300502</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" s="20">
         <v>0</v>
@@ -5730,8 +5887,8 @@
       </c>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
-      <c r="K62" s="22" t="s">
-        <v>196</v>
+      <c r="K62" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L62" s="22">
         <v>10</v>
@@ -5739,16 +5896,17 @@
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
-      <c r="P62" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="P62" s="25"/>
+      <c r="Q62" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="22">
         <v>21300511</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" s="20">
         <v>1</v>
@@ -5764,12 +5922,12 @@
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
-      <c r="K63" s="22" t="s">
-        <v>196</v>
+      <c r="K63" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L63" s="22">
         <v>10</v>
@@ -5777,16 +5935,17 @@
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
-      <c r="P63" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="P63" s="25"/>
+      <c r="Q63" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="22">
         <v>21300512</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C64" s="20">
         <v>1</v>
@@ -5802,12 +5961,12 @@
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
-      <c r="K64" s="22" t="s">
-        <v>196</v>
+      <c r="K64" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L64" s="22">
         <v>10</v>
@@ -5815,16 +5974,17 @@
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
-      <c r="P64" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="P64" s="25"/>
+      <c r="Q64" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="22">
         <v>21300513</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C65" s="20">
         <v>1</v>
@@ -5840,12 +6000,12 @@
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
-      <c r="K65" s="22" t="s">
-        <v>196</v>
+      <c r="K65" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L65" s="22">
         <v>10</v>
@@ -5853,16 +6013,17 @@
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
-      <c r="P65" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="P65" s="25"/>
+      <c r="Q65" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="22">
         <v>21300514</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C66" s="20">
         <v>1</v>
@@ -5878,12 +6039,12 @@
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
-      <c r="K66" s="22" t="s">
-        <v>196</v>
+      <c r="K66" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L66" s="22">
         <v>10</v>
@@ -5891,16 +6052,17 @@
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
-      <c r="P66" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="P66" s="25"/>
+      <c r="Q66" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="22">
         <v>21300521</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C67" s="20">
         <v>2</v>
@@ -5916,12 +6078,12 @@
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
-      <c r="K67" s="22" t="s">
-        <v>196</v>
+      <c r="K67" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L67" s="22">
         <v>10</v>
@@ -5929,16 +6091,17 @@
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
-      <c r="P67" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="P67" s="25"/>
+      <c r="Q67" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="22">
         <v>21300522</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68" s="20">
         <v>2</v>
@@ -5954,12 +6117,12 @@
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
-      <c r="K68" s="22" t="s">
-        <v>196</v>
+      <c r="K68" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L68" s="22">
         <v>10</v>
@@ -5967,16 +6130,17 @@
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
-      <c r="P68" s="23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="P68" s="25"/>
+      <c r="Q68" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="22">
         <v>21300531</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="20">
         <v>3</v>
@@ -5992,12 +6156,12 @@
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
-      <c r="K69" s="22" t="s">
-        <v>196</v>
+      <c r="K69" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L69" s="22">
         <v>10</v>
@@ -6005,16 +6169,17 @@
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
-      <c r="P69" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="P69" s="25"/>
+      <c r="Q69" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="22">
         <v>21300532</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="20">
         <v>3</v>
@@ -6030,12 +6195,12 @@
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
-      <c r="K70" s="22" t="s">
-        <v>196</v>
+      <c r="K70" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="L70" s="22">
         <v>10</v>
@@ -6043,16 +6208,17 @@
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
-      <c r="P70" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="P70" s="25"/>
+      <c r="Q70" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>21400101</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -6070,22 +6236,25 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" t="s">
-        <v>196</v>
+      <c r="K71" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L71">
         <v>10</v>
       </c>
-      <c r="P71" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="P71" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>21400201</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -6103,22 +6272,25 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" t="s">
-        <v>196</v>
+      <c r="K72" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="L72">
         <v>10</v>
       </c>
-      <c r="P72" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="P72" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>21400211</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -6136,22 +6308,25 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" t="s">
-        <v>204</v>
+      <c r="K73" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="L73">
         <v>10</v>
       </c>
-      <c r="P73" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="P73" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>21400301</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -6169,22 +6344,25 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="K74" t="s">
-        <v>195</v>
+      <c r="K74" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L74">
         <v>10</v>
       </c>
-      <c r="P74" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="P74" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>21400302</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -6202,22 +6380,25 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" t="s">
-        <v>195</v>
+      <c r="K75" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L75">
         <v>10</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="P75" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>21400303</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -6235,22 +6416,25 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" t="s">
-        <v>195</v>
+      <c r="K76" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L76">
         <v>10</v>
       </c>
-      <c r="P76" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="P76" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>21400311</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -6268,22 +6452,25 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" t="s">
-        <v>195</v>
+      <c r="K77" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L77">
         <v>10</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="P77" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>21400401</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -6301,22 +6488,25 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" t="s">
-        <v>195</v>
+      <c r="K78" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L78">
         <v>10</v>
       </c>
-      <c r="P78" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="P78" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>21400402</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -6334,22 +6524,25 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" t="s">
-        <v>195</v>
+      <c r="K79" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L79">
         <v>10</v>
       </c>
-      <c r="P79" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="P79" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>21400403</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -6367,22 +6560,25 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" t="s">
-        <v>195</v>
+      <c r="K80" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L80">
         <v>10</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="P80" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
         <v>21400411</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -6400,22 +6596,25 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" t="s">
-        <v>195</v>
+      <c r="K81" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L81">
         <v>10</v>
       </c>
-      <c r="P81" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="P81" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>21400412</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -6433,22 +6632,25 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" t="s">
-        <v>195</v>
+      <c r="K82" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L82">
         <v>10</v>
       </c>
-      <c r="P82" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="P82" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>21400413</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -6466,22 +6668,25 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" t="s">
-        <v>195</v>
+      <c r="K83" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L83">
         <v>10</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="P83" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>21400414</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -6499,22 +6704,25 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" t="s">
-        <v>195</v>
+      <c r="K84" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L84">
         <v>10</v>
       </c>
-      <c r="P84" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="P84" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>21400415</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -6532,22 +6740,25 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" t="s">
-        <v>195</v>
+      <c r="K85" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L85">
         <v>10</v>
       </c>
-      <c r="P85" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="P85" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>21400416</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -6565,22 +6776,25 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" t="s">
-        <v>195</v>
+      <c r="K86" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L86">
         <v>10</v>
       </c>
-      <c r="P86" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="P86" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>21400417</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -6598,22 +6812,25 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" t="s">
-        <v>195</v>
+      <c r="K87" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L87">
         <v>10</v>
       </c>
-      <c r="P87" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="P87" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>21400501</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -6631,22 +6848,25 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" t="s">
-        <v>195</v>
+      <c r="K88" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L88">
         <v>10</v>
       </c>
-      <c r="P88" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="P88" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>21400502</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -6664,22 +6884,25 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" t="s">
-        <v>195</v>
+      <c r="K89" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L89">
         <v>10</v>
       </c>
-      <c r="P89" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="P89" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>21400503</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -6697,22 +6920,25 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" t="s">
-        <v>195</v>
+      <c r="K90" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L90">
         <v>10</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="P90" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>21400504</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -6730,22 +6956,25 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" t="s">
-        <v>195</v>
+      <c r="K91" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L91">
         <v>10</v>
       </c>
-      <c r="P91" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="P91" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>21400505</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -6763,22 +6992,25 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="K92" t="s">
-        <v>195</v>
+      <c r="K92" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L92">
         <v>10</v>
       </c>
-      <c r="P92" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="P92" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>21400506</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -6796,39 +7028,43 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-      <c r="K93" t="s">
-        <v>195</v>
+      <c r="K93" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="L93">
         <v>10</v>
       </c>
-      <c r="P93" s="2" t="s">
-        <v>169</v>
+      <c r="P93" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C4:C93">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6841,7 +7077,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
@@ -6850,17 +7086,17 @@
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6875,10 +7111,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -6896,7 +7132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -6914,7 +7150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -6932,7 +7168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -6952,7 +7188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -6972,9 +7208,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="14">
         <v>36</v>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -3559,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -20,7 +20,7 @@
   </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,6 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -48,6 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="257">
   <si>
     <t>wuqi01</t>
   </si>
@@ -881,6 +883,26 @@
   </si>
   <si>
     <t>Sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开格子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlotId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3;6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1087,6 +1109,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1094,6 +1117,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1833,7 +1857,58 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2075,38 +2150,6 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5148,7 +5191,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -5261,44 +5304,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AA93" totalsRowShown="0">
-  <autoFilter ref="A3:AA93"/>
-  <sortState ref="A4:AA93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB93" totalsRowShown="0">
+  <autoFilter ref="A3:AB93"/>
+  <sortState ref="A4:AB93">
     <sortCondition ref="A3:A93"/>
   </sortState>
-  <tableColumns count="27">
+  <tableColumns count="28">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Quality" dataDxfId="8">
+    <tableColumn id="3" name="Quality" dataDxfId="15">
       <calculatedColumnFormula>IF(O4&gt;=23,4,IF(AND(O4&gt;=18,O4&lt;23),3,IF(AND(O4&gt;=13,O4&lt;18),2,IF(AND(O4&gt;=8,O4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
     <tableColumn id="19" name="Value"/>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="7"/>
-    <tableColumn id="22" name="Mag" dataDxfId="6"/>
-    <tableColumn id="27" name="Spd" dataDxfId="5"/>
-    <tableColumn id="26" name="Hit" dataDxfId="4"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="3"/>
-    <tableColumn id="24" name="Crt" dataDxfId="2"/>
-    <tableColumn id="23" name="Luk" dataDxfId="1"/>
-    <tableColumn id="28" name="Sum" dataDxfId="0">
-      <calculatedColumnFormula>F4+G4+ SUM(H4:N4)*5+T4+U4</calculatedColumnFormula>
+    <tableColumn id="6" name="Def" dataDxfId="14"/>
+    <tableColumn id="22" name="Mag" dataDxfId="13"/>
+    <tableColumn id="27" name="Spd" dataDxfId="12"/>
+    <tableColumn id="26" name="Hit" dataDxfId="11"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="10"/>
+    <tableColumn id="24" name="Crt" dataDxfId="9"/>
+    <tableColumn id="23" name="Luk" dataDxfId="8"/>
+    <tableColumn id="28" name="Sum" dataDxfId="7">
+      <calculatedColumnFormula>F4+G4+ SUM(H4:N4)*5+U4+V4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="19"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="18"/>
+    <tableColumn id="12" name="Range" dataDxfId="6"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="5"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="4"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
     <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="14">
-      <calculatedColumnFormula>IF(ISBLANK(V4),0, LOOKUP(V4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W4/100)</calculatedColumnFormula>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISBLANK(W4),0, LOOKUP(W4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X4/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="17"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="15"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="16"/>
+    <tableColumn id="15" name="Disable" dataDxfId="2"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="1"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="0"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5626,10 +5670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA93"/>
+  <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="Q6" sqref="Q6:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5639,18 +5683,18 @@
     <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="7" width="5.125" customWidth="1"/>
     <col min="8" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="5.125" customWidth="1"/>
-    <col min="17" max="17" width="8.625" customWidth="1"/>
-    <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="20" width="8.625" customWidth="1"/>
-    <col min="21" max="21" width="5.875" customWidth="1"/>
-    <col min="22" max="22" width="8.625" customWidth="1"/>
-    <col min="23" max="23" width="5.25" customWidth="1"/>
-    <col min="24" max="26" width="6" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.125" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="21" width="8.625" customWidth="1"/>
+    <col min="22" max="22" width="5.875" customWidth="1"/>
+    <col min="23" max="23" width="8.625" customWidth="1"/>
+    <col min="24" max="24" width="5.25" customWidth="1"/>
+    <col min="25" max="27" width="6" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>171</v>
       </c>
@@ -5700,40 +5744,43 @@
         <v>228</v>
       </c>
       <c r="Q1" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="W1" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>169</v>
       </c>
@@ -5783,40 +5830,43 @@
         <v>169</v>
       </c>
       <c r="Q2" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="R2" s="29" t="s">
         <v>232</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>169</v>
       </c>
       <c r="S2" s="29" t="s">
         <v>169</v>
       </c>
       <c r="T2" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="W2" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>219</v>
       </c>
       <c r="AA2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -5866,40 +5916,43 @@
         <v>205</v>
       </c>
       <c r="Q3" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="R3" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="S3" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="T3" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="U3" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="V3" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="W3" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="X3" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>215</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>222</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>220</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>21100101</v>
       </c>
@@ -5944,36 +5997,39 @@
         <v>0</v>
       </c>
       <c r="O4" s="36">
-        <f t="shared" ref="O4:O35" si="0">F4+G4+ SUM(H4:N4)*5+T4+U4</f>
+        <f t="shared" ref="O4:O35" si="0">F4+G4+ SUM(H4:N4)*5+U4+V4</f>
         <v>0</v>
       </c>
       <c r="P4" s="18"/>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R4" s="21">
-        <v>10</v>
-      </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21">
-        <v>0</v>
-      </c>
+      <c r="S4" s="21">
+        <v>10</v>
+      </c>
+      <c r="T4" s="21"/>
       <c r="U4" s="21">
-        <f>IF(ISBLANK(V4),0, LOOKUP(V4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="21">
+        <f>IF(ISBLANK(W4),0, LOOKUP(W4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X4/100)</f>
+        <v>0</v>
+      </c>
       <c r="W4" s="21"/>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
-      <c r="AA4" s="18" t="s">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>21100102</v>
       </c>
@@ -6022,32 +6078,35 @@
         <v>0</v>
       </c>
       <c r="P5" s="18"/>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R5" s="21">
-        <v>10</v>
-      </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21">
-        <v>0</v>
-      </c>
+      <c r="S5" s="21">
+        <v>10</v>
+      </c>
+      <c r="T5" s="21"/>
       <c r="U5" s="21">
-        <f>IF(ISBLANK(V5),0, LOOKUP(V5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <f>IF(ISBLANK(W5),0, LOOKUP(W5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X5/100)</f>
+        <v>0</v>
+      </c>
       <c r="W5" s="21"/>
-      <c r="X5" s="23" t="s">
+      <c r="X5" s="21"/>
+      <c r="Y5" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y5" s="23"/>
       <c r="Z5" s="23"/>
-      <c r="AA5" s="18" t="s">
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>21100103</v>
       </c>
@@ -6096,32 +6155,35 @@
         <v>0</v>
       </c>
       <c r="P6" s="18"/>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R6" s="21">
-        <v>10</v>
-      </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21">
-        <v>0</v>
-      </c>
+      <c r="S6" s="21">
+        <v>10</v>
+      </c>
+      <c r="T6" s="21"/>
       <c r="U6" s="21">
-        <f>IF(ISBLANK(V6),0, LOOKUP(V6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <f>IF(ISBLANK(W6),0, LOOKUP(W6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X6/100)</f>
+        <v>0</v>
+      </c>
       <c r="W6" s="21"/>
-      <c r="X6" s="23" t="s">
+      <c r="X6" s="21"/>
+      <c r="Y6" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
-      <c r="AA6" s="18" t="s">
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>21100104</v>
       </c>
@@ -6170,32 +6232,35 @@
         <v>0</v>
       </c>
       <c r="P7" s="18"/>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R7" s="21">
-        <v>10</v>
-      </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21">
-        <v>0</v>
-      </c>
+      <c r="S7" s="21">
+        <v>10</v>
+      </c>
+      <c r="T7" s="21"/>
       <c r="U7" s="21">
-        <f>IF(ISBLANK(V7),0, LOOKUP(V7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W7/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="21">
+        <f>IF(ISBLANK(W7),0, LOOKUP(W7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X7/100)</f>
+        <v>0</v>
+      </c>
       <c r="W7" s="21"/>
-      <c r="X7" s="23" t="s">
+      <c r="X7" s="21"/>
+      <c r="Y7" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>21100105</v>
       </c>
@@ -6244,32 +6309,35 @@
         <v>0</v>
       </c>
       <c r="P8" s="18"/>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R8" s="21">
-        <v>10</v>
-      </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21">
-        <v>0</v>
-      </c>
+      <c r="S8" s="21">
+        <v>10</v>
+      </c>
+      <c r="T8" s="21"/>
       <c r="U8" s="21">
-        <f>IF(ISBLANK(V8),0, LOOKUP(V8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W8/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="21">
+        <f>IF(ISBLANK(W8),0, LOOKUP(W8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X8/100)</f>
+        <v>0</v>
+      </c>
       <c r="W8" s="21"/>
-      <c r="X8" s="23" t="s">
+      <c r="X8" s="21"/>
+      <c r="Y8" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
-      <c r="AA8" s="18" t="s">
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>21100106</v>
       </c>
@@ -6318,32 +6386,35 @@
         <v>0</v>
       </c>
       <c r="P9" s="18"/>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="18">
+        <v>1</v>
+      </c>
+      <c r="R9" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R9" s="21">
-        <v>10</v>
-      </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21">
-        <v>0</v>
-      </c>
+      <c r="S9" s="21">
+        <v>10</v>
+      </c>
+      <c r="T9" s="21"/>
       <c r="U9" s="21">
-        <f>IF(ISBLANK(V9),0, LOOKUP(V9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W9/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="21">
+        <f>IF(ISBLANK(W9),0, LOOKUP(W9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X9/100)</f>
+        <v>0</v>
+      </c>
       <c r="W9" s="21"/>
-      <c r="X9" s="23" t="s">
+      <c r="X9" s="21"/>
+      <c r="Y9" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
-      <c r="AA9" s="20" t="s">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>21100107</v>
       </c>
@@ -6392,32 +6463,35 @@
         <v>0</v>
       </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="18">
+        <v>1</v>
+      </c>
+      <c r="R10" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R10" s="21">
-        <v>10</v>
-      </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21">
-        <v>0</v>
-      </c>
+      <c r="S10" s="21">
+        <v>10</v>
+      </c>
+      <c r="T10" s="21"/>
       <c r="U10" s="21">
-        <f>IF(ISBLANK(V10),0, LOOKUP(V10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W10/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="21">
+        <f>IF(ISBLANK(W10),0, LOOKUP(W10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X10/100)</f>
+        <v>0</v>
+      </c>
       <c r="W10" s="21"/>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="21"/>
+      <c r="Y10" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="18" t="s">
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>21100108</v>
       </c>
@@ -6466,32 +6540,35 @@
         <v>0</v>
       </c>
       <c r="P11" s="18"/>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="18">
+        <v>1</v>
+      </c>
+      <c r="R11" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R11" s="21">
-        <v>10</v>
-      </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21">
-        <v>0</v>
-      </c>
+      <c r="S11" s="21">
+        <v>10</v>
+      </c>
+      <c r="T11" s="21"/>
       <c r="U11" s="21">
-        <f>IF(ISBLANK(V11),0, LOOKUP(V11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W11/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="21">
+        <f>IF(ISBLANK(W11),0, LOOKUP(W11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X11/100)</f>
+        <v>0</v>
+      </c>
       <c r="W11" s="21"/>
-      <c r="X11" s="23" t="s">
+      <c r="X11" s="21"/>
+      <c r="Y11" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
-      <c r="AA11" s="18" t="s">
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>21100109</v>
       </c>
@@ -6540,32 +6617,35 @@
         <v>0</v>
       </c>
       <c r="P12" s="18"/>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="18">
+        <v>1</v>
+      </c>
+      <c r="R12" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R12" s="21">
-        <v>10</v>
-      </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21">
-        <v>0</v>
-      </c>
+      <c r="S12" s="21">
+        <v>10</v>
+      </c>
+      <c r="T12" s="21"/>
       <c r="U12" s="21">
-        <f>IF(ISBLANK(V12),0, LOOKUP(V12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W12/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="21">
+        <f>IF(ISBLANK(W12),0, LOOKUP(W12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X12/100)</f>
+        <v>0</v>
+      </c>
       <c r="W12" s="21"/>
-      <c r="X12" s="23" t="s">
+      <c r="X12" s="21"/>
+      <c r="Y12" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
-      <c r="AA12" s="18" t="s">
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>21100110</v>
       </c>
@@ -6614,32 +6694,35 @@
         <v>0</v>
       </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="23" t="s">
+      <c r="Q13" s="18">
+        <v>1</v>
+      </c>
+      <c r="R13" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R13" s="21">
-        <v>10</v>
-      </c>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21">
-        <v>0</v>
-      </c>
+      <c r="S13" s="21">
+        <v>10</v>
+      </c>
+      <c r="T13" s="21"/>
       <c r="U13" s="21">
-        <f>IF(ISBLANK(V13),0, LOOKUP(V13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W13/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="21">
+        <f>IF(ISBLANK(W13),0, LOOKUP(W13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X13/100)</f>
+        <v>0</v>
+      </c>
       <c r="W13" s="21"/>
-      <c r="X13" s="23" t="s">
+      <c r="X13" s="21"/>
+      <c r="Y13" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
-      <c r="AA13" s="18" t="s">
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>21200101</v>
       </c>
@@ -6687,31 +6770,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="R14" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R14">
-        <v>10</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
+      <c r="S14">
+        <v>10</v>
       </c>
       <c r="U14">
-        <f>IF(ISBLANK(V14),0, LOOKUP(V14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W14/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>IF(ISBLANK(W14),0, LOOKUP(W14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="24"/>
       <c r="Z14" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>21200111</v>
       </c>
@@ -6759,31 +6842,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="R15" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="R15">
-        <v>10</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
+      <c r="S15">
+        <v>10</v>
       </c>
       <c r="U15">
-        <f>IF(ISBLANK(V15),0, LOOKUP(V15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W15/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>IF(ISBLANK(W15),0, LOOKUP(W15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X15/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="24"/>
       <c r="Z15" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>21200112</v>
       </c>
@@ -6834,31 +6917,31 @@
       <c r="P16">
         <v>5</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="R16" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R16">
-        <v>10</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+      <c r="S16">
+        <v>10</v>
       </c>
       <c r="U16">
-        <f>IF(ISBLANK(V16),0, LOOKUP(V16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W16/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>IF(ISBLANK(W16),0, LOOKUP(W16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X16/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="24"/>
       <c r="Z16" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA16" s="16" t="s">
+      <c r="AA16" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB16" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>21200121</v>
       </c>
@@ -6906,31 +6989,31 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="R17" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R17">
-        <v>10</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+      <c r="S17">
+        <v>10</v>
       </c>
       <c r="U17">
-        <f>IF(ISBLANK(V17),0, LOOKUP(V17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W17/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>IF(ISBLANK(W17),0, LOOKUP(W17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X17/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24"/>
       <c r="Z17" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>21200201</v>
       </c>
@@ -6978,31 +7061,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="R18" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
+      <c r="S18">
+        <v>10</v>
       </c>
       <c r="U18">
-        <f>IF(ISBLANK(V18),0, LOOKUP(V18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W18/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>IF(ISBLANK(W18),0, LOOKUP(W18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X18/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="24"/>
       <c r="Z18" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA18" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>21200211</v>
       </c>
@@ -7050,31 +7133,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="R19" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R19">
-        <v>10</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+      <c r="S19">
+        <v>10</v>
       </c>
       <c r="U19">
-        <f>IF(ISBLANK(V19),0, LOOKUP(V19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W19/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>IF(ISBLANK(W19),0, LOOKUP(W19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X19/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="24"/>
       <c r="Z19" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>21200212</v>
       </c>
@@ -7122,37 +7205,37 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="R20" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
+      <c r="S20">
+        <v>10</v>
       </c>
       <c r="U20">
-        <f>IF(ISBLANK(V20),0, LOOKUP(V20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W20/100)</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>IF(ISBLANK(W20),0, LOOKUP(W20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X20/100)</f>
         <v>7</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>55510007</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>70</v>
       </c>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y20" s="24"/>
       <c r="Z20" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA20" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21200221</v>
       </c>
@@ -7200,37 +7283,37 @@
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="R21" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
+      <c r="S21">
+        <v>10</v>
       </c>
       <c r="U21">
-        <f>IF(ISBLANK(V21),0, LOOKUP(V21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W21/100)</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>IF(ISBLANK(W21),0, LOOKUP(W21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X21/100)</f>
         <v>7.5</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>55510002</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>50</v>
       </c>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y21" s="24"/>
       <c r="Z21" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA21" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21200301</v>
       </c>
@@ -7278,31 +7361,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="R22" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R22">
-        <v>10</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+      <c r="S22">
+        <v>10</v>
       </c>
       <c r="U22">
-        <f>IF(ISBLANK(V22),0, LOOKUP(V22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W22/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>IF(ISBLANK(W22),0, LOOKUP(W22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X22/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="24"/>
       <c r="Z22" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AA22" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB22" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21200311</v>
       </c>
@@ -7350,37 +7433,37 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="R23" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
+      <c r="S23">
+        <v>10</v>
       </c>
       <c r="U23">
-        <f>IF(ISBLANK(V23),0, LOOKUP(V23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W23/100)</f>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f>IF(ISBLANK(W23),0, LOOKUP(W23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X23/100)</f>
         <v>15</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>55510009</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>30</v>
       </c>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y23" s="24"/>
       <c r="Z23" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA23" s="16" t="s">
+      <c r="AA23" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21200312</v>
       </c>
@@ -7431,31 +7514,31 @@
       <c r="P24">
         <v>10</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="R24" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
+      <c r="S24">
+        <v>10</v>
       </c>
       <c r="U24">
-        <f>IF(ISBLANK(V24),0, LOOKUP(V24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W24/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>IF(ISBLANK(W24),0, LOOKUP(W24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24"/>
       <c r="Z24" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA24" s="16" t="s">
+      <c r="AA24" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB24" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21200313</v>
       </c>
@@ -7503,37 +7586,37 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="R25" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R25">
-        <v>10</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
+      <c r="S25">
+        <v>10</v>
       </c>
       <c r="U25">
-        <f>IF(ISBLANK(V25),0, LOOKUP(V25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>IF(ISBLANK(W25),0, LOOKUP(W25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X25/100)</f>
         <v>5</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>55510010</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>100</v>
       </c>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y25" s="24"/>
       <c r="Z25" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA25" s="16" t="s">
+      <c r="AA25" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB25" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>21200314</v>
       </c>
@@ -7581,31 +7664,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q26" s="24" t="s">
+      <c r="R26" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
+      <c r="S26">
+        <v>10</v>
       </c>
       <c r="U26">
-        <f>IF(ISBLANK(V26),0, LOOKUP(V26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W26/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f>IF(ISBLANK(W26),0, LOOKUP(W26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X26/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24"/>
       <c r="Z26" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AA26" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB26" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>21200321</v>
       </c>
@@ -7653,31 +7736,31 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q27" s="24" t="s">
+      <c r="R27" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R27">
-        <v>10</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
+      <c r="S27">
+        <v>10</v>
       </c>
       <c r="U27">
-        <f>IF(ISBLANK(V27),0, LOOKUP(V27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W27/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f>IF(ISBLANK(W27),0, LOOKUP(W27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X27/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="24"/>
       <c r="Z27" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="AA27" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB27" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>21200401</v>
       </c>
@@ -7725,31 +7808,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q28" s="24" t="s">
+      <c r="R28" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R28">
-        <v>10</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
+      <c r="S28">
+        <v>10</v>
       </c>
       <c r="U28">
-        <f>IF(ISBLANK(V28),0, LOOKUP(V28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W28/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f>IF(ISBLANK(W28),0, LOOKUP(W28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X28/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24"/>
       <c r="Z28" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA28" s="16" t="s">
+      <c r="AA28" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB28" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>21200411</v>
       </c>
@@ -7797,31 +7880,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="R29" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R29">
-        <v>10</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
+      <c r="S29">
+        <v>10</v>
       </c>
       <c r="U29">
-        <f>IF(ISBLANK(V29),0, LOOKUP(V29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W29/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f>IF(ISBLANK(W29),0, LOOKUP(W29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X29/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24"/>
       <c r="Z29" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA29" s="16" t="s">
+      <c r="AA29" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB29" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>21200412</v>
       </c>
@@ -7869,31 +7952,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="R30" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R30">
-        <v>10</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
+      <c r="S30">
+        <v>10</v>
       </c>
       <c r="U30">
-        <f>IF(ISBLANK(V30),0, LOOKUP(V30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W30/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f>IF(ISBLANK(W30),0, LOOKUP(W30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X30/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="24"/>
       <c r="Z30" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA30" s="16" t="s">
+      <c r="AA30" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB30" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>21200421</v>
       </c>
@@ -7941,31 +8024,31 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="R31" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R31">
-        <v>10</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
+      <c r="S31">
+        <v>10</v>
       </c>
       <c r="U31">
-        <f>IF(ISBLANK(V31),0, LOOKUP(V31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W31/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f>IF(ISBLANK(W31),0, LOOKUP(W31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X31/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24"/>
       <c r="Z31" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA31" s="16" t="s">
+      <c r="AA31" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB31" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>21200431</v>
       </c>
@@ -8013,31 +8096,31 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q32" s="24" t="s">
+      <c r="R32" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R32">
-        <v>10</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
+      <c r="S32">
+        <v>10</v>
       </c>
       <c r="U32">
-        <f>IF(ISBLANK(V32),0, LOOKUP(V32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W32/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f>IF(ISBLANK(W32),0, LOOKUP(W32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X32/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="24"/>
       <c r="Z32" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA32" s="12" t="s">
+      <c r="AA32" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB32" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>21200501</v>
       </c>
@@ -8085,31 +8168,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q33" s="24" t="s">
+      <c r="R33" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R33">
-        <v>10</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
+      <c r="S33">
+        <v>10</v>
       </c>
       <c r="U33">
-        <f>IF(ISBLANK(V33),0, LOOKUP(V33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W33/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f>IF(ISBLANK(W33),0, LOOKUP(W33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X33/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="24"/>
       <c r="Z33" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA33" s="12" t="s">
+      <c r="AA33" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB33" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>21200502</v>
       </c>
@@ -8157,31 +8240,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q34" s="24" t="s">
+      <c r="R34" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R34">
-        <v>10</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
+      <c r="S34">
+        <v>10</v>
       </c>
       <c r="U34">
-        <f>IF(ISBLANK(V34),0, LOOKUP(V34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W34/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f>IF(ISBLANK(W34),0, LOOKUP(W34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X34/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="24"/>
       <c r="Z34" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA34" s="12" t="s">
+      <c r="AA34" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB34" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>21200511</v>
       </c>
@@ -8229,31 +8312,31 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q35" s="24" t="s">
+      <c r="R35" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R35">
-        <v>10</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
+      <c r="S35">
+        <v>10</v>
       </c>
       <c r="U35">
-        <f>IF(ISBLANK(V35),0, LOOKUP(V35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W35/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f>IF(ISBLANK(W35),0, LOOKUP(W35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X35/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="24"/>
       <c r="Z35" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA35" s="12" t="s">
+      <c r="AA35" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB35" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>21200512</v>
       </c>
@@ -8298,34 +8381,34 @@
         <v>0</v>
       </c>
       <c r="O36" s="38">
-        <f t="shared" ref="O36:O67" si="2">F36+G36+ SUM(H36:N36)*5+T36+U36</f>
-        <v>10</v>
-      </c>
-      <c r="Q36" s="24" t="s">
+        <f t="shared" ref="O36:O67" si="2">F36+G36+ SUM(H36:N36)*5+U36+V36</f>
+        <v>10</v>
+      </c>
+      <c r="R36" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R36">
-        <v>10</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
+      <c r="S36">
+        <v>10</v>
       </c>
       <c r="U36">
-        <f>IF(ISBLANK(V36),0, LOOKUP(V36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W36/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f>IF(ISBLANK(W36),0, LOOKUP(W36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X36/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="24"/>
       <c r="Z36" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA36" s="12" t="s">
+      <c r="AA36" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB36" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>21200513</v>
       </c>
@@ -8373,31 +8456,31 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q37" s="24" t="s">
+      <c r="R37" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R37">
-        <v>10</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
+      <c r="S37">
+        <v>10</v>
       </c>
       <c r="U37">
-        <f>IF(ISBLANK(V37),0, LOOKUP(V37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W37/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f>IF(ISBLANK(W37),0, LOOKUP(W37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X37/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="24"/>
       <c r="Z37" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA37" s="12" t="s">
+      <c r="AA37" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB37" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>21200521</v>
       </c>
@@ -8445,31 +8528,31 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="Q38" s="24" t="s">
+      <c r="R38" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R38">
-        <v>10</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
+      <c r="S38">
+        <v>10</v>
       </c>
       <c r="U38">
-        <f>IF(ISBLANK(V38),0, LOOKUP(V38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W38/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f>IF(ISBLANK(W38),0, LOOKUP(W38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X38/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="24"/>
       <c r="Z38" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA38" s="12" t="s">
+      <c r="AA38" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB38" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>21200522</v>
       </c>
@@ -8517,31 +8600,31 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="Q39" s="24" t="s">
+      <c r="R39" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
+      <c r="S39">
+        <v>10</v>
       </c>
       <c r="U39">
-        <f>IF(ISBLANK(V39),0, LOOKUP(V39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W39/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f>IF(ISBLANK(W39),0, LOOKUP(W39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X39/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="24"/>
       <c r="Z39" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA39" s="12" t="s">
+      <c r="AA39" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB39" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>21200523</v>
       </c>
@@ -8590,31 +8673,32 @@
         <v>20</v>
       </c>
       <c r="P40" s="16"/>
-      <c r="Q40" s="24" t="s">
+      <c r="Q40" s="16"/>
+      <c r="R40" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R40">
-        <v>10</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
+      <c r="S40">
+        <v>10</v>
       </c>
       <c r="U40">
-        <f>IF(ISBLANK(V40),0, LOOKUP(V40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W40/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f>IF(ISBLANK(W40),0, LOOKUP(W40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X40/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="24"/>
       <c r="Z40" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA40" s="12" t="s">
+      <c r="AA40" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB40" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <v>21200531</v>
       </c>
@@ -8663,31 +8747,32 @@
         <v>20</v>
       </c>
       <c r="P41" s="16"/>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="16"/>
+      <c r="R41" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R41">
-        <v>10</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
+      <c r="S41">
+        <v>10</v>
       </c>
       <c r="U41">
-        <f>IF(ISBLANK(V41),0, LOOKUP(V41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W41/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24" t="s">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f>IF(ISBLANK(W41),0, LOOKUP(W41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X41/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="24"/>
       <c r="Z41" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA41" s="12" t="s">
+      <c r="AA41" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB41" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="17">
         <v>21300101</v>
       </c>
@@ -8736,34 +8821,35 @@
         <v>5</v>
       </c>
       <c r="P42" s="21"/>
-      <c r="Q42" s="23" t="s">
+      <c r="Q42" s="21"/>
+      <c r="R42" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R42" s="21">
-        <v>10</v>
-      </c>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21">
-        <v>0</v>
-      </c>
+      <c r="S42" s="21">
+        <v>10</v>
+      </c>
+      <c r="T42" s="21"/>
       <c r="U42" s="21">
-        <f>IF(ISBLANK(V42),0, LOOKUP(V42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W42/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="21">
+        <f>IF(ISBLANK(W42),0, LOOKUP(W42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X42/100)</f>
+        <v>0</v>
+      </c>
       <c r="W42" s="21"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="23"/>
       <c r="Z42" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA42" s="22" t="s">
+      <c r="AA42" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB42" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="21">
         <v>21300111</v>
       </c>
@@ -8812,34 +8898,35 @@
         <v>10</v>
       </c>
       <c r="P43" s="21"/>
-      <c r="Q43" s="23" t="s">
+      <c r="Q43" s="21"/>
+      <c r="R43" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R43" s="21">
-        <v>10</v>
-      </c>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21">
-        <v>0</v>
-      </c>
+      <c r="S43" s="21">
+        <v>10</v>
+      </c>
+      <c r="T43" s="21"/>
       <c r="U43" s="21">
-        <f>IF(ISBLANK(V43),0, LOOKUP(V43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W43/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="21">
+        <f>IF(ISBLANK(W43),0, LOOKUP(W43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X43/100)</f>
+        <v>0</v>
+      </c>
       <c r="W43" s="21"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="23"/>
       <c r="Z43" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA43" s="22" t="s">
+      <c r="AA43" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB43" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="21">
         <v>21300121</v>
       </c>
@@ -8888,34 +8975,35 @@
         <v>15</v>
       </c>
       <c r="P44" s="21"/>
-      <c r="Q44" s="23" t="s">
+      <c r="Q44" s="21"/>
+      <c r="R44" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R44" s="21">
-        <v>10</v>
-      </c>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21">
-        <v>0</v>
-      </c>
+      <c r="S44" s="21">
+        <v>10</v>
+      </c>
+      <c r="T44" s="21"/>
       <c r="U44" s="21">
-        <f>IF(ISBLANK(V44),0, LOOKUP(V44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W44/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V44" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="21">
+        <f>IF(ISBLANK(W44),0, LOOKUP(W44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X44/100)</f>
+        <v>0</v>
+      </c>
       <c r="W44" s="21"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="23"/>
       <c r="Z44" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA44" s="22" t="s">
+      <c r="AA44" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB44" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="21">
         <v>21300201</v>
       </c>
@@ -8964,34 +9052,35 @@
         <v>5</v>
       </c>
       <c r="P45" s="21"/>
-      <c r="Q45" s="23" t="s">
+      <c r="Q45" s="21"/>
+      <c r="R45" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R45" s="21">
-        <v>10</v>
-      </c>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21">
-        <v>0</v>
-      </c>
+      <c r="S45" s="21">
+        <v>10</v>
+      </c>
+      <c r="T45" s="21"/>
       <c r="U45" s="21">
-        <f>IF(ISBLANK(V45),0, LOOKUP(V45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W45/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="21">
+        <f>IF(ISBLANK(W45),0, LOOKUP(W45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X45/100)</f>
+        <v>0</v>
+      </c>
       <c r="W45" s="21"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="23"/>
       <c r="Z45" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA45" s="22" t="s">
+      <c r="AA45" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB45" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="21">
         <v>21300211</v>
       </c>
@@ -9040,34 +9129,35 @@
         <v>10</v>
       </c>
       <c r="P46" s="21"/>
-      <c r="Q46" s="23" t="s">
+      <c r="Q46" s="21"/>
+      <c r="R46" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R46" s="21">
-        <v>10</v>
-      </c>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21">
-        <v>0</v>
-      </c>
+      <c r="S46" s="21">
+        <v>10</v>
+      </c>
+      <c r="T46" s="21"/>
       <c r="U46" s="21">
-        <f>IF(ISBLANK(V46),0, LOOKUP(V46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W46/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="21">
+        <f>IF(ISBLANK(W46),0, LOOKUP(W46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X46/100)</f>
+        <v>0</v>
+      </c>
       <c r="W46" s="21"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="23"/>
       <c r="Z46" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA46" s="22" t="s">
+      <c r="AA46" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB46" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="21">
         <v>21300212</v>
       </c>
@@ -9116,34 +9206,35 @@
         <v>10</v>
       </c>
       <c r="P47" s="21"/>
-      <c r="Q47" s="23" t="s">
+      <c r="Q47" s="21"/>
+      <c r="R47" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R47" s="21">
-        <v>10</v>
-      </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21">
-        <v>0</v>
-      </c>
+      <c r="S47" s="21">
+        <v>10</v>
+      </c>
+      <c r="T47" s="21"/>
       <c r="U47" s="21">
-        <f>IF(ISBLANK(V47),0, LOOKUP(V47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W47/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="21">
+        <f>IF(ISBLANK(W47),0, LOOKUP(W47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X47/100)</f>
+        <v>0</v>
+      </c>
       <c r="W47" s="21"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="23"/>
       <c r="Z47" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA47" s="22" t="s">
+      <c r="AA47" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB47" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="21">
         <v>21300213</v>
       </c>
@@ -9192,34 +9283,35 @@
         <v>10</v>
       </c>
       <c r="P48" s="21"/>
-      <c r="Q48" s="23" t="s">
+      <c r="Q48" s="21"/>
+      <c r="R48" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R48" s="21">
-        <v>10</v>
-      </c>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21">
-        <v>0</v>
-      </c>
+      <c r="S48" s="21">
+        <v>10</v>
+      </c>
+      <c r="T48" s="21"/>
       <c r="U48" s="21">
-        <f>IF(ISBLANK(V48),0, LOOKUP(V48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W48/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V48" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="21">
+        <f>IF(ISBLANK(W48),0, LOOKUP(W48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X48/100)</f>
+        <v>0</v>
+      </c>
       <c r="W48" s="21"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="23"/>
       <c r="Z48" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA48" s="22" t="s">
+      <c r="AA48" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB48" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A49" s="21">
         <v>21300221</v>
       </c>
@@ -9268,34 +9360,35 @@
         <v>15</v>
       </c>
       <c r="P49" s="21"/>
-      <c r="Q49" s="23" t="s">
+      <c r="Q49" s="21"/>
+      <c r="R49" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R49" s="21">
-        <v>10</v>
-      </c>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21">
-        <v>0</v>
-      </c>
+      <c r="S49" s="21">
+        <v>10</v>
+      </c>
+      <c r="T49" s="21"/>
       <c r="U49" s="21">
-        <f>IF(ISBLANK(V49),0, LOOKUP(V49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W49/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V49" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="21">
+        <f>IF(ISBLANK(W49),0, LOOKUP(W49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X49/100)</f>
+        <v>0</v>
+      </c>
       <c r="W49" s="21"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="23"/>
       <c r="Z49" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA49" s="22" t="s">
+      <c r="AA49" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB49" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A50" s="21">
         <v>21300301</v>
       </c>
@@ -9344,34 +9437,35 @@
         <v>5</v>
       </c>
       <c r="P50" s="21"/>
-      <c r="Q50" s="23" t="s">
+      <c r="Q50" s="21"/>
+      <c r="R50" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R50" s="21">
-        <v>10</v>
-      </c>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21">
-        <v>0</v>
-      </c>
+      <c r="S50" s="21">
+        <v>10</v>
+      </c>
+      <c r="T50" s="21"/>
       <c r="U50" s="21">
-        <f>IF(ISBLANK(V50),0, LOOKUP(V50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W50/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V50" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="21">
+        <f>IF(ISBLANK(W50),0, LOOKUP(W50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X50/100)</f>
+        <v>0</v>
+      </c>
       <c r="W50" s="21"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="23"/>
       <c r="Z50" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA50" s="22" t="s">
+      <c r="AA50" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB50" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A51" s="21">
         <v>21300311</v>
       </c>
@@ -9420,34 +9514,35 @@
         <v>10</v>
       </c>
       <c r="P51" s="21"/>
-      <c r="Q51" s="23" t="s">
+      <c r="Q51" s="21"/>
+      <c r="R51" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R51" s="21">
-        <v>10</v>
-      </c>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21">
-        <v>0</v>
-      </c>
+      <c r="S51" s="21">
+        <v>10</v>
+      </c>
+      <c r="T51" s="21"/>
       <c r="U51" s="21">
-        <f>IF(ISBLANK(V51),0, LOOKUP(V51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W51/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="21">
+        <f>IF(ISBLANK(W51),0, LOOKUP(W51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X51/100)</f>
+        <v>0</v>
+      </c>
       <c r="W51" s="21"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="23"/>
       <c r="Z51" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA51" s="22" t="s">
+      <c r="AA51" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB51" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A52" s="21">
         <v>21300312</v>
       </c>
@@ -9496,34 +9591,35 @@
         <v>10</v>
       </c>
       <c r="P52" s="21"/>
-      <c r="Q52" s="23" t="s">
+      <c r="Q52" s="21"/>
+      <c r="R52" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R52" s="21">
-        <v>10</v>
-      </c>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21">
-        <v>0</v>
-      </c>
+      <c r="S52" s="21">
+        <v>10</v>
+      </c>
+      <c r="T52" s="21"/>
       <c r="U52" s="21">
-        <f>IF(ISBLANK(V52),0, LOOKUP(V52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W52/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="21">
+        <f>IF(ISBLANK(W52),0, LOOKUP(W52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X52/100)</f>
+        <v>0</v>
+      </c>
       <c r="W52" s="21"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="23"/>
       <c r="Z52" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA52" s="22" t="s">
+      <c r="AA52" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB52" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A53" s="21">
         <v>21300313</v>
       </c>
@@ -9572,34 +9668,35 @@
         <v>10</v>
       </c>
       <c r="P53" s="21"/>
-      <c r="Q53" s="23" t="s">
+      <c r="Q53" s="21"/>
+      <c r="R53" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R53" s="21">
-        <v>10</v>
-      </c>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21">
-        <v>0</v>
-      </c>
+      <c r="S53" s="21">
+        <v>10</v>
+      </c>
+      <c r="T53" s="21"/>
       <c r="U53" s="21">
-        <f>IF(ISBLANK(V53),0, LOOKUP(V53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W53/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="21">
+        <f>IF(ISBLANK(W53),0, LOOKUP(W53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X53/100)</f>
+        <v>0</v>
+      </c>
       <c r="W53" s="21"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="23"/>
       <c r="Z53" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA53" s="22" t="s">
+      <c r="AA53" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB53" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A54" s="21">
         <v>21300314</v>
       </c>
@@ -9648,34 +9745,35 @@
         <v>10</v>
       </c>
       <c r="P54" s="21"/>
-      <c r="Q54" s="23" t="s">
+      <c r="Q54" s="21"/>
+      <c r="R54" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R54" s="21">
-        <v>10</v>
-      </c>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21">
-        <v>0</v>
-      </c>
+      <c r="S54" s="21">
+        <v>10</v>
+      </c>
+      <c r="T54" s="21"/>
       <c r="U54" s="21">
-        <f>IF(ISBLANK(V54),0, LOOKUP(V54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W54/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V54" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="21">
+        <f>IF(ISBLANK(W54),0, LOOKUP(W54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X54/100)</f>
+        <v>0</v>
+      </c>
       <c r="W54" s="21"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="23"/>
       <c r="Z54" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA54" s="22" t="s">
+      <c r="AA54" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB54" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A55" s="21">
         <v>21300321</v>
       </c>
@@ -9724,34 +9822,35 @@
         <v>15</v>
       </c>
       <c r="P55" s="21"/>
-      <c r="Q55" s="23" t="s">
+      <c r="Q55" s="21"/>
+      <c r="R55" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R55" s="21">
-        <v>10</v>
-      </c>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21">
-        <v>0</v>
-      </c>
+      <c r="S55" s="21">
+        <v>10</v>
+      </c>
+      <c r="T55" s="21"/>
       <c r="U55" s="21">
-        <f>IF(ISBLANK(V55),0, LOOKUP(V55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W55/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="21">
+        <f>IF(ISBLANK(W55),0, LOOKUP(W55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X55/100)</f>
+        <v>0</v>
+      </c>
       <c r="W55" s="21"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="23"/>
       <c r="Z55" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA55" s="22" t="s">
+      <c r="AA55" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB55" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A56" s="21">
         <v>21300401</v>
       </c>
@@ -9800,34 +9899,35 @@
         <v>5</v>
       </c>
       <c r="P56" s="21"/>
-      <c r="Q56" s="23" t="s">
+      <c r="Q56" s="21"/>
+      <c r="R56" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R56" s="21">
-        <v>10</v>
-      </c>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21">
-        <v>0</v>
-      </c>
+      <c r="S56" s="21">
+        <v>10</v>
+      </c>
+      <c r="T56" s="21"/>
       <c r="U56" s="21">
-        <f>IF(ISBLANK(V56),0, LOOKUP(V56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W56/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="21">
+        <f>IF(ISBLANK(W56),0, LOOKUP(W56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X56/100)</f>
+        <v>0</v>
+      </c>
       <c r="W56" s="21"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="23"/>
       <c r="Z56" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA56" s="22" t="s">
+      <c r="AA56" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB56" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A57" s="21">
         <v>21300411</v>
       </c>
@@ -9876,34 +9976,35 @@
         <v>10</v>
       </c>
       <c r="P57" s="21"/>
-      <c r="Q57" s="23" t="s">
+      <c r="Q57" s="21"/>
+      <c r="R57" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R57" s="21">
-        <v>10</v>
-      </c>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21">
-        <v>0</v>
-      </c>
+      <c r="S57" s="21">
+        <v>10</v>
+      </c>
+      <c r="T57" s="21"/>
       <c r="U57" s="21">
-        <f>IF(ISBLANK(V57),0, LOOKUP(V57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W57/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="21">
+        <f>IF(ISBLANK(W57),0, LOOKUP(W57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X57/100)</f>
+        <v>0</v>
+      </c>
       <c r="W57" s="21"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="23"/>
       <c r="Z57" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA57" s="22" t="s">
+      <c r="AA57" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB57" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A58" s="21">
         <v>21300412</v>
       </c>
@@ -9952,34 +10053,35 @@
         <v>10</v>
       </c>
       <c r="P58" s="21"/>
-      <c r="Q58" s="23" t="s">
+      <c r="Q58" s="21"/>
+      <c r="R58" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R58" s="21">
-        <v>10</v>
-      </c>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21">
-        <v>0</v>
-      </c>
+      <c r="S58" s="21">
+        <v>10</v>
+      </c>
+      <c r="T58" s="21"/>
       <c r="U58" s="21">
-        <f>IF(ISBLANK(V58),0, LOOKUP(V58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W58/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V58" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="21">
+        <f>IF(ISBLANK(W58),0, LOOKUP(W58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X58/100)</f>
+        <v>0</v>
+      </c>
       <c r="W58" s="21"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="23"/>
       <c r="Z58" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA58" s="22" t="s">
+      <c r="AA58" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB58" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A59" s="21">
         <v>21300421</v>
       </c>
@@ -10028,34 +10130,35 @@
         <v>15</v>
       </c>
       <c r="P59" s="21"/>
-      <c r="Q59" s="23" t="s">
+      <c r="Q59" s="21"/>
+      <c r="R59" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R59" s="21">
-        <v>10</v>
-      </c>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21">
-        <v>0</v>
-      </c>
+      <c r="S59" s="21">
+        <v>10</v>
+      </c>
+      <c r="T59" s="21"/>
       <c r="U59" s="21">
-        <f>IF(ISBLANK(V59),0, LOOKUP(V59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W59/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V59" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="21">
+        <f>IF(ISBLANK(W59),0, LOOKUP(W59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X59/100)</f>
+        <v>0</v>
+      </c>
       <c r="W59" s="21"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="23"/>
       <c r="Z59" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA59" s="22" t="s">
+      <c r="AA59" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB59" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A60" s="21">
         <v>21300431</v>
       </c>
@@ -10104,34 +10207,35 @@
         <v>20</v>
       </c>
       <c r="P60" s="21"/>
-      <c r="Q60" s="23" t="s">
+      <c r="Q60" s="21"/>
+      <c r="R60" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R60" s="21">
-        <v>10</v>
-      </c>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21">
-        <v>0</v>
-      </c>
+      <c r="S60" s="21">
+        <v>10</v>
+      </c>
+      <c r="T60" s="21"/>
       <c r="U60" s="21">
-        <f>IF(ISBLANK(V60),0, LOOKUP(V60,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W60/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V60" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="21">
+        <f>IF(ISBLANK(W60),0, LOOKUP(W60,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X60/100)</f>
+        <v>0</v>
+      </c>
       <c r="W60" s="21"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="23"/>
       <c r="Z60" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA60" s="22" t="s">
+      <c r="AA60" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB60" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A61" s="21">
         <v>21300501</v>
       </c>
@@ -10180,34 +10284,35 @@
         <v>5</v>
       </c>
       <c r="P61" s="21"/>
-      <c r="Q61" s="23" t="s">
+      <c r="Q61" s="21"/>
+      <c r="R61" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R61" s="21">
-        <v>10</v>
-      </c>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21">
-        <v>0</v>
-      </c>
+      <c r="S61" s="21">
+        <v>10</v>
+      </c>
+      <c r="T61" s="21"/>
       <c r="U61" s="21">
-        <f>IF(ISBLANK(V61),0, LOOKUP(V61,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W61/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V61" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="21">
+        <f>IF(ISBLANK(W61),0, LOOKUP(W61,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X61/100)</f>
+        <v>0</v>
+      </c>
       <c r="W61" s="21"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="23"/>
       <c r="Z61" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA61" s="22" t="s">
+      <c r="AA61" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB61" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A62" s="21">
         <v>21300502</v>
       </c>
@@ -10256,34 +10361,35 @@
         <v>5</v>
       </c>
       <c r="P62" s="21"/>
-      <c r="Q62" s="23" t="s">
+      <c r="Q62" s="21"/>
+      <c r="R62" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R62" s="21">
-        <v>10</v>
-      </c>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21">
-        <v>0</v>
-      </c>
+      <c r="S62" s="21">
+        <v>10</v>
+      </c>
+      <c r="T62" s="21"/>
       <c r="U62" s="21">
-        <f>IF(ISBLANK(V62),0, LOOKUP(V62,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W62/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V62" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="21">
+        <f>IF(ISBLANK(W62),0, LOOKUP(W62,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X62/100)</f>
+        <v>0</v>
+      </c>
       <c r="W62" s="21"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="23"/>
       <c r="Z62" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA62" s="22" t="s">
+      <c r="AA62" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB62" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A63" s="21">
         <v>21300511</v>
       </c>
@@ -10332,34 +10438,35 @@
         <v>10</v>
       </c>
       <c r="P63" s="21"/>
-      <c r="Q63" s="23" t="s">
+      <c r="Q63" s="21"/>
+      <c r="R63" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R63" s="21">
-        <v>10</v>
-      </c>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21">
-        <v>0</v>
-      </c>
+      <c r="S63" s="21">
+        <v>10</v>
+      </c>
+      <c r="T63" s="21"/>
       <c r="U63" s="21">
-        <f>IF(ISBLANK(V63),0, LOOKUP(V63,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W63/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V63" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="21">
+        <f>IF(ISBLANK(W63),0, LOOKUP(W63,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X63/100)</f>
+        <v>0</v>
+      </c>
       <c r="W63" s="21"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="23"/>
       <c r="Z63" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA63" s="22" t="s">
+      <c r="AA63" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB63" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A64" s="21">
         <v>21300512</v>
       </c>
@@ -10408,34 +10515,35 @@
         <v>10</v>
       </c>
       <c r="P64" s="21"/>
-      <c r="Q64" s="23" t="s">
+      <c r="Q64" s="21"/>
+      <c r="R64" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R64" s="21">
-        <v>10</v>
-      </c>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21">
-        <v>0</v>
-      </c>
+      <c r="S64" s="21">
+        <v>10</v>
+      </c>
+      <c r="T64" s="21"/>
       <c r="U64" s="21">
-        <f>IF(ISBLANK(V64),0, LOOKUP(V64,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W64/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V64" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="21">
+        <f>IF(ISBLANK(W64),0, LOOKUP(W64,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X64/100)</f>
+        <v>0</v>
+      </c>
       <c r="W64" s="21"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="23"/>
       <c r="Z64" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA64" s="22" t="s">
+      <c r="AA64" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB64" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A65" s="21">
         <v>21300513</v>
       </c>
@@ -10484,34 +10592,35 @@
         <v>10</v>
       </c>
       <c r="P65" s="21"/>
-      <c r="Q65" s="23" t="s">
+      <c r="Q65" s="21"/>
+      <c r="R65" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R65" s="21">
-        <v>10</v>
-      </c>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21">
-        <v>0</v>
-      </c>
+      <c r="S65" s="21">
+        <v>10</v>
+      </c>
+      <c r="T65" s="21"/>
       <c r="U65" s="21">
-        <f>IF(ISBLANK(V65),0, LOOKUP(V65,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W65/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V65" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="21">
+        <f>IF(ISBLANK(W65),0, LOOKUP(W65,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X65/100)</f>
+        <v>0</v>
+      </c>
       <c r="W65" s="21"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="23"/>
       <c r="Z65" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA65" s="22" t="s">
+      <c r="AA65" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB65" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A66" s="21">
         <v>21300514</v>
       </c>
@@ -10560,34 +10669,35 @@
         <v>10</v>
       </c>
       <c r="P66" s="21"/>
-      <c r="Q66" s="23" t="s">
+      <c r="Q66" s="21"/>
+      <c r="R66" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R66" s="21">
-        <v>10</v>
-      </c>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21">
-        <v>0</v>
-      </c>
+      <c r="S66" s="21">
+        <v>10</v>
+      </c>
+      <c r="T66" s="21"/>
       <c r="U66" s="21">
-        <f>IF(ISBLANK(V66),0, LOOKUP(V66,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W66/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V66" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="21">
+        <f>IF(ISBLANK(W66),0, LOOKUP(W66,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X66/100)</f>
+        <v>0</v>
+      </c>
       <c r="W66" s="21"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="23"/>
       <c r="Z66" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA66" s="22" t="s">
+      <c r="AA66" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB66" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A67" s="21">
         <v>21300521</v>
       </c>
@@ -10636,34 +10746,35 @@
         <v>15</v>
       </c>
       <c r="P67" s="21"/>
-      <c r="Q67" s="23" t="s">
+      <c r="Q67" s="21"/>
+      <c r="R67" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R67" s="21">
-        <v>10</v>
-      </c>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21">
-        <v>0</v>
-      </c>
+      <c r="S67" s="21">
+        <v>10</v>
+      </c>
+      <c r="T67" s="21"/>
       <c r="U67" s="21">
-        <f>IF(ISBLANK(V67),0, LOOKUP(V67,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W67/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V67" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="21">
+        <f>IF(ISBLANK(W67),0, LOOKUP(W67,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X67/100)</f>
+        <v>0</v>
+      </c>
       <c r="W67" s="21"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="23"/>
       <c r="Z67" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA67" s="22" t="s">
+      <c r="AA67" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB67" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A68" s="21">
         <v>21300522</v>
       </c>
@@ -10708,38 +10819,39 @@
         <v>0</v>
       </c>
       <c r="O68" s="41">
-        <f t="shared" ref="O68:O99" si="3">F68+G68+ SUM(H68:N68)*5+T68+U68</f>
+        <f t="shared" ref="O68:O93" si="3">F68+G68+ SUM(H68:N68)*5+U68+V68</f>
         <v>15</v>
       </c>
       <c r="P68" s="21"/>
-      <c r="Q68" s="23" t="s">
+      <c r="Q68" s="21"/>
+      <c r="R68" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R68" s="21">
-        <v>10</v>
-      </c>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21">
-        <v>0</v>
-      </c>
+      <c r="S68" s="21">
+        <v>10</v>
+      </c>
+      <c r="T68" s="21"/>
       <c r="U68" s="21">
-        <f>IF(ISBLANK(V68),0, LOOKUP(V68,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W68/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V68" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="21">
+        <f>IF(ISBLANK(W68),0, LOOKUP(W68,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X68/100)</f>
+        <v>0</v>
+      </c>
       <c r="W68" s="21"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="23"/>
       <c r="Z68" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA68" s="22" t="s">
+      <c r="AA68" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB68" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A69" s="21">
         <v>21300531</v>
       </c>
@@ -10788,34 +10900,35 @@
         <v>20</v>
       </c>
       <c r="P69" s="21"/>
-      <c r="Q69" s="23" t="s">
+      <c r="Q69" s="21"/>
+      <c r="R69" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R69" s="21">
-        <v>10</v>
-      </c>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21">
-        <v>0</v>
-      </c>
+      <c r="S69" s="21">
+        <v>10</v>
+      </c>
+      <c r="T69" s="21"/>
       <c r="U69" s="21">
-        <f>IF(ISBLANK(V69),0, LOOKUP(V69,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W69/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V69" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="21">
+        <f>IF(ISBLANK(W69),0, LOOKUP(W69,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X69/100)</f>
+        <v>0</v>
+      </c>
       <c r="W69" s="21"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="23"/>
       <c r="Z69" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA69" s="22" t="s">
+      <c r="AA69" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB69" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A70" s="21">
         <v>21300532</v>
       </c>
@@ -10864,34 +10977,35 @@
         <v>20</v>
       </c>
       <c r="P70" s="21"/>
-      <c r="Q70" s="23" t="s">
+      <c r="Q70" s="21"/>
+      <c r="R70" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="R70" s="21">
-        <v>10</v>
-      </c>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21">
-        <v>0</v>
-      </c>
+      <c r="S70" s="21">
+        <v>10</v>
+      </c>
+      <c r="T70" s="21"/>
       <c r="U70" s="21">
-        <f>IF(ISBLANK(V70),0, LOOKUP(V70,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W70/100)</f>
-        <v>0</v>
-      </c>
-      <c r="V70" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="21">
+        <f>IF(ISBLANK(W70),0, LOOKUP(W70,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X70/100)</f>
+        <v>0</v>
+      </c>
       <c r="W70" s="21"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="23"/>
       <c r="Z70" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AA70" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB70" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>21400101</v>
       </c>
@@ -10940,21 +11054,19 @@
         <v>0</v>
       </c>
       <c r="P71" s="7"/>
-      <c r="Q71" s="24" t="s">
+      <c r="Q71" s="7"/>
+      <c r="R71" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R71">
-        <v>10</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
+      <c r="S71">
+        <v>10</v>
       </c>
       <c r="U71">
-        <f>IF(ISBLANK(V71),0, LOOKUP(V71,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W71/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X71" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <f>IF(ISBLANK(W71),0, LOOKUP(W71,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X71/100)</f>
+        <v>0</v>
       </c>
       <c r="Y71" s="24" t="s">
         <v>216</v>
@@ -10962,11 +11074,14 @@
       <c r="Z71" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA71" s="2" t="s">
+      <c r="AA71" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB71" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>21400201</v>
       </c>
@@ -11015,21 +11130,19 @@
         <v>0</v>
       </c>
       <c r="P72" s="7"/>
-      <c r="Q72" s="24" t="s">
+      <c r="Q72" s="7"/>
+      <c r="R72" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="R72">
-        <v>10</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
+      <c r="S72">
+        <v>10</v>
       </c>
       <c r="U72">
-        <f>IF(ISBLANK(V72),0, LOOKUP(V72,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W72/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X72" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <f>IF(ISBLANK(W72),0, LOOKUP(W72,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X72/100)</f>
+        <v>0</v>
       </c>
       <c r="Y72" s="24" t="s">
         <v>216</v>
@@ -11037,11 +11150,14 @@
       <c r="Z72" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA72" s="2" t="s">
+      <c r="AA72" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB72" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>21400211</v>
       </c>
@@ -11090,21 +11206,19 @@
         <v>0</v>
       </c>
       <c r="P73" s="7"/>
-      <c r="Q73" s="24" t="s">
+      <c r="Q73" s="7"/>
+      <c r="R73" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="R73">
-        <v>10</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
+      <c r="S73">
+        <v>10</v>
       </c>
       <c r="U73">
-        <f>IF(ISBLANK(V73),0, LOOKUP(V73,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W73/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X73" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <f>IF(ISBLANK(W73),0, LOOKUP(W73,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X73/100)</f>
+        <v>0</v>
       </c>
       <c r="Y73" s="24" t="s">
         <v>216</v>
@@ -11112,11 +11226,14 @@
       <c r="Z73" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA73" s="2" t="s">
+      <c r="AA73" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB73" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>21400301</v>
       </c>
@@ -11165,21 +11282,19 @@
         <v>0</v>
       </c>
       <c r="P74" s="7"/>
-      <c r="Q74" s="24" t="s">
+      <c r="Q74" s="7"/>
+      <c r="R74" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R74">
-        <v>10</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
+      <c r="S74">
+        <v>10</v>
       </c>
       <c r="U74">
-        <f>IF(ISBLANK(V74),0, LOOKUP(V74,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W74/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X74" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <f>IF(ISBLANK(W74),0, LOOKUP(W74,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X74/100)</f>
+        <v>0</v>
       </c>
       <c r="Y74" s="24" t="s">
         <v>216</v>
@@ -11187,11 +11302,14 @@
       <c r="Z74" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA74" s="2" t="s">
+      <c r="AA74" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB74" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>21400302</v>
       </c>
@@ -11240,21 +11358,19 @@
         <v>0</v>
       </c>
       <c r="P75" s="7"/>
-      <c r="Q75" s="24" t="s">
+      <c r="Q75" s="7"/>
+      <c r="R75" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R75">
-        <v>10</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
+      <c r="S75">
+        <v>10</v>
       </c>
       <c r="U75">
-        <f>IF(ISBLANK(V75),0, LOOKUP(V75,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W75/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X75" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f>IF(ISBLANK(W75),0, LOOKUP(W75,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X75/100)</f>
+        <v>0</v>
       </c>
       <c r="Y75" s="24" t="s">
         <v>216</v>
@@ -11262,11 +11378,14 @@
       <c r="Z75" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA75" s="2" t="s">
+      <c r="AA75" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB75" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>21400303</v>
       </c>
@@ -11315,21 +11434,19 @@
         <v>0</v>
       </c>
       <c r="P76" s="7"/>
-      <c r="Q76" s="24" t="s">
+      <c r="Q76" s="7"/>
+      <c r="R76" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R76">
-        <v>10</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
+      <c r="S76">
+        <v>10</v>
       </c>
       <c r="U76">
-        <f>IF(ISBLANK(V76),0, LOOKUP(V76,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W76/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X76" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f>IF(ISBLANK(W76),0, LOOKUP(W76,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X76/100)</f>
+        <v>0</v>
       </c>
       <c r="Y76" s="24" t="s">
         <v>216</v>
@@ -11337,11 +11454,14 @@
       <c r="Z76" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA76" s="2" t="s">
+      <c r="AA76" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB76" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>21400311</v>
       </c>
@@ -11390,21 +11510,19 @@
         <v>0</v>
       </c>
       <c r="P77" s="7"/>
-      <c r="Q77" s="24" t="s">
+      <c r="Q77" s="7"/>
+      <c r="R77" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R77">
-        <v>10</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
+      <c r="S77">
+        <v>10</v>
       </c>
       <c r="U77">
-        <f>IF(ISBLANK(V77),0, LOOKUP(V77,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W77/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X77" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <f>IF(ISBLANK(W77),0, LOOKUP(W77,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X77/100)</f>
+        <v>0</v>
       </c>
       <c r="Y77" s="24" t="s">
         <v>216</v>
@@ -11412,11 +11530,14 @@
       <c r="Z77" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA77" s="2" t="s">
+      <c r="AA77" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB77" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>21400401</v>
       </c>
@@ -11465,21 +11586,19 @@
         <v>0</v>
       </c>
       <c r="P78" s="7"/>
-      <c r="Q78" s="24" t="s">
+      <c r="Q78" s="7"/>
+      <c r="R78" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R78">
-        <v>10</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
+      <c r="S78">
+        <v>10</v>
       </c>
       <c r="U78">
-        <f>IF(ISBLANK(V78),0, LOOKUP(V78,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W78/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X78" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <f>IF(ISBLANK(W78),0, LOOKUP(W78,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X78/100)</f>
+        <v>0</v>
       </c>
       <c r="Y78" s="24" t="s">
         <v>216</v>
@@ -11487,11 +11606,14 @@
       <c r="Z78" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA78" s="2" t="s">
+      <c r="AA78" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB78" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>21400402</v>
       </c>
@@ -11540,21 +11662,19 @@
         <v>0</v>
       </c>
       <c r="P79" s="7"/>
-      <c r="Q79" s="24" t="s">
+      <c r="Q79" s="7"/>
+      <c r="R79" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R79">
-        <v>10</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
+      <c r="S79">
+        <v>10</v>
       </c>
       <c r="U79">
-        <f>IF(ISBLANK(V79),0, LOOKUP(V79,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W79/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X79" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f>IF(ISBLANK(W79),0, LOOKUP(W79,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X79/100)</f>
+        <v>0</v>
       </c>
       <c r="Y79" s="24" t="s">
         <v>216</v>
@@ -11562,11 +11682,14 @@
       <c r="Z79" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA79" s="2" t="s">
+      <c r="AA79" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB79" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>21400403</v>
       </c>
@@ -11615,21 +11738,19 @@
         <v>0</v>
       </c>
       <c r="P80" s="7"/>
-      <c r="Q80" s="24" t="s">
+      <c r="Q80" s="7"/>
+      <c r="R80" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R80">
-        <v>10</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
+      <c r="S80">
+        <v>10</v>
       </c>
       <c r="U80">
-        <f>IF(ISBLANK(V80),0, LOOKUP(V80,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W80/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X80" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f>IF(ISBLANK(W80),0, LOOKUP(W80,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X80/100)</f>
+        <v>0</v>
       </c>
       <c r="Y80" s="24" t="s">
         <v>216</v>
@@ -11637,11 +11758,14 @@
       <c r="Z80" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA80" s="2" t="s">
+      <c r="AA80" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB80" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A81" s="16">
         <v>21400411</v>
       </c>
@@ -11690,21 +11814,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="7"/>
-      <c r="Q81" s="24" t="s">
+      <c r="Q81" s="7"/>
+      <c r="R81" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R81">
-        <v>10</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
+      <c r="S81">
+        <v>10</v>
       </c>
       <c r="U81">
-        <f>IF(ISBLANK(V81),0, LOOKUP(V81,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W81/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X81" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <f>IF(ISBLANK(W81),0, LOOKUP(W81,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X81/100)</f>
+        <v>0</v>
       </c>
       <c r="Y81" s="24" t="s">
         <v>216</v>
@@ -11712,11 +11834,14 @@
       <c r="Z81" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA81" s="2" t="s">
+      <c r="AA81" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB81" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>21400412</v>
       </c>
@@ -11765,21 +11890,19 @@
         <v>0</v>
       </c>
       <c r="P82" s="7"/>
-      <c r="Q82" s="24" t="s">
+      <c r="Q82" s="7"/>
+      <c r="R82" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R82">
-        <v>10</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
+      <c r="S82">
+        <v>10</v>
       </c>
       <c r="U82">
-        <f>IF(ISBLANK(V82),0, LOOKUP(V82,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W82/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X82" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f>IF(ISBLANK(W82),0, LOOKUP(W82,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X82/100)</f>
+        <v>0</v>
       </c>
       <c r="Y82" s="24" t="s">
         <v>216</v>
@@ -11787,11 +11910,14 @@
       <c r="Z82" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA82" s="2" t="s">
+      <c r="AA82" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB82" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>21400413</v>
       </c>
@@ -11840,21 +11966,19 @@
         <v>0</v>
       </c>
       <c r="P83" s="7"/>
-      <c r="Q83" s="24" t="s">
+      <c r="Q83" s="7"/>
+      <c r="R83" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R83">
-        <v>10</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
+      <c r="S83">
+        <v>10</v>
       </c>
       <c r="U83">
-        <f>IF(ISBLANK(V83),0, LOOKUP(V83,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W83/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X83" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <f>IF(ISBLANK(W83),0, LOOKUP(W83,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X83/100)</f>
+        <v>0</v>
       </c>
       <c r="Y83" s="24" t="s">
         <v>216</v>
@@ -11862,11 +11986,14 @@
       <c r="Z83" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA83" s="2" t="s">
+      <c r="AA83" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB83" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>21400414</v>
       </c>
@@ -11915,21 +12042,19 @@
         <v>0</v>
       </c>
       <c r="P84" s="7"/>
-      <c r="Q84" s="24" t="s">
+      <c r="Q84" s="7"/>
+      <c r="R84" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R84">
-        <v>10</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
+      <c r="S84">
+        <v>10</v>
       </c>
       <c r="U84">
-        <f>IF(ISBLANK(V84),0, LOOKUP(V84,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W84/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X84" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <f>IF(ISBLANK(W84),0, LOOKUP(W84,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X84/100)</f>
+        <v>0</v>
       </c>
       <c r="Y84" s="24" t="s">
         <v>216</v>
@@ -11937,11 +12062,14 @@
       <c r="Z84" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA84" s="2" t="s">
+      <c r="AA84" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB84" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>21400415</v>
       </c>
@@ -11990,21 +12118,19 @@
         <v>0</v>
       </c>
       <c r="P85" s="7"/>
-      <c r="Q85" s="24" t="s">
+      <c r="Q85" s="7"/>
+      <c r="R85" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R85">
-        <v>10</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
+      <c r="S85">
+        <v>10</v>
       </c>
       <c r="U85">
-        <f>IF(ISBLANK(V85),0, LOOKUP(V85,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W85/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X85" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f>IF(ISBLANK(W85),0, LOOKUP(W85,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X85/100)</f>
+        <v>0</v>
       </c>
       <c r="Y85" s="24" t="s">
         <v>216</v>
@@ -12012,11 +12138,14 @@
       <c r="Z85" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA85" s="2" t="s">
+      <c r="AA85" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB85" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>21400416</v>
       </c>
@@ -12065,21 +12194,19 @@
         <v>0</v>
       </c>
       <c r="P86" s="7"/>
-      <c r="Q86" s="24" t="s">
+      <c r="Q86" s="7"/>
+      <c r="R86" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R86">
-        <v>10</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
+      <c r="S86">
+        <v>10</v>
       </c>
       <c r="U86">
-        <f>IF(ISBLANK(V86),0, LOOKUP(V86,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W86/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X86" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <f>IF(ISBLANK(W86),0, LOOKUP(W86,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X86/100)</f>
+        <v>0</v>
       </c>
       <c r="Y86" s="24" t="s">
         <v>216</v>
@@ -12087,11 +12214,14 @@
       <c r="Z86" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA86" s="2" t="s">
+      <c r="AA86" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB86" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>21400417</v>
       </c>
@@ -12140,21 +12270,19 @@
         <v>0</v>
       </c>
       <c r="P87" s="7"/>
-      <c r="Q87" s="24" t="s">
+      <c r="Q87" s="7"/>
+      <c r="R87" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R87">
-        <v>10</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
+      <c r="S87">
+        <v>10</v>
       </c>
       <c r="U87">
-        <f>IF(ISBLANK(V87),0, LOOKUP(V87,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W87/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X87" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <f>IF(ISBLANK(W87),0, LOOKUP(W87,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X87/100)</f>
+        <v>0</v>
       </c>
       <c r="Y87" s="24" t="s">
         <v>216</v>
@@ -12162,11 +12290,14 @@
       <c r="Z87" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA87" s="2" t="s">
+      <c r="AA87" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB87" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>21400501</v>
       </c>
@@ -12215,21 +12346,19 @@
         <v>0</v>
       </c>
       <c r="P88" s="7"/>
-      <c r="Q88" s="24" t="s">
+      <c r="Q88" s="7"/>
+      <c r="R88" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R88">
-        <v>10</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
+      <c r="S88">
+        <v>10</v>
       </c>
       <c r="U88">
-        <f>IF(ISBLANK(V88),0, LOOKUP(V88,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W88/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X88" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <f>IF(ISBLANK(W88),0, LOOKUP(W88,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X88/100)</f>
+        <v>0</v>
       </c>
       <c r="Y88" s="24" t="s">
         <v>216</v>
@@ -12237,11 +12366,14 @@
       <c r="Z88" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA88" s="2" t="s">
+      <c r="AA88" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB88" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>21400502</v>
       </c>
@@ -12290,21 +12422,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="7"/>
-      <c r="Q89" s="24" t="s">
+      <c r="Q89" s="7"/>
+      <c r="R89" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R89">
-        <v>10</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
+      <c r="S89">
+        <v>10</v>
       </c>
       <c r="U89">
-        <f>IF(ISBLANK(V89),0, LOOKUP(V89,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W89/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X89" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <f>IF(ISBLANK(W89),0, LOOKUP(W89,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X89/100)</f>
+        <v>0</v>
       </c>
       <c r="Y89" s="24" t="s">
         <v>216</v>
@@ -12312,11 +12442,14 @@
       <c r="Z89" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA89" s="2" t="s">
+      <c r="AA89" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB89" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>21400503</v>
       </c>
@@ -12365,21 +12498,19 @@
         <v>0</v>
       </c>
       <c r="P90" s="7"/>
-      <c r="Q90" s="24" t="s">
+      <c r="Q90" s="7"/>
+      <c r="R90" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R90">
-        <v>10</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
+      <c r="S90">
+        <v>10</v>
       </c>
       <c r="U90">
-        <f>IF(ISBLANK(V90),0, LOOKUP(V90,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W90/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X90" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <f>IF(ISBLANK(W90),0, LOOKUP(W90,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X90/100)</f>
+        <v>0</v>
       </c>
       <c r="Y90" s="24" t="s">
         <v>216</v>
@@ -12387,11 +12518,14 @@
       <c r="Z90" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA90" s="2" t="s">
+      <c r="AA90" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB90" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>21400504</v>
       </c>
@@ -12440,21 +12574,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="7"/>
-      <c r="Q91" s="24" t="s">
+      <c r="Q91" s="7"/>
+      <c r="R91" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R91">
-        <v>10</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
+      <c r="S91">
+        <v>10</v>
       </c>
       <c r="U91">
-        <f>IF(ISBLANK(V91),0, LOOKUP(V91,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W91/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X91" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <f>IF(ISBLANK(W91),0, LOOKUP(W91,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X91/100)</f>
+        <v>0</v>
       </c>
       <c r="Y91" s="24" t="s">
         <v>216</v>
@@ -12462,11 +12594,14 @@
       <c r="Z91" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA91" s="2" t="s">
+      <c r="AA91" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB91" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>21400505</v>
       </c>
@@ -12515,21 +12650,19 @@
         <v>0</v>
       </c>
       <c r="P92" s="7"/>
-      <c r="Q92" s="24" t="s">
+      <c r="Q92" s="7"/>
+      <c r="R92" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R92">
-        <v>10</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
+      <c r="S92">
+        <v>10</v>
       </c>
       <c r="U92">
-        <f>IF(ISBLANK(V92),0, LOOKUP(V92,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W92/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X92" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <f>IF(ISBLANK(W92),0, LOOKUP(W92,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X92/100)</f>
+        <v>0</v>
       </c>
       <c r="Y92" s="24" t="s">
         <v>216</v>
@@ -12537,11 +12670,14 @@
       <c r="Z92" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA92" s="2" t="s">
+      <c r="AA92" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB92" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>21400506</v>
       </c>
@@ -12590,21 +12726,19 @@
         <v>0</v>
       </c>
       <c r="P93" s="7"/>
-      <c r="Q93" s="24" t="s">
+      <c r="Q93" s="7"/>
+      <c r="R93" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R93">
-        <v>10</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
+      <c r="S93">
+        <v>10</v>
       </c>
       <c r="U93">
-        <f>IF(ISBLANK(V93),0, LOOKUP(V93,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*W93/100)</f>
-        <v>0</v>
-      </c>
-      <c r="X93" s="24" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <f>IF(ISBLANK(W93),0, LOOKUP(W93,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X93/100)</f>
+        <v>0</v>
       </c>
       <c r="Y93" s="24" t="s">
         <v>216</v>
@@ -12612,26 +12746,29 @@
       <c r="Z93" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="AA93" s="2" t="s">
+      <c r="AA93" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB93" s="2" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C4:C93">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -31,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,22 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
-  <si>
-    <t>wuqi01</t>
-  </si>
-  <si>
-    <t>学徒袍</t>
-  </si>
-  <si>
-    <t>hujia01</t>
-  </si>
-  <si>
-    <t>金戒指</t>
-  </si>
-  <si>
-    <t>jiezhi01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -143,10 +128,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>木棍</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>0;0;0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -360,14 +341,95 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;3;6</t>
+    <t>草屋</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>zhulou1</t>
-  </si>
-  <si>
-    <t>草屋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi1</t>
+  </si>
+  <si>
+    <t>蓝色旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi1</t>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang1</t>
+  </si>
+  <si>
+    <t>石墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞭望台</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu1</t>
+  </si>
+  <si>
+    <t>7;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物攻击加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterAtk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物生命加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterHp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipMonsterPickDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物选取</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickMethod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.IsRace("Human")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +648,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,12 +860,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1133,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,82 +1229,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
@@ -1302,7 +1313,36 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1340,6 +1380,93 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1577,6 +1704,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2910,7 +3066,6 @@
           <cell r="A162">
             <v>55900028</v>
           </cell>
-          <cell r="Y162"/>
         </row>
         <row r="163">
           <cell r="A163">
@@ -3133,7 +3288,7 @@
             <v>55990001</v>
           </cell>
           <cell r="Y190">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="191">
@@ -3141,7 +3296,7 @@
             <v>55990002</v>
           </cell>
           <cell r="Y191">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="192">
@@ -3149,7 +3304,7 @@
             <v>55990003</v>
           </cell>
           <cell r="Y192">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="193">
@@ -3157,7 +3312,7 @@
             <v>55990004</v>
           </cell>
           <cell r="Y193">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="194">
@@ -3165,7 +3320,7 @@
             <v>55990005</v>
           </cell>
           <cell r="Y194">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="195">
@@ -3173,7 +3328,7 @@
             <v>55990006</v>
           </cell>
           <cell r="Y195">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="196">
@@ -3181,7 +3336,7 @@
             <v>55990011</v>
           </cell>
           <cell r="Y196">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="197">
@@ -3189,7 +3344,7 @@
             <v>55990012</v>
           </cell>
           <cell r="Y197">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="198">
@@ -3197,7 +3352,7 @@
             <v>55990013</v>
           </cell>
           <cell r="Y198">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="199">
@@ -3205,7 +3360,7 @@
             <v>55990014</v>
           </cell>
           <cell r="Y199">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="200">
@@ -3213,7 +3368,7 @@
             <v>55990015</v>
           </cell>
           <cell r="Y200">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="201">
@@ -3221,7 +3376,7 @@
             <v>55990016</v>
           </cell>
           <cell r="Y201">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="202">
@@ -4749,45 +4904,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB7" totalsRowShown="0">
-  <autoFilter ref="A3:AB7"/>
-  <sortState ref="A4:AB7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF8" totalsRowShown="0">
+  <autoFilter ref="A3:AF8"/>
+  <sortState ref="A4:AF7">
     <sortCondition ref="A3:A7"/>
   </sortState>
-  <tableColumns count="28">
+  <tableColumns count="32">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Quality" dataDxfId="20">
-      <calculatedColumnFormula>IF(O4&gt;=23,4,IF(AND(O4&gt;=18,O4&lt;23),3,IF(AND(O4&gt;=13,O4&lt;18),2,IF(AND(O4&gt;=8,O4&lt;13),1,0))))</calculatedColumnFormula>
+    <tableColumn id="32" name="Des" dataDxfId="0"/>
+    <tableColumn id="3" name="Quality" dataDxfId="25">
+      <calculatedColumnFormula>IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value"/>
+    <tableColumn id="19" name="Value" dataDxfId="24"/>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="19"/>
-    <tableColumn id="22" name="Mag" dataDxfId="18"/>
-    <tableColumn id="27" name="Spd" dataDxfId="17"/>
-    <tableColumn id="26" name="Hit" dataDxfId="16"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="15"/>
-    <tableColumn id="24" name="Crt" dataDxfId="14"/>
-    <tableColumn id="23" name="Luk" dataDxfId="13"/>
-    <tableColumn id="28" name="Sum" dataDxfId="12">
-      <calculatedColumnFormula>F4+G4+ SUM(H4:N4)*5+U4+V4</calculatedColumnFormula>
+    <tableColumn id="6" name="Def" dataDxfId="23"/>
+    <tableColumn id="22" name="Mag" dataDxfId="22"/>
+    <tableColumn id="27" name="Spd" dataDxfId="21"/>
+    <tableColumn id="26" name="Hit" dataDxfId="20"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="19"/>
+    <tableColumn id="24" name="Crt" dataDxfId="18"/>
+    <tableColumn id="23" name="Luk" dataDxfId="17"/>
+    <tableColumn id="28" name="Sum" dataDxfId="16">
+      <calculatedColumnFormula>G4+H4+ SUM(I4:O4)*5+Y4+Z4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="11"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="10"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="9"/>
+    <tableColumn id="12" name="Range" dataDxfId="15"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="14"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="13"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="8"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="7"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="6"/>
     <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="8">
-      <calculatedColumnFormula>IF(ISBLANK(W4),0, LOOKUP(W4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X4/100)</calculatedColumnFormula>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="12">
+      <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="7"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="6"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="5"/>
+    <tableColumn id="15" name="Disable" dataDxfId="11"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="10"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="9"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5115,603 +5274,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="5.125" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="21" width="8.625" customWidth="1"/>
-    <col min="22" max="22" width="5.875" customWidth="1"/>
-    <col min="23" max="23" width="8.625" customWidth="1"/>
-    <col min="24" max="24" width="5.25" customWidth="1"/>
-    <col min="25" max="27" width="6" customWidth="1"/>
-    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="8" width="5.125" customWidth="1"/>
+    <col min="9" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="17" width="5.125" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="8.625" customWidth="1"/>
+    <col min="22" max="23" width="4.875" customWidth="1"/>
+    <col min="24" max="24" width="16.375" customWidth="1"/>
+    <col min="25" max="25" width="8.625" customWidth="1"/>
+    <col min="26" max="26" width="5.875" customWidth="1"/>
+    <col min="27" max="27" width="8.625" customWidth="1"/>
+    <col min="28" max="28" width="5.25" customWidth="1"/>
+    <col min="29" max="31" width="6" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="22" t="s">
+      <c r="U3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>21100001</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="25" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f>IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P5" si="0">G4+H4+ SUM(I4:O4)*5+Y4+Z4</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB4/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>21200001</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
-        <v>21100101</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="16">
-        <f>IF(O4&gt;=23,4,IF(AND(O4&gt;=18,O4&lt;23),3,IF(AND(O4&gt;=13,O4&lt;18),2,IF(AND(O4&gt;=8,O4&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D6" si="1">IF(P5&gt;=23,4,IF(AND(P5&gt;=18,P5&lt;23),3,IF(AND(P5&gt;=13,P5&lt;18),2,IF(AND(P5&gt;=8,P5&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>5</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33">
-        <f t="shared" ref="O4:O5" si="0">F4+G4+ SUM(H4:N4)*5+U4+V4</f>
-        <v>5</v>
-      </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="18">
-        <v>99</v>
-      </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18">
-        <f>IF(ISBLANK(W4),0, LOOKUP(W4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
-        <v>21200101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="31">
-        <f t="shared" ref="C5:C6" si="1">IF(O5&gt;=23,4,IF(AND(O5&gt;=18,O5&lt;23),3,IF(AND(O5&gt;=13,O5&lt;18),2,IF(AND(O5&gt;=8,O5&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="35">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="1">
         <v>10</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f>IF(ISBLANK(W5),0, LOOKUP(W5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>0</v>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
+        <v>10</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>IF(ISBLANK(AA5),0, LOOKUP(AA5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB5/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
-        <v>21300101</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>21300001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" ref="P6" si="2">G6+H6+ SUM(I6:O6)*5+Y6+Z6</f>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>IF(ISBLANK(AA6),0, LOOKUP(AA6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB6/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>21400001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="23">
+        <f t="shared" ref="D7" si="3">IF(P7&gt;=23,4,IF(AND(P7&gt;=18,P7&lt;23),3,IF(AND(P7&gt;=13,P7&lt;18),2,IF(AND(P7&gt;=8,P7&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" ref="P7" si="4">G7+H7+ SUM(I7:O7)*5+Y7+Z7</f>
         <v>5</v>
       </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="37">
-        <v>0</v>
-      </c>
-      <c r="J6" s="37">
-        <v>0</v>
-      </c>
-      <c r="K6" s="37">
-        <v>0</v>
-      </c>
-      <c r="L6" s="37">
-        <v>0</v>
-      </c>
-      <c r="M6" s="37">
-        <v>0</v>
-      </c>
-      <c r="N6" s="37">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38">
-        <f t="shared" ref="O6" si="2">F6+G6+ SUM(H6:N6)*5+U6+V6</f>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>IF(ISBLANK(AA7),0, LOOKUP(AA7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB7/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>21500001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="23">
+        <f t="shared" ref="D8" si="5">IF(P8&gt;=23,4,IF(AND(P8&gt;=18,P8&lt;23),3,IF(AND(P8&gt;=13,P8&lt;18),2,IF(AND(P8&gt;=8,P8&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="18">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" ref="P8" si="6">G8+H8+ SUM(I8:O8)*5+Y8+Z8</f>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8">
         <v>10</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18">
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <f>IF(ISBLANK(W6),0, LOOKUP(W6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>21400101</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="31">
-        <f t="shared" ref="C7" si="3">IF(O7&gt;=23,4,IF(AND(O7&gt;=18,O7&lt;23),3,IF(AND(O7&gt;=13,O7&lt;18),2,IF(AND(O7&gt;=8,O7&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
-        <f t="shared" ref="O7" si="4">F7+G7+ SUM(H7:N7)*5+U7+V7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>IF(ISBLANK(W7),0, LOOKUP(W7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*X7/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>4</v>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>IF(ISBLANK(AA8),0, LOOKUP(AA8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB8/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C4:C7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5743,15 +6043,15 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5766,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -5865,7 +6165,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>36</v>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="194">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -142,9 +142,6 @@
     <t>总计</t>
   </si>
   <si>
-    <t>行标签</t>
-  </si>
-  <si>
     <t>计数项:Id</t>
   </si>
   <si>
@@ -370,66 +367,419 @@
     <t>qiang1</t>
   </si>
   <si>
+    <t>瞭望台</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu1</t>
+  </si>
+  <si>
+    <t>7;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物攻击加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterAtk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物生命加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterHp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipMonsterPickDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物选取</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickMethod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.IsRace("Human")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西庸城堡</t>
+  </si>
+  <si>
+    <t>zhulou2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;7;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖贝依城堡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;6;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0</t>
+  </si>
+  <si>
+    <t>zhulou4</t>
+  </si>
+  <si>
+    <t>天守阁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou5</t>
+  </si>
+  <si>
+    <t>瓦西里教堂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou6</t>
+  </si>
+  <si>
+    <t>金字塔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;8;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou7</t>
+  </si>
+  <si>
+    <t>紫禁城</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi2</t>
+  </si>
+  <si>
+    <t>m.IsRace("Undead")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi3</t>
+  </si>
+  <si>
+    <t>qizhi4</t>
+  </si>
+  <si>
+    <t>m.IsRace("Orc")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.IsRace("Spirit")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼怪旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>野性旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗夜旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi2</t>
+  </si>
+  <si>
+    <t>wuqi3</t>
+  </si>
+  <si>
+    <t>火枪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi4</t>
+  </si>
+  <si>
+    <t>飞锤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方亡灵14%最大生命值和攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方人类20%最大生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方兽人25%攻击力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方精灵14%最大生命值和攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang2</t>
+  </si>
+  <si>
+    <t>木墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>石墙</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞭望台</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianzhu1</t>
-  </si>
-  <si>
-    <t>7;9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物攻击加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterAtk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物生命加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterHp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipMonsterPickDelegate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物选取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PickMethod</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.IsRace("Human")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
+  </si>
+  <si>
+    <t>qiang3</t>
+  </si>
+  <si>
+    <t>刺墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu2</t>
+  </si>
+  <si>
+    <t>0;-5;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang4</t>
+  </si>
+  <si>
+    <t>黄金墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu3</t>
+  </si>
+  <si>
+    <t>训练房</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;0;-6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu4</t>
+  </si>
+  <si>
+    <t>温室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu5</t>
+  </si>
+  <si>
+    <t>-7;-3;10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>占卜小屋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu6</t>
+  </si>
+  <si>
+    <t>兵营</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi5</t>
+  </si>
+  <si>
+    <t>矮人火炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi6</t>
+  </si>
+  <si>
+    <t>巨弩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi7</t>
+  </si>
+  <si>
+    <t>激光</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang5</t>
+  </si>
+  <si>
+    <t>砖墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang6</t>
+  </si>
+  <si>
+    <t>铁皮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang7</t>
+  </si>
+  <si>
+    <t>祝福矿石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang8</t>
+  </si>
+  <si>
+    <t>纸板墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang9</t>
+  </si>
+  <si>
+    <t>铜墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang10</t>
+  </si>
+  <si>
+    <t>玻璃墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang11</t>
+  </si>
+  <si>
+    <t>龙鳞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi8</t>
+  </si>
+  <si>
+    <t>弹弓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu7</t>
+  </si>
+  <si>
+    <t>-8;8;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰箭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqi9</t>
+  </si>
+  <si>
+    <t>爆裂炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu8</t>
+  </si>
+  <si>
+    <t>巫毒塔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou8</t>
+  </si>
+  <si>
+    <t>2;6;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅堡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou9</t>
+  </si>
+  <si>
+    <t>玛雅神庙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;7;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou10</t>
+  </si>
+  <si>
+    <t>迪士尼城堡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou11</t>
+  </si>
+  <si>
+    <t>铁炉堡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;6;9</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +787,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +996,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="46">
@@ -1189,7 +1546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,9 +1582,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1266,6 +1620,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,35 +1685,6 @@
   <dxfs count="26">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -1380,144 +1720,6 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1677,6 +1879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="3"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1689,6 +1892,173 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3435,6 +3805,22 @@
             <v>50</v>
           </cell>
         </row>
+        <row r="209">
+          <cell r="A209">
+            <v>55990108</v>
+          </cell>
+          <cell r="Y209">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>55990109</v>
+          </cell>
+          <cell r="Y210">
+            <v>15</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
     </sheetDataSet>
@@ -3443,66 +3829,69 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="张剑慧" refreshedDate="42758.571644212963" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="90">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Administrator" refreshedDate="42888.618098611114" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="32">
     <cacheField name="Id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21100101" maxValue="21402503"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21100001" maxValue="21500001"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
       <sharedItems/>
+    </cacheField>
+    <cacheField name="Des" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Quality" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
         <n v="0"/>
         <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Level" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="29" count="26">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="13" u="1"/>
-        <n v="14" u="1"/>
-        <n v="15" u="1"/>
-        <n v="6" u="1"/>
-        <n v="17" u="1"/>
-        <n v="18" u="1"/>
-        <n v="19" u="1"/>
-        <n v="7" u="1"/>
-        <n v="20" u="1"/>
-        <n v="21" u="1"/>
-        <n v="22" u="1"/>
-        <n v="23" u="1"/>
-        <n v="8" u="1"/>
-        <n v="24" u="1"/>
-        <n v="25" u="1"/>
-        <n v="26" u="1"/>
-        <n v="10" u="1"/>
-        <n v="28" u="1"/>
-        <n v="29" u="1"/>
-        <n v="11" u="1"/>
-        <n v="12" u="1"/>
+        <n v="3" u="1"/>
+        <n v="2" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Position" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2500"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
-    <cacheField name="AtkP" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
+    <cacheField name="AtkR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
     </cacheField>
-    <cacheField name="VitP" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
+    <cacheField name="VitR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Def" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Mag" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Spd" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Hit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Dhit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Crt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Luk" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Sum" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Range" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SlotId" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="EnergyRate" numFmtId="0">
       <sharedItems/>
@@ -3510,8 +3899,38 @@
     <cacheField name="Durable" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
     </cacheField>
-    <cacheField name="SpecialSkill" numFmtId="0">
+    <cacheField name="HeroSkillId" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="MonsterAtk" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="MonsterHp" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
+    </cacheField>
+    <cacheField name="PickMethod" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="~SkillMark2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="~SkillMark22" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="CommonSkillId" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CommonSkillRate" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Disable" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="RandomDrop" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="CanMerge" numFmtId="0">
+      <sharedItems/>
     </cacheField>
     <cacheField name="Url" numFmtId="0">
       <sharedItems/>
@@ -3526,1313 +3945,227 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="90">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
   <r>
-    <n v="21100101"/>
-    <s v="强化皮帽"/>
-    <x v="0"/>
+    <n v="21100001"/>
+    <s v="草屋"/>
+    <m/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="50"/>
     <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="7;9"/>
     <s v="0;0;0"/>
     <n v="10"/>
     <m/>
-    <s v="toukui04"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="true"/>
+    <s v="true"/>
+    <s v="zhulou1"/>
   </r>
   <r>
-    <n v="21100102"/>
-    <s v="铁十字头盔"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="21100002"/>
+    <s v="西庸城堡"/>
+    <m/>
+    <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="50"/>
     <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <m/>
+    <m/>
     <s v="0;0;0"/>
     <n v="10"/>
     <m/>
-    <s v="toukui12"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="true"/>
+    <s v="true"/>
+    <s v="zhulou2"/>
   </r>
   <r>
-    <n v="21100103"/>
-    <s v="复仇者之冠"/>
+    <n v="21200001"/>
+    <s v="蓝色旗帜"/>
+    <s v="提升所有人类怪物10%最大生命值"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="50"/>
     <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
     <s v="0;0;0"/>
     <n v="10"/>
     <m/>
-    <s v="toukui13"/>
+    <m/>
+    <n v="10"/>
+    <s v="m.IsRace(&quot;Human&quot;)"/>
+    <n v="5"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="true"/>
+    <s v="true"/>
+    <s v="qizhi1"/>
   </r>
   <r>
-    <n v="21100104"/>
-    <s v="猎人帽"/>
+    <n v="21300001"/>
+    <s v="弓箭"/>
+    <m/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="3"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="50"/>
+    <n v="5"/>
     <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
     <s v="0;0;0"/>
     <n v="10"/>
     <m/>
-    <s v="toukui19"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="true"/>
+    <s v="true"/>
+    <s v="wuqi1"/>
   </r>
   <r>
-    <n v="21100105"/>
-    <s v="蛇皮帽"/>
+    <n v="21400001"/>
+    <s v="石墙"/>
+    <m/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="4"/>
     <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="1"/>
-    <n v="50"/>
     <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
     <s v="0;0;0"/>
     <n v="10"/>
     <m/>
-    <s v="toukui18"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="true"/>
+    <s v="true"/>
+    <s v="qiang1"/>
   </r>
   <r>
-    <n v="21100106"/>
-    <s v="兜帽"/>
+    <n v="21500001"/>
+    <s v="瞭望台"/>
+    <m/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="5"/>
     <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="1"/>
-    <n v="50"/>
     <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
     <s v="0;0;0"/>
     <n v="10"/>
     <m/>
-    <s v="toukui03"/>
-  </r>
-  <r>
-    <n v="21100107"/>
-    <s v="教士头巾"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
     <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
+    <n v="0"/>
     <m/>
-    <s v="toukui02"/>
-  </r>
-  <r>
-    <n v="21100108"/>
-    <s v="无边帽"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="50"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
     <m/>
-    <s v="toukui16"/>
-  </r>
-  <r>
-    <n v="21100109"/>
-    <s v="骨盔"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="50"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
     <m/>
-    <s v="toukui29"/>
-  </r>
-  <r>
-    <n v="21100110"/>
-    <s v="斗篷"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="50"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="toukui15"/>
-  </r>
-  <r>
-    <n v="21200101"/>
-    <s v="木棍"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi01"/>
-  </r>
-  <r>
-    <n v="21200311"/>
-    <s v="魔力手杖"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="120"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi15"/>
-  </r>
-  <r>
-    <n v="21200421"/>
-    <s v="双棍"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="150"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi14"/>
-  </r>
-  <r>
-    <n v="21200501"/>
-    <s v="攻击之爪"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="200"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi02"/>
-  </r>
-  <r>
-    <n v="21200711"/>
-    <s v="嗜血之刃"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="240"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi10"/>
-  </r>
-  <r>
-    <n v="21200721"/>
-    <s v="雷电之爪"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="300"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi16"/>
-  </r>
-  <r>
-    <n v="21200811"/>
-    <s v="剧毒刺刀"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="240"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi13"/>
-  </r>
-  <r>
-    <n v="21201001"/>
-    <s v="铜制短枪"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="350"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi03"/>
-  </r>
-  <r>
-    <n v="21201011"/>
-    <s v="霜寒之刃"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="420"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi04"/>
-  </r>
-  <r>
-    <n v="21201211"/>
-    <s v="火焰刀"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="420"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi08"/>
-  </r>
-  <r>
-    <n v="21201212"/>
-    <s v="飞刀"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="420"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi17"/>
-  </r>
-  <r>
-    <n v="21201411"/>
-    <s v="海王三叉戟"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="500"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi28"/>
-  </r>
-  <r>
-    <n v="21201421"/>
-    <s v="紫色背刺"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="525"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi18"/>
-  </r>
-  <r>
-    <n v="21201501"/>
-    <s v="剥皮小刀"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="600"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi05"/>
-  </r>
-  <r>
-    <n v="21201521"/>
-    <s v="蝴蝶"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="900"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi11"/>
-  </r>
-  <r>
-    <n v="21201711"/>
-    <s v="辉光"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="720"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi12"/>
-  </r>
-  <r>
-    <n v="21201811"/>
-    <s v="散失之刃"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="720"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi20"/>
-  </r>
-  <r>
-    <n v="21201831"/>
-    <s v="辉芒双刃"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="1200"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi19"/>
-  </r>
-  <r>
-    <n v="21202001"/>
-    <s v="优质弯刀"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="900"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi06"/>
-  </r>
-  <r>
-    <n v="21202111"/>
-    <s v="阔刀"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1080"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi21"/>
-  </r>
-  <r>
-    <n v="21202221"/>
-    <s v="邪恶短刃"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1350"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi09"/>
-  </r>
-  <r>
-    <n v="21202311"/>
-    <s v="锯齿战斧"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1080"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi22"/>
-  </r>
-  <r>
-    <n v="21202431"/>
-    <s v="邪神"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1800"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi23"/>
-  </r>
-  <r>
-    <n v="21202501"/>
-    <s v="刺客佩刀"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1250"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi07"/>
-  </r>
-  <r>
-    <n v="21202611"/>
-    <s v="精灵之刃"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1500"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi24"/>
-  </r>
-  <r>
-    <n v="21202811"/>
-    <s v="碧霞"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1500"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi25"/>
-  </r>
-  <r>
-    <n v="21202821"/>
-    <s v="碎冰"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1875"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi26"/>
-  </r>
-  <r>
-    <n v="21202921"/>
-    <s v="能量之泉"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="2500"/>
-    <n v="100"/>
-    <n v="0"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="wuqi27"/>
-  </r>
-  <r>
-    <n v="21300101"/>
-    <s v="学徒袍"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia01"/>
-  </r>
-  <r>
-    <n v="21300311"/>
-    <s v="皮制甲"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="120"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia10"/>
-  </r>
-  <r>
-    <n v="21300421"/>
-    <s v="斗篷"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="150"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia14"/>
-  </r>
-  <r>
-    <n v="21300501"/>
-    <s v="布制外衣"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="200"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia02"/>
-  </r>
-  <r>
-    <n v="21300611"/>
-    <s v="轻便外衣"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="240"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia27"/>
-  </r>
-  <r>
-    <n v="21300612"/>
-    <s v="狼皮布甲"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="240"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia09"/>
-  </r>
-  <r>
-    <n v="21300721"/>
-    <s v="上古外衣"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="300"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia15"/>
-  </r>
-  <r>
-    <n v="21300811"/>
-    <s v="恶臭之皮"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="240"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia11"/>
-  </r>
-  <r>
-    <n v="21301001"/>
-    <s v="林地外套"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="350"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia03"/>
-  </r>
-  <r>
-    <n v="21301011"/>
-    <s v="微光铠甲"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="420"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia04"/>
-  </r>
-  <r>
-    <n v="21301111"/>
-    <s v="海王银甲"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="500"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia28"/>
-  </r>
-  <r>
-    <n v="21301211"/>
-    <s v="牧师法袍"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="420"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia08"/>
-  </r>
-  <r>
-    <n v="21301311"/>
-    <s v="皮革外衣"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="420"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia16"/>
-  </r>
-  <r>
-    <n v="21301421"/>
-    <s v="灰鳞皮衣"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="525"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia17"/>
-  </r>
-  <r>
-    <n v="21301501"/>
-    <s v="鳞甲外衣"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="600"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia05"/>
-  </r>
-  <r>
-    <n v="21301711"/>
-    <s v="刃甲"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="720"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia12"/>
-  </r>
-  <r>
-    <n v="21301821"/>
-    <s v="血色鳞甲"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="900"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia13"/>
-  </r>
-  <r>
-    <n v="21301911"/>
-    <s v="骨甲"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="720"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia18"/>
-  </r>
-  <r>
-    <n v="21301931"/>
-    <s v="水晶铠甲"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="1200"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia19"/>
-  </r>
-  <r>
-    <n v="21302001"/>
-    <s v="铁锈链甲"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="900"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia06"/>
-  </r>
-  <r>
-    <n v="21302111"/>
-    <s v="维京战袍"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1080"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia20"/>
-  </r>
-  <r>
-    <n v="21302211"/>
-    <s v="板甲"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1080"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia07"/>
-  </r>
-  <r>
-    <n v="21302221"/>
-    <s v="色雷胸甲"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1350"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia21"/>
-  </r>
-  <r>
-    <n v="21302431"/>
-    <s v="炫金战甲"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1800"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia22"/>
-  </r>
-  <r>
-    <n v="21302501"/>
-    <s v="强化链甲"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1250"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia07"/>
-  </r>
-  <r>
-    <n v="21302611"/>
-    <s v="碧虚甲"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1500"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia23"/>
-  </r>
-  <r>
-    <n v="21302621"/>
-    <s v="武士宝甲"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1875"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia25"/>
-  </r>
-  <r>
-    <n v="21302811"/>
-    <s v="骑士胸甲"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1500"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia24"/>
-  </r>
-  <r>
-    <n v="21302931"/>
-    <s v="雷恩法袍"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2500"/>
-    <n v="0"/>
-    <n v="100"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="hujia26"/>
-  </r>
-  <r>
-    <n v="21400101"/>
-    <s v="金戒指"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi01"/>
-  </r>
-  <r>
-    <n v="21400501"/>
-    <s v="贝壳挂件"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="200"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian01"/>
-  </r>
-  <r>
-    <n v="21400691"/>
-    <s v="矮人王项圈"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="240"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="15;0;-15"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian12"/>
-  </r>
-  <r>
-    <n v="21401001"/>
-    <s v="青铜指环"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="350"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi02"/>
-  </r>
-  <r>
-    <n v="21401002"/>
-    <s v="能量护符"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="350"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian03"/>
-  </r>
-  <r>
-    <n v="21401003"/>
-    <s v="生命护符"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="350"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian02"/>
-  </r>
-  <r>
-    <n v="21401011"/>
-    <s v="银月"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="420"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian04"/>
-  </r>
-  <r>
-    <n v="21401111"/>
-    <s v="太阳挂件"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="500"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian11"/>
-  </r>
-  <r>
-    <n v="21401311"/>
-    <s v="海皇戒"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="400"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi10"/>
-  </r>
-  <r>
-    <n v="21401501"/>
-    <s v="紫铜指环"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="600"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi03"/>
-  </r>
-  <r>
-    <n v="21401502"/>
-    <s v="蓝宝石挂件"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="600"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian06"/>
-  </r>
-  <r>
-    <n v="21401503"/>
-    <s v="勇者挂件"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="600"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian05"/>
-  </r>
-  <r>
-    <n v="21401511"/>
-    <s v="蜘蛛戒指"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="720"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi09"/>
-  </r>
-  <r>
-    <n v="21401512"/>
-    <s v="骷髅戒指"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="720"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi06"/>
-  </r>
-  <r>
-    <n v="21401513"/>
-    <s v="雄鹰戒指"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="720"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi07"/>
-  </r>
-  <r>
-    <n v="21401514"/>
-    <s v="雄狮戒指"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="720"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi08"/>
-  </r>
-  <r>
-    <n v="21401711"/>
-    <s v="扭曲挂件"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="720"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian10"/>
-  </r>
-  <r>
-    <n v="21402001"/>
-    <s v="恒心戒指"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="900"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi04"/>
-  </r>
-  <r>
-    <n v="21402002"/>
-    <s v="魔法护符"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="900"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian08"/>
-  </r>
-  <r>
-    <n v="21402003"/>
-    <s v="卡嘉护符"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="900"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian07"/>
-  </r>
-  <r>
-    <n v="21402501"/>
-    <s v="心境之戒"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="1250"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="jiezhi05"/>
-  </r>
-  <r>
-    <n v="21402502"/>
-    <s v="魔精珠串"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="1250"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian09"/>
-  </r>
-  <r>
-    <n v="21402503"/>
-    <s v="力量珠串"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="1250"/>
-    <n v="0"/>
-    <n v="30"/>
-    <s v="0;0;0"/>
-    <n v="10"/>
-    <m/>
-    <s v="xianglian09"/>
+    <s v="true"/>
+    <s v="true"/>
+    <s v="jianzhu1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="32">
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="27">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="8"/>
-        <item m="1" x="12"/>
-        <item m="1" x="17"/>
-        <item m="1" x="21"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4844,45 +4177,39 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
     <field x="3"/>
-  </rowFields>
-  <rowItems count="6">
+  </colFields>
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -4904,49 +4231,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF8" totalsRowShown="0">
-  <autoFilter ref="A3:AF8"/>
-  <sortState ref="A4:AF7">
-    <sortCondition ref="A3:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF46" totalsRowShown="0">
+  <autoFilter ref="A3:AF46"/>
+  <sortState ref="A4:AF28">
+    <sortCondition ref="A3:A28"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="32" name="Des" dataDxfId="0"/>
+    <tableColumn id="32" name="Des" dataDxfId="13"/>
     <tableColumn id="3" name="Quality" dataDxfId="25">
       <calculatedColumnFormula>IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="24"/>
+    <tableColumn id="19" name="Value" dataDxfId="24">
+      <calculatedColumnFormula>D4*50+50</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="23"/>
-    <tableColumn id="22" name="Mag" dataDxfId="22"/>
-    <tableColumn id="27" name="Spd" dataDxfId="21"/>
-    <tableColumn id="26" name="Hit" dataDxfId="20"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="19"/>
-    <tableColumn id="24" name="Crt" dataDxfId="18"/>
-    <tableColumn id="23" name="Luk" dataDxfId="17"/>
-    <tableColumn id="28" name="Sum" dataDxfId="16">
+    <tableColumn id="6" name="Def" dataDxfId="12"/>
+    <tableColumn id="22" name="Mag" dataDxfId="11"/>
+    <tableColumn id="27" name="Spd" dataDxfId="10"/>
+    <tableColumn id="26" name="Hit" dataDxfId="9"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="8"/>
+    <tableColumn id="24" name="Crt" dataDxfId="7"/>
+    <tableColumn id="23" name="Luk" dataDxfId="6"/>
+    <tableColumn id="28" name="Sum" dataDxfId="5">
       <calculatedColumnFormula>G4+H4+ SUM(I4:O4)*5+Y4+Z4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="15"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="14"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="13"/>
+    <tableColumn id="12" name="Range" dataDxfId="23"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="22"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="21"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="8"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="7"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="6"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="16"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="15"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="14"/>
     <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="12">
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="20">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="11"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="10"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="9"/>
+    <tableColumn id="15" name="Disable" dataDxfId="19"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="18"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="17"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5274,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5311,7 +4640,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
@@ -5328,74 +4657,74 @@
       <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>51</v>
+      <c r="V1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF1" s="8" t="s">
         <v>7</v>
@@ -5409,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -5426,74 +4755,74 @@
       <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>52</v>
+      <c r="I2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>1</v>
@@ -5507,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -5519,79 +4848,79 @@
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="M3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AB3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="AC3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s">
         <v>13</v>
@@ -5602,7 +4931,7 @@
         <v>21100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -5613,7 +4942,8 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <f>D4*50+50</f>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -5621,34 +4951,34 @@
       <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" ref="P4:P5" si="0">G4+H4+ SUM(I4:O4)*5+Y4+Z4</f>
-        <v>5</v>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="24">
+        <f t="shared" ref="P4:P15" si="0">G4+H4+ SUM(I4:O4)*5+Y4+Z4</f>
+        <v>-5</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>18</v>
@@ -5661,7 +4991,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Z4" s="1">
         <f>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB4/100)</f>
@@ -5671,66 +5001,69 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>21200001</v>
+        <v>21100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D6" si="1">IF(P5&gt;=23,4,IF(AND(P5&gt;=18,P5&lt;23),3,IF(AND(P5&gt;=13,P5&lt;18),2,IF(AND(P5&gt;=8,P5&lt;13),1,0))))</f>
-        <v>0</v>
+        <f>IF(P5&gt;=23,4,IF(AND(P5&gt;=18,P5&lt;23),3,IF(AND(P5&gt;=13,P5&lt;18),2,IF(AND(P5&gt;=8,P5&lt;13),1,0))))</f>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <f t="shared" ref="F5:F44" si="1">D5*50+50</f>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24">
+        <f>G5+H5+ SUM(I5:O5)*5+Y5+Z5</f>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5739,83 +5072,82 @@
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1">
-        <v>10</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
       <c r="Y5" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="28">
         <f>IF(ISBLANK(AA5),0, LOOKUP(AA5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB5/100)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="26"/>
       <c r="AD5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>21300001</v>
+        <v>21100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
+        <f>IF(P6&gt;=23,4,IF(AND(P6&gt;=18,P6&lt;23),3,IF(AND(P6&gt;=13,P6&lt;18),2,IF(AND(P6&gt;=8,P6&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" ref="P6" si="2">G6+H6+ SUM(I6:O6)*5+Y6+Z6</f>
-        <v>5</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f>G6+H6+ SUM(I6:O6)*5+Y6+Z6</f>
+        <v>14</v>
+      </c>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="S6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5829,49 +5161,50 @@
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="28">
         <f>IF(ISBLANK(AA6),0, LOOKUP(AA6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB6/100)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="AC6" s="26"/>
       <c r="AD6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>21400001</v>
+      <c r="A7" s="1">
+        <v>21100004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="23">
-        <f t="shared" ref="D7" si="3">IF(P7&gt;=23,4,IF(AND(P7&gt;=18,P7&lt;23),3,IF(AND(P7&gt;=13,P7&lt;18),2,IF(AND(P7&gt;=8,P7&lt;13),1,0))))</f>
-        <v>0</v>
+      <c r="D7" s="1">
+        <f>IF(P7&gt;=23,4,IF(AND(P7&gt;=18,P7&lt;23),3,IF(AND(P7&gt;=13,P7&lt;18),2,IF(AND(P7&gt;=8,P7&lt;13),1,0))))</f>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -5891,127 +5224,3226 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="25">
-        <f t="shared" ref="P7" si="4">G7+H7+ SUM(I7:O7)*5+Y7+Z7</f>
-        <v>5</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7">
+      <c r="P7" s="24">
+        <f>G7+H7+ SUM(I7:O7)*5+Y7+Z7</f>
+        <v>9</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="1">
         <v>10</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="28">
         <f>IF(ISBLANK(AA7),0, LOOKUP(AA7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB7/100)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>80</v>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="1">
+        <v>21100005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f>IF(P8&gt;=23,4,IF(AND(P8&gt;=18,P8&lt;23),3,IF(AND(P8&gt;=13,P8&lt;18),2,IF(AND(P8&gt;=8,P8&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <f>G8+H8+ SUM(I8:O8)*5+Y8+Z8</f>
+        <v>13</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="1">
+        <v>10</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="28">
+        <f>IF(ISBLANK(AA8),0, LOOKUP(AA8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB8/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>21100006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f>IF(P9&gt;=23,4,IF(AND(P9&gt;=18,P9&lt;23),3,IF(AND(P9&gt;=13,P9&lt;18),2,IF(AND(P9&gt;=8,P9&lt;13),1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
+        <f>G9+H9+ SUM(I9:O9)*5+Y9+Z9</f>
+        <v>25</v>
+      </c>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="1">
+        <v>10</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="28">
+        <f>IF(ISBLANK(AA9),0, LOOKUP(AA9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>21100007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <f>IF(P10&gt;=23,4,IF(AND(P10&gt;=18,P10&lt;23),3,IF(AND(P10&gt;=13,P10&lt;18),2,IF(AND(P10&gt;=8,P10&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <f>G10+H10+ SUM(I10:O10)*5+Y10+Z10</f>
+        <v>14</v>
+      </c>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="1">
+        <v>10</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="28">
+        <f>IF(ISBLANK(AA10),0, LOOKUP(AA10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB10/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>21100008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f>IF(P11&gt;=23,4,IF(AND(P11&gt;=18,P11&lt;23),3,IF(AND(P11&gt;=13,P11&lt;18),2,IF(AND(P11&gt;=8,P11&lt;13),1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F12" si="2">D11*50+50</f>
+        <v>250</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <f>G11+H11+ SUM(I11:O11)*5+Y11+Z11</f>
+        <v>25</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="1">
+        <v>10</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="28">
+        <f>IF(ISBLANK(AA11),0, LOOKUP(AA11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB11/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>21100009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f>IF(P12&gt;=23,4,IF(AND(P12&gt;=18,P12&lt;23),3,IF(AND(P12&gt;=13,P12&lt;18),2,IF(AND(P12&gt;=8,P12&lt;13),1,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <f>G12+H12+ SUM(I12:O12)*5+Y12+Z12</f>
+        <v>20</v>
+      </c>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="28">
+        <f>IF(ISBLANK(AA12),0, LOOKUP(AA12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB12/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>21100010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>IF(P13&gt;=23,4,IF(AND(P13&gt;=18,P13&lt;23),3,IF(AND(P13&gt;=13,P13&lt;18),2,IF(AND(P13&gt;=8,P13&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:F14" si="3">D13*50+50</f>
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="24">
+        <f>G13+H13+ SUM(I13:O13)*5+Y13+Z13</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="1">
+        <v>10</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Z13" s="28">
+        <f>IF(ISBLANK(AA13),0, LOOKUP(AA13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB13/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>21100011</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>IF(P14&gt;=23,4,IF(AND(P14&gt;=18,P14&lt;23),3,IF(AND(P14&gt;=13,P14&lt;18),2,IF(AND(P14&gt;=8,P14&lt;13),1,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="29">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
+        <f>G14+H14+ SUM(I14:O14)*5+Y14+Z14</f>
+        <v>20</v>
+      </c>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="28">
+        <f>IF(ISBLANK(AA14),0, LOOKUP(AA14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>21200001</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:D19" si="4">IF(P15&gt;=23,4,IF(AND(P15&gt;=18,P15&lt;23),3,IF(AND(P15&gt;=13,P15&lt;18),2,IF(AND(P15&gt;=8,P15&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="1">
+        <v>10</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1">
+        <v>20</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>IF(ISBLANK(AA15),0, LOOKUP(AA15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB15/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>21200002</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D17" si="5">IF(P16&gt;=23,4,IF(AND(P16&gt;=18,P16&lt;23),3,IF(AND(P16&gt;=13,P16&lt;18),2,IF(AND(P16&gt;=8,P16&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" ref="P16:P17" si="6">G16+H16+ SUM(I16:O16)*5+Y16+Z16</f>
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T16" s="1">
+        <v>10</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <v>14</v>
+      </c>
+      <c r="W16" s="1">
+        <v>14</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>IF(ISBLANK(AA16),0, LOOKUP(AA16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB16/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>21200003</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="24">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="1">
+        <v>10</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>25</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>IF(ISBLANK(AA17),0, LOOKUP(AA17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB17/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>21200004</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18" si="7">IF(P18&gt;=23,4,IF(AND(P18&gt;=18,P18&lt;23),3,IF(AND(P18&gt;=13,P18&lt;18),2,IF(AND(P18&gt;=8,P18&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="24">
+        <f t="shared" ref="P18" si="8">G18+H18+ SUM(I18:O18)*5+Y18+Z18</f>
+        <v>14</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="1">
+        <v>10</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
+        <v>14</v>
+      </c>
+      <c r="W18" s="1">
+        <v>14</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>IF(ISBLANK(AA18),0, LOOKUP(AA18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB18/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>21300001</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="24">
+        <f t="shared" ref="P19" si="9">G19+H19+ SUM(I19:O19)*5+Y19+Z19</f>
+        <v>5</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="1">
+        <v>10</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>IF(ISBLANK(AA19),0, LOOKUP(AA19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB19/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>21300002</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:D21" si="10">IF(P20&gt;=23,4,IF(AND(P20&gt;=18,P20&lt;23),3,IF(AND(P20&gt;=13,P20&lt;18),2,IF(AND(P20&gt;=8,P20&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="24">
+        <f t="shared" ref="P20:P21" si="11">G20+H20+ SUM(I20:O20)*5+Y20+Z20</f>
+        <v>9</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T20" s="1">
+        <v>10</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>IF(ISBLANK(AA20),0, LOOKUP(AA20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB20/100)</f>
+        <v>3</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>55510010</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>21300003</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="24">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="1">
+        <v>10</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>IF(ISBLANK(AA21),0, LOOKUP(AA21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB21/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21300004</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:D23" si="12">IF(P22&gt;=23,4,IF(AND(P22&gt;=18,P22&lt;23),3,IF(AND(P22&gt;=13,P22&lt;18),2,IF(AND(P22&gt;=8,P22&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="24">
+        <f t="shared" ref="P22:P23" si="13">G22+H22+ SUM(I22:O22)*5+Y22+Z22</f>
+        <v>17.3</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="1">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>IF(ISBLANK(AA22),0, LOOKUP(AA22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB22/100)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>55510012</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>15</v>
+      </c>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>21300005</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="24">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="1">
+        <v>10</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f>IF(ISBLANK(AA23),0, LOOKUP(AA23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB23/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>21300006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D25" si="14">IF(P24&gt;=23,4,IF(AND(P24&gt;=18,P24&lt;23),3,IF(AND(P24&gt;=13,P24&lt;18),2,IF(AND(P24&gt;=8,P24&lt;13),1,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="23">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="24">
+        <f t="shared" ref="P24:P25" si="15">G24+H24+ SUM(I24:O24)*5+Y24+Z24</f>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="1">
+        <v>10</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>IF(ISBLANK(AA24),0, LOOKUP(AA24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>21300007</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="23">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>5</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="24">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="1">
+        <v>10</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>IF(ISBLANK(AA25),0, LOOKUP(AA25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>21300008</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:D27" si="16">IF(P26&gt;=23,4,IF(AND(P26&gt;=18,P26&lt;23),3,IF(AND(P26&gt;=13,P26&lt;18),2,IF(AND(P26&gt;=8,P26&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ref="F26:F27" si="17">D26*50+50</f>
+        <v>50</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="23">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" ref="P26:P27" si="18">G26+H26+ SUM(I26:O26)*5+Y26+Z26</f>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="1">
+        <v>10</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>IF(ISBLANK(AA26),0, LOOKUP(AA26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB26/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>21300009</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="23">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-4</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="24">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="1">
+        <v>10</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <f>IF(ISBLANK(AA27),0, LOOKUP(AA27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB27/100)</f>
+        <v>35</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>55100007</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>21400001</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="22">
+        <f t="shared" ref="D28" si="19">IF(P28&gt;=23,4,IF(AND(P28&gt;=18,P28&lt;23),3,IF(AND(P28&gt;=13,P28&lt;18),2,IF(AND(P28&gt;=8,P28&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="24">
+        <f t="shared" ref="P28" si="20">G28+H28+ SUM(I28:O28)*5+Y28+Z28</f>
+        <v>5</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f>IF(ISBLANK(AA28),0, LOOKUP(AA28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB28/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>21400002</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="22">
+        <f t="shared" ref="D29:D30" si="21">IF(P29&gt;=23,4,IF(AND(P29&gt;=18,P29&lt;23),3,IF(AND(P29&gt;=13,P29&lt;18),2,IF(AND(P29&gt;=8,P29&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23">
+        <v>2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24">
+        <f t="shared" ref="P29:P30" si="22">G29+H29+ SUM(I29:O29)*5+Y29+Z29</f>
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f>IF(ISBLANK(AA29),0, LOOKUP(AA29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB29/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>21400003</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="22">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="24">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f>IF(ISBLANK(AA30),0, LOOKUP(AA30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB30/100)</f>
+        <v>10</v>
+      </c>
+      <c r="AA30">
+        <v>55110005</v>
+      </c>
+      <c r="AB30">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>21400004</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="22">
+        <f t="shared" ref="D31:D32" si="23">IF(P31&gt;=23,4,IF(AND(P31&gt;=18,P31&lt;23),3,IF(AND(P31&gt;=13,P31&lt;18),2,IF(AND(P31&gt;=8,P31&lt;13),1,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="23">
+        <v>4</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="24">
+        <f t="shared" ref="P31:P32" si="24">G31+H31+ SUM(I31:O31)*5+Y31+Z31</f>
+        <v>20</v>
+      </c>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f>IF(ISBLANK(AA31),0, LOOKUP(AA31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB31/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>21400005</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="22">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ref="F32:F33" si="25">D32*50+50</f>
+        <v>100</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f>IF(ISBLANK(AA32),0, LOOKUP(AA32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB32/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>21400006</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="22">
+        <f t="shared" ref="D33:D34" si="26">IF(P33&gt;=23,4,IF(AND(P33&gt;=18,P33&lt;23),3,IF(AND(P33&gt;=13,P33&lt;18),2,IF(AND(P33&gt;=8,P33&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="25"/>
+        <v>150</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>4</v>
+      </c>
+      <c r="I33" s="23">
+        <v>2</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="24">
+        <f t="shared" ref="P33:P34" si="27">G33+H33+ SUM(I33:O33)*5+Y33+Z33</f>
+        <v>14</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f>IF(ISBLANK(AA33),0, LOOKUP(AA33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB33/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>21400007</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="22">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F35" si="28">D34*50+50</f>
+        <v>200</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f>IF(ISBLANK(AA34),0, LOOKUP(AA34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB34/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>21400008</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="22">
+        <f t="shared" ref="D35:D36" si="29">IF(P35&gt;=23,4,IF(AND(P35&gt;=18,P35&lt;23),3,IF(AND(P35&gt;=13,P35&lt;18),2,IF(AND(P35&gt;=8,P35&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="28"/>
+        <v>50</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="24">
+        <f t="shared" ref="P35:P36" si="30">G35+H35+ SUM(I35:O35)*5+Y35+Z35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f>IF(ISBLANK(AA35),0, LOOKUP(AA35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB35/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>21400009</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="22">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ref="F36:F37" si="31">D36*50+50</f>
+        <v>150</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>3</v>
+      </c>
+      <c r="I36" s="23">
+        <v>2</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="24">
+        <f t="shared" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f>IF(ISBLANK(AA36),0, LOOKUP(AA36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB36/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>21400010</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="22">
+        <f t="shared" ref="D37:D38" si="32">IF(P37&gt;=23,4,IF(AND(P37&gt;=18,P37&lt;23),3,IF(AND(P37&gt;=13,P37&lt;18),2,IF(AND(P37&gt;=8,P37&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="31"/>
+        <v>150</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>3</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="24">
+        <f t="shared" ref="P37:P38" si="33">G37+H37+ SUM(I37:O37)*5+Y37+Z37</f>
+        <v>15</v>
+      </c>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f>IF(ISBLANK(AA37),0, LOOKUP(AA37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB37/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>21400011</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="22">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ref="F38" si="34">D38*50+50</f>
+        <v>250</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5</v>
+      </c>
+      <c r="I38" s="23">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="24">
+        <f t="shared" si="33"/>
+        <v>30</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f>IF(ISBLANK(AA38),0, LOOKUP(AA38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB38/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>21500001</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="23">
-        <f t="shared" ref="D8" si="5">IF(P8&gt;=23,4,IF(AND(P8&gt;=18,P8&lt;23),3,IF(AND(P8&gt;=13,P8&lt;18),2,IF(AND(P8&gt;=8,P8&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="22">
+        <f t="shared" ref="D39" si="35">IF(P39&gt;=23,4,IF(AND(P39&gt;=18,P39&lt;23),3,IF(AND(P39&gt;=13,P39&lt;18),2,IF(AND(P39&gt;=8,P39&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="24">
+        <f t="shared" ref="P39" si="36">G39+H39+ SUM(I39:O39)*5+Y39+Z39</f>
+        <v>10</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>5</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T39">
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <f>IF(ISBLANK(AA39),0, LOOKUP(AA39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB39/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>21500002</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="22">
+        <f t="shared" ref="D40:D41" si="37">IF(P40&gt;=23,4,IF(AND(P40&gt;=18,P40&lt;23),3,IF(AND(P40&gt;=13,P40&lt;18),2,IF(AND(P40&gt;=8,P40&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
         <v>1</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <f t="shared" ref="P8" si="6">G8+H8+ SUM(I8:O8)*5+Y8+Z8</f>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="24">
+        <f t="shared" ref="P40:P41" si="38">G40+H40+ SUM(I40:O40)*5+Y40+Z40</f>
+        <v>10</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
         <v>5</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8">
+      <c r="Z40">
+        <f>IF(ISBLANK(AA40),0, LOOKUP(AA40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB40/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>21500003</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="22">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="23">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="24">
+        <f t="shared" si="38"/>
+        <v>11</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>6</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="T41">
         <v>10</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f>IF(ISBLANK(AA8),0, LOOKUP(AA8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB8/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>83</v>
+      <c r="Y41">
+        <v>6</v>
+      </c>
+      <c r="Z41">
+        <f>IF(ISBLANK(AA41),0, LOOKUP(AA41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB41/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>21500004</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="22">
+        <f t="shared" ref="D42:D43" si="39">IF(P42&gt;=23,4,IF(AND(P42&gt;=18,P42&lt;23),3,IF(AND(P42&gt;=13,P42&lt;18),2,IF(AND(P42&gt;=8,P42&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4</v>
+      </c>
+      <c r="I42" s="23">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="24">
+        <f t="shared" ref="P42:P43" si="40">G42+H42+ SUM(I42:O42)*5+Y42+Z42</f>
+        <v>8</v>
+      </c>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f>IF(ISBLANK(AA42),0, LOOKUP(AA42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB42/100)</f>
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>55990108</v>
+      </c>
+      <c r="AB42">
+        <v>100</v>
+      </c>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>21500005</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="22">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>1</v>
+      </c>
+      <c r="P43" s="24">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T43">
+        <v>10</v>
+      </c>
+      <c r="Y43">
+        <v>10</v>
+      </c>
+      <c r="Z43">
+        <f>IF(ISBLANK(AA43),0, LOOKUP(AA43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB43/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>21500006</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="22">
+        <f t="shared" ref="D44:D45" si="41">IF(P44&gt;=23,4,IF(AND(P44&gt;=18,P44&lt;23),3,IF(AND(P44&gt;=13,P44&lt;18),2,IF(AND(P44&gt;=8,P44&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="24">
+        <f t="shared" ref="P44:P45" si="42">G44+H44+ SUM(I44:O44)*5+Y44+Z44</f>
+        <v>15</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f>IF(ISBLANK(AA44),0, LOOKUP(AA44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB44/100)</f>
+        <v>15</v>
+      </c>
+      <c r="AA44">
+        <v>55990109</v>
+      </c>
+      <c r="AB44">
+        <v>100</v>
+      </c>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>21500007</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="22">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ref="F45:F46" si="43">D45*50+50</f>
+        <v>100</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="23">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="24">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="T45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <f>IF(ISBLANK(AA45),0, LOOKUP(AA45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB45/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>21500008</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="22">
+        <f t="shared" ref="D46" si="44">IF(P46&gt;=23,4,IF(AND(P46&gt;=18,P46&lt;23),3,IF(AND(P46&gt;=13,P46&lt;18),2,IF(AND(P46&gt;=8,P46&lt;13),1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="43"/>
+        <v>250</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="23">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>3</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="24">
+        <f t="shared" ref="P46" si="45">G46+H46+ SUM(I46:O46)*5+Y46+Z46</f>
+        <v>25</v>
+      </c>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f>IF(ISBLANK(AA46),0, LOOKUP(AA46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB46/100)</f>
+        <v>10</v>
+      </c>
+      <c r="AA46">
+        <v>55110003</v>
+      </c>
+      <c r="AB46">
+        <v>40</v>
+      </c>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D4:D46">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6026,161 +8458,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" customWidth="1"/>
+    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>22</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
       <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
         <v>6</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10">
-        <v>11</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10">
-        <v>36</v>
-      </c>
-      <c r="C10" s="10">
-        <v>36</v>
-      </c>
-      <c r="D10" s="10">
-        <v>12</v>
-      </c>
-      <c r="E10" s="10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -20,7 +20,7 @@
   </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="204">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -780,6 +780,42 @@
   </si>
   <si>
     <t>3;6;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭矢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrowred</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>bluepea</t>
+  </si>
+  <si>
+    <t>electball</t>
+  </si>
+  <si>
+    <t>laser</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1682,7 +1718,26 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1720,6 +1775,144 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1936,10 +2129,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1980,148 +2177,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3436,6 +3491,7 @@
           <cell r="A162">
             <v>55900028</v>
           </cell>
+          <cell r="Y162"/>
         </row>
         <row r="163">
           <cell r="A163">
@@ -4154,7 +4210,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField dataField="1" showAll="0"/>
@@ -4231,15 +4287,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF46" totalsRowShown="0">
-  <autoFilter ref="A3:AF46"/>
-  <sortState ref="A4:AF28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG46" totalsRowShown="0">
+  <autoFilter ref="A3:AG46"/>
+  <sortState ref="A4:AG28">
     <sortCondition ref="A3:A28"/>
   </sortState>
-  <tableColumns count="32">
+  <tableColumns count="33">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="32" name="Des" dataDxfId="13"/>
+    <tableColumn id="32" name="Des" dataDxfId="26"/>
     <tableColumn id="3" name="Quality" dataDxfId="25">
       <calculatedColumnFormula>IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
@@ -4249,33 +4305,34 @@
     </tableColumn>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="12"/>
-    <tableColumn id="22" name="Mag" dataDxfId="11"/>
-    <tableColumn id="27" name="Spd" dataDxfId="10"/>
-    <tableColumn id="26" name="Hit" dataDxfId="9"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="8"/>
-    <tableColumn id="24" name="Crt" dataDxfId="7"/>
-    <tableColumn id="23" name="Luk" dataDxfId="6"/>
-    <tableColumn id="28" name="Sum" dataDxfId="5">
-      <calculatedColumnFormula>G4+H4+ SUM(I4:O4)*5+Y4+Z4</calculatedColumnFormula>
+    <tableColumn id="6" name="Def" dataDxfId="23"/>
+    <tableColumn id="22" name="Mag" dataDxfId="22"/>
+    <tableColumn id="27" name="Spd" dataDxfId="21"/>
+    <tableColumn id="26" name="Hit" dataDxfId="20"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="19"/>
+    <tableColumn id="24" name="Crt" dataDxfId="18"/>
+    <tableColumn id="23" name="Luk" dataDxfId="17"/>
+    <tableColumn id="28" name="Sum" dataDxfId="16">
+      <calculatedColumnFormula>G4+H4+ SUM(I4:O4)*5+Z4+AA4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="23"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="22"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="21"/>
+    <tableColumn id="12" name="Range" dataDxfId="15"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="0"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="14"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="13"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="16"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="15"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="14"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="12"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="11"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="10"/>
     <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="20">
-      <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB4/100)</calculatedColumnFormula>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="9">
+      <calculatedColumnFormula>IF(ISBLANK(AB4),0, LOOKUP(AB4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC4/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="19"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="18"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="17"/>
+    <tableColumn id="15" name="Disable" dataDxfId="8"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="7"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="6"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4603,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4617,22 +4674,22 @@
     <col min="6" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="8" width="5.125" customWidth="1"/>
     <col min="9" max="16" width="4.5" customWidth="1"/>
-    <col min="17" max="17" width="5.125" customWidth="1"/>
-    <col min="18" max="18" width="16.875" customWidth="1"/>
-    <col min="19" max="19" width="8.625" customWidth="1"/>
-    <col min="20" max="20" width="5" customWidth="1"/>
-    <col min="21" max="21" width="8.625" customWidth="1"/>
-    <col min="22" max="23" width="4.875" customWidth="1"/>
-    <col min="24" max="24" width="16.375" customWidth="1"/>
-    <col min="25" max="25" width="8.625" customWidth="1"/>
-    <col min="26" max="26" width="5.875" customWidth="1"/>
-    <col min="27" max="27" width="8.625" customWidth="1"/>
-    <col min="28" max="28" width="5.25" customWidth="1"/>
-    <col min="29" max="31" width="6" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="16.875" customWidth="1"/>
+    <col min="20" max="20" width="8.625" customWidth="1"/>
+    <col min="21" max="21" width="5" customWidth="1"/>
+    <col min="22" max="22" width="8.625" customWidth="1"/>
+    <col min="23" max="24" width="4.875" customWidth="1"/>
+    <col min="25" max="25" width="16.375" customWidth="1"/>
+    <col min="26" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="27" width="5.875" customWidth="1"/>
+    <col min="28" max="28" width="8.625" customWidth="1"/>
+    <col min="29" max="29" width="5.25" customWidth="1"/>
+    <col min="30" max="32" width="6" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -4685,52 +4742,55 @@
         <v>45</v>
       </c>
       <c r="R1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4783,52 +4843,55 @@
         <v>0</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="U2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="X2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="AB2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AF2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4881,52 +4944,55 @@
         <v>26</v>
       </c>
       <c r="R3" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="U3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="V3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="W3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Y3" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>21100001</v>
       </c>
@@ -4935,7 +5001,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <f>IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</f>
+        <f t="shared" ref="D4:D14" si="0">IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -4973,44 +5039,45 @@
         <v>0</v>
       </c>
       <c r="P4" s="24">
-        <f t="shared" ref="P4:P15" si="0">G4+H4+ SUM(I4:O4)*5+Y4+Z4</f>
+        <f t="shared" ref="P4:P15" si="1">G4+H4+ SUM(I4:O4)*5+Z4+AA4</f>
         <v>-5</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>10</v>
       </c>
-      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1">
         <v>-10</v>
       </c>
-      <c r="Z4" s="1">
-        <f>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1"/>
+      <c r="AA4" s="1">
+        <f>IF(ISBLANK(AB4),0, LOOKUP(AB4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC4/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>21100002</v>
       </c>
@@ -5019,14 +5086,14 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>IF(P5&gt;=23,4,IF(AND(P5&gt;=18,P5&lt;23),3,IF(AND(P5&gt;=13,P5&lt;18),2,IF(AND(P5&gt;=8,P5&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F44" si="1">D5*50+50</f>
+        <f t="shared" ref="F5:F44" si="2">D5*50+50</f>
         <v>100</v>
       </c>
       <c r="G5" s="1">
@@ -5057,44 +5124,45 @@
         <v>0</v>
       </c>
       <c r="P5" s="24">
-        <f>G5+H5+ SUM(I5:O5)*5+Y5+Z5</f>
+        <f t="shared" ref="P5:P14" si="3">G5+H5+ SUM(I5:O5)*5+Z5+AA5</f>
         <v>10</v>
       </c>
       <c r="Q5" s="25"/>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="25"/>
+      <c r="S5" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>10</v>
       </c>
-      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="28">
-        <f>IF(ISBLANK(AA5),0, LOOKUP(AA5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="28">
+        <f>IF(ISBLANK(AB5),0, LOOKUP(AB5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC5/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="26"/>
       <c r="AE5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>21100003</v>
       </c>
@@ -5103,14 +5171,14 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>IF(P6&gt;=23,4,IF(AND(P6&gt;=18,P6&lt;23),3,IF(AND(P6&gt;=13,P6&lt;18),2,IF(AND(P6&gt;=8,P6&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G6" s="1">
@@ -5141,44 +5209,45 @@
         <v>0</v>
       </c>
       <c r="P6" s="27">
-        <f>G6+H6+ SUM(I6:O6)*5+Y6+Z6</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q6" s="25"/>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>10</v>
       </c>
-      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="28">
-        <f>IF(ISBLANK(AA6),0, LOOKUP(AA6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="28">
+        <f>IF(ISBLANK(AB6),0, LOOKUP(AB6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC6/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>21100004</v>
       </c>
@@ -5187,14 +5256,14 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f>IF(P7&gt;=23,4,IF(AND(P7&gt;=18,P7&lt;23),3,IF(AND(P7&gt;=13,P7&lt;18),2,IF(AND(P7&gt;=8,P7&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G7" s="1">
@@ -5225,44 +5294,45 @@
         <v>0</v>
       </c>
       <c r="P7" s="24">
-        <f>G7+H7+ SUM(I7:O7)*5+Y7+Z7</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q7" s="25"/>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="25"/>
+      <c r="S7" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>10</v>
       </c>
-      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="28">
-        <f>IF(ISBLANK(AA7),0, LOOKUP(AA7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB7/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28">
+        <f>IF(ISBLANK(AB7),0, LOOKUP(AB7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC7/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>21100005</v>
       </c>
@@ -5271,14 +5341,14 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <f>IF(P8&gt;=23,4,IF(AND(P8&gt;=18,P8&lt;23),3,IF(AND(P8&gt;=13,P8&lt;18),2,IF(AND(P8&gt;=8,P8&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G8" s="1">
@@ -5309,44 +5379,45 @@
         <v>0</v>
       </c>
       <c r="P8" s="27">
-        <f>G8+H8+ SUM(I8:O8)*5+Y8+Z8</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Q8" s="25"/>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="25"/>
+      <c r="S8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>10</v>
       </c>
-      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="28">
-        <f>IF(ISBLANK(AA8),0, LOOKUP(AA8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB8/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="28">
+        <f>IF(ISBLANK(AB8),0, LOOKUP(AB8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC8/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="26"/>
       <c r="AE8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG8" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>21100006</v>
       </c>
@@ -5355,14 +5426,14 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <f>IF(P9&gt;=23,4,IF(AND(P9&gt;=18,P9&lt;23),3,IF(AND(P9&gt;=13,P9&lt;18),2,IF(AND(P9&gt;=8,P9&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="G9" s="1">
@@ -5393,44 +5464,45 @@
         <v>0</v>
       </c>
       <c r="P9" s="24">
-        <f>G9+H9+ SUM(I9:O9)*5+Y9+Z9</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q9" s="25"/>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="25"/>
+      <c r="S9" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>10</v>
       </c>
-      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1">
         <v>10</v>
       </c>
-      <c r="Z9" s="28">
-        <f>IF(ISBLANK(AA9),0, LOOKUP(AA9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB9/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1"/>
+      <c r="AA9" s="28">
+        <f>IF(ISBLANK(AB9),0, LOOKUP(AB9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC9/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="26"/>
       <c r="AE9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>21100007</v>
       </c>
@@ -5439,14 +5511,14 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <f>IF(P10&gt;=23,4,IF(AND(P10&gt;=18,P10&lt;23),3,IF(AND(P10&gt;=13,P10&lt;18),2,IF(AND(P10&gt;=8,P10&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G10" s="1">
@@ -5477,44 +5549,45 @@
         <v>0</v>
       </c>
       <c r="P10" s="27">
-        <f>G10+H10+ SUM(I10:O10)*5+Y10+Z10</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q10" s="25"/>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="25"/>
+      <c r="S10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>10</v>
       </c>
-      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="28">
-        <f>IF(ISBLANK(AA10),0, LOOKUP(AA10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB10/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="28">
+        <f>IF(ISBLANK(AB10),0, LOOKUP(AB10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC10/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>21100008</v>
       </c>
@@ -5523,14 +5596,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <f>IF(P11&gt;=23,4,IF(AND(P11&gt;=18,P11&lt;23),3,IF(AND(P11&gt;=13,P11&lt;18),2,IF(AND(P11&gt;=8,P11&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F12" si="2">D11*50+50</f>
+        <f t="shared" ref="F11:F12" si="4">D11*50+50</f>
         <v>250</v>
       </c>
       <c r="G11" s="1">
@@ -5561,44 +5634,45 @@
         <v>0</v>
       </c>
       <c r="P11" s="24">
-        <f>G11+H11+ SUM(I11:O11)*5+Y11+Z11</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q11" s="25"/>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="25"/>
+      <c r="S11" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>10</v>
       </c>
-      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="28">
-        <f>IF(ISBLANK(AA11),0, LOOKUP(AA11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB11/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="28">
+        <f>IF(ISBLANK(AB11),0, LOOKUP(AB11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC11/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG11" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>21100009</v>
       </c>
@@ -5607,14 +5681,14 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <f>IF(P12&gt;=23,4,IF(AND(P12&gt;=18,P12&lt;23),3,IF(AND(P12&gt;=13,P12&lt;18),2,IF(AND(P12&gt;=8,P12&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="G12" s="1">
@@ -5645,44 +5719,45 @@
         <v>0</v>
       </c>
       <c r="P12" s="27">
-        <f>G12+H12+ SUM(I12:O12)*5+Y12+Z12</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q12" s="25"/>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="25"/>
+      <c r="S12" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>10</v>
       </c>
-      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="28">
-        <f>IF(ISBLANK(AA12),0, LOOKUP(AA12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB12/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="28">
+        <f>IF(ISBLANK(AB12),0, LOOKUP(AB12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC12/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG12" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>21100010</v>
       </c>
@@ -5691,14 +5766,14 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f>IF(P13&gt;=23,4,IF(AND(P13&gt;=18,P13&lt;23),3,IF(AND(P13&gt;=13,P13&lt;18),2,IF(AND(P13&gt;=8,P13&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F14" si="3">D13*50+50</f>
+        <f t="shared" ref="F13:F14" si="5">D13*50+50</f>
         <v>50</v>
       </c>
       <c r="G13" s="1">
@@ -5729,44 +5804,45 @@
         <v>0</v>
       </c>
       <c r="P13" s="24">
-        <f>G13+H13+ SUM(I13:O13)*5+Y13+Z13</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q13" s="25"/>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="25"/>
+      <c r="S13" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>10</v>
       </c>
-      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1">
         <v>-10</v>
       </c>
-      <c r="Z13" s="28">
-        <f>IF(ISBLANK(AA13),0, LOOKUP(AA13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB13/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="28">
+        <f>IF(ISBLANK(AB13),0, LOOKUP(AB13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC13/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="26"/>
       <c r="AE13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG13" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>21100011</v>
       </c>
@@ -5775,14 +5851,14 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <f>IF(P14&gt;=23,4,IF(AND(P14&gt;=18,P14&lt;23),3,IF(AND(P14&gt;=13,P14&lt;18),2,IF(AND(P14&gt;=8,P14&lt;13),1,0))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="G14" s="1">
@@ -5813,44 +5889,45 @@
         <v>0</v>
       </c>
       <c r="P14" s="27">
-        <f>G14+H14+ SUM(I14:O14)*5+Y14+Z14</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q14" s="25"/>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="25"/>
+      <c r="S14" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>10</v>
       </c>
-      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="28">
-        <f>IF(ISBLANK(AA14),0, LOOKUP(AA14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB14/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="28">
+        <f>IF(ISBLANK(AB14),0, LOOKUP(AB14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC14/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="26"/>
       <c r="AE14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG14" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>21200001</v>
       </c>
@@ -5861,84 +5938,85 @@
         <v>129</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D19" si="4">IF(P15&gt;=23,4,IF(AND(P15&gt;=18,P15&lt;23),3,IF(AND(P15&gt;=13,P15&lt;18),2,IF(AND(P15&gt;=8,P15&lt;13),1,0))))</f>
+        <f t="shared" ref="D15:D19" si="6">IF(P15&gt;=23,4,IF(AND(P15&gt;=18,P15&lt;23),3,IF(AND(P15&gt;=13,P15&lt;18),2,IF(AND(P15&gt;=8,P15&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="24">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="24">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>10</v>
       </c>
-      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1">
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
         <v>20</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>10</v>
       </c>
-      <c r="Z15" s="1">
-        <f>IF(ISBLANK(AA15),0, LOOKUP(AA15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB15/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1">
+        <f>IF(ISBLANK(AB15),0, LOOKUP(AB15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC15/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>21200002</v>
       </c>
@@ -5949,14 +6027,14 @@
         <v>128</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D17" si="5">IF(P16&gt;=23,4,IF(AND(P16&gt;=18,P16&lt;23),3,IF(AND(P16&gt;=13,P16&lt;18),2,IF(AND(P16&gt;=8,P16&lt;13),1,0))))</f>
+        <f t="shared" ref="D16:D17" si="7">IF(P16&gt;=23,4,IF(AND(P16&gt;=18,P16&lt;23),3,IF(AND(P16&gt;=13,P16&lt;18),2,IF(AND(P16&gt;=8,P16&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G16" s="1">
@@ -5987,48 +6065,49 @@
         <v>0</v>
       </c>
       <c r="P16" s="24">
-        <f t="shared" ref="P16:P17" si="6">G16+H16+ SUM(I16:O16)*5+Y16+Z16</f>
+        <f t="shared" ref="P16:P17" si="8">G16+H16+ SUM(I16:O16)*5+Z16+AA16</f>
         <v>14</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>10</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1">
-        <v>14</v>
-      </c>
+      <c r="V16" s="1"/>
       <c r="W16" s="1">
         <v>14</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>14</v>
       </c>
-      <c r="Z16" s="1">
-        <f>IF(ISBLANK(AA16),0, LOOKUP(AA16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB16/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="1">
+        <f>IF(ISBLANK(AB16),0, LOOKUP(AB16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC16/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG16" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>21200003</v>
       </c>
@@ -6039,14 +6118,14 @@
         <v>130</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G17" s="1">
@@ -6077,46 +6156,47 @@
         <v>0</v>
       </c>
       <c r="P17" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>10</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1">
         <v>25</v>
       </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>12.5</v>
       </c>
-      <c r="Z17" s="1">
-        <f>IF(ISBLANK(AA17),0, LOOKUP(AA17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB17/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="1">
+        <f>IF(ISBLANK(AB17),0, LOOKUP(AB17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC17/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG17" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>21200004</v>
       </c>
@@ -6127,14 +6207,14 @@
         <v>131</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18" si="7">IF(P18&gt;=23,4,IF(AND(P18&gt;=18,P18&lt;23),3,IF(AND(P18&gt;=13,P18&lt;18),2,IF(AND(P18&gt;=8,P18&lt;13),1,0))))</f>
+        <f t="shared" ref="D18" si="9">IF(P18&gt;=23,4,IF(AND(P18&gt;=18,P18&lt;23),3,IF(AND(P18&gt;=13,P18&lt;18),2,IF(AND(P18&gt;=8,P18&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G18" s="1">
@@ -6165,48 +6245,49 @@
         <v>0</v>
       </c>
       <c r="P18" s="24">
-        <f t="shared" ref="P18" si="8">G18+H18+ SUM(I18:O18)*5+Y18+Z18</f>
+        <f t="shared" ref="P18" si="10">G18+H18+ SUM(I18:O18)*5+Z18+AA18</f>
         <v>14</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>10</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1">
-        <v>14</v>
-      </c>
+      <c r="V18" s="1"/>
       <c r="W18" s="1">
         <v>14</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>14</v>
       </c>
-      <c r="Z18" s="1">
-        <f>IF(ISBLANK(AA18),0, LOOKUP(AA18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB18/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1"/>
+      <c r="AA18" s="1">
+        <f>IF(ISBLANK(AB18),0, LOOKUP(AB18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC18/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG18" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>21300001</v>
       </c>
@@ -6215,14 +6296,14 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G19" s="1">
@@ -6253,42 +6334,45 @@
         <v>0</v>
       </c>
       <c r="P19" s="24">
-        <f t="shared" ref="P19" si="9">G19+H19+ SUM(I19:O19)*5+Y19+Z19</f>
+        <f t="shared" ref="P19" si="11">G19+H19+ SUM(I19:O19)*5+Z19+AA19</f>
         <v>5</v>
       </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
+      <c r="R19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>10</v>
       </c>
-      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y19" s="1"/>
       <c r="Z19" s="1">
-        <f>IF(ISBLANK(AA19),0, LOOKUP(AA19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB19/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>IF(ISBLANK(AB19),0, LOOKUP(AB19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC19/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>21300002</v>
       </c>
@@ -6297,14 +6381,14 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D21" si="10">IF(P20&gt;=23,4,IF(AND(P20&gt;=18,P20&lt;23),3,IF(AND(P20&gt;=13,P20&lt;18),2,IF(AND(P20&gt;=8,P20&lt;13),1,0))))</f>
+        <f t="shared" ref="D20:D21" si="12">IF(P20&gt;=23,4,IF(AND(P20&gt;=18,P20&lt;23),3,IF(AND(P20&gt;=13,P20&lt;18),2,IF(AND(P20&gt;=8,P20&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G20" s="1">
@@ -6335,46 +6419,49 @@
         <v>0</v>
       </c>
       <c r="P20" s="24">
-        <f t="shared" ref="P20:P21" si="11">G20+H20+ SUM(I20:O20)*5+Y20+Z20</f>
+        <f t="shared" ref="P20:P21" si="13">G20+H20+ SUM(I20:O20)*5+Z20+AA20</f>
         <v>9</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
+      <c r="R20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>10</v>
       </c>
-      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="1">
-        <f>IF(ISBLANK(AA20),0, LOOKUP(AA20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB20/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>IF(ISBLANK(AB20),0, LOOKUP(AB20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC20/100)</f>
         <v>3</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>55510010</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>60</v>
       </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG20" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>21300003</v>
       </c>
@@ -6383,14 +6470,14 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G21" s="1">
@@ -6421,42 +6508,45 @@
         <v>0</v>
       </c>
       <c r="P21" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
+      <c r="R21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y21" s="1"/>
       <c r="Z21" s="1">
-        <f>IF(ISBLANK(AA21),0, LOOKUP(AA21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB21/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>IF(ISBLANK(AB21),0, LOOKUP(AB21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC21/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG21" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21300004</v>
       </c>
@@ -6465,14 +6555,14 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D23" si="12">IF(P22&gt;=23,4,IF(AND(P22&gt;=18,P22&lt;23),3,IF(AND(P22&gt;=13,P22&lt;18),2,IF(AND(P22&gt;=8,P22&lt;13),1,0))))</f>
+        <f t="shared" ref="D22:D23" si="14">IF(P22&gt;=23,4,IF(AND(P22&gt;=18,P22&lt;23),3,IF(AND(P22&gt;=13,P22&lt;18),2,IF(AND(P22&gt;=8,P22&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G22" s="1">
@@ -6503,46 +6593,49 @@
         <v>0</v>
       </c>
       <c r="P22" s="24">
-        <f t="shared" ref="P22:P23" si="13">G22+H22+ SUM(I22:O22)*5+Y22+Z22</f>
+        <f t="shared" ref="P22:P23" si="15">G22+H22+ SUM(I22:O22)*5+Z22+AA22</f>
         <v>17.3</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
+      <c r="R22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>10</v>
       </c>
-      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y22" s="1"/>
       <c r="Z22" s="1">
-        <f>IF(ISBLANK(AA22),0, LOOKUP(AA22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB22/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>IF(ISBLANK(AB22),0, LOOKUP(AB22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC22/100)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>55510012</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>15</v>
       </c>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG22" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21300005</v>
       </c>
@@ -6551,14 +6644,14 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G23" s="1">
@@ -6589,42 +6682,45 @@
         <v>0</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
+      <c r="R23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>10</v>
       </c>
-      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y23" s="1"/>
       <c r="Z23" s="1">
-        <f>IF(ISBLANK(AA23),0, LOOKUP(AA23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB23/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <f>IF(ISBLANK(AB23),0, LOOKUP(AB23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC23/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG23" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21300006</v>
       </c>
@@ -6633,14 +6729,14 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:D25" si="14">IF(P24&gt;=23,4,IF(AND(P24&gt;=18,P24&lt;23),3,IF(AND(P24&gt;=13,P24&lt;18),2,IF(AND(P24&gt;=8,P24&lt;13),1,0))))</f>
+        <f t="shared" ref="D24:D25" si="16">IF(P24&gt;=23,4,IF(AND(P24&gt;=18,P24&lt;23),3,IF(AND(P24&gt;=13,P24&lt;18),2,IF(AND(P24&gt;=8,P24&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="G24" s="1">
@@ -6671,42 +6767,45 @@
         <v>0</v>
       </c>
       <c r="P24" s="24">
-        <f t="shared" ref="P24:P25" si="15">G24+H24+ SUM(I24:O24)*5+Y24+Z24</f>
+        <f t="shared" ref="P24:P25" si="17">G24+H24+ SUM(I24:O24)*5+Z24+AA24</f>
         <v>20</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
+      <c r="R24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>10</v>
       </c>
-      <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y24" s="1"/>
       <c r="Z24" s="1">
-        <f>IF(ISBLANK(AA24),0, LOOKUP(AA24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB24/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <f>IF(ISBLANK(AB24),0, LOOKUP(AB24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC24/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG24" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21300007</v>
       </c>
@@ -6715,14 +6814,14 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="G25" s="1">
@@ -6753,42 +6852,45 @@
         <v>0</v>
       </c>
       <c r="P25" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
+      <c r="R25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>10</v>
       </c>
-      <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y25" s="1"/>
       <c r="Z25" s="1">
-        <f>IF(ISBLANK(AA25),0, LOOKUP(AA25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB25/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <f>IF(ISBLANK(AB25),0, LOOKUP(AB25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC25/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG25" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>21300008</v>
       </c>
@@ -6797,14 +6899,14 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D27" si="16">IF(P26&gt;=23,4,IF(AND(P26&gt;=18,P26&lt;23),3,IF(AND(P26&gt;=13,P26&lt;18),2,IF(AND(P26&gt;=8,P26&lt;13),1,0))))</f>
+        <f t="shared" ref="D26:D27" si="18">IF(P26&gt;=23,4,IF(AND(P26&gt;=18,P26&lt;23),3,IF(AND(P26&gt;=13,P26&lt;18),2,IF(AND(P26&gt;=8,P26&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F27" si="17">D26*50+50</f>
+        <f t="shared" ref="F26:F27" si="19">D26*50+50</f>
         <v>50</v>
       </c>
       <c r="G26" s="1">
@@ -6835,42 +6937,45 @@
         <v>0</v>
       </c>
       <c r="P26" s="24">
-        <f t="shared" ref="P26:P27" si="18">G26+H26+ SUM(I26:O26)*5+Y26+Z26</f>
+        <f t="shared" ref="P26:P27" si="20">G26+H26+ SUM(I26:O26)*5+Z26+AA26</f>
         <v>1</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
+      <c r="R26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>10</v>
       </c>
-      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y26" s="1"/>
       <c r="Z26" s="1">
-        <f>IF(ISBLANK(AA26),0, LOOKUP(AA26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB26/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>IF(ISBLANK(AB26),0, LOOKUP(AB26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC26/100)</f>
+        <v>0</v>
+      </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG26" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>21300009</v>
       </c>
@@ -6879,14 +6984,14 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="G27" s="1">
@@ -6917,46 +7022,49 @@
         <v>0</v>
       </c>
       <c r="P27" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
+      <c r="R27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>10</v>
       </c>
-      <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y27" s="1"/>
       <c r="Z27" s="1">
-        <f>IF(ISBLANK(AA27),0, LOOKUP(AA27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB27/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <f>IF(ISBLANK(AB27),0, LOOKUP(AB27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC27/100)</f>
         <v>35</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>55100007</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>100</v>
       </c>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG27" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>21400001</v>
       </c>
@@ -6965,14 +7073,14 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="22">
-        <f t="shared" ref="D28" si="19">IF(P28&gt;=23,4,IF(AND(P28&gt;=18,P28&lt;23),3,IF(AND(P28&gt;=13,P28&lt;18),2,IF(AND(P28&gt;=8,P28&lt;13),1,0))))</f>
+        <f t="shared" ref="D28" si="21">IF(P28&gt;=23,4,IF(AND(P28&gt;=18,P28&lt;23),3,IF(AND(P28&gt;=13,P28&lt;18),2,IF(AND(P28&gt;=8,P28&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G28" s="7">
@@ -7003,36 +7111,37 @@
         <v>0</v>
       </c>
       <c r="P28" s="24">
-        <f t="shared" ref="P28" si="20">G28+H28+ SUM(I28:O28)*5+Y28+Z28</f>
+        <f t="shared" ref="P28" si="22">G28+H28+ SUM(I28:O28)*5+Z28+AA28</f>
         <v>5</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="12" t="s">
+      <c r="S28" s="7"/>
+      <c r="T28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>10</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
       <c r="Z28">
-        <f>IF(ISBLANK(AA28),0, LOOKUP(AA28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB28/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f>IF(ISBLANK(AB28),0, LOOKUP(AB28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC28/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="12"/>
       <c r="AE28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF28" s="2" t="s">
+      <c r="AF28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG28" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>21400002</v>
       </c>
@@ -7041,14 +7150,14 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="22">
-        <f t="shared" ref="D29:D30" si="21">IF(P29&gt;=23,4,IF(AND(P29&gt;=18,P29&lt;23),3,IF(AND(P29&gt;=13,P29&lt;18),2,IF(AND(P29&gt;=8,P29&lt;13),1,0))))</f>
+        <f t="shared" ref="D29:D30" si="23">IF(P29&gt;=23,4,IF(AND(P29&gt;=18,P29&lt;23),3,IF(AND(P29&gt;=13,P29&lt;18),2,IF(AND(P29&gt;=8,P29&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G29" s="7">
@@ -7079,36 +7188,37 @@
         <v>0</v>
       </c>
       <c r="P29" s="24">
-        <f t="shared" ref="P29:P30" si="22">G29+H29+ SUM(I29:O29)*5+Y29+Z29</f>
+        <f t="shared" ref="P29:P30" si="24">G29+H29+ SUM(I29:O29)*5+Z29+AA29</f>
         <v>10</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="12" t="s">
+      <c r="S29" s="7"/>
+      <c r="T29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>10</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
       <c r="Z29">
-        <f>IF(ISBLANK(AA29),0, LOOKUP(AA29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB29/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f>IF(ISBLANK(AB29),0, LOOKUP(AB29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC29/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="12"/>
       <c r="AE29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF29" s="2" t="s">
+      <c r="AF29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>21400003</v>
       </c>
@@ -7117,14 +7227,14 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G30" s="7">
@@ -7155,42 +7265,43 @@
         <v>0</v>
       </c>
       <c r="P30" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="12" t="s">
+      <c r="S30" s="7"/>
+      <c r="T30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>10</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
       <c r="Z30">
-        <f>IF(ISBLANK(AA30),0, LOOKUP(AA30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB30/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f>IF(ISBLANK(AB30),0, LOOKUP(AB30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC30/100)</f>
         <v>10</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>55110005</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>50</v>
       </c>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD30" s="12"/>
       <c r="AE30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AF30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG30" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>21400004</v>
       </c>
@@ -7199,14 +7310,14 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="22">
-        <f t="shared" ref="D31:D32" si="23">IF(P31&gt;=23,4,IF(AND(P31&gt;=18,P31&lt;23),3,IF(AND(P31&gt;=13,P31&lt;18),2,IF(AND(P31&gt;=8,P31&lt;13),1,0))))</f>
+        <f t="shared" ref="D31:D32" si="25">IF(P31&gt;=23,4,IF(AND(P31&gt;=18,P31&lt;23),3,IF(AND(P31&gt;=13,P31&lt;18),2,IF(AND(P31&gt;=8,P31&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="G31" s="7">
@@ -7237,36 +7348,37 @@
         <v>0</v>
       </c>
       <c r="P31" s="24">
-        <f t="shared" ref="P31:P32" si="24">G31+H31+ SUM(I31:O31)*5+Y31+Z31</f>
+        <f t="shared" ref="P31:P32" si="26">G31+H31+ SUM(I31:O31)*5+Z31+AA31</f>
         <v>20</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="12" t="s">
+      <c r="S31" s="7"/>
+      <c r="T31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>10</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
-        <f>IF(ISBLANK(AA31),0, LOOKUP(AA31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB31/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f>IF(ISBLANK(AB31),0, LOOKUP(AB31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC31/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="12"/>
       <c r="AE31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AF31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG31" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>21400005</v>
       </c>
@@ -7275,14 +7387,14 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ref="F32:F33" si="25">D32*50+50</f>
+        <f t="shared" ref="F32:F33" si="27">D32*50+50</f>
         <v>100</v>
       </c>
       <c r="G32" s="7">
@@ -7313,36 +7425,37 @@
         <v>0</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="12" t="s">
+      <c r="S32" s="7"/>
+      <c r="T32" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>10</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
       <c r="Z32">
-        <f>IF(ISBLANK(AA32),0, LOOKUP(AA32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB32/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f>IF(ISBLANK(AB32),0, LOOKUP(AB32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC32/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="12"/>
       <c r="AE32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF32" s="2" t="s">
+      <c r="AF32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG32" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>21400006</v>
       </c>
@@ -7351,14 +7464,14 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="22">
-        <f t="shared" ref="D33:D34" si="26">IF(P33&gt;=23,4,IF(AND(P33&gt;=18,P33&lt;23),3,IF(AND(P33&gt;=13,P33&lt;18),2,IF(AND(P33&gt;=8,P33&lt;13),1,0))))</f>
+        <f t="shared" ref="D33:D34" si="28">IF(P33&gt;=23,4,IF(AND(P33&gt;=18,P33&lt;23),3,IF(AND(P33&gt;=13,P33&lt;18),2,IF(AND(P33&gt;=8,P33&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>150</v>
       </c>
       <c r="G33" s="7">
@@ -7389,36 +7502,37 @@
         <v>0</v>
       </c>
       <c r="P33" s="24">
-        <f t="shared" ref="P33:P34" si="27">G33+H33+ SUM(I33:O33)*5+Y33+Z33</f>
+        <f t="shared" ref="P33:P34" si="29">G33+H33+ SUM(I33:O33)*5+Z33+AA33</f>
         <v>14</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="12" t="s">
+      <c r="S33" s="7"/>
+      <c r="T33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>10</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
       <c r="Z33">
-        <f>IF(ISBLANK(AA33),0, LOOKUP(AA33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB33/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f>IF(ISBLANK(AB33),0, LOOKUP(AB33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC33/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="12"/>
       <c r="AE33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF33" s="2" t="s">
+      <c r="AF33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG33" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>21400007</v>
       </c>
@@ -7427,14 +7541,14 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F35" si="28">D34*50+50</f>
+        <f t="shared" ref="F34:F35" si="30">D34*50+50</f>
         <v>200</v>
       </c>
       <c r="G34" s="7">
@@ -7465,36 +7579,37 @@
         <v>0</v>
       </c>
       <c r="P34" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="12" t="s">
+      <c r="S34" s="7"/>
+      <c r="T34" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>10</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
       <c r="Z34">
-        <f>IF(ISBLANK(AA34),0, LOOKUP(AA34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB34/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f>IF(ISBLANK(AB34),0, LOOKUP(AB34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC34/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="12"/>
       <c r="AE34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF34" s="2" t="s">
+      <c r="AF34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG34" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>21400008</v>
       </c>
@@ -7503,14 +7618,14 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:D36" si="29">IF(P35&gt;=23,4,IF(AND(P35&gt;=18,P35&lt;23),3,IF(AND(P35&gt;=13,P35&lt;18),2,IF(AND(P35&gt;=8,P35&lt;13),1,0))))</f>
+        <f t="shared" ref="D35:D36" si="31">IF(P35&gt;=23,4,IF(AND(P35&gt;=18,P35&lt;23),3,IF(AND(P35&gt;=13,P35&lt;18),2,IF(AND(P35&gt;=8,P35&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="G35" s="7">
@@ -7541,36 +7656,37 @@
         <v>0</v>
       </c>
       <c r="P35" s="24">
-        <f t="shared" ref="P35:P36" si="30">G35+H35+ SUM(I35:O35)*5+Y35+Z35</f>
+        <f t="shared" ref="P35:P36" si="32">G35+H35+ SUM(I35:O35)*5+Z35+AA35</f>
         <v>0</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="12" t="s">
+      <c r="S35" s="7"/>
+      <c r="T35" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>10</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
       <c r="Z35">
-        <f>IF(ISBLANK(AA35),0, LOOKUP(AA35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB35/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f>IF(ISBLANK(AB35),0, LOOKUP(AB35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC35/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="12"/>
       <c r="AE35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF35" s="2" t="s">
+      <c r="AF35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG35" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>21400009</v>
       </c>
@@ -7579,14 +7695,14 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ref="F36:F37" si="31">D36*50+50</f>
+        <f t="shared" ref="F36:F37" si="33">D36*50+50</f>
         <v>150</v>
       </c>
       <c r="G36" s="7">
@@ -7617,36 +7733,37 @@
         <v>0</v>
       </c>
       <c r="P36" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="12" t="s">
+      <c r="S36" s="7"/>
+      <c r="T36" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>10</v>
       </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
       <c r="Z36">
-        <f>IF(ISBLANK(AA36),0, LOOKUP(AA36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB36/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f>IF(ISBLANK(AB36),0, LOOKUP(AB36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC36/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="12"/>
       <c r="AE36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF36" s="2" t="s">
+      <c r="AF36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG36" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>21400010</v>
       </c>
@@ -7655,14 +7772,14 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="22">
-        <f t="shared" ref="D37:D38" si="32">IF(P37&gt;=23,4,IF(AND(P37&gt;=18,P37&lt;23),3,IF(AND(P37&gt;=13,P37&lt;18),2,IF(AND(P37&gt;=8,P37&lt;13),1,0))))</f>
+        <f t="shared" ref="D37:D38" si="34">IF(P37&gt;=23,4,IF(AND(P37&gt;=18,P37&lt;23),3,IF(AND(P37&gt;=13,P37&lt;18),2,IF(AND(P37&gt;=8,P37&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>150</v>
       </c>
       <c r="G37" s="7">
@@ -7693,36 +7810,37 @@
         <v>0</v>
       </c>
       <c r="P37" s="24">
-        <f t="shared" ref="P37:P38" si="33">G37+H37+ SUM(I37:O37)*5+Y37+Z37</f>
+        <f t="shared" ref="P37:P38" si="35">G37+H37+ SUM(I37:O37)*5+Z37+AA37</f>
         <v>15</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="12" t="s">
+      <c r="S37" s="7"/>
+      <c r="T37" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>10</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
       <c r="Z37">
-        <f>IF(ISBLANK(AA37),0, LOOKUP(AA37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB37/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f>IF(ISBLANK(AB37),0, LOOKUP(AB37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC37/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12"/>
       <c r="AE37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AF37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG37" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>21400011</v>
       </c>
@@ -7731,14 +7849,14 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ref="F38" si="34">D38*50+50</f>
+        <f t="shared" ref="F38" si="36">D38*50+50</f>
         <v>250</v>
       </c>
       <c r="G38" s="7">
@@ -7769,36 +7887,37 @@
         <v>0</v>
       </c>
       <c r="P38" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>30</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="12" t="s">
+      <c r="S38" s="7"/>
+      <c r="T38" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>10</v>
       </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
       <c r="Z38">
-        <f>IF(ISBLANK(AA38),0, LOOKUP(AA38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB38/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f>IF(ISBLANK(AB38),0, LOOKUP(AB38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC38/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="12"/>
       <c r="AE38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AF38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG38" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>21500001</v>
       </c>
@@ -7807,14 +7926,14 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="22">
-        <f t="shared" ref="D39" si="35">IF(P39&gt;=23,4,IF(AND(P39&gt;=18,P39&lt;23),3,IF(AND(P39&gt;=13,P39&lt;18),2,IF(AND(P39&gt;=8,P39&lt;13),1,0))))</f>
+        <f t="shared" ref="D39" si="37">IF(P39&gt;=23,4,IF(AND(P39&gt;=18,P39&lt;23),3,IF(AND(P39&gt;=13,P39&lt;18),2,IF(AND(P39&gt;=8,P39&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G39" s="7">
@@ -7845,38 +7964,39 @@
         <v>0</v>
       </c>
       <c r="P39" s="24">
-        <f t="shared" ref="P39" si="36">G39+H39+ SUM(I39:O39)*5+Y39+Z39</f>
+        <f t="shared" ref="P39" si="38">G39+H39+ SUM(I39:O39)*5+Z39+AA39</f>
         <v>10</v>
       </c>
       <c r="Q39" s="7">
         <v>5</v>
       </c>
       <c r="R39" s="7"/>
-      <c r="S39" s="12" t="s">
+      <c r="S39" s="7"/>
+      <c r="T39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>10</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>10</v>
       </c>
-      <c r="Z39">
-        <f>IF(ISBLANK(AA39),0, LOOKUP(AA39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB39/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA39">
+        <f>IF(ISBLANK(AB39),0, LOOKUP(AB39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC39/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="12"/>
       <c r="AE39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AF39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG39" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>21500002</v>
       </c>
@@ -7885,14 +8005,14 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="22">
-        <f t="shared" ref="D40:D41" si="37">IF(P40&gt;=23,4,IF(AND(P40&gt;=18,P40&lt;23),3,IF(AND(P40&gt;=13,P40&lt;18),2,IF(AND(P40&gt;=8,P40&lt;13),1,0))))</f>
+        <f t="shared" ref="D40:D41" si="39">IF(P40&gt;=23,4,IF(AND(P40&gt;=18,P40&lt;23),3,IF(AND(P40&gt;=13,P40&lt;18),2,IF(AND(P40&gt;=8,P40&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G40" s="7">
@@ -7923,36 +8043,37 @@
         <v>0</v>
       </c>
       <c r="P40" s="24">
-        <f t="shared" ref="P40:P41" si="38">G40+H40+ SUM(I40:O40)*5+Y40+Z40</f>
+        <f t="shared" ref="P40:P41" si="40">G40+H40+ SUM(I40:O40)*5+Z40+AA40</f>
         <v>10</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="12" t="s">
+      <c r="S40" s="7"/>
+      <c r="T40" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>10</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>5</v>
       </c>
-      <c r="Z40">
-        <f>IF(ISBLANK(AA40),0, LOOKUP(AA40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB40/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA40">
+        <f>IF(ISBLANK(AB40),0, LOOKUP(AB40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC40/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="12"/>
       <c r="AE40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF40" s="2" t="s">
+      <c r="AF40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG40" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>21500003</v>
       </c>
@@ -7961,14 +8082,14 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G41" s="7">
@@ -7999,38 +8120,39 @@
         <v>0</v>
       </c>
       <c r="P41" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="Q41" s="7">
         <v>6</v>
       </c>
       <c r="R41" s="7"/>
-      <c r="S41" s="12" t="s">
+      <c r="S41" s="7"/>
+      <c r="T41" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>10</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>6</v>
       </c>
-      <c r="Z41">
-        <f>IF(ISBLANK(AA41),0, LOOKUP(AA41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB41/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA41">
+        <f>IF(ISBLANK(AB41),0, LOOKUP(AB41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC41/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="12"/>
       <c r="AE41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AF41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG41" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>21500004</v>
       </c>
@@ -8039,14 +8161,14 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="22">
-        <f t="shared" ref="D42:D43" si="39">IF(P42&gt;=23,4,IF(AND(P42&gt;=18,P42&lt;23),3,IF(AND(P42&gt;=13,P42&lt;18),2,IF(AND(P42&gt;=8,P42&lt;13),1,0))))</f>
+        <f t="shared" ref="D42:D43" si="41">IF(P42&gt;=23,4,IF(AND(P42&gt;=18,P42&lt;23),3,IF(AND(P42&gt;=13,P42&lt;18),2,IF(AND(P42&gt;=8,P42&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G42" s="7">
@@ -8077,42 +8199,43 @@
         <v>0</v>
       </c>
       <c r="P42" s="24">
-        <f t="shared" ref="P42:P43" si="40">G42+H42+ SUM(I42:O42)*5+Y42+Z42</f>
+        <f t="shared" ref="P42:P43" si="42">G42+H42+ SUM(I42:O42)*5+Z42+AA42</f>
         <v>8</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="12" t="s">
+      <c r="S42" s="7"/>
+      <c r="T42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>10</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
       <c r="Z42">
-        <f>IF(ISBLANK(AA42),0, LOOKUP(AA42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB42/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f>IF(ISBLANK(AB42),0, LOOKUP(AB42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC42/100)</f>
         <v>4</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>55990108</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>100</v>
       </c>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD42" s="12"/>
       <c r="AE42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AF42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG42" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>21500005</v>
       </c>
@@ -8121,14 +8244,14 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G43" s="7">
@@ -8159,36 +8282,37 @@
         <v>1</v>
       </c>
       <c r="P43" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="12" t="s">
+      <c r="S43" s="7"/>
+      <c r="T43" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>10</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>10</v>
       </c>
-      <c r="Z43">
-        <f>IF(ISBLANK(AA43),0, LOOKUP(AA43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB43/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA43">
+        <f>IF(ISBLANK(AB43),0, LOOKUP(AB43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC43/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="12"/>
       <c r="AE43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AF43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG43" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>21500006</v>
       </c>
@@ -8197,14 +8321,14 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="22">
-        <f t="shared" ref="D44:D45" si="41">IF(P44&gt;=23,4,IF(AND(P44&gt;=18,P44&lt;23),3,IF(AND(P44&gt;=13,P44&lt;18),2,IF(AND(P44&gt;=8,P44&lt;13),1,0))))</f>
+        <f t="shared" ref="D44:D45" si="43">IF(P44&gt;=23,4,IF(AND(P44&gt;=18,P44&lt;23),3,IF(AND(P44&gt;=13,P44&lt;18),2,IF(AND(P44&gt;=8,P44&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G44" s="7">
@@ -8235,42 +8359,43 @@
         <v>0</v>
       </c>
       <c r="P44" s="24">
-        <f t="shared" ref="P44:P45" si="42">G44+H44+ SUM(I44:O44)*5+Y44+Z44</f>
+        <f t="shared" ref="P44:P45" si="44">G44+H44+ SUM(I44:O44)*5+Z44+AA44</f>
         <v>15</v>
       </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="12" t="s">
+      <c r="S44" s="7"/>
+      <c r="T44" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>10</v>
       </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
       <c r="Z44">
-        <f>IF(ISBLANK(AA44),0, LOOKUP(AA44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB44/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f>IF(ISBLANK(AB44),0, LOOKUP(AB44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC44/100)</f>
         <v>15</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>55990109</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>100</v>
       </c>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD44" s="12"/>
       <c r="AE44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF44" s="2" t="s">
+      <c r="AF44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG44" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>21500007</v>
       </c>
@@ -8279,14 +8404,14 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:F46" si="43">D45*50+50</f>
+        <f t="shared" ref="F45:F46" si="45">D45*50+50</f>
         <v>100</v>
       </c>
       <c r="G45" s="7">
@@ -8317,36 +8442,37 @@
         <v>0</v>
       </c>
       <c r="P45" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="12" t="s">
+      <c r="S45" s="7"/>
+      <c r="T45" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>10</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>8</v>
       </c>
-      <c r="Z45">
-        <f>IF(ISBLANK(AA45),0, LOOKUP(AA45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB45/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA45">
+        <f>IF(ISBLANK(AB45),0, LOOKUP(AB45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC45/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="12"/>
       <c r="AE45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF45" s="2" t="s">
+      <c r="AF45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG45" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>21500008</v>
       </c>
@@ -8355,14 +8481,14 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="22">
-        <f t="shared" ref="D46" si="44">IF(P46&gt;=23,4,IF(AND(P46&gt;=18,P46&lt;23),3,IF(AND(P46&gt;=13,P46&lt;18),2,IF(AND(P46&gt;=8,P46&lt;13),1,0))))</f>
+        <f t="shared" ref="D46" si="46">IF(P46&gt;=23,4,IF(AND(P46&gt;=18,P46&lt;23),3,IF(AND(P46&gt;=13,P46&lt;18),2,IF(AND(P46&gt;=8,P46&lt;13),1,0))))</f>
         <v>4</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>250</v>
       </c>
       <c r="G46" s="7">
@@ -8393,57 +8519,58 @@
         <v>0</v>
       </c>
       <c r="P46" s="24">
-        <f t="shared" ref="P46" si="45">G46+H46+ SUM(I46:O46)*5+Y46+Z46</f>
+        <f t="shared" ref="P46" si="47">G46+H46+ SUM(I46:O46)*5+Z46+AA46</f>
         <v>25</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="12" t="s">
+      <c r="S46" s="7"/>
+      <c r="T46" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>10</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
-        <f>IF(ISBLANK(AA46),0, LOOKUP(AA46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AB46/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f>IF(ISBLANK(AB46),0, LOOKUP(AB46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC46/100)</f>
         <v>10</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>55110003</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>40</v>
       </c>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD46" s="12"/>
       <c r="AE46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF46" s="2" t="s">
+      <c r="AF46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG46" s="2" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D4:D46">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="242">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -816,6 +816,148 @@
   </si>
   <si>
     <t>laser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou12</t>
+  </si>
+  <si>
+    <t>1;3;6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍格沃兹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou13</t>
+  </si>
+  <si>
+    <t>帕特农神庙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou14</t>
+  </si>
+  <si>
+    <t>竹楼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3;7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhulou15</t>
+  </si>
+  <si>
+    <t>圣托里尼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3;9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi5</t>
+  </si>
+  <si>
+    <t>0;0;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方所有单位6%最大生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi6</t>
+  </si>
+  <si>
+    <t>海盗旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方所有单位6%攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.IsRace("Beast")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方野兽12%攻击和6%最大生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi8</t>
+  </si>
+  <si>
+    <t>m.IsRace("Machine") || m.IsRace("Element")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方机械和元素单位12%攻击和最大生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi9</t>
+  </si>
+  <si>
+    <t>m.IsRace("Totem") || m.IsRace("Element")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方图腾和元素单位10%攻击和最大生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>药水旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qizhi10</t>
+  </si>
+  <si>
+    <t>m.Star&gt;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升我方5星以上单位10%攻击和最大生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄旗帜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.Star&gt;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu9</t>
+  </si>
+  <si>
+    <t>护盾发生器</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1718,64 +1860,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1877,6 +1962,25 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2176,6 +2280,82 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4287,52 +4467,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG46" totalsRowShown="0">
-  <autoFilter ref="A3:AG46"/>
-  <sortState ref="A4:AG28">
-    <sortCondition ref="A3:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG57" totalsRowShown="0">
+  <autoFilter ref="A3:AG57"/>
+  <sortState ref="A4:AG38">
+    <sortCondition ref="A3:A38"/>
   </sortState>
   <tableColumns count="33">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="32" name="Des" dataDxfId="26"/>
-    <tableColumn id="3" name="Quality" dataDxfId="25">
+    <tableColumn id="32" name="Des" dataDxfId="21"/>
+    <tableColumn id="3" name="Quality" dataDxfId="20">
       <calculatedColumnFormula>IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="24">
+    <tableColumn id="19" name="Value" dataDxfId="19">
       <calculatedColumnFormula>D4*50+50</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="23"/>
-    <tableColumn id="22" name="Mag" dataDxfId="22"/>
-    <tableColumn id="27" name="Spd" dataDxfId="21"/>
-    <tableColumn id="26" name="Hit" dataDxfId="20"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="19"/>
-    <tableColumn id="24" name="Crt" dataDxfId="18"/>
-    <tableColumn id="23" name="Luk" dataDxfId="17"/>
-    <tableColumn id="28" name="Sum" dataDxfId="16">
+    <tableColumn id="6" name="Def" dataDxfId="18"/>
+    <tableColumn id="22" name="Mag" dataDxfId="17"/>
+    <tableColumn id="27" name="Spd" dataDxfId="16"/>
+    <tableColumn id="26" name="Hit" dataDxfId="15"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="14"/>
+    <tableColumn id="24" name="Crt" dataDxfId="13"/>
+    <tableColumn id="23" name="Luk" dataDxfId="12"/>
+    <tableColumn id="28" name="Sum" dataDxfId="11">
       <calculatedColumnFormula>G4+H4+ SUM(I4:O4)*5+Z4+AA4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="15"/>
-    <tableColumn id="33" name="Arrow" dataDxfId="0"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="14"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="13"/>
+    <tableColumn id="12" name="Range" dataDxfId="10"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="9"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="8"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="7"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="12"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="11"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="10"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="6"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="5"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="4"/>
     <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="9">
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="3">
       <calculatedColumnFormula>IF(ISBLANK(AB4),0, LOOKUP(AB4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC4/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="8"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="7"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="6"/>
+    <tableColumn id="15" name="Disable" dataDxfId="2"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="1"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="0"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4660,10 +4840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4675,7 +4855,7 @@
     <col min="7" max="8" width="5.125" customWidth="1"/>
     <col min="9" max="16" width="4.5" customWidth="1"/>
     <col min="17" max="18" width="5.125" customWidth="1"/>
-    <col min="19" max="19" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="10.875" customWidth="1"/>
     <col min="20" max="20" width="8.625" customWidth="1"/>
     <col min="21" max="21" width="5" customWidth="1"/>
     <col min="22" max="22" width="8.625" customWidth="1"/>
@@ -5039,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="24">
-        <f t="shared" ref="P4:P15" si="1">G4+H4+ SUM(I4:O4)*5+Z4+AA4</f>
+        <f t="shared" ref="P4:P38" si="1">G4+H4+ SUM(I4:O4)*5+Z4+AA4</f>
         <v>-5</v>
       </c>
       <c r="Q4" s="1"/>
@@ -5093,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F44" si="2">D5*50+50</f>
+        <f t="shared" ref="F5:F54" si="2">D5*50+50</f>
         <v>100</v>
       </c>
       <c r="G5" s="1">
@@ -5124,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="24">
-        <f t="shared" ref="P5:P14" si="3">G5+H5+ SUM(I5:O5)*5+Z5+AA5</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Q5" s="25"/>
@@ -5209,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="Q6" s="25"/>
@@ -5294,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Q7" s="25"/>
@@ -5379,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="Q8" s="25"/>
@@ -5464,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="Q9" s="25"/>
@@ -5549,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="Q10" s="25"/>
@@ -5603,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F12" si="4">D11*50+50</f>
+        <f t="shared" ref="F11:F12" si="3">D11*50+50</f>
         <v>250</v>
       </c>
       <c r="G11" s="1">
@@ -5634,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="Q11" s="25"/>
@@ -5688,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="G12" s="1">
@@ -5719,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q12" s="25"/>
@@ -5773,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F14" si="5">D13*50+50</f>
+        <f t="shared" ref="F13:F14" si="4">D13*50+50</f>
         <v>50</v>
       </c>
       <c r="G13" s="1">
@@ -5804,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q13" s="25"/>
@@ -5858,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="G14" s="1">
@@ -5889,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q14" s="25"/>
@@ -5929,36 +6109,34 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>21200001</v>
+        <v>21100012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D19" si="6">IF(P15&gt;=23,4,IF(AND(P15&gt;=18,P15&lt;23),3,IF(AND(P15&gt;=13,P15&lt;18),2,IF(AND(P15&gt;=8,P15&lt;13),1,0))))</f>
+        <f t="shared" ref="D15:D16" si="5">IF(P15&gt;=23,4,IF(AND(P15&gt;=18,P15&lt;23),3,IF(AND(P15&gt;=13,P15&lt;18),2,IF(AND(P15&gt;=8,P15&lt;13),1,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:F16" si="6">D15*50+50</f>
+        <v>200</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
       <c r="I15" s="23">
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
@@ -5977,35 +6155,33 @@
       </c>
       <c r="P15" s="24">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="T15" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="U15" s="1">
         <v>10</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="28">
         <f>IF(ISBLANK(AB15),0, LOOKUP(AB15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC15/100)</f>
         <v>0</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="26"/>
       <c r="AE15" s="1" t="s">
         <v>34</v>
       </c>
@@ -6013,37 +6189,35 @@
         <v>34</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>21200002</v>
+        <v>21100013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D17" si="7">IF(P16&gt;=23,4,IF(AND(P16&gt;=18,P16&lt;23),3,IF(AND(P16&gt;=13,P16&lt;18),2,IF(AND(P16&gt;=8,P16&lt;13),1,0))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
+        <v>5</v>
+      </c>
+      <c r="I16" s="29">
         <v>0</v>
       </c>
       <c r="J16" s="7">
@@ -6062,41 +6236,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="24">
-        <f t="shared" ref="P16:P17" si="8">G16+H16+ SUM(I16:O16)*5+Z16+AA16</f>
-        <v>14</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25" t="s">
+        <v>209</v>
+      </c>
       <c r="T16" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="U16" s="1">
         <v>10</v>
       </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="1">
-        <v>14</v>
-      </c>
-      <c r="X16" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA16" s="1">
+        <v>-10</v>
+      </c>
+      <c r="AA16" s="28">
         <f>IF(ISBLANK(AB16),0, LOOKUP(AB16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC16/100)</f>
         <v>0</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="AD16" s="26"/>
       <c r="AE16" s="1" t="s">
         <v>34</v>
       </c>
@@ -6104,35 +6274,33 @@
         <v>34</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>21200003</v>
+        <v>21100014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D17:D18" si="7">IF(P17&gt;=23,4,IF(AND(P17&gt;=18,P17&lt;23),3,IF(AND(P17&gt;=13,P17&lt;18),2,IF(AND(P17&gt;=8,P17&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F17:F18" si="8">D17*50+50</f>
         <v>100</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" s="23">
         <v>0</v>
@@ -6147,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -6156,12 +6324,14 @@
         <v>0</v>
       </c>
       <c r="P17" s="24">
-        <f t="shared" si="8"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25" t="s">
+        <v>212</v>
+      </c>
       <c r="T17" s="1" t="s">
         <v>101</v>
       </c>
@@ -6169,23 +6339,19 @@
         <v>10</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="1">
-        <v>25</v>
-      </c>
+      <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="Y17" s="1"/>
       <c r="Z17" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="28">
         <f>IF(ISBLANK(AB17),0, LOOKUP(AB17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC17/100)</f>
         <v>0</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AD17" s="26"/>
       <c r="AE17" s="1" t="s">
         <v>34</v>
       </c>
@@ -6193,37 +6359,35 @@
         <v>34</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>21200004</v>
+        <v>21100015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <f t="shared" ref="D18" si="9">IF(P18&gt;=23,4,IF(AND(P18&gt;=18,P18&lt;23),3,IF(AND(P18&gt;=13,P18&lt;18),2,IF(AND(P18&gt;=8,P18&lt;13),1,0))))</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
+        <v>11</v>
+      </c>
+      <c r="I18" s="29">
         <v>0</v>
       </c>
       <c r="J18" s="7">
@@ -6244,13 +6408,15 @@
       <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="24">
-        <f t="shared" ref="P18" si="10">G18+H18+ SUM(I18:O18)*5+Z18+AA18</f>
-        <v>14</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="P18" s="27">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25" t="s">
+        <v>215</v>
+      </c>
       <c r="T18" s="1" t="s">
         <v>101</v>
       </c>
@@ -6258,25 +6424,19 @@
         <v>10</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="1">
-        <v>14</v>
-      </c>
-      <c r="X18" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
       <c r="Z18" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="28">
         <f>IF(ISBLANK(AB18),0, LOOKUP(AB18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC18/100)</f>
         <v>0</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="26"/>
       <c r="AE18" s="1" t="s">
         <v>34</v>
       </c>
@@ -6284,30 +6444,32 @@
         <v>34</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>21300001</v>
+        <v>21200001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="D19:D29" si="9">IF(P19&gt;=23,4,IF(AND(P19&gt;=18,P19&lt;23),3,IF(AND(P19&gt;=13,P19&lt;18),2,IF(AND(P19&gt;=8,P19&lt;13),1,0))))</f>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -6334,13 +6496,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="24">
-        <f t="shared" ref="P19" si="11">G19+H19+ SUM(I19:O19)*5+Z19+AA19</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
         <v>18</v>
@@ -6350,10 +6510,14 @@
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="X19" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="Z19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA19" s="1">
         <f>IF(ISBLANK(AB19),0, LOOKUP(AB19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC19/100)</f>
@@ -6369,30 +6533,32 @@
         <v>34</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>21300002</v>
+        <v>21200002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D21" si="12">IF(P20&gt;=23,4,IF(AND(P20&gt;=18,P20&lt;23),3,IF(AND(P20&gt;=13,P20&lt;18),2,IF(AND(P20&gt;=8,P20&lt;13),1,0))))</f>
-        <v>1</v>
+        <f t="shared" ref="D20:D21" si="10">IF(P20&gt;=23,4,IF(AND(P20&gt;=18,P20&lt;23),3,IF(AND(P20&gt;=13,P20&lt;18),2,IF(AND(P20&gt;=8,P20&lt;13),1,0))))</f>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G20" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -6419,13 +6585,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="24">
-        <f t="shared" ref="P20:P21" si="13">G20+H20+ SUM(I20:O20)*5+Z20+AA20</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1" t="s">
         <v>115</v>
@@ -6434,22 +6598,24 @@
         <v>10</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="W20" s="1">
+        <v>14</v>
+      </c>
+      <c r="X20" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA20" s="1">
         <f>IF(ISBLANK(AB20),0, LOOKUP(AB20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC20/100)</f>
-        <v>3</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>55510010</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
         <v>34</v>
@@ -6458,30 +6624,32 @@
         <v>34</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>21300003</v>
+        <v>21200003</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
         <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -6502,19 +6670,17 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7">
         <v>0</v>
       </c>
       <c r="P21" s="24">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>12.5</v>
       </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
         <v>101</v>
@@ -6523,11 +6689,15 @@
         <v>10</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="W21" s="1">
+        <v>25</v>
+      </c>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="Z21" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" s="1">
         <f>IF(ISBLANK(AB21),0, LOOKUP(AB21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC21/100)</f>
@@ -6543,30 +6713,32 @@
         <v>34</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>21300004</v>
+        <v>21200004</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D23" si="14">IF(P22&gt;=23,4,IF(AND(P22&gt;=18,P22&lt;23),3,IF(AND(P22&gt;=13,P22&lt;18),2,IF(AND(P22&gt;=8,P22&lt;13),1,0))))</f>
+        <f t="shared" ref="D22" si="11">IF(P22&gt;=23,4,IF(AND(P22&gt;=18,P22&lt;23),3,IF(AND(P22&gt;=13,P22&lt;18),2,IF(AND(P22&gt;=8,P22&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -6593,13 +6765,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="24">
-        <f t="shared" ref="P22:P23" si="15">G22+H22+ SUM(I22:O22)*5+Z22+AA22</f>
-        <v>17.3</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
         <v>101</v>
@@ -6608,22 +6778,24 @@
         <v>10</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
+      <c r="W22" s="1">
+        <v>14</v>
+      </c>
+      <c r="X22" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="Z22" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA22" s="1">
         <f>IF(ISBLANK(AB22),0, LOOKUP(AB22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC22/100)</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>55510012</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
         <v>34</v>
@@ -6632,30 +6804,32 @@
         <v>34</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>21300005</v>
+        <v>21200005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="D23" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" ref="D23:D25" si="12">IF(P23&gt;=23,4,IF(AND(P23&gt;=18,P23&lt;23),3,IF(AND(P23&gt;=13,P23&lt;18),2,IF(AND(P23&gt;=8,P23&lt;13),1,0))))</f>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" ref="F23:F25" si="13">D23*50+50</f>
+        <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -6682,26 +6856,28 @@
         <v>0</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="U23" s="1">
         <v>10</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
+      <c r="X23" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="26" t="s">
+        <v>239</v>
+      </c>
       <c r="Z23" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA23" s="1">
         <f>IF(ISBLANK(AB23),0, LOOKUP(AB23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC23/100)</f>
@@ -6717,30 +6893,32 @@
         <v>34</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>21300006</v>
+        <v>21200006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:D25" si="16">IF(P24&gt;=23,4,IF(AND(P24&gt;=18,P24&lt;23),3,IF(AND(P24&gt;=13,P24&lt;18),2,IF(AND(P24&gt;=8,P24&lt;13),1,0))))</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="G24" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -6767,13 +6945,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="24">
-        <f t="shared" ref="P24:P25" si="17">G24+H24+ SUM(I24:O24)*5+Z24+AA24</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
         <v>101</v>
@@ -6782,11 +6958,15 @@
         <v>10</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="W24" s="1">
+        <v>6</v>
+      </c>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="26" t="s">
+        <v>239</v>
+      </c>
       <c r="Z24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA24" s="1">
         <f>IF(ISBLANK(AB24),0, LOOKUP(AB24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC24/100)</f>
@@ -6802,30 +6982,32 @@
         <v>34</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>21300007</v>
+        <v>21200007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" s="1">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -6837,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" s="7">
         <v>0</v>
@@ -6852,13 +7034,11 @@
         <v>0</v>
       </c>
       <c r="P25" s="24">
-        <f t="shared" si="17"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1" t="s">
         <v>101</v>
@@ -6867,11 +7047,17 @@
         <v>10</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="W25" s="1">
+        <v>12</v>
+      </c>
+      <c r="X25" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA25" s="1">
         <f>IF(ISBLANK(AB25),0, LOOKUP(AB25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC25/100)</f>
@@ -6887,30 +7073,32 @@
         <v>34</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>21300008</v>
+        <v>21200008</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D27" si="18">IF(P26&gt;=23,4,IF(AND(P26&gt;=18,P26&lt;23),3,IF(AND(P26&gt;=13,P26&lt;18),2,IF(AND(P26&gt;=8,P26&lt;13),1,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="D26:D27" si="14">IF(P26&gt;=23,4,IF(AND(P26&gt;=18,P26&lt;23),3,IF(AND(P26&gt;=13,P26&lt;18),2,IF(AND(P26&gt;=8,P26&lt;13),1,0))))</f>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F27" si="19">D26*50+50</f>
-        <v>50</v>
+        <f t="shared" ref="F26:F27" si="15">D26*50+50</f>
+        <v>200</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -6937,13 +7125,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="24">
-        <f t="shared" ref="P26:P27" si="20">G26+H26+ SUM(I26:O26)*5+Z26+AA26</f>
-        <v>1</v>
+        <f t="shared" ref="P26:P27" si="16">G26+H26+ SUM(I26:O26)*5+Z26+AA26</f>
+        <v>18</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1" t="s">
         <v>101</v>
@@ -6952,11 +7138,17 @@
         <v>10</v>
       </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="W26" s="1">
+        <v>12</v>
+      </c>
+      <c r="X26" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="Z26" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA26" s="1">
         <f>IF(ISBLANK(AB26),0, LOOKUP(AB26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC26/100)</f>
@@ -6972,30 +7164,32 @@
         <v>34</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>21300009</v>
+        <v>21200009</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" s="1">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="19"/>
-        <v>200</v>
+        <f t="shared" si="15"/>
+        <v>150</v>
       </c>
       <c r="G27" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -7007,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="7">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L27" s="7">
         <v>0</v>
@@ -7022,13 +7216,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="24">
-        <f t="shared" si="20"/>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
         <v>101</v>
@@ -7037,22 +7229,24 @@
         <v>10</v>
       </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="W27" s="1">
+        <v>10</v>
+      </c>
+      <c r="X27" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="Z27" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA27" s="1">
         <f>IF(ISBLANK(AB27),0, LOOKUP(AB27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC27/100)</f>
-        <v>35</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>55100007</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
         <v>34</v>
@@ -7061,577 +7255,641 @@
         <v>34</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>21400001</v>
+      <c r="A28" s="1">
+        <v>21200010</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="22">
-        <f t="shared" ref="D28" si="21">IF(P28&gt;=23,4,IF(AND(P28&gt;=18,P28&lt;23),3,IF(AND(P28&gt;=13,P28&lt;18),2,IF(AND(P28&gt;=8,P28&lt;13),1,0))))</f>
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28" si="17">IF(P28&gt;=23,4,IF(AND(P28&gt;=18,P28&lt;23),3,IF(AND(P28&gt;=13,P28&lt;18),2,IF(AND(P28&gt;=8,P28&lt;13),1,0))))</f>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" ref="F28" si="18">D28*50+50</f>
+        <v>250</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="24">
+        <f t="shared" ref="P28" si="19">G28+H28+ SUM(I28:O28)*5+Z28+AA28</f>
+        <v>25</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="1">
+        <v>10</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1">
+        <v>10</v>
+      </c>
+      <c r="X28" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="1">
+        <f>IF(ISBLANK(AB28),0, LOOKUP(AB28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC28/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>21300001</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="23">
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" s="1">
+        <v>10</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <f>IF(ISBLANK(AB29),0, LOOKUP(AB29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC29/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>21300002</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:D31" si="20">IF(P30&gt;=23,4,IF(AND(P30&gt;=18,P30&lt;23),3,IF(AND(P30&gt;=13,P30&lt;18),2,IF(AND(P30&gt;=8,P30&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="24">
-        <f t="shared" ref="P28" si="22">G28+H28+ SUM(I28:O28)*5+Z28+AA28</f>
-        <v>5</v>
-      </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U28">
-        <v>10</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <f>IF(ISBLANK(AB28),0, LOOKUP(AB28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC28/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>21400002</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="22">
-        <f t="shared" ref="D29:D30" si="23">IF(P29&gt;=23,4,IF(AND(P29&gt;=18,P29&lt;23),3,IF(AND(P29&gt;=13,P29&lt;18),2,IF(AND(P29&gt;=8,P29&lt;13),1,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="23">
+      <c r="G30" s="1">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U30" s="1">
+        <v>10</v>
+      </c>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <f>IF(ISBLANK(AB30),0, LOOKUP(AB30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC30/100)</f>
+        <v>3</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>55510010</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>21300003</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="24">
-        <f t="shared" ref="P29:P30" si="24">G29+H29+ SUM(I29:O29)*5+Z29+AA29</f>
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U29">
-        <v>10</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <f>IF(ISBLANK(AB29),0, LOOKUP(AB29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC29/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG29" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>21400003</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="22">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="23">
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="23">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U31" s="1">
+        <v>10</v>
+      </c>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <f>IF(ISBLANK(AB31),0, LOOKUP(AB31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC31/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>21300004</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:D33" si="21">IF(P32&gt;=23,4,IF(AND(P32&gt;=18,P32&lt;23),3,IF(AND(P32&gt;=13,P32&lt;18),2,IF(AND(P32&gt;=8,P32&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" si="1"/>
+        <v>17.3</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U32" s="1">
+        <v>10</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <f>IF(ISBLANK(AB32),0, LOOKUP(AB32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC32/100)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>55510012</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>21300005</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="24">
-        <f t="shared" si="24"/>
-        <v>15</v>
-      </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="12" t="s">
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="23">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U30">
+      <c r="U33" s="1">
         <v>10</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <f>IF(ISBLANK(AB30),0, LOOKUP(AB30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC30/100)</f>
-        <v>10</v>
-      </c>
-      <c r="AB30">
-        <v>55110005</v>
-      </c>
-      <c r="AC30">
-        <v>50</v>
-      </c>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>135</v>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <f>IF(ISBLANK(AB33),0, LOOKUP(AB33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC33/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>21400004</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="22">
-        <f t="shared" ref="D31:D32" si="25">IF(P31&gt;=23,4,IF(AND(P31&gt;=18,P31&lt;23),3,IF(AND(P31&gt;=13,P31&lt;18),2,IF(AND(P31&gt;=8,P31&lt;13),1,0))))</f>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>21300006</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <f t="shared" ref="D34:D35" si="22">IF(P34&gt;=23,4,IF(AND(P34&gt;=18,P34&lt;23),3,IF(AND(P34&gt;=13,P34&lt;18),2,IF(AND(P34&gt;=8,P34&lt;13),1,0))))</f>
         <v>3</v>
       </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="23">
-        <v>4</v>
-      </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24">
-        <f t="shared" ref="P31:P32" si="26">G31+H31+ SUM(I31:O31)*5+Z31+AA31</f>
+      <c r="G34" s="1">
         <v>20</v>
       </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="12" t="s">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U31">
+      <c r="U34" s="1">
         <v>10</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <f>IF(ISBLANK(AB31),0, LOOKUP(AB31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC31/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>21400005</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="22">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" ref="F32:F33" si="27">D32*50+50</f>
-        <v>100</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="23">
-        <v>1</v>
-      </c>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="24">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="U32">
-        <v>10</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <f>IF(ISBLANK(AB32),0, LOOKUP(AB32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC32/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>21400006</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="22">
-        <f t="shared" ref="D33:D34" si="28">IF(P33&gt;=23,4,IF(AND(P33&gt;=18,P33&lt;23),3,IF(AND(P33&gt;=13,P33&lt;18),2,IF(AND(P33&gt;=8,P33&lt;13),1,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="27"/>
-        <v>150</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>4</v>
-      </c>
-      <c r="I33" s="23">
-        <v>2</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="24">
-        <f t="shared" ref="P33:P34" si="29">G33+H33+ SUM(I33:O33)*5+Z33+AA33</f>
-        <v>14</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="U33">
-        <v>10</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <f>IF(ISBLANK(AB33),0, LOOKUP(AB33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC33/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>21400007</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="22">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34:F35" si="30">D34*50+50</f>
-        <v>200</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
-        <v>4</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="24">
-        <f t="shared" si="29"/>
-        <v>20</v>
-      </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="U34">
-        <v>10</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
         <f>IF(ISBLANK(AB34),0, LOOKUP(AB34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC34/100)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG34" s="2" t="s">
-        <v>162</v>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>21400008</v>
+      <c r="A35" s="1">
+        <v>21300007</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="22">
-        <f t="shared" ref="D35:D36" si="31">IF(P35&gt;=23,4,IF(AND(P35&gt;=18,P35&lt;23),3,IF(AND(P35&gt;=13,P35&lt;18),2,IF(AND(P35&gt;=8,P35&lt;13),1,0))))</f>
-        <v>0</v>
+      <c r="D35" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="30"/>
-        <v>50</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="23">
@@ -7641,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" s="7">
         <v>0</v>
@@ -7656,63 +7914,71 @@
         <v>0</v>
       </c>
       <c r="P35" s="24">
-        <f t="shared" ref="P35:P36" si="32">G35+H35+ SUM(I35:O35)*5+Z35+AA35</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="12" t="s">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <v>10</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
         <f>IF(ISBLANK(AB35),0, LOOKUP(AB35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC35/100)</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG35" s="2" t="s">
-        <v>164</v>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>21400009</v>
+      <c r="A36" s="1">
+        <v>21300008</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="22">
-        <f t="shared" si="31"/>
-        <v>2</v>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:D37" si="23">IF(P36&gt;=23,4,IF(AND(P36&gt;=18,P36&lt;23),3,IF(AND(P36&gt;=13,P36&lt;18),2,IF(AND(P36&gt;=8,P36&lt;13),1,0))))</f>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ref="F36:F37" si="33">D36*50+50</f>
-        <v>150</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>3</v>
+        <f t="shared" ref="F36:F37" si="24">D36*50+50</f>
+        <v>50</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
       </c>
       <c r="I36" s="23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -7733,69 +7999,77 @@
         <v>0</v>
       </c>
       <c r="P36" s="24">
-        <f t="shared" si="32"/>
-        <v>13</v>
-      </c>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="12" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="1">
         <v>10</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
         <f>IF(ISBLANK(AB36),0, LOOKUP(AB36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC36/100)</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG36" s="2" t="s">
-        <v>166</v>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>21400010</v>
+      <c r="A37" s="1">
+        <v>21300009</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="22">
-        <f t="shared" ref="D37:D38" si="34">IF(P37&gt;=23,4,IF(AND(P37&gt;=18,P37&lt;23),3,IF(AND(P37&gt;=13,P37&lt;18),2,IF(AND(P37&gt;=8,P37&lt;13),1,0))))</f>
-        <v>2</v>
+      <c r="D37" s="1">
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="33"/>
-        <v>150</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
+        <f t="shared" si="24"/>
+        <v>200</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37" s="23">
         <v>0</v>
       </c>
       <c r="J37" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="7">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L37" s="7">
         <v>0</v>
@@ -7810,91 +8084,103 @@
         <v>0</v>
       </c>
       <c r="P37" s="24">
-        <f t="shared" ref="P37:P38" si="35">G37+H37+ SUM(I37:O37)*5+Z37+AA37</f>
-        <v>15</v>
-      </c>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="12" t="s">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="1">
         <v>10</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
         <f>IF(ISBLANK(AB37),0, LOOKUP(AB37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC37/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF37" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>168</v>
+        <v>35</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>55100007</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>21400011</v>
+        <v>21400001</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="22">
-        <f t="shared" si="34"/>
-        <v>4</v>
+        <f t="shared" ref="D38" si="25">IF(P38&gt;=23,4,IF(AND(P38&gt;=18,P38&lt;23),3,IF(AND(P38&gt;=13,P38&lt;18),2,IF(AND(P38&gt;=8,P38&lt;13),1,0))))</f>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ref="F38" si="36">D38*50+50</f>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
       </c>
       <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="23">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="24">
+        <f t="shared" si="1"/>
         <v>5</v>
-      </c>
-      <c r="I38" s="23">
-        <v>3</v>
-      </c>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>2</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="24">
-        <f t="shared" si="35"/>
-        <v>30</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="12" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="U38">
         <v>10</v>
@@ -7914,23 +8200,23 @@
         <v>34</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>21500001</v>
+        <v>21400002</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="22">
-        <f t="shared" ref="D39" si="37">IF(P39&gt;=23,4,IF(AND(P39&gt;=18,P39&lt;23),3,IF(AND(P39&gt;=13,P39&lt;18),2,IF(AND(P39&gt;=8,P39&lt;13),1,0))))</f>
+        <f t="shared" ref="D39:D40" si="26">IF(P39&gt;=23,4,IF(AND(P39&gt;=18,P39&lt;23),3,IF(AND(P39&gt;=13,P39&lt;18),2,IF(AND(P39&gt;=8,P39&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="2"/>
@@ -7943,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="7">
         <v>0</v>
@@ -7964,22 +8250,20 @@
         <v>0</v>
       </c>
       <c r="P39" s="24">
-        <f t="shared" ref="P39" si="38">G39+H39+ SUM(I39:O39)*5+Z39+AA39</f>
+        <f t="shared" ref="P39:P56" si="27">G39+H39+ SUM(I39:O39)*5+Z39+AA39</f>
         <v>10</v>
       </c>
-      <c r="Q39" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="12" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="U39">
         <v>10</v>
       </c>
       <c r="Z39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <f>IF(ISBLANK(AB39),0, LOOKUP(AB39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC39/100)</f>
@@ -7993,27 +8277,27 @@
         <v>34</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>21500002</v>
+        <v>21400003</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="22">
-        <f t="shared" ref="D40:D41" si="39">IF(P40&gt;=23,4,IF(AND(P40&gt;=18,P40&lt;23),3,IF(AND(P40&gt;=13,P40&lt;18),2,IF(AND(P40&gt;=8,P40&lt;13),1,0))))</f>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -8022,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="7">
         <v>0</v>
@@ -8043,24 +8327,30 @@
         <v>0</v>
       </c>
       <c r="P40" s="24">
-        <f t="shared" ref="P40:P41" si="40">G40+H40+ SUM(I40:O40)*5+Z40+AA40</f>
-        <v>10</v>
+        <f t="shared" si="27"/>
+        <v>15</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="12" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="U40">
         <v>10</v>
       </c>
       <c r="Z40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <f>IF(ISBLANK(AB40),0, LOOKUP(AB40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC40/100)</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AB40">
+        <v>55110005</v>
+      </c>
+      <c r="AC40">
+        <v>50</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="12" t="s">
@@ -8070,27 +8360,27 @@
         <v>34</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>21500003</v>
+        <v>21400004</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="22">
-        <f t="shared" si="39"/>
-        <v>1</v>
+        <f t="shared" ref="D41:D42" si="28">IF(P41&gt;=23,4,IF(AND(P41&gt;=18,P41&lt;23),3,IF(AND(P41&gt;=13,P41&lt;18),2,IF(AND(P41&gt;=8,P41&lt;13),1,0))))</f>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -8099,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" s="7">
         <v>0</v>
@@ -8108,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -8120,22 +8410,20 @@
         <v>0</v>
       </c>
       <c r="P41" s="24">
-        <f t="shared" si="40"/>
-        <v>11</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>6</v>
-      </c>
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="12" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="U41">
         <v>10</v>
       </c>
       <c r="Z41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <f>IF(ISBLANK(AB41),0, LOOKUP(AB41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC41/100)</f>
@@ -8149,36 +8437,36 @@
         <v>34</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>21500004</v>
+        <v>21400005</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="22">
-        <f t="shared" ref="D42:D43" si="41">IF(P42&gt;=23,4,IF(AND(P42&gt;=18,P42&lt;23),3,IF(AND(P42&gt;=13,P42&lt;18),2,IF(AND(P42&gt;=8,P42&lt;13),1,0))))</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F42:F43" si="29">D42*50+50</f>
         <v>100</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
       </c>
       <c r="H42" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="7">
         <v>0</v>
@@ -8199,14 +8487,14 @@
         <v>0</v>
       </c>
       <c r="P42" s="24">
-        <f t="shared" ref="P42:P43" si="42">G42+H42+ SUM(I42:O42)*5+Z42+AA42</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="12" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="U42">
         <v>10</v>
@@ -8216,13 +8504,7 @@
       </c>
       <c r="AA42">
         <f>IF(ISBLANK(AB42),0, LOOKUP(AB42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC42/100)</f>
-        <v>4</v>
-      </c>
-      <c r="AB42">
-        <v>55990108</v>
-      </c>
-      <c r="AC42">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12" t="s">
@@ -8232,36 +8514,36 @@
         <v>34</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>21500005</v>
+        <v>21400006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="D43:D44" si="30">IF(P43&gt;=23,4,IF(AND(P43&gt;=18,P43&lt;23),3,IF(AND(P43&gt;=13,P43&lt;18),2,IF(AND(P43&gt;=8,P43&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>150</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="7">
         <v>0</v>
@@ -8279,23 +8561,23 @@
         <v>0</v>
       </c>
       <c r="O43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="24">
-        <f t="shared" si="42"/>
-        <v>15</v>
+        <f t="shared" si="27"/>
+        <v>14</v>
       </c>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="12" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="U43">
         <v>10</v>
       </c>
       <c r="Z43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <f>IF(ISBLANK(AB43),0, LOOKUP(AB43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC43/100)</f>
@@ -8309,27 +8591,27 @@
         <v>34</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>21500006</v>
+        <v>21400007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="22">
-        <f t="shared" ref="D44:D45" si="43">IF(P44&gt;=23,4,IF(AND(P44&gt;=18,P44&lt;23),3,IF(AND(P44&gt;=13,P44&lt;18),2,IF(AND(P44&gt;=8,P44&lt;13),1,0))))</f>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" ref="F44:F45" si="31">D44*50+50</f>
+        <v>200</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -8350,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N44" s="7">
         <v>0</v>
@@ -8359,14 +8641,14 @@
         <v>0</v>
       </c>
       <c r="P44" s="24">
-        <f t="shared" ref="P44:P45" si="44">G44+H44+ SUM(I44:O44)*5+Z44+AA44</f>
-        <v>15</v>
+        <f t="shared" si="27"/>
+        <v>20</v>
       </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="12" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="U44">
         <v>10</v>
@@ -8376,13 +8658,7 @@
       </c>
       <c r="AA44">
         <f>IF(ISBLANK(AB44),0, LOOKUP(AB44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC44/100)</f>
-        <v>15</v>
-      </c>
-      <c r="AB44">
-        <v>55990109</v>
-      </c>
-      <c r="AC44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="12"/>
       <c r="AE44" s="12" t="s">
@@ -8392,27 +8668,27 @@
         <v>34</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>21500007</v>
+        <v>21400008</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="22">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" ref="D45:D46" si="32">IF(P45&gt;=23,4,IF(AND(P45&gt;=18,P45&lt;23),3,IF(AND(P45&gt;=13,P45&lt;18),2,IF(AND(P45&gt;=8,P45&lt;13),1,0))))</f>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:F46" si="45">D45*50+50</f>
-        <v>100</v>
+        <f t="shared" si="31"/>
+        <v>50</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -8442,20 +8718,20 @@
         <v>0</v>
       </c>
       <c r="P45" s="24">
-        <f t="shared" si="44"/>
-        <v>8</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="12" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="U45">
         <v>10</v>
       </c>
       <c r="Z45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <f>IF(ISBLANK(AB45),0, LOOKUP(AB45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC45/100)</f>
@@ -8469,36 +8745,36 @@
         <v>34</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>21500008</v>
+        <v>21400009</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="22">
-        <f t="shared" ref="D46" si="46">IF(P46&gt;=23,4,IF(AND(P46&gt;=18,P46&lt;23),3,IF(AND(P46&gt;=13,P46&lt;18),2,IF(AND(P46&gt;=8,P46&lt;13),1,0))))</f>
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="E46" s="1">
-        <v>5</v>
-      </c>
       <c r="F46" s="1">
-        <f t="shared" si="45"/>
-        <v>250</v>
+        <f t="shared" ref="F46:F47" si="33">D46*50+50</f>
+        <v>150</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="7">
         <v>0</v>
@@ -8507,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -8519,14 +8795,14 @@
         <v>0</v>
       </c>
       <c r="P46" s="24">
-        <f t="shared" ref="P46" si="47">G46+H46+ SUM(I46:O46)*5+Z46+AA46</f>
-        <v>25</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="U46">
         <v>10</v>
@@ -8536,13 +8812,7 @@
       </c>
       <c r="AA46">
         <f>IF(ISBLANK(AB46),0, LOOKUP(AB46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC46/100)</f>
-        <v>10</v>
-      </c>
-      <c r="AB46">
-        <v>55110003</v>
-      </c>
-      <c r="AC46">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="12"/>
       <c r="AE46" s="12" t="s">
@@ -8552,25 +8822,912 @@
         <v>34</v>
       </c>
       <c r="AG46" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>21400010</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="22">
+        <f t="shared" ref="D47:D48" si="34">IF(P47&gt;=23,4,IF(AND(P47&gt;=18,P47&lt;23),3,IF(AND(P47&gt;=13,P47&lt;18),2,IF(AND(P47&gt;=8,P47&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="33"/>
+        <v>150</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="23">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>3</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="24">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U47">
+        <v>10</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f>IF(ISBLANK(AB47),0, LOOKUP(AB47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC47/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF47" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG47" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>21400011</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="22">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ref="F48" si="35">D48*50+50</f>
+        <v>250</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>5</v>
+      </c>
+      <c r="I48" s="23">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="24">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U48">
+        <v>10</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f>IF(ISBLANK(AB48),0, LOOKUP(AB48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC48/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>21500001</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="22">
+        <f t="shared" ref="D49" si="36">IF(P49&gt;=23,4,IF(AND(P49&gt;=18,P49&lt;23),3,IF(AND(P49&gt;=13,P49&lt;18),2,IF(AND(P49&gt;=8,P49&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="23">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="24">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>5</v>
+      </c>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U49">
+        <v>10</v>
+      </c>
+      <c r="Z49">
+        <v>10</v>
+      </c>
+      <c r="AA49">
+        <f>IF(ISBLANK(AB49),0, LOOKUP(AB49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC49/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>21500002</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="22">
+        <f t="shared" ref="D50:D51" si="37">IF(P50&gt;=23,4,IF(AND(P50&gt;=18,P50&lt;23),3,IF(AND(P50&gt;=13,P50&lt;18),2,IF(AND(P50&gt;=8,P50&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="23">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="24">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="U50">
+        <v>10</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+      <c r="AA50">
+        <f>IF(ISBLANK(AB50),0, LOOKUP(AB50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC50/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>21500003</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="22">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="23">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>1</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="24">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="U51">
+        <v>10</v>
+      </c>
+      <c r="Z51">
+        <v>6</v>
+      </c>
+      <c r="AA51">
+        <f>IF(ISBLANK(AB51),0, LOOKUP(AB51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC51/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>21500004</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="22">
+        <f t="shared" ref="D52:D53" si="38">IF(P52&gt;=23,4,IF(AND(P52&gt;=18,P52&lt;23),3,IF(AND(P52&gt;=13,P52&lt;18),2,IF(AND(P52&gt;=8,P52&lt;13),1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>4</v>
+      </c>
+      <c r="I52" s="23">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="24">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f>IF(ISBLANK(AB52),0, LOOKUP(AB52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC52/100)</f>
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>55990108</v>
+      </c>
+      <c r="AC52">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>21500005</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="22">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="23">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>1</v>
+      </c>
+      <c r="P53" s="24">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U53">
+        <v>10</v>
+      </c>
+      <c r="Z53">
+        <v>10</v>
+      </c>
+      <c r="AA53">
+        <f>IF(ISBLANK(AB53),0, LOOKUP(AB53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC53/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>21500006</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="22">
+        <f t="shared" ref="D54:D55" si="39">IF(P54&gt;=23,4,IF(AND(P54&gt;=18,P54&lt;23),3,IF(AND(P54&gt;=13,P54&lt;18),2,IF(AND(P54&gt;=8,P54&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="23">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="24">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U54">
+        <v>10</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f>IF(ISBLANK(AB54),0, LOOKUP(AB54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC54/100)</f>
+        <v>15</v>
+      </c>
+      <c r="AB54">
+        <v>55990109</v>
+      </c>
+      <c r="AC54">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>21500007</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="22">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" ref="F55:F56" si="40">D55*50+50</f>
+        <v>100</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="23">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="24">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="U55">
+        <v>10</v>
+      </c>
+      <c r="Z55">
+        <v>8</v>
+      </c>
+      <c r="AA55">
+        <f>IF(ISBLANK(AB55),0, LOOKUP(AB55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC55/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>21500008</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="22">
+        <f t="shared" ref="D56:D57" si="41">IF(P56&gt;=23,4,IF(AND(P56&gt;=18,P56&lt;23),3,IF(AND(P56&gt;=13,P56&lt;18),2,IF(AND(P56&gt;=8,P56&lt;13),1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="40"/>
+        <v>250</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="23">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>3</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="24">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U56">
+        <v>10</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f>IF(ISBLANK(AB56),0, LOOKUP(AB56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC56/100)</f>
+        <v>10</v>
+      </c>
+      <c r="AB56">
+        <v>55110003</v>
+      </c>
+      <c r="AC56">
+        <v>40</v>
+      </c>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF56" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG56" s="2" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>21500009</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="22">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" ref="F57" si="42">D57*50+50</f>
+        <v>100</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="23">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="24">
+        <f t="shared" ref="P57" si="43">G57+H57+ SUM(I57:O57)*5+Z57+AA57</f>
+        <v>10</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U57">
+        <v>10</v>
+      </c>
+      <c r="V57">
+        <v>31100001</v>
+      </c>
+      <c r="Z57">
+        <v>10</v>
+      </c>
+      <c r="AA57">
+        <f>IF(ISBLANK(AB57),0, LOOKUP(AB57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC57/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D46">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D4:D24 D26 D28:D57">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25 D27">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="246">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -958,6 +958,20 @@
   </si>
   <si>
     <t>护盾发生器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu10</t>
+  </si>
+  <si>
+    <t>猎手大厅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu11</t>
+  </si>
+  <si>
+    <t>传送阵</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4467,8 +4481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG57" totalsRowShown="0">
-  <autoFilter ref="A3:AG57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG59" totalsRowShown="0">
+  <autoFilter ref="A3:AG59"/>
   <sortState ref="A4:AG38">
     <sortCondition ref="A3:A38"/>
   </sortState>
@@ -4840,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9631,7 +9645,7 @@
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" ref="F57" si="42">D57*50+50</f>
+        <f t="shared" ref="F57:F58" si="42">D57*50+50</f>
         <v>100</v>
       </c>
       <c r="G57" s="7">
@@ -9695,9 +9709,169 @@
         <v>240</v>
       </c>
     </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>21500010</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="22">
+        <f t="shared" ref="D58:D59" si="44">IF(P58&gt;=23,4,IF(AND(P58&gt;=18,P58&lt;23),3,IF(AND(P58&gt;=13,P58&lt;18),2,IF(AND(P58&gt;=8,P58&lt;13),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="42"/>
+        <v>150</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="23">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="24">
+        <f t="shared" ref="P58" si="45">G58+H58+ SUM(I58:O58)*5+Z58+AA58</f>
+        <v>15</v>
+      </c>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U58">
+        <v>10</v>
+      </c>
+      <c r="V58">
+        <v>31100002</v>
+      </c>
+      <c r="Z58">
+        <v>15</v>
+      </c>
+      <c r="AA58">
+        <f>IF(ISBLANK(AB58),0, LOOKUP(AB58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC58/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF58" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>21500011</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="22">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" ref="F59" si="46">D59*50+50</f>
+        <v>250</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="23">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="24">
+        <f t="shared" ref="P59" si="47">G59+H59+ SUM(I59:O59)*5+Z59+AA59</f>
+        <v>25</v>
+      </c>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U59">
+        <v>10</v>
+      </c>
+      <c r="V59">
+        <v>31100003</v>
+      </c>
+      <c r="Z59">
+        <v>25</v>
+      </c>
+      <c r="AA59">
+        <f>IF(ISBLANK(AB59),0, LOOKUP(AB59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC59/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG59" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D24 D26 D28:D57">
+  <conditionalFormatting sqref="D4:D24 D26 D28:D59">
     <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -410,10 +410,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.IsRace("Human")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -495,10 +491,6 @@
     <t>qizhi2</t>
   </si>
   <si>
-    <t>m.IsRace("Undead")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>0;0;0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -509,14 +501,6 @@
     <t>qizhi4</t>
   </si>
   <si>
-    <t>m.IsRace("Orc")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.IsRace("Spirit")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>鬼怪旗帜</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -893,10 +877,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.IsRace("Beast")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>提升我方野兽12%攻击和6%最大生命值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -908,10 +888,6 @@
     <t>qizhi8</t>
   </si>
   <si>
-    <t>m.IsRace("Machine") || m.IsRace("Element")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>科学旗帜</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -923,10 +899,6 @@
     <t>qizhi9</t>
   </si>
   <si>
-    <t>m.IsRace("Totem") || m.IsRace("Element")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>提升我方图腾和元素单位10%攻击和最大生命值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -973,6 +945,27 @@
   <si>
     <t>传送阵</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.Action.IsRace("Human")</t>
+  </si>
+  <si>
+    <t>m.Action.IsRace("Undead")</t>
+  </si>
+  <si>
+    <t>m.Action.IsRace("Orc")</t>
+  </si>
+  <si>
+    <t>m.Action.IsRace("Spirit")</t>
+  </si>
+  <si>
+    <t>m.Action.IsRace("Beast")</t>
+  </si>
+  <si>
+    <t>m.Action.IsRace("Machine") || m.Action.IsRace("Element")</t>
+  </si>
+  <si>
+    <t>m.Action.IsRace("Totem") || m.Action.IsRace("Element")</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +3678,6 @@
           <cell r="A162">
             <v>55900028</v>
           </cell>
-          <cell r="Y162"/>
         </row>
         <row r="163">
           <cell r="A163">
@@ -4856,8 +4848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4891,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
@@ -4936,7 +4928,7 @@
         <v>45</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>69</v>
@@ -4992,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -5037,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>70</v>
@@ -5093,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -5138,7 +5130,7 @@
         <v>26</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>71</v>
@@ -5276,7 +5268,7 @@
         <v>21100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -5324,7 +5316,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
       <c r="S5" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>18</v>
@@ -5353,7 +5345,7 @@
         <v>34</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.15">
@@ -5361,7 +5353,7 @@
         <v>21100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -5409,7 +5401,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
       <c r="S6" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>18</v>
@@ -5438,7 +5430,7 @@
         <v>34</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
@@ -5446,7 +5438,7 @@
         <v>21100004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -5494,10 +5486,10 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
       <c r="S7" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U7" s="1">
         <v>10</v>
@@ -5523,7 +5515,7 @@
         <v>34</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.15">
@@ -5531,7 +5523,7 @@
         <v>21100005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -5579,10 +5571,10 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U8" s="1">
         <v>10</v>
@@ -5608,7 +5600,7 @@
         <v>34</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.15">
@@ -5616,7 +5608,7 @@
         <v>21100006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -5664,10 +5656,10 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
       <c r="S9" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U9" s="1">
         <v>10</v>
@@ -5693,7 +5685,7 @@
         <v>34</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.15">
@@ -5701,7 +5693,7 @@
         <v>21100007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -5749,10 +5741,10 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
       <c r="S10" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U10" s="1">
         <v>10</v>
@@ -5778,7 +5770,7 @@
         <v>34</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.15">
@@ -5786,7 +5778,7 @@
         <v>21100008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -5834,10 +5826,10 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U11" s="1">
         <v>10</v>
@@ -5863,7 +5855,7 @@
         <v>34</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.15">
@@ -5871,7 +5863,7 @@
         <v>21100009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -5919,10 +5911,10 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U12" s="1">
         <v>10</v>
@@ -5948,7 +5940,7 @@
         <v>34</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
@@ -5956,7 +5948,7 @@
         <v>21100010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -6004,10 +5996,10 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U13" s="1">
         <v>10</v>
@@ -6033,7 +6025,7 @@
         <v>34</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
@@ -6041,7 +6033,7 @@
         <v>21100011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -6089,10 +6081,10 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U14" s="1">
         <v>10</v>
@@ -6118,7 +6110,7 @@
         <v>34</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
@@ -6126,7 +6118,7 @@
         <v>21100012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -6174,10 +6166,10 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U15" s="1">
         <v>10</v>
@@ -6203,7 +6195,7 @@
         <v>34</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
@@ -6211,7 +6203,7 @@
         <v>21100013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -6259,10 +6251,10 @@
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U16" s="1">
         <v>10</v>
@@ -6288,7 +6280,7 @@
         <v>34</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
@@ -6296,7 +6288,7 @@
         <v>21100014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -6344,10 +6336,10 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U17" s="1">
         <v>10</v>
@@ -6373,7 +6365,7 @@
         <v>34</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.15">
@@ -6381,7 +6373,7 @@
         <v>21100015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -6429,10 +6421,10 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U18" s="1">
         <v>10</v>
@@ -6458,7 +6450,7 @@
         <v>34</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
@@ -6469,7 +6461,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:D29" si="9">IF(P19&gt;=23,4,IF(AND(P19&gt;=18,P19&lt;23),3,IF(AND(P19&gt;=13,P19&lt;18),2,IF(AND(P19&gt;=8,P19&lt;13),1,0))))</f>
@@ -6528,7 +6520,7 @@
         <v>20</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="Z19" s="1">
         <v>10</v>
@@ -6555,10 +6547,10 @@
         <v>21200002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ref="D20:D21" si="10">IF(P20&gt;=23,4,IF(AND(P20&gt;=18,P20&lt;23),3,IF(AND(P20&gt;=13,P20&lt;18),2,IF(AND(P20&gt;=8,P20&lt;13),1,0))))</f>
@@ -6606,7 +6598,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U20" s="1">
         <v>10</v>
@@ -6619,7 +6611,7 @@
         <v>14</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="Z20" s="1">
         <v>14</v>
@@ -6638,7 +6630,7 @@
         <v>34</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
@@ -6646,10 +6638,10 @@
         <v>21200003</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="10"/>
@@ -6697,7 +6689,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U21" s="1">
         <v>10</v>
@@ -6708,7 +6700,7 @@
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="Z21" s="1">
         <v>12.5</v>
@@ -6727,7 +6719,7 @@
         <v>34</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.15">
@@ -6735,10 +6727,10 @@
         <v>21200004</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ref="D22" si="11">IF(P22&gt;=23,4,IF(AND(P22&gt;=18,P22&lt;23),3,IF(AND(P22&gt;=13,P22&lt;18),2,IF(AND(P22&gt;=8,P22&lt;13),1,0))))</f>
@@ -6786,7 +6778,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U22" s="1">
         <v>10</v>
@@ -6799,7 +6791,7 @@
         <v>14</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="Z22" s="1">
         <v>14</v>
@@ -6818,7 +6810,7 @@
         <v>34</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
@@ -6826,10 +6818,10 @@
         <v>21200005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D25" si="12">IF(P23&gt;=23,4,IF(AND(P23&gt;=18,P23&lt;23),3,IF(AND(P23&gt;=13,P23&lt;18),2,IF(AND(P23&gt;=8,P23&lt;13),1,0))))</f>
@@ -6877,7 +6869,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U23" s="1">
         <v>10</v>
@@ -6888,7 +6880,7 @@
         <v>6</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Z23" s="1">
         <v>6</v>
@@ -6907,7 +6899,7 @@
         <v>34</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.15">
@@ -6915,10 +6907,10 @@
         <v>21200006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="12"/>
@@ -6966,7 +6958,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U24" s="1">
         <v>10</v>
@@ -6977,7 +6969,7 @@
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Z24" s="1">
         <v>6</v>
@@ -6996,7 +6988,7 @@
         <v>34</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
@@ -7004,10 +6996,10 @@
         <v>21200007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="12"/>
@@ -7055,7 +7047,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U25" s="1">
         <v>10</v>
@@ -7068,7 +7060,7 @@
         <v>6</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Z25" s="1">
         <v>9</v>
@@ -7087,7 +7079,7 @@
         <v>34</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.15">
@@ -7095,10 +7087,10 @@
         <v>21200008</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ref="D26:D27" si="14">IF(P26&gt;=23,4,IF(AND(P26&gt;=18,P26&lt;23),3,IF(AND(P26&gt;=13,P26&lt;18),2,IF(AND(P26&gt;=8,P26&lt;13),1,0))))</f>
@@ -7146,7 +7138,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U26" s="1">
         <v>10</v>
@@ -7159,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="Z26" s="1">
         <v>18</v>
@@ -7178,7 +7170,7 @@
         <v>34</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.15">
@@ -7186,10 +7178,10 @@
         <v>21200009</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="14"/>
@@ -7237,7 +7229,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U27" s="1">
         <v>10</v>
@@ -7250,7 +7242,7 @@
         <v>10</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Z27" s="1">
         <v>15</v>
@@ -7269,7 +7261,7 @@
         <v>34</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
@@ -7277,10 +7269,10 @@
         <v>21200010</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ref="D28" si="17">IF(P28&gt;=23,4,IF(AND(P28&gt;=18,P28&lt;23),3,IF(AND(P28&gt;=13,P28&lt;18),2,IF(AND(P28&gt;=8,P28&lt;13),1,0))))</f>
@@ -7328,7 +7320,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U28" s="1">
         <v>10</v>
@@ -7341,7 +7333,7 @@
         <v>10</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Z28" s="1">
         <v>25</v>
@@ -7360,7 +7352,7 @@
         <v>34</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.15">
@@ -7415,7 +7407,7 @@
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
@@ -7453,7 +7445,7 @@
         <v>21300002</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -7500,11 +7492,11 @@
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U30" s="1">
         <v>10</v>
@@ -7534,7 +7526,7 @@
         <v>34</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.15">
@@ -7542,7 +7534,7 @@
         <v>21300003</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
@@ -7589,11 +7581,11 @@
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U31" s="1">
         <v>10</v>
@@ -7619,7 +7611,7 @@
         <v>34</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.15">
@@ -7627,7 +7619,7 @@
         <v>21300004</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -7674,11 +7666,11 @@
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U32" s="1">
         <v>10</v>
@@ -7708,7 +7700,7 @@
         <v>34</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.15">
@@ -7716,7 +7708,7 @@
         <v>21300005</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -7763,11 +7755,11 @@
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U33" s="1">
         <v>10</v>
@@ -7793,7 +7785,7 @@
         <v>34</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.15">
@@ -7801,7 +7793,7 @@
         <v>21300006</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
@@ -7848,11 +7840,11 @@
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U34" s="1">
         <v>10</v>
@@ -7878,7 +7870,7 @@
         <v>34</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.15">
@@ -7886,7 +7878,7 @@
         <v>21300007</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
@@ -7933,11 +7925,11 @@
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U35" s="1">
         <v>10</v>
@@ -7963,7 +7955,7 @@
         <v>34</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.15">
@@ -7971,7 +7963,7 @@
         <v>21300008</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
@@ -8018,11 +8010,11 @@
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U36" s="1">
         <v>10</v>
@@ -8048,7 +8040,7 @@
         <v>34</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.15">
@@ -8056,7 +8048,7 @@
         <v>21300009</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1">
@@ -8103,11 +8095,11 @@
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U37" s="1">
         <v>10</v>
@@ -8137,7 +8129,7 @@
         <v>34</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.15">
@@ -8145,7 +8137,7 @@
         <v>21400001</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="22">
@@ -8222,7 +8214,7 @@
         <v>21400002</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="22">
@@ -8291,7 +8283,7 @@
         <v>34</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.15">
@@ -8299,7 +8291,7 @@
         <v>21400003</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="22">
@@ -8348,7 +8340,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U40">
         <v>10</v>
@@ -8374,7 +8366,7 @@
         <v>34</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.15">
@@ -8382,7 +8374,7 @@
         <v>21400004</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="22">
@@ -8431,7 +8423,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U41">
         <v>10</v>
@@ -8451,7 +8443,7 @@
         <v>34</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.15">
@@ -8459,7 +8451,7 @@
         <v>21400005</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="22">
@@ -8508,7 +8500,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U42">
         <v>10</v>
@@ -8528,7 +8520,7 @@
         <v>34</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.15">
@@ -8536,7 +8528,7 @@
         <v>21400006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="22">
@@ -8585,7 +8577,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U43">
         <v>10</v>
@@ -8605,7 +8597,7 @@
         <v>34</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.15">
@@ -8613,7 +8605,7 @@
         <v>21400007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="22">
@@ -8662,7 +8654,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U44">
         <v>10</v>
@@ -8682,7 +8674,7 @@
         <v>34</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.15">
@@ -8690,7 +8682,7 @@
         <v>21400008</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="22">
@@ -8739,7 +8731,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U45">
         <v>10</v>
@@ -8759,7 +8751,7 @@
         <v>34</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.15">
@@ -8767,7 +8759,7 @@
         <v>21400009</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="22">
@@ -8816,7 +8808,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U46">
         <v>10</v>
@@ -8836,7 +8828,7 @@
         <v>34</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.15">
@@ -8844,7 +8836,7 @@
         <v>21400010</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="22">
@@ -8893,7 +8885,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U47">
         <v>10</v>
@@ -8913,7 +8905,7 @@
         <v>34</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.15">
@@ -8921,7 +8913,7 @@
         <v>21400011</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="22">
@@ -8970,7 +8962,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U48">
         <v>10</v>
@@ -8990,7 +8982,7 @@
         <v>34</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.15">
@@ -9077,7 +9069,7 @@
         <v>21500002</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="22">
@@ -9126,7 +9118,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U50">
         <v>10</v>
@@ -9146,7 +9138,7 @@
         <v>34</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.15">
@@ -9154,7 +9146,7 @@
         <v>21500003</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="22">
@@ -9203,7 +9195,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U51">
         <v>10</v>
@@ -9223,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.15">
@@ -9231,7 +9223,7 @@
         <v>21500004</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="22">
@@ -9306,7 +9298,7 @@
         <v>34</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.15">
@@ -9314,7 +9306,7 @@
         <v>21500005</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="22">
@@ -9363,7 +9355,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U53">
         <v>10</v>
@@ -9383,7 +9375,7 @@
         <v>34</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.15">
@@ -9391,7 +9383,7 @@
         <v>21500006</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="22">
@@ -9466,7 +9458,7 @@
         <v>34</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.15">
@@ -9474,7 +9466,7 @@
         <v>21500007</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="22">
@@ -9523,7 +9515,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="U55">
         <v>10</v>
@@ -9543,7 +9535,7 @@
         <v>34</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.15">
@@ -9551,7 +9543,7 @@
         <v>21500008</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="22">
@@ -9600,7 +9592,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U56">
         <v>10</v>
@@ -9626,7 +9618,7 @@
         <v>34</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.15">
@@ -9634,7 +9626,7 @@
         <v>21500009</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="22">
@@ -9683,7 +9675,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U57">
         <v>10</v>
@@ -9706,7 +9698,7 @@
         <v>34</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.15">
@@ -9714,7 +9706,7 @@
         <v>21500010</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="22">
@@ -9763,7 +9755,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
       <c r="T58" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U58">
         <v>10</v>
@@ -9786,7 +9778,7 @@
         <v>34</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.15">
@@ -9794,7 +9786,7 @@
         <v>21500011</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="22">
@@ -9843,7 +9835,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U59">
         <v>10</v>
@@ -9866,7 +9858,7 @@
         <v>34</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="305">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -966,6 +966,186 @@
   </si>
   <si>
     <t>m.Action.IsRace("Totem") || m.Action.IsRace("Element")</t>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ename</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eqcaowu</t>
+  </si>
+  <si>
+    <t>eqxiyongchengbao</t>
+  </si>
+  <si>
+    <t>eqgaibeiyichengbao</t>
+  </si>
+  <si>
+    <t>eqtianshouge</t>
+  </si>
+  <si>
+    <t>eqwaxilijiaotang</t>
+  </si>
+  <si>
+    <t>eqjinzita</t>
+  </si>
+  <si>
+    <t>eqzijincheng</t>
+  </si>
+  <si>
+    <t>eqtianebao</t>
+  </si>
+  <si>
+    <t>eqmayashenmiao</t>
+  </si>
+  <si>
+    <t>eqdishinichengbao</t>
+  </si>
+  <si>
+    <t>eqtielubao</t>
+  </si>
+  <si>
+    <t>eqhuogewozi</t>
+  </si>
+  <si>
+    <t>eqpatenongshenmiao</t>
+  </si>
+  <si>
+    <t>eqzhulou</t>
+  </si>
+  <si>
+    <t>eqshengtuolini</t>
+  </si>
+  <si>
+    <t>eqlanseqizhi</t>
+  </si>
+  <si>
+    <t>eqguiguaiqizhi</t>
+  </si>
+  <si>
+    <t>eqyexingqizhi</t>
+  </si>
+  <si>
+    <t>eqanyeqizhi</t>
+  </si>
+  <si>
+    <t>eqlianheqizhi</t>
+  </si>
+  <si>
+    <t>eqhaidaoqizhi</t>
+  </si>
+  <si>
+    <t>eqgongniuqizhi</t>
+  </si>
+  <si>
+    <t>eqkexueqizhi</t>
+  </si>
+  <si>
+    <t>eqyaoshuiqizhi</t>
+  </si>
+  <si>
+    <t>eqyingxiongqizhi</t>
+  </si>
+  <si>
+    <t>eqgongjian</t>
+  </si>
+  <si>
+    <t>eqhuoyanjian</t>
+  </si>
+  <si>
+    <t>eqhuoqiang</t>
+  </si>
+  <si>
+    <t>eqfeichui</t>
+  </si>
+  <si>
+    <t>eqairenhuopao</t>
+  </si>
+  <si>
+    <t>eqjunu</t>
+  </si>
+  <si>
+    <t>eqjiguang</t>
+  </si>
+  <si>
+    <t>eqdangong</t>
+  </si>
+  <si>
+    <t>eqbaoliepao</t>
+  </si>
+  <si>
+    <t>eqmuqiang</t>
+  </si>
+  <si>
+    <t>eqshiqiang</t>
+  </si>
+  <si>
+    <t>eqciqiang</t>
+  </si>
+  <si>
+    <t>eqhuangjinqiang</t>
+  </si>
+  <si>
+    <t>eqzhuanqiang</t>
+  </si>
+  <si>
+    <t>eqtiepi</t>
+  </si>
+  <si>
+    <t>eqzhufukuangshi</t>
+  </si>
+  <si>
+    <t>eqzhibanqiang</t>
+  </si>
+  <si>
+    <t>eqtongqiang</t>
+  </si>
+  <si>
+    <t>eqboliqiang</t>
+  </si>
+  <si>
+    <t>eqlonglin</t>
+  </si>
+  <si>
+    <t>eq瞭wangtai</t>
+  </si>
+  <si>
+    <t>eqtushuguan</t>
+  </si>
+  <si>
+    <t>eqxunlianfang</t>
+  </si>
+  <si>
+    <t>eqwenshi</t>
+  </si>
+  <si>
+    <t>eqzhanbuxiaowu</t>
+  </si>
+  <si>
+    <t>eqbingying</t>
+  </si>
+  <si>
+    <t>eqtiejiangpu</t>
+  </si>
+  <si>
+    <t>eqwuduta</t>
+  </si>
+  <si>
+    <t>eqhudunfashengqi</t>
+  </si>
+  <si>
+    <t>eqlieshoudating</t>
+  </si>
+  <si>
+    <t>eqchuansongzhen</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +2047,112 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2288,82 +2573,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3678,6 +3887,7 @@
           <cell r="A162">
             <v>55900028</v>
           </cell>
+          <cell r="Y162"/>
         </row>
         <row r="163">
           <cell r="A163">
@@ -3897,7 +4107,7 @@
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55990001</v>
+            <v>55900056</v>
           </cell>
           <cell r="Y190">
             <v>10</v>
@@ -3905,7 +4115,7 @@
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55990002</v>
+            <v>55990001</v>
           </cell>
           <cell r="Y191">
             <v>10</v>
@@ -3913,7 +4123,7 @@
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55990003</v>
+            <v>55990002</v>
           </cell>
           <cell r="Y192">
             <v>10</v>
@@ -3921,7 +4131,7 @@
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55990004</v>
+            <v>55990003</v>
           </cell>
           <cell r="Y193">
             <v>10</v>
@@ -3929,7 +4139,7 @@
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55990005</v>
+            <v>55990004</v>
           </cell>
           <cell r="Y194">
             <v>10</v>
@@ -3937,7 +4147,7 @@
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55990006</v>
+            <v>55990005</v>
           </cell>
           <cell r="Y195">
             <v>10</v>
@@ -3945,7 +4155,7 @@
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55990011</v>
+            <v>55990006</v>
           </cell>
           <cell r="Y196">
             <v>10</v>
@@ -3953,7 +4163,7 @@
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55990012</v>
+            <v>55990011</v>
           </cell>
           <cell r="Y197">
             <v>10</v>
@@ -3961,7 +4171,7 @@
         </row>
         <row r="198">
           <cell r="A198">
-            <v>55990013</v>
+            <v>55990012</v>
           </cell>
           <cell r="Y198">
             <v>10</v>
@@ -3969,7 +4179,7 @@
         </row>
         <row r="199">
           <cell r="A199">
-            <v>55990014</v>
+            <v>55990013</v>
           </cell>
           <cell r="Y199">
             <v>10</v>
@@ -3977,7 +4187,7 @@
         </row>
         <row r="200">
           <cell r="A200">
-            <v>55990015</v>
+            <v>55990014</v>
           </cell>
           <cell r="Y200">
             <v>10</v>
@@ -3985,7 +4195,7 @@
         </row>
         <row r="201">
           <cell r="A201">
-            <v>55990016</v>
+            <v>55990015</v>
           </cell>
           <cell r="Y201">
             <v>10</v>
@@ -3993,73 +4203,81 @@
         </row>
         <row r="202">
           <cell r="A202">
-            <v>55990101</v>
+            <v>55990016</v>
           </cell>
           <cell r="Y202">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>55990102</v>
+            <v>55990101</v>
           </cell>
           <cell r="Y203">
-            <v>25</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>55990103</v>
+            <v>55990102</v>
           </cell>
           <cell r="Y204">
-            <v>35</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>55990104</v>
+            <v>55990103</v>
           </cell>
           <cell r="Y205">
-            <v>50</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>55990105</v>
+            <v>55990104</v>
           </cell>
           <cell r="Y206">
-            <v>150</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>55990106</v>
+            <v>55990105</v>
           </cell>
           <cell r="Y207">
-            <v>80</v>
+            <v>150</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>55990107</v>
+            <v>55990106</v>
           </cell>
           <cell r="Y208">
-            <v>50</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>55990108</v>
+            <v>55990107</v>
           </cell>
           <cell r="Y209">
-            <v>4</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
+            <v>55990108</v>
+          </cell>
+          <cell r="Y210">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
             <v>55990109</v>
           </cell>
-          <cell r="Y210">
+          <cell r="Y211">
             <v>15</v>
           </cell>
         </row>
@@ -4473,52 +4691,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG59" totalsRowShown="0">
-  <autoFilter ref="A3:AG59"/>
-  <sortState ref="A4:AG38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AH59" totalsRowShown="0">
+  <autoFilter ref="A3:AH59"/>
+  <sortState ref="A4:AH38">
     <sortCondition ref="A3:A38"/>
   </sortState>
-  <tableColumns count="33">
+  <tableColumns count="34">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="32" name="Des" dataDxfId="21"/>
-    <tableColumn id="3" name="Quality" dataDxfId="20">
-      <calculatedColumnFormula>IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</calculatedColumnFormula>
+    <tableColumn id="34" name="Ename" dataDxfId="0"/>
+    <tableColumn id="32" name="Des" dataDxfId="32"/>
+    <tableColumn id="3" name="Quality" dataDxfId="31">
+      <calculatedColumnFormula>IF(Q4&gt;=23,4,IF(AND(Q4&gt;=18,Q4&lt;23),3,IF(AND(Q4&gt;=13,Q4&lt;18),2,IF(AND(Q4&gt;=8,Q4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="19">
-      <calculatedColumnFormula>D4*50+50</calculatedColumnFormula>
+    <tableColumn id="19" name="Value" dataDxfId="30">
+      <calculatedColumnFormula>E4*50+50</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="18"/>
-    <tableColumn id="22" name="Mag" dataDxfId="17"/>
-    <tableColumn id="27" name="Spd" dataDxfId="16"/>
-    <tableColumn id="26" name="Hit" dataDxfId="15"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="14"/>
-    <tableColumn id="24" name="Crt" dataDxfId="13"/>
-    <tableColumn id="23" name="Luk" dataDxfId="12"/>
-    <tableColumn id="28" name="Sum" dataDxfId="11">
-      <calculatedColumnFormula>G4+H4+ SUM(I4:O4)*5+Z4+AA4</calculatedColumnFormula>
+    <tableColumn id="6" name="Def" dataDxfId="29"/>
+    <tableColumn id="22" name="Mag" dataDxfId="28"/>
+    <tableColumn id="27" name="Spd" dataDxfId="27"/>
+    <tableColumn id="26" name="Hit" dataDxfId="26"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="25"/>
+    <tableColumn id="24" name="Crt" dataDxfId="24"/>
+    <tableColumn id="23" name="Luk" dataDxfId="23"/>
+    <tableColumn id="28" name="Sum" dataDxfId="22">
+      <calculatedColumnFormula>H4+I4+ SUM(J4:P4)*5+AA4+AB4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="10"/>
-    <tableColumn id="33" name="Arrow" dataDxfId="9"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="8"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="7"/>
+    <tableColumn id="12" name="Range" dataDxfId="21"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="20"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="19"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="18"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="6"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="5"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="4"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="17"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="16"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="15"/>
     <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISBLANK(AB4),0, LOOKUP(AB4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC4/100)</calculatedColumnFormula>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="14">
+      <calculatedColumnFormula>IF(ISBLANK(AC4),0, LOOKUP(AC4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD4/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="2"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="1"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="0"/>
+    <tableColumn id="15" name="Disable" dataDxfId="13"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="12"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="11"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4846,36 +5065,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="8" width="5.125" customWidth="1"/>
-    <col min="9" max="16" width="4.5" customWidth="1"/>
-    <col min="17" max="18" width="5.125" customWidth="1"/>
-    <col min="19" max="19" width="10.875" customWidth="1"/>
-    <col min="20" max="20" width="8.625" customWidth="1"/>
-    <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="8.625" customWidth="1"/>
-    <col min="23" max="24" width="4.875" customWidth="1"/>
-    <col min="25" max="25" width="16.375" customWidth="1"/>
-    <col min="26" max="26" width="8.625" customWidth="1"/>
-    <col min="27" max="27" width="5.875" customWidth="1"/>
-    <col min="28" max="28" width="8.625" customWidth="1"/>
-    <col min="29" max="29" width="5.25" customWidth="1"/>
-    <col min="30" max="32" width="6" customWidth="1"/>
-    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="17" width="4.5" customWidth="1"/>
+    <col min="18" max="19" width="5.125" customWidth="1"/>
+    <col min="20" max="20" width="10.875" customWidth="1"/>
+    <col min="21" max="21" width="8.625" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
+    <col min="23" max="23" width="8.625" customWidth="1"/>
+    <col min="24" max="25" width="4.875" customWidth="1"/>
+    <col min="26" max="26" width="16.375" customWidth="1"/>
+    <col min="27" max="27" width="8.625" customWidth="1"/>
+    <col min="28" max="28" width="5.875" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="5.25" customWidth="1"/>
+    <col min="31" max="33" width="6" customWidth="1"/>
+    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -4883,100 +5102,103 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4984,32 +5206,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>0</v>
-      </c>
       <c r="J2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>0</v>
-      </c>
       <c r="L2" s="20" t="s">
         <v>0</v>
       </c>
@@ -5022,62 +5244,65 @@
       <c r="O2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="R2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="V2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Y2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AB2" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AG2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5085,128 +5310,131 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="R3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="S3" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="U3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="V3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="W3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Y3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AA3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AD3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>21100001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D14" si="0">IF(P4&gt;=23,4,IF(AND(P4&gt;=18,P4&lt;23),3,IF(AND(P4&gt;=13,P4&lt;18),2,IF(AND(P4&gt;=8,P4&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
+        <f t="shared" ref="E4:E14" si="0">IF(Q4&gt;=23,4,IF(AND(Q4&gt;=18,Q4&lt;23),3,IF(AND(Q4&gt;=13,Q4&lt;18),2,IF(AND(Q4&gt;=8,Q4&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <f>D4*50+50</f>
+      <c r="G4" s="1">
+        <f>E4*50+50</f>
         <v>50</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
       <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="J4" s="23">
         <v>0</v>
       </c>
       <c r="K4" s="7">
@@ -5224,74 +5452,77 @@
       <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="P4" s="24">
-        <f t="shared" ref="P4:P38" si="1">G4+H4+ SUM(I4:O4)*5+Z4+AA4</f>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
+        <f t="shared" ref="Q4:Q38" si="1">H4+I4+ SUM(J4:P4)*5+AA4+AB4</f>
         <v>-5</v>
       </c>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>10</v>
       </c>
-      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1">
         <v>-10</v>
       </c>
-      <c r="AA4" s="1">
-        <f>IF(ISBLANK(AB4),0, LOOKUP(AB4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1"/>
+      <c r="AB4" s="1">
+        <f>IF(ISBLANK(AC4),0, LOOKUP(AC4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD4/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>21100002</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F54" si="2">D5*50+50</f>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G54" si="2">E5*50+50</f>
         <v>100</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
       <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="J5" s="23">
         <v>0</v>
       </c>
       <c r="K5" s="7">
@@ -5309,74 +5540,77 @@
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="25"/>
+      <c r="T5" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>10</v>
       </c>
-      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="28">
-        <f>IF(ISBLANK(AB5),0, LOOKUP(AB5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="28">
+        <f>IF(ISBLANK(AC5),0, LOOKUP(AC5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD5/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="26"/>
       <c r="AF5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>21100003</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
       <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>14</v>
       </c>
-      <c r="I6" s="29">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="J6" s="29">
         <v>0</v>
       </c>
       <c r="K6" s="7">
@@ -5394,74 +5628,77 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>10</v>
       </c>
-      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="28">
-        <f>IF(ISBLANK(AB6),0, LOOKUP(AB6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="28">
+        <f>IF(ISBLANK(AC6),0, LOOKUP(AC6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD6/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="26"/>
       <c r="AF6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>21100004</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>9</v>
       </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="J7" s="23">
         <v>0</v>
       </c>
       <c r="K7" s="7">
@@ -5479,74 +5716,77 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="25"/>
+      <c r="T7" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>10</v>
       </c>
-      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="28">
-        <f>IF(ISBLANK(AB7),0, LOOKUP(AB7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC7/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="28">
+        <f>IF(ISBLANK(AC7),0, LOOKUP(AC7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD7/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="26"/>
       <c r="AF7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>21100005</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
       <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="J8" s="29">
         <v>0</v>
       </c>
       <c r="K8" s="7">
@@ -5556,84 +5796,87 @@
         <v>0</v>
       </c>
       <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
         <v>1</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="25"/>
+      <c r="T8" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>10</v>
       </c>
-      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="28">
-        <f>IF(ISBLANK(AB8),0, LOOKUP(AB8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC8/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="28">
+        <f>IF(ISBLANK(AC8),0, LOOKUP(AC8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD8/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="26"/>
       <c r="AF8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>21100006</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
       <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>10</v>
       </c>
-      <c r="I9" s="23">
+      <c r="J9" s="23">
         <v>1</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
       <c r="K9" s="7">
         <v>0</v>
       </c>
@@ -5649,79 +5892,82 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>10</v>
       </c>
-      <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1">
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1">
         <v>10</v>
       </c>
-      <c r="AA9" s="28">
-        <f>IF(ISBLANK(AB9),0, LOOKUP(AB9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC9/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1"/>
+      <c r="AB9" s="28">
+        <f>IF(ISBLANK(AC9),0, LOOKUP(AC9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD9/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="26"/>
       <c r="AF9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>21100007</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
       <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>9</v>
       </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
       <c r="L10" s="7">
         <v>0</v>
       </c>
@@ -5734,76 +5980,79 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="25"/>
+      <c r="T10" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>10</v>
       </c>
-      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="28">
-        <f>IF(ISBLANK(AB10),0, LOOKUP(AB10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC10/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="28">
+        <f>IF(ISBLANK(AC10),0, LOOKUP(AC10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD10/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="26"/>
       <c r="AF10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH10" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>21100008</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F12" si="3">D11*50+50</f>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G12" si="3">E11*50+50</f>
         <v>250</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
       <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>15</v>
       </c>
-      <c r="I11" s="23">
+      <c r="J11" s="23">
         <v>2</v>
       </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
@@ -5819,76 +6068,79 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="25"/>
+      <c r="T11" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>10</v>
       </c>
-      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="28">
-        <f>IF(ISBLANK(AB11),0, LOOKUP(AB11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC11/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="28">
+        <f>IF(ISBLANK(AC11),0, LOOKUP(AC11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD11/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="26"/>
       <c r="AF11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH11" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>21100009</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
       <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>15</v>
       </c>
-      <c r="I12" s="29">
+      <c r="J12" s="29">
         <v>1</v>
       </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
@@ -5904,74 +6156,77 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="25"/>
+      <c r="T12" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>10</v>
       </c>
-      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="28">
-        <f>IF(ISBLANK(AB12),0, LOOKUP(AB12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC12/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="28">
+        <f>IF(ISBLANK(AC12),0, LOOKUP(AC12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD12/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="26"/>
       <c r="AF12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH12" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>21100010</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" ref="F13:F14" si="4">D13*50+50</f>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13:G14" si="4">E13*50+50</f>
         <v>50</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
       <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="J13" s="23">
         <v>0</v>
       </c>
       <c r="K13" s="7">
@@ -5984,81 +6239,84 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
         <v>1</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="24">
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="25"/>
+      <c r="T13" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>10</v>
       </c>
-      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1">
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1">
         <v>-10</v>
       </c>
-      <c r="AA13" s="28">
-        <f>IF(ISBLANK(AB13),0, LOOKUP(AB13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC13/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1"/>
+      <c r="AB13" s="28">
+        <f>IF(ISBLANK(AC13),0, LOOKUP(AC13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD13/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="26"/>
       <c r="AF13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH13" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>21100011</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>5</v>
       </c>
-      <c r="I14" s="29">
+      <c r="J14" s="29">
         <v>3</v>
       </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
       <c r="K14" s="7">
         <v>0</v>
       </c>
@@ -6074,79 +6332,82 @@
       <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="25"/>
+      <c r="T14" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>10</v>
       </c>
-      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="28">
-        <f>IF(ISBLANK(AB14),0, LOOKUP(AB14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC14/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="28">
+        <f>IF(ISBLANK(AC14),0, LOOKUP(AC14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD14/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="26"/>
       <c r="AF14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH14" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>21100012</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f t="shared" ref="D15:D16" si="5">IF(P15&gt;=23,4,IF(AND(P15&gt;=18,P15&lt;23),3,IF(AND(P15&gt;=13,P15&lt;18),2,IF(AND(P15&gt;=8,P15&lt;13),1,0))))</f>
+      <c r="C15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E16" si="5">IF(Q15&gt;=23,4,IF(AND(Q15&gt;=18,Q15&lt;23),3,IF(AND(Q15&gt;=13,Q15&lt;18),2,IF(AND(Q15&gt;=8,Q15&lt;13),1,0))))</f>
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" ref="F15:F16" si="6">D15*50+50</f>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:G16" si="6">E15*50+50</f>
         <v>200</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
       <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="23">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="J15" s="23">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
         <v>4</v>
       </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
       <c r="L15" s="7">
         <v>0</v>
       </c>
@@ -6159,74 +6420,77 @@
       <c r="O15" s="7">
         <v>0</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="25"/>
+      <c r="T15" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>10</v>
       </c>
-      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="28">
-        <f>IF(ISBLANK(AB15),0, LOOKUP(AB15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC15/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="28">
+        <f>IF(ISBLANK(AC15),0, LOOKUP(AC15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD15/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="26"/>
       <c r="AF15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH15" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>21100013</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="J16" s="29">
         <v>0</v>
       </c>
       <c r="K16" s="7">
@@ -6242,76 +6506,79 @@
         <v>0</v>
       </c>
       <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <v>4</v>
       </c>
-      <c r="P16" s="27">
+      <c r="Q16" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="25"/>
+      <c r="T16" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>10</v>
       </c>
-      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1">
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1">
         <v>-10</v>
       </c>
-      <c r="AA16" s="28">
-        <f>IF(ISBLANK(AB16),0, LOOKUP(AB16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC16/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1"/>
+      <c r="AB16" s="28">
+        <f>IF(ISBLANK(AC16),0, LOOKUP(AC16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD16/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="26"/>
       <c r="AF16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH16" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>21100014</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f t="shared" ref="D17:D18" si="7">IF(P17&gt;=23,4,IF(AND(P17&gt;=18,P17&lt;23),3,IF(AND(P17&gt;=13,P17&lt;18),2,IF(AND(P17&gt;=8,P17&lt;13),1,0))))</f>
+      <c r="C17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:E18" si="7">IF(Q17&gt;=23,4,IF(AND(Q17&gt;=18,Q17&lt;23),3,IF(AND(Q17&gt;=13,Q17&lt;18),2,IF(AND(Q17&gt;=8,Q17&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" ref="F17:F18" si="8">D17*50+50</f>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G18" si="8">E17*50+50</f>
         <v>100</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
       <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>7</v>
       </c>
-      <c r="I17" s="23">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="J17" s="23">
         <v>0</v>
       </c>
       <c r="K17" s="7">
@@ -6321,82 +6588,85 @@
         <v>0</v>
       </c>
       <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
         <v>1</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
       <c r="O17" s="7">
         <v>0</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="25"/>
+      <c r="T17" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>10</v>
       </c>
-      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="28">
-        <f>IF(ISBLANK(AB17),0, LOOKUP(AB17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC17/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="28">
+        <f>IF(ISBLANK(AC17),0, LOOKUP(AC17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD17/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="26"/>
       <c r="AF17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH17" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>21100015</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
+      <c r="C18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
       <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="I18" s="29">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="J18" s="29">
         <v>0</v>
       </c>
       <c r="K18" s="7">
@@ -6414,46 +6684,49 @@
       <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="25"/>
+      <c r="T18" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>10</v>
       </c>
-      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="28">
-        <f>IF(ISBLANK(AB18),0, LOOKUP(AB18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC18/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="28">
+        <f>IF(ISBLANK(AC18),0, LOOKUP(AC18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD18/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="26"/>
       <c r="AF18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH18" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>21200001</v>
       </c>
@@ -6461,29 +6734,29 @@
         <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19:D29" si="9">IF(P19&gt;=23,4,IF(AND(P19&gt;=18,P19&lt;23),3,IF(AND(P19&gt;=13,P19&lt;18),2,IF(AND(P19&gt;=8,P19&lt;13),1,0))))</f>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E29" si="9">IF(Q19&gt;=23,4,IF(AND(Q19&gt;=18,Q19&lt;23),3,IF(AND(Q19&gt;=13,Q19&lt;18),2,IF(AND(Q19&gt;=8,Q19&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="23">
         <v>0</v>
       </c>
       <c r="K19" s="7">
@@ -6501,48 +6774,51 @@
       <c r="O19" s="7">
         <v>0</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>10</v>
       </c>
-      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1">
         <v>20</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>10</v>
       </c>
-      <c r="AA19" s="1">
-        <f>IF(ISBLANK(AB19),0, LOOKUP(AB19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC19/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1"/>
+      <c r="AB19" s="1">
+        <f>IF(ISBLANK(AC19),0, LOOKUP(AC19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD19/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE19" s="1"/>
       <c r="AF19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH19" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>21200002</v>
       </c>
@@ -6550,29 +6826,29 @@
         <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" ref="D20:D21" si="10">IF(P20&gt;=23,4,IF(AND(P20&gt;=18,P20&lt;23),3,IF(AND(P20&gt;=13,P20&lt;18),2,IF(AND(P20&gt;=8,P20&lt;13),1,0))))</f>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:E21" si="10">IF(Q20&gt;=23,4,IF(AND(Q20&gt;=18,Q20&lt;23),3,IF(AND(Q20&gt;=13,Q20&lt;18),2,IF(AND(Q20&gt;=8,Q20&lt;13),1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
         <v>0</v>
       </c>
       <c r="K20" s="7">
@@ -6590,50 +6866,53 @@
       <c r="O20" s="7">
         <v>0</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>10</v>
       </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1">
-        <v>14</v>
-      </c>
+      <c r="W20" s="1"/>
       <c r="X20" s="1">
         <v>14</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>14</v>
       </c>
-      <c r="AA20" s="1">
-        <f>IF(ISBLANK(AB20),0, LOOKUP(AB20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC20/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1"/>
+      <c r="AB20" s="1">
+        <f>IF(ISBLANK(AC20),0, LOOKUP(AC20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD20/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH20" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>21200003</v>
       </c>
@@ -6641,29 +6920,29 @@
         <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="23">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
         <v>0</v>
       </c>
       <c r="K21" s="7">
@@ -6681,48 +6960,51 @@
       <c r="O21" s="7">
         <v>0</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="24">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>10</v>
       </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1">
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
         <v>25</v>
       </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>12.5</v>
       </c>
-      <c r="AA21" s="1">
-        <f>IF(ISBLANK(AB21),0, LOOKUP(AB21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC21/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1"/>
+      <c r="AB21" s="1">
+        <f>IF(ISBLANK(AC21),0, LOOKUP(AC21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD21/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-      <c r="AE21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH21" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21200004</v>
       </c>
@@ -6730,29 +7012,29 @@
         <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22" si="11">IF(P22&gt;=23,4,IF(AND(P22&gt;=18,P22&lt;23),3,IF(AND(P22&gt;=13,P22&lt;18),2,IF(AND(P22&gt;=8,P22&lt;13),1,0))))</f>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22" si="11">IF(Q22&gt;=23,4,IF(AND(Q22&gt;=18,Q22&lt;23),3,IF(AND(Q22&gt;=13,Q22&lt;18),2,IF(AND(Q22&gt;=8,Q22&lt;13),1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="23">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23">
         <v>0</v>
       </c>
       <c r="K22" s="7">
@@ -6770,50 +7052,53 @@
       <c r="O22" s="7">
         <v>0</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>10</v>
       </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1">
-        <v>14</v>
-      </c>
+      <c r="W22" s="1"/>
       <c r="X22" s="1">
         <v>14</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>14</v>
       </c>
-      <c r="AA22" s="1">
-        <f>IF(ISBLANK(AB22),0, LOOKUP(AB22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC22/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1"/>
+      <c r="AB22" s="1">
+        <f>IF(ISBLANK(AC22),0, LOOKUP(AC22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD22/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH22" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21200005</v>
       </c>
@@ -6821,29 +7106,29 @@
         <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" ref="D23:D25" si="12">IF(P23&gt;=23,4,IF(AND(P23&gt;=18,P23&lt;23),3,IF(AND(P23&gt;=13,P23&lt;18),2,IF(AND(P23&gt;=8,P23&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
       <c r="E23" s="1">
+        <f t="shared" ref="E23:E25" si="12">IF(Q23&gt;=23,4,IF(AND(Q23&gt;=18,Q23&lt;23),3,IF(AND(Q23&gt;=13,Q23&lt;18),2,IF(AND(Q23&gt;=8,Q23&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" ref="F23:F25" si="13">D23*50+50</f>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G25" si="13">E23*50+50</f>
         <v>50</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="23">
         <v>0</v>
       </c>
       <c r="K23" s="7">
@@ -6861,48 +7146,51 @@
       <c r="O23" s="7">
         <v>0</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>10</v>
       </c>
-      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1">
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>6</v>
       </c>
-      <c r="Y23" s="26" t="s">
+      <c r="Z23" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>6</v>
       </c>
-      <c r="AA23" s="1">
-        <f>IF(ISBLANK(AB23),0, LOOKUP(AB23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC23/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1"/>
+      <c r="AB23" s="1">
+        <f>IF(ISBLANK(AC23),0, LOOKUP(AC23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD23/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE23" s="1"/>
       <c r="AF23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH23" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21200006</v>
       </c>
@@ -6910,29 +7198,29 @@
         <v>217</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="23">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
         <v>0</v>
       </c>
       <c r="K24" s="7">
@@ -6950,48 +7238,51 @@
       <c r="O24" s="7">
         <v>0</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>10</v>
       </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1">
+      <c r="W24" s="1"/>
+      <c r="X24" s="1">
         <v>6</v>
       </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="26" t="s">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>6</v>
       </c>
-      <c r="AA24" s="1">
-        <f>IF(ISBLANK(AB24),0, LOOKUP(AB24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC24/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1"/>
+      <c r="AB24" s="1">
+        <f>IF(ISBLANK(AC24),0, LOOKUP(AC24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD24/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE24" s="1"/>
       <c r="AF24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH24" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21200007</v>
       </c>
@@ -6999,29 +7290,29 @@
         <v>219</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="23">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="23">
         <v>0</v>
       </c>
       <c r="K25" s="7">
@@ -7039,50 +7330,53 @@
       <c r="O25" s="7">
         <v>0</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>10</v>
       </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1">
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
         <v>12</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>6</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>9</v>
       </c>
-      <c r="AA25" s="1">
-        <f>IF(ISBLANK(AB25),0, LOOKUP(AB25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC25/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1"/>
+      <c r="AB25" s="1">
+        <f>IF(ISBLANK(AC25),0, LOOKUP(AC25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD25/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE25" s="1"/>
       <c r="AF25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH25" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>21200008</v>
       </c>
@@ -7090,29 +7384,29 @@
         <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" ref="D26:D27" si="14">IF(P26&gt;=23,4,IF(AND(P26&gt;=18,P26&lt;23),3,IF(AND(P26&gt;=13,P26&lt;18),2,IF(AND(P26&gt;=8,P26&lt;13),1,0))))</f>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E27" si="14">IF(Q26&gt;=23,4,IF(AND(Q26&gt;=18,Q26&lt;23),3,IF(AND(Q26&gt;=13,Q26&lt;18),2,IF(AND(Q26&gt;=8,Q26&lt;13),1,0))))</f>
         <v>3</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" ref="F26:F27" si="15">D26*50+50</f>
+      <c r="G26" s="1">
+        <f t="shared" ref="G26:G27" si="15">E26*50+50</f>
         <v>200</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="23">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="23">
         <v>0</v>
       </c>
       <c r="K26" s="7">
@@ -7130,50 +7424,53 @@
       <c r="O26" s="7">
         <v>0</v>
       </c>
-      <c r="P26" s="24">
-        <f t="shared" ref="P26:P27" si="16">G26+H26+ SUM(I26:O26)*5+Z26+AA26</f>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" ref="Q26:Q27" si="16">H26+I26+ SUM(J26:P26)*5+AA26+AB26</f>
         <v>18</v>
       </c>
-      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="1"/>
+      <c r="U26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>10</v>
       </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1">
-        <v>12</v>
-      </c>
+      <c r="W26" s="1"/>
       <c r="X26" s="1">
         <v>12</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>18</v>
       </c>
-      <c r="AA26" s="1">
-        <f>IF(ISBLANK(AB26),0, LOOKUP(AB26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC26/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1"/>
+      <c r="AB26" s="1">
+        <f>IF(ISBLANK(AC26),0, LOOKUP(AC26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD26/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE26" s="1"/>
       <c r="AF26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH26" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>21200009</v>
       </c>
@@ -7181,29 +7478,29 @@
         <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="23">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="23">
         <v>0</v>
       </c>
       <c r="K27" s="7">
@@ -7221,50 +7518,53 @@
       <c r="O27" s="7">
         <v>0</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="24">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="1"/>
+      <c r="U27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>10</v>
       </c>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1">
-        <v>10</v>
-      </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="1">
         <v>10</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>15</v>
       </c>
-      <c r="AA27" s="1">
-        <f>IF(ISBLANK(AB27),0, LOOKUP(AB27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC27/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1"/>
+      <c r="AB27" s="1">
+        <f>IF(ISBLANK(AC27),0, LOOKUP(AC27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD27/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH27" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21200010</v>
       </c>
@@ -7272,29 +7572,29 @@
         <v>231</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" ref="D28" si="17">IF(P28&gt;=23,4,IF(AND(P28&gt;=18,P28&lt;23),3,IF(AND(P28&gt;=13,P28&lt;18),2,IF(AND(P28&gt;=8,P28&lt;13),1,0))))</f>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28" si="17">IF(Q28&gt;=23,4,IF(AND(Q28&gt;=18,Q28&lt;23),3,IF(AND(Q28&gt;=13,Q28&lt;18),2,IF(AND(Q28&gt;=8,Q28&lt;13),1,0))))</f>
         <v>4</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" ref="F28" si="18">D28*50+50</f>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28" si="18">E28*50+50</f>
         <v>250</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="23">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="23">
         <v>0</v>
       </c>
       <c r="K28" s="7">
@@ -7312,78 +7612,81 @@
       <c r="O28" s="7">
         <v>0</v>
       </c>
-      <c r="P28" s="24">
-        <f t="shared" ref="P28" si="19">G28+H28+ SUM(I28:O28)*5+Z28+AA28</f>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="24">
+        <f t="shared" ref="Q28" si="19">H28+I28+ SUM(J28:P28)*5+AA28+AB28</f>
         <v>25</v>
       </c>
-      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="1"/>
+      <c r="U28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>10</v>
       </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1">
-        <v>10</v>
-      </c>
+      <c r="W28" s="1"/>
       <c r="X28" s="1">
         <v>10</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>25</v>
       </c>
-      <c r="AA28" s="1">
-        <f>IF(ISBLANK(AB28),0, LOOKUP(AB28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC28/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1"/>
+      <c r="AB28" s="1">
+        <f>IF(ISBLANK(AC28),0, LOOKUP(AC28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD28/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE28" s="1"/>
       <c r="AF28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH28" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>21300001</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="23">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="23">
         <v>0</v>
       </c>
       <c r="K29" s="7">
@@ -7401,74 +7704,77 @@
       <c r="O29" s="7">
         <v>0</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="1"/>
+      <c r="U29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>10</v>
       </c>
-      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="1">
-        <f>IF(ISBLANK(AB29),0, LOOKUP(AB29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC29/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <f>IF(ISBLANK(AC29),0, LOOKUP(AC29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD29/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-      <c r="AE29" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE29" s="1"/>
       <c r="AF29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>21300002</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <f t="shared" ref="D30:D31" si="20">IF(P30&gt;=23,4,IF(AND(P30&gt;=18,P30&lt;23),3,IF(AND(P30&gt;=13,P30&lt;18),2,IF(AND(P30&gt;=8,P30&lt;13),1,0))))</f>
+      <c r="C30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <f t="shared" ref="E30:E31" si="20">IF(Q30&gt;=23,4,IF(AND(Q30&gt;=18,Q30&lt;23),3,IF(AND(Q30&gt;=13,Q30&lt;18),2,IF(AND(Q30&gt;=8,Q30&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>6</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="23">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="23">
         <v>0</v>
       </c>
       <c r="K30" s="7">
@@ -7486,78 +7792,81 @@
       <c r="O30" s="7">
         <v>0</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="1"/>
+      <c r="U30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>10</v>
       </c>
-      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z30" s="1"/>
       <c r="AA30" s="1">
-        <f>IF(ISBLANK(AB30),0, LOOKUP(AB30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC30/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <f>IF(ISBLANK(AC30),0, LOOKUP(AC30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD30/100)</f>
         <v>3</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>55510010</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AD30" s="1">
         <v>60</v>
       </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE30" s="1"/>
       <c r="AF30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH30" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>21300003</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
+      <c r="C31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>3</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>6</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="23">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="23">
         <v>0</v>
       </c>
       <c r="K31" s="7">
@@ -7570,79 +7879,82 @@
         <v>0</v>
       </c>
       <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
         <v>2</v>
       </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24">
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="24">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1" t="s">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="1"/>
+      <c r="U31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>10</v>
       </c>
-      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z31" s="1"/>
       <c r="AA31" s="1">
-        <f>IF(ISBLANK(AB31),0, LOOKUP(AB31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC31/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <f>IF(ISBLANK(AC31),0, LOOKUP(AC31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD31/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE31" s="1"/>
       <c r="AF31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH31" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>21300004</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <f t="shared" ref="D32:D33" si="21">IF(P32&gt;=23,4,IF(AND(P32&gt;=18,P32&lt;23),3,IF(AND(P32&gt;=13,P32&lt;18),2,IF(AND(P32&gt;=8,P32&lt;13),1,0))))</f>
+      <c r="C32" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32:E33" si="21">IF(Q32&gt;=23,4,IF(AND(Q32&gt;=18,Q32&lt;23),3,IF(AND(Q32&gt;=13,Q32&lt;18),2,IF(AND(Q32&gt;=8,Q32&lt;13),1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>8</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23">
         <v>0</v>
       </c>
       <c r="K32" s="7">
@@ -7660,78 +7972,81 @@
       <c r="O32" s="7">
         <v>0</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="24">
         <f t="shared" si="1"/>
         <v>17.3</v>
       </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1" t="s">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1" t="s">
+      <c r="T32" s="1"/>
+      <c r="U32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>10</v>
       </c>
-      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z32" s="1"/>
       <c r="AA32" s="1">
-        <f>IF(ISBLANK(AB32),0, LOOKUP(AB32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC32/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <f>IF(ISBLANK(AC32),0, LOOKUP(AC32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD32/100)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <v>55510012</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AD32" s="1">
         <v>15</v>
       </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE32" s="1"/>
       <c r="AF32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH32" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>21300005</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
+      <c r="C33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>3</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>12</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="23">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="23">
         <v>0</v>
       </c>
       <c r="K33" s="7">
@@ -7749,74 +8064,77 @@
       <c r="O33" s="7">
         <v>0</v>
       </c>
-      <c r="P33" s="24">
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="24">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1" t="s">
+      <c r="T33" s="1"/>
+      <c r="U33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>10</v>
       </c>
-      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z33" s="1"/>
       <c r="AA33" s="1">
-        <f>IF(ISBLANK(AB33),0, LOOKUP(AB33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC33/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <f>IF(ISBLANK(AC33),0, LOOKUP(AC33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD33/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE33" s="1"/>
       <c r="AF33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH33" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>21300006</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:D35" si="22">IF(P34&gt;=23,4,IF(AND(P34&gt;=18,P34&lt;23),3,IF(AND(P34&gt;=13,P34&lt;18),2,IF(AND(P34&gt;=8,P34&lt;13),1,0))))</f>
+      <c r="C34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <f t="shared" ref="E34:E35" si="22">IF(Q34&gt;=23,4,IF(AND(Q34&gt;=18,Q34&lt;23),3,IF(AND(Q34&gt;=13,Q34&lt;18),2,IF(AND(Q34&gt;=8,Q34&lt;13),1,0))))</f>
         <v>3</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>20</v>
       </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="23">
         <v>0</v>
       </c>
       <c r="K34" s="7">
@@ -7834,82 +8152,85 @@
       <c r="O34" s="7">
         <v>0</v>
       </c>
-      <c r="P34" s="24">
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="24">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="s">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="1"/>
+      <c r="U34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>10</v>
       </c>
-      <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z34" s="1"/>
       <c r="AA34" s="1">
-        <f>IF(ISBLANK(AB34),0, LOOKUP(AB34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC34/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <f>IF(ISBLANK(AC34),0, LOOKUP(AC34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD34/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
-      <c r="AE34" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE34" s="1"/>
       <c r="AF34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH34" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>21300007</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1">
+      <c r="C35" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>5</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="23">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="23">
         <v>0</v>
       </c>
       <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
         <v>5</v>
       </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
@@ -7919,74 +8240,77 @@
       <c r="O35" s="7">
         <v>0</v>
       </c>
-      <c r="P35" s="24">
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>10</v>
       </c>
-      <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1">
-        <f>IF(ISBLANK(AB35),0, LOOKUP(AB35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC35/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <f>IF(ISBLANK(AC35),0, LOOKUP(AC35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD35/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE35" s="1"/>
       <c r="AF35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH35" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>21300008</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="23">IF(P36&gt;=23,4,IF(AND(P36&gt;=18,P36&lt;23),3,IF(AND(P36&gt;=13,P36&lt;18),2,IF(AND(P36&gt;=8,P36&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
+      <c r="C36" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1">
+        <f t="shared" ref="E36:E37" si="23">IF(Q36&gt;=23,4,IF(AND(Q36&gt;=18,Q36&lt;23),3,IF(AND(Q36&gt;=13,Q36&lt;18),2,IF(AND(Q36&gt;=8,Q36&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" ref="F36:F37" si="24">D36*50+50</f>
+      <c r="G36" s="1">
+        <f t="shared" ref="G36:G37" si="24">E36*50+50</f>
         <v>50</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="23">
         <v>0</v>
       </c>
       <c r="K36" s="7">
@@ -8004,82 +8328,85 @@
       <c r="O36" s="7">
         <v>0</v>
       </c>
-      <c r="P36" s="24">
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="1"/>
+      <c r="U36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V36" s="1">
         <v>10</v>
       </c>
-      <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z36" s="1"/>
       <c r="AA36" s="1">
-        <f>IF(ISBLANK(AB36),0, LOOKUP(AB36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC36/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <f>IF(ISBLANK(AC36),0, LOOKUP(AC36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD36/100)</f>
+        <v>0</v>
+      </c>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
-      <c r="AE36" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE36" s="1"/>
       <c r="AF36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH36" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>21300009</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
+      <c r="C37" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="23">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="23">
         <v>0</v>
       </c>
       <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
         <v>-4</v>
       </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
@@ -8089,80 +8416,83 @@
       <c r="O37" s="7">
         <v>0</v>
       </c>
-      <c r="P37" s="24">
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="24">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="1">
         <v>10</v>
       </c>
-      <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1">
-        <v>0</v>
-      </c>
+      <c r="Z37" s="1"/>
       <c r="AA37" s="1">
-        <f>IF(ISBLANK(AB37),0, LOOKUP(AB37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC37/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <f>IF(ISBLANK(AC37),0, LOOKUP(AC37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD37/100)</f>
         <v>35</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AC37" s="1">
         <v>55100007</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AD37" s="1">
         <v>100</v>
       </c>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE37" s="1"/>
       <c r="AF37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AG37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH37" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>21400001</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="22">
-        <f t="shared" ref="D38" si="25">IF(P38&gt;=23,4,IF(AND(P38&gt;=18,P38&lt;23),3,IF(AND(P38&gt;=13,P38&lt;18),2,IF(AND(P38&gt;=8,P38&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="C38" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="22">
+        <f t="shared" ref="E38" si="25">IF(Q38&gt;=23,4,IF(AND(Q38&gt;=18,Q38&lt;23),3,IF(AND(Q38&gt;=13,Q38&lt;18),2,IF(AND(Q38&gt;=8,Q38&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23">
         <v>1</v>
       </c>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
       <c r="K38" s="7">
         <v>0</v>
       </c>
@@ -8178,68 +8508,71 @@
       <c r="O38" s="7">
         <v>0</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="12" t="s">
+      <c r="T38" s="7"/>
+      <c r="U38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>10</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
       <c r="AA38">
-        <f>IF(ISBLANK(AB38),0, LOOKUP(AB38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC38/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f>IF(ISBLANK(AC38),0, LOOKUP(AC38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD38/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="12"/>
       <c r="AF38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AG38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>21400002</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="22">
-        <f t="shared" ref="D39:D40" si="26">IF(P39&gt;=23,4,IF(AND(P39&gt;=18,P39&lt;23),3,IF(AND(P39&gt;=13,P39&lt;18),2,IF(AND(P39&gt;=8,P39&lt;13),1,0))))</f>
+      <c r="C39" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="22">
+        <f t="shared" ref="E39:E40" si="26">IF(Q39&gt;=23,4,IF(AND(Q39&gt;=18,Q39&lt;23),3,IF(AND(Q39&gt;=13,Q39&lt;18),2,IF(AND(Q39&gt;=8,Q39&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23">
         <v>2</v>
       </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
       <c r="K39" s="7">
         <v>0</v>
       </c>
@@ -8255,68 +8588,71 @@
       <c r="O39" s="7">
         <v>0</v>
       </c>
-      <c r="P39" s="24">
-        <f t="shared" ref="P39:P56" si="27">G39+H39+ SUM(I39:O39)*5+Z39+AA39</f>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="24">
+        <f t="shared" ref="Q39:Q56" si="27">H39+I39+ SUM(J39:P39)*5+AA39+AB39</f>
         <v>10</v>
       </c>
-      <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="12" t="s">
+      <c r="T39" s="7"/>
+      <c r="U39" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>10</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
       <c r="AA39">
-        <f>IF(ISBLANK(AB39),0, LOOKUP(AB39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC39/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f>IF(ISBLANK(AC39),0, LOOKUP(AC39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD39/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="12"/>
       <c r="AF39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AG39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH39" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>21400003</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="22">
+      <c r="C40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>4</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
         <v>1</v>
       </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
       <c r="K40" s="7">
         <v>0</v>
       </c>
@@ -8332,74 +8668,77 @@
       <c r="O40" s="7">
         <v>0</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="24">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
-      <c r="T40" s="12" t="s">
+      <c r="T40" s="7"/>
+      <c r="U40" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>10</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
       <c r="AA40">
-        <f>IF(ISBLANK(AB40),0, LOOKUP(AB40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC40/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f>IF(ISBLANK(AC40),0, LOOKUP(AC40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD40/100)</f>
         <v>10</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>55110005</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>50</v>
       </c>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE40" s="12"/>
       <c r="AF40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG40" s="2" t="s">
+      <c r="AG40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH40" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>21400004</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="22">
-        <f t="shared" ref="D41:D42" si="28">IF(P41&gt;=23,4,IF(AND(P41&gt;=18,P41&lt;23),3,IF(AND(P41&gt;=13,P41&lt;18),2,IF(AND(P41&gt;=8,P41&lt;13),1,0))))</f>
+      <c r="C41" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="22">
+        <f t="shared" ref="E41:E42" si="28">IF(Q41&gt;=23,4,IF(AND(Q41&gt;=18,Q41&lt;23),3,IF(AND(Q41&gt;=13,Q41&lt;18),2,IF(AND(Q41&gt;=8,Q41&lt;13),1,0))))</f>
         <v>3</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>4</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
         <v>4</v>
       </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
       <c r="K41" s="7">
         <v>0</v>
       </c>
@@ -8415,68 +8754,71 @@
       <c r="O41" s="7">
         <v>0</v>
       </c>
-      <c r="P41" s="24">
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="24">
         <f t="shared" si="27"/>
         <v>20</v>
       </c>
-      <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
-      <c r="T41" s="12" t="s">
+      <c r="T41" s="7"/>
+      <c r="U41" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>10</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
       <c r="AA41">
-        <f>IF(ISBLANK(AB41),0, LOOKUP(AB41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC41/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f>IF(ISBLANK(AC41),0, LOOKUP(AC41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD41/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="12"/>
       <c r="AF41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG41" s="2" t="s">
+      <c r="AG41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH41" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>21400005</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="22">
+      <c r="C42" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="22">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>4</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" ref="F42:F43" si="29">D42*50+50</f>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42:G43" si="29">E42*50+50</f>
         <v>100</v>
       </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
       <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
         <v>3</v>
       </c>
-      <c r="I42" s="23">
+      <c r="J42" s="23">
         <v>1</v>
       </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
       <c r="K42" s="7">
         <v>0</v>
       </c>
@@ -8492,68 +8834,71 @@
       <c r="O42" s="7">
         <v>0</v>
       </c>
-      <c r="P42" s="24">
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="24">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
-      <c r="T42" s="12" t="s">
+      <c r="T42" s="7"/>
+      <c r="U42" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>10</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
       <c r="AA42">
-        <f>IF(ISBLANK(AB42),0, LOOKUP(AB42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC42/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f>IF(ISBLANK(AC42),0, LOOKUP(AC42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD42/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="12"/>
       <c r="AF42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG42" s="2" t="s">
+      <c r="AG42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>21400006</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="22">
-        <f t="shared" ref="D43:D44" si="30">IF(P43&gt;=23,4,IF(AND(P43&gt;=18,P43&lt;23),3,IF(AND(P43&gt;=13,P43&lt;18),2,IF(AND(P43&gt;=8,P43&lt;13),1,0))))</f>
+      <c r="C43" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="22">
+        <f t="shared" ref="E43:E44" si="30">IF(Q43&gt;=23,4,IF(AND(Q43&gt;=18,Q43&lt;23),3,IF(AND(Q43&gt;=13,Q43&lt;18),2,IF(AND(Q43&gt;=8,Q43&lt;13),1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>4</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
       <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
         <v>4</v>
       </c>
-      <c r="I43" s="23">
+      <c r="J43" s="23">
         <v>2</v>
       </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
       <c r="K43" s="7">
         <v>0</v>
       </c>
@@ -8569,66 +8914,69 @@
       <c r="O43" s="7">
         <v>0</v>
       </c>
-      <c r="P43" s="24">
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="24">
         <f t="shared" si="27"/>
         <v>14</v>
       </c>
-      <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="12" t="s">
+      <c r="T43" s="7"/>
+      <c r="U43" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>10</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
       <c r="AA43">
-        <f>IF(ISBLANK(AB43),0, LOOKUP(AB43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC43/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f>IF(ISBLANK(AC43),0, LOOKUP(AC43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD43/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="12"/>
       <c r="AF43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AG43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH43" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>21400007</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="22">
+      <c r="C44" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="22">
         <f t="shared" si="30"/>
         <v>3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>4</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" ref="F44:F45" si="31">D44*50+50</f>
+      <c r="G44" s="1">
+        <f t="shared" ref="G44:G45" si="31">E44*50+50</f>
         <v>200</v>
       </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
-      <c r="I44" s="23">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
         <v>0</v>
       </c>
       <c r="K44" s="7">
@@ -8638,74 +8986,77 @@
         <v>0</v>
       </c>
       <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
         <v>4</v>
       </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
       <c r="O44" s="7">
         <v>0</v>
       </c>
-      <c r="P44" s="24">
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="24">
         <f t="shared" si="27"/>
         <v>20</v>
       </c>
-      <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
-      <c r="T44" s="12" t="s">
+      <c r="T44" s="7"/>
+      <c r="U44" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>10</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
       <c r="AA44">
-        <f>IF(ISBLANK(AB44),0, LOOKUP(AB44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC44/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f>IF(ISBLANK(AC44),0, LOOKUP(AC44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD44/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="12"/>
       <c r="AF44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG44" s="2" t="s">
+      <c r="AG44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH44" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>21400008</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="22">
-        <f t="shared" ref="D45:D46" si="32">IF(P45&gt;=23,4,IF(AND(P45&gt;=18,P45&lt;23),3,IF(AND(P45&gt;=13,P45&lt;18),2,IF(AND(P45&gt;=8,P45&lt;13),1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="C45" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="22">
+        <f t="shared" ref="E45:E46" si="32">IF(Q45&gt;=23,4,IF(AND(Q45&gt;=18,Q45&lt;23),3,IF(AND(Q45&gt;=13,Q45&lt;18),2,IF(AND(Q45&gt;=8,Q45&lt;13),1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>4</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
-      <c r="I45" s="23">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="23">
         <v>0</v>
       </c>
       <c r="K45" s="7">
@@ -8723,68 +9074,71 @@
       <c r="O45" s="7">
         <v>0</v>
       </c>
-      <c r="P45" s="24">
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="24">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="12" t="s">
+      <c r="T45" s="7"/>
+      <c r="U45" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>10</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
       <c r="AA45">
-        <f>IF(ISBLANK(AB45),0, LOOKUP(AB45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC45/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f>IF(ISBLANK(AC45),0, LOOKUP(AC45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD45/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="12"/>
       <c r="AF45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG45" s="2" t="s">
+      <c r="AG45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH45" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>21400009</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="22">
+      <c r="C46" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="22">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" ref="F46:F47" si="33">D46*50+50</f>
+      <c r="G46" s="1">
+        <f t="shared" ref="G46:G47" si="33">E46*50+50</f>
         <v>150</v>
       </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
       <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
         <v>3</v>
       </c>
-      <c r="I46" s="23">
+      <c r="J46" s="23">
         <v>2</v>
       </c>
-      <c r="J46" s="7">
-        <v>0</v>
-      </c>
       <c r="K46" s="7">
         <v>0</v>
       </c>
@@ -8800,71 +9154,74 @@
       <c r="O46" s="7">
         <v>0</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="24">
         <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
-      <c r="T46" s="12" t="s">
+      <c r="T46" s="7"/>
+      <c r="U46" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>10</v>
       </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
       <c r="AA46">
-        <f>IF(ISBLANK(AB46),0, LOOKUP(AB46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC46/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="12"/>
-      <c r="AE46" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f>IF(ISBLANK(AC46),0, LOOKUP(AC46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD46/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="12"/>
       <c r="AF46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AG46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH46" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>21400010</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="22">
-        <f t="shared" ref="D47:D48" si="34">IF(P47&gt;=23,4,IF(AND(P47&gt;=18,P47&lt;23),3,IF(AND(P47&gt;=13,P47&lt;18),2,IF(AND(P47&gt;=8,P47&lt;13),1,0))))</f>
+      <c r="C47" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="22">
+        <f t="shared" ref="E47:E48" si="34">IF(Q47&gt;=23,4,IF(AND(Q47&gt;=18,Q47&lt;23),3,IF(AND(Q47&gt;=13,Q47&lt;18),2,IF(AND(Q47&gt;=8,Q47&lt;13),1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>4</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <f t="shared" si="33"/>
         <v>150</v>
       </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
-      <c r="I47" s="23">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7">
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
         <v>3</v>
       </c>
-      <c r="K47" s="7">
-        <v>0</v>
-      </c>
       <c r="L47" s="7">
         <v>0</v>
       </c>
@@ -8877,68 +9234,71 @@
       <c r="O47" s="7">
         <v>0</v>
       </c>
-      <c r="P47" s="24">
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="24">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="12" t="s">
+      <c r="T47" s="7"/>
+      <c r="U47" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>10</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
       <c r="AA47">
-        <f>IF(ISBLANK(AB47),0, LOOKUP(AB47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC47/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="12"/>
-      <c r="AE47" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f>IF(ISBLANK(AC47),0, LOOKUP(AC47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD47/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="12"/>
       <c r="AF47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AG47" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH47" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>21400011</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="22">
+      <c r="C48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="22">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>4</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" ref="F48" si="35">D48*50+50</f>
+      <c r="G48" s="1">
+        <f t="shared" ref="G48" si="35">E48*50+50</f>
         <v>250</v>
       </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
       <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
         <v>5</v>
       </c>
-      <c r="I48" s="23">
+      <c r="J48" s="23">
         <v>3</v>
       </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
       <c r="K48" s="7">
         <v>0</v>
       </c>
@@ -8946,74 +9306,77 @@
         <v>0</v>
       </c>
       <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
         <v>2</v>
       </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
       <c r="O48" s="7">
         <v>0</v>
       </c>
-      <c r="P48" s="24">
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="24">
         <f t="shared" si="27"/>
         <v>30</v>
       </c>
-      <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
-      <c r="T48" s="12" t="s">
+      <c r="T48" s="7"/>
+      <c r="U48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>10</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
       <c r="AA48">
-        <f>IF(ISBLANK(AB48),0, LOOKUP(AB48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC48/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <f>IF(ISBLANK(AC48),0, LOOKUP(AC48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD48/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="12"/>
       <c r="AF48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AG48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH48" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>21500001</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="22">
-        <f t="shared" ref="D49" si="36">IF(P49&gt;=23,4,IF(AND(P49&gt;=18,P49&lt;23),3,IF(AND(P49&gt;=13,P49&lt;18),2,IF(AND(P49&gt;=8,P49&lt;13),1,0))))</f>
+      <c r="C49" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="22">
+        <f t="shared" ref="E49" si="36">IF(Q49&gt;=23,4,IF(AND(Q49&gt;=18,Q49&lt;23),3,IF(AND(Q49&gt;=13,Q49&lt;18),2,IF(AND(Q49&gt;=8,Q49&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>5</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
-      <c r="I49" s="23">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7">
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="23">
         <v>0</v>
       </c>
       <c r="K49" s="7">
@@ -9031,73 +9394,76 @@
       <c r="O49" s="7">
         <v>0</v>
       </c>
-      <c r="P49" s="24">
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="24">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="R49" s="7">
         <v>5</v>
       </c>
-      <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="12" t="s">
+      <c r="T49" s="7"/>
+      <c r="U49" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>10</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>10</v>
       </c>
-      <c r="AA49">
-        <f>IF(ISBLANK(AB49),0, LOOKUP(AB49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC49/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB49">
+        <f>IF(ISBLANK(AC49),0, LOOKUP(AC49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD49/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="12"/>
       <c r="AF49" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG49" s="2" t="s">
+      <c r="AG49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH49" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>21500002</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="22">
-        <f t="shared" ref="D50:D51" si="37">IF(P50&gt;=23,4,IF(AND(P50&gt;=18,P50&lt;23),3,IF(AND(P50&gt;=13,P50&lt;18),2,IF(AND(P50&gt;=8,P50&lt;13),1,0))))</f>
+      <c r="C50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="22">
+        <f t="shared" ref="E50:E51" si="37">IF(Q50&gt;=23,4,IF(AND(Q50&gt;=18,Q50&lt;23),3,IF(AND(Q50&gt;=13,Q50&lt;18),2,IF(AND(Q50&gt;=8,Q50&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>5</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
-      <c r="I50" s="23">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
         <v>1</v>
       </c>
-      <c r="K50" s="7">
-        <v>0</v>
-      </c>
       <c r="L50" s="7">
         <v>0</v>
       </c>
@@ -9110,143 +9476,149 @@
       <c r="O50" s="7">
         <v>0</v>
       </c>
-      <c r="P50" s="24">
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="24">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="12" t="s">
+      <c r="T50" s="7"/>
+      <c r="U50" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>10</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>5</v>
       </c>
-      <c r="AA50">
-        <f>IF(ISBLANK(AB50),0, LOOKUP(AB50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC50/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB50">
+        <f>IF(ISBLANK(AC50),0, LOOKUP(AC50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD50/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="12"/>
       <c r="AF50" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AG50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH50" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>21500003</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="22">
+      <c r="C51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="22">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>5</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
-      <c r="I51" s="23">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="23">
         <v>0</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
       </c>
       <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
         <v>1</v>
       </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
       <c r="N51" s="7">
         <v>0</v>
       </c>
       <c r="O51" s="7">
         <v>0</v>
       </c>
-      <c r="P51" s="24">
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="24">
         <f t="shared" si="27"/>
         <v>11</v>
       </c>
-      <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="12" t="s">
+      <c r="T51" s="7"/>
+      <c r="U51" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>10</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>6</v>
       </c>
-      <c r="AA51">
-        <f>IF(ISBLANK(AB51),0, LOOKUP(AB51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC51/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB51">
+        <f>IF(ISBLANK(AC51),0, LOOKUP(AC51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD51/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="12"/>
       <c r="AF51" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG51" s="2" t="s">
+      <c r="AG51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH51" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>21500004</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="22">
-        <f t="shared" ref="D52:D53" si="38">IF(P52&gt;=23,4,IF(AND(P52&gt;=18,P52&lt;23),3,IF(AND(P52&gt;=13,P52&lt;18),2,IF(AND(P52&gt;=8,P52&lt;13),1,0))))</f>
+      <c r="C52" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="22">
+        <f t="shared" ref="E52:E53" si="38">IF(Q52&gt;=23,4,IF(AND(Q52&gt;=18,Q52&lt;23),3,IF(AND(Q52&gt;=13,Q52&lt;18),2,IF(AND(Q52&gt;=8,Q52&lt;13),1,0))))</f>
         <v>1</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>5</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
       <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
         <v>4</v>
       </c>
-      <c r="I52" s="23">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
+      <c r="J52" s="23">
         <v>0</v>
       </c>
       <c r="K52" s="7">
@@ -9264,72 +9636,75 @@
       <c r="O52" s="7">
         <v>0</v>
       </c>
-      <c r="P52" s="24">
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="24">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
-      <c r="T52" s="12" t="s">
+      <c r="T52" s="7"/>
+      <c r="U52" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>10</v>
       </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
       <c r="AA52">
-        <f>IF(ISBLANK(AB52),0, LOOKUP(AB52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC52/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <f>IF(ISBLANK(AC52),0, LOOKUP(AC52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD52/100)</f>
         <v>4</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>55990108</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>100</v>
       </c>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE52" s="12"/>
       <c r="AF52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG52" s="2" t="s">
+      <c r="AG52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH52" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>21500005</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="22">
+      <c r="C53" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="22">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>5</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
-      <c r="I53" s="23">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7">
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="23">
         <v>0</v>
       </c>
       <c r="K53" s="7">
@@ -9345,68 +9720,71 @@
         <v>0</v>
       </c>
       <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
         <v>1</v>
       </c>
-      <c r="P53" s="24">
+      <c r="Q53" s="24">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="12" t="s">
+      <c r="T53" s="7"/>
+      <c r="U53" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>10</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>10</v>
       </c>
-      <c r="AA53">
-        <f>IF(ISBLANK(AB53),0, LOOKUP(AB53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC53/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB53">
+        <f>IF(ISBLANK(AC53),0, LOOKUP(AC53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD53/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="12"/>
       <c r="AF53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG53" s="2" t="s">
+      <c r="AG53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH53" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>21500006</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="22">
-        <f t="shared" ref="D54:D55" si="39">IF(P54&gt;=23,4,IF(AND(P54&gt;=18,P54&lt;23),3,IF(AND(P54&gt;=13,P54&lt;18),2,IF(AND(P54&gt;=8,P54&lt;13),1,0))))</f>
+      <c r="C54" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="22">
+        <f t="shared" ref="E54:E55" si="39">IF(Q54&gt;=23,4,IF(AND(Q54&gt;=18,Q54&lt;23),3,IF(AND(Q54&gt;=13,Q54&lt;18),2,IF(AND(Q54&gt;=8,Q54&lt;13),1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>5</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
-      <c r="I54" s="23">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="23">
         <v>0</v>
       </c>
       <c r="K54" s="7">
@@ -9424,72 +9802,75 @@
       <c r="O54" s="7">
         <v>0</v>
       </c>
-      <c r="P54" s="24">
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="24">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
-      <c r="T54" s="12" t="s">
+      <c r="T54" s="7"/>
+      <c r="U54" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>10</v>
       </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
       <c r="AA54">
-        <f>IF(ISBLANK(AB54),0, LOOKUP(AB54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC54/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f>IF(ISBLANK(AC54),0, LOOKUP(AC54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD54/100)</f>
         <v>15</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>55990109</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>100</v>
       </c>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE54" s="12"/>
       <c r="AF54" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG54" s="2" t="s">
+      <c r="AG54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH54" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>21500007</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="22">
+      <c r="C55" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="22">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>5</v>
       </c>
-      <c r="F55" s="1">
-        <f t="shared" ref="F55:F56" si="40">D55*50+50</f>
+      <c r="G55" s="1">
+        <f t="shared" ref="G55:G56" si="40">E55*50+50</f>
         <v>100</v>
       </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="I55" s="23">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7">
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="23">
         <v>0</v>
       </c>
       <c r="K55" s="7">
@@ -9507,149 +9888,155 @@
       <c r="O55" s="7">
         <v>0</v>
       </c>
-      <c r="P55" s="24">
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="24">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="12" t="s">
+      <c r="T55" s="7"/>
+      <c r="U55" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>10</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>8</v>
       </c>
-      <c r="AA55">
-        <f>IF(ISBLANK(AB55),0, LOOKUP(AB55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC55/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB55">
+        <f>IF(ISBLANK(AC55),0, LOOKUP(AC55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD55/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="12"/>
       <c r="AF55" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG55" s="2" t="s">
+      <c r="AG55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH55" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>21500008</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="22">
-        <f t="shared" ref="D56:D57" si="41">IF(P56&gt;=23,4,IF(AND(P56&gt;=18,P56&lt;23),3,IF(AND(P56&gt;=13,P56&lt;18),2,IF(AND(P56&gt;=8,P56&lt;13),1,0))))</f>
+      <c r="C56" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="22">
+        <f t="shared" ref="E56:E57" si="41">IF(Q56&gt;=23,4,IF(AND(Q56&gt;=18,Q56&lt;23),3,IF(AND(Q56&gt;=13,Q56&lt;18),2,IF(AND(Q56&gt;=8,Q56&lt;13),1,0))))</f>
         <v>4</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>5</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <f t="shared" si="40"/>
         <v>250</v>
       </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
-      <c r="I56" s="23">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7">
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="23">
         <v>0</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
       </c>
       <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
         <v>3</v>
       </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
       <c r="N56" s="7">
         <v>0</v>
       </c>
       <c r="O56" s="7">
         <v>0</v>
       </c>
-      <c r="P56" s="24">
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="24">
         <f t="shared" si="27"/>
         <v>25</v>
       </c>
-      <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
-      <c r="T56" s="12" t="s">
+      <c r="T56" s="7"/>
+      <c r="U56" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>10</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
       <c r="AA56">
-        <f>IF(ISBLANK(AB56),0, LOOKUP(AB56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC56/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f>IF(ISBLANK(AC56),0, LOOKUP(AC56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD56/100)</f>
         <v>10</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>55110003</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>40</v>
       </c>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE56" s="12"/>
       <c r="AF56" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG56" s="2" t="s">
+      <c r="AG56" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH56" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>21500009</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="22">
+      <c r="C57" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="22">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>5</v>
       </c>
-      <c r="F57" s="1">
-        <f t="shared" ref="F57:F58" si="42">D57*50+50</f>
+      <c r="G57" s="1">
+        <f t="shared" ref="G57:G58" si="42">E57*50+50</f>
         <v>100</v>
       </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
-      <c r="I57" s="23">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7">
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="23">
         <v>0</v>
       </c>
       <c r="K57" s="7">
@@ -9667,69 +10054,72 @@
       <c r="O57" s="7">
         <v>0</v>
       </c>
-      <c r="P57" s="24">
-        <f t="shared" ref="P57" si="43">G57+H57+ SUM(I57:O57)*5+Z57+AA57</f>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="24">
+        <f t="shared" ref="Q57" si="43">H57+I57+ SUM(J57:P57)*5+AA57+AB57</f>
         <v>10</v>
       </c>
-      <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="12" t="s">
+      <c r="T57" s="7"/>
+      <c r="U57" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>10</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>31100001</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>10</v>
       </c>
-      <c r="AA57">
-        <f>IF(ISBLANK(AB57),0, LOOKUP(AB57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC57/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB57">
+        <f>IF(ISBLANK(AC57),0, LOOKUP(AC57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD57/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="12"/>
       <c r="AF57" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG57" s="2" t="s">
+      <c r="AG57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH57" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>21500010</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="22">
-        <f t="shared" ref="D58:D59" si="44">IF(P58&gt;=23,4,IF(AND(P58&gt;=18,P58&lt;23),3,IF(AND(P58&gt;=13,P58&lt;18),2,IF(AND(P58&gt;=8,P58&lt;13),1,0))))</f>
+      <c r="C58" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="22">
+        <f t="shared" ref="E58:E59" si="44">IF(Q58&gt;=23,4,IF(AND(Q58&gt;=18,Q58&lt;23),3,IF(AND(Q58&gt;=13,Q58&lt;18),2,IF(AND(Q58&gt;=8,Q58&lt;13),1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>5</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <f t="shared" si="42"/>
         <v>150</v>
       </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
-      <c r="I58" s="23">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="23">
         <v>0</v>
       </c>
       <c r="K58" s="7">
@@ -9747,69 +10137,72 @@
       <c r="O58" s="7">
         <v>0</v>
       </c>
-      <c r="P58" s="24">
-        <f t="shared" ref="P58" si="45">G58+H58+ SUM(I58:O58)*5+Z58+AA58</f>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="24">
+        <f t="shared" ref="Q58" si="45">H58+I58+ SUM(J58:P58)*5+AA58+AB58</f>
         <v>15</v>
       </c>
-      <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
-      <c r="T58" s="12" t="s">
+      <c r="T58" s="7"/>
+      <c r="U58" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>10</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>31100002</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>15</v>
       </c>
-      <c r="AA58">
-        <f>IF(ISBLANK(AB58),0, LOOKUP(AB58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC58/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB58">
+        <f>IF(ISBLANK(AC58),0, LOOKUP(AC58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD58/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="12"/>
       <c r="AF58" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG58" s="2" t="s">
+      <c r="AG58" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH58" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>21500011</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="22">
+      <c r="C59" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="22">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>5</v>
       </c>
-      <c r="F59" s="1">
-        <f t="shared" ref="F59" si="46">D59*50+50</f>
+      <c r="G59" s="1">
+        <f t="shared" ref="G59" si="46">E59*50+50</f>
         <v>250</v>
       </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
-      <c r="I59" s="23">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="23">
         <v>0</v>
       </c>
       <c r="K59" s="7">
@@ -9827,73 +10220,76 @@
       <c r="O59" s="7">
         <v>0</v>
       </c>
-      <c r="P59" s="24">
-        <f t="shared" ref="P59" si="47">G59+H59+ SUM(I59:O59)*5+Z59+AA59</f>
+      <c r="P59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="24">
+        <f t="shared" ref="Q59" si="47">H59+I59+ SUM(J59:P59)*5+AA59+AB59</f>
         <v>25</v>
       </c>
-      <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="12" t="s">
+      <c r="T59" s="7"/>
+      <c r="U59" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>10</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>31100003</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>25</v>
       </c>
-      <c r="AA59">
-        <f>IF(ISBLANK(AB59),0, LOOKUP(AB59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AC59/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="12"/>
-      <c r="AE59" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB59">
+        <f>IF(ISBLANK(AC59),0, LOOKUP(AC59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AD59/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="12"/>
       <c r="AF59" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG59" s="2" t="s">
+      <c r="AG59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH59" s="2" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D24 D26 D28:D59">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E4:E24 E26 E28:E59">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 D27">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E25 E27">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="313">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1166,13 +1166,25 @@
   </si>
   <si>
     <t>eqliaowangtai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本属性加成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DungeonAttrs</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2071,7 +2083,10 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2147,44 +2162,6 @@
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2533,6 +2510,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2637,6 +2652,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2662,7 +2745,7 @@
             <v>序列</v>
           </cell>
           <cell r="Y1" t="str">
-            <v>评分</v>
+            <v>卡牌表面特效</v>
           </cell>
         </row>
         <row r="2">
@@ -2670,7 +2753,7 @@
             <v>int</v>
           </cell>
           <cell r="Y2" t="str">
-            <v>int</v>
+            <v>string</v>
           </cell>
         </row>
         <row r="3">
@@ -2678,1272 +2761,1010 @@
             <v>Id</v>
           </cell>
           <cell r="Y3" t="str">
-            <v>Mark</v>
+            <v>Cover</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
             <v>55100001</v>
           </cell>
-          <cell r="Y4">
-            <v>10</v>
-          </cell>
+          <cell r="Y4"/>
         </row>
         <row r="5">
           <cell r="A5">
             <v>55100002</v>
           </cell>
-          <cell r="Y5">
-            <v>15</v>
-          </cell>
+          <cell r="Y5"/>
         </row>
         <row r="6">
           <cell r="A6">
             <v>55100003</v>
           </cell>
-          <cell r="Y6">
-            <v>15</v>
-          </cell>
+          <cell r="Y6"/>
         </row>
         <row r="7">
           <cell r="A7">
             <v>55100004</v>
           </cell>
-          <cell r="Y7">
-            <v>15</v>
-          </cell>
+          <cell r="Y7"/>
         </row>
         <row r="8">
           <cell r="A8">
             <v>55100005</v>
           </cell>
-          <cell r="Y8">
-            <v>35</v>
-          </cell>
+          <cell r="Y8"/>
         </row>
         <row r="9">
           <cell r="A9">
             <v>55100006</v>
           </cell>
-          <cell r="Y9">
-            <v>45</v>
-          </cell>
+          <cell r="Y9"/>
         </row>
         <row r="10">
           <cell r="A10">
             <v>55100007</v>
           </cell>
-          <cell r="Y10">
-            <v>35</v>
-          </cell>
+          <cell r="Y10"/>
         </row>
         <row r="11">
           <cell r="A11">
             <v>55100008</v>
           </cell>
-          <cell r="Y11">
-            <v>15</v>
-          </cell>
+          <cell r="Y11"/>
         </row>
         <row r="12">
           <cell r="A12">
             <v>55100010</v>
           </cell>
-          <cell r="Y12">
-            <v>12</v>
+          <cell r="Y12" t="str">
+            <v>coverstar</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
             <v>55100011</v>
           </cell>
-          <cell r="Y13">
-            <v>6</v>
-          </cell>
+          <cell r="Y13"/>
         </row>
         <row r="14">
           <cell r="A14">
             <v>55100012</v>
           </cell>
-          <cell r="Y14">
-            <v>15</v>
+          <cell r="Y14" t="str">
+            <v>coverstar</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
             <v>55100013</v>
           </cell>
-          <cell r="Y15">
-            <v>10</v>
-          </cell>
+          <cell r="Y15"/>
         </row>
         <row r="16">
           <cell r="A16">
             <v>55100014</v>
           </cell>
-          <cell r="Y16">
-            <v>24</v>
-          </cell>
+          <cell r="Y16"/>
         </row>
         <row r="17">
           <cell r="A17">
             <v>55100015</v>
           </cell>
-          <cell r="Y17">
-            <v>16</v>
-          </cell>
+          <cell r="Y17"/>
         </row>
         <row r="18">
           <cell r="A18">
             <v>55110001</v>
           </cell>
-          <cell r="Y18">
-            <v>5</v>
-          </cell>
+          <cell r="Y18"/>
         </row>
         <row r="19">
           <cell r="A19">
             <v>55110002</v>
           </cell>
-          <cell r="Y19">
-            <v>8</v>
-          </cell>
+          <cell r="Y19"/>
         </row>
         <row r="20">
           <cell r="A20">
             <v>55110003</v>
           </cell>
-          <cell r="Y20">
-            <v>25</v>
-          </cell>
+          <cell r="Y20"/>
         </row>
         <row r="21">
           <cell r="A21">
             <v>55110004</v>
           </cell>
-          <cell r="Y21">
-            <v>25</v>
-          </cell>
+          <cell r="Y21"/>
         </row>
         <row r="22">
           <cell r="A22">
             <v>55110005</v>
           </cell>
-          <cell r="Y22">
-            <v>20</v>
-          </cell>
+          <cell r="Y22"/>
         </row>
         <row r="23">
           <cell r="A23">
             <v>55110006</v>
           </cell>
-          <cell r="Y23">
-            <v>15</v>
-          </cell>
+          <cell r="Y23"/>
         </row>
         <row r="24">
           <cell r="A24">
             <v>55110007</v>
           </cell>
-          <cell r="Y24">
-            <v>10</v>
-          </cell>
+          <cell r="Y24"/>
         </row>
         <row r="25">
           <cell r="A25">
             <v>55110008</v>
           </cell>
-          <cell r="Y25">
-            <v>50</v>
-          </cell>
+          <cell r="Y25"/>
         </row>
         <row r="26">
           <cell r="A26">
             <v>55110009</v>
           </cell>
-          <cell r="Y26">
-            <v>12</v>
-          </cell>
+          <cell r="Y26"/>
         </row>
         <row r="27">
           <cell r="A27">
             <v>55110010</v>
           </cell>
-          <cell r="Y27">
-            <v>30</v>
-          </cell>
+          <cell r="Y27"/>
         </row>
         <row r="28">
           <cell r="A28">
             <v>55110011</v>
           </cell>
-          <cell r="Y28">
-            <v>10</v>
-          </cell>
+          <cell r="Y28"/>
         </row>
         <row r="29">
           <cell r="A29">
             <v>55110012</v>
           </cell>
-          <cell r="Y29">
-            <v>30</v>
-          </cell>
+          <cell r="Y29"/>
         </row>
         <row r="30">
           <cell r="A30">
             <v>55110013</v>
           </cell>
-          <cell r="Y30">
-            <v>200</v>
-          </cell>
+          <cell r="Y30"/>
         </row>
         <row r="31">
           <cell r="A31">
             <v>55110014</v>
           </cell>
-          <cell r="Y31">
-            <v>50</v>
-          </cell>
+          <cell r="Y31"/>
         </row>
         <row r="32">
           <cell r="A32">
             <v>55110015</v>
           </cell>
-          <cell r="Y32">
-            <v>20</v>
-          </cell>
+          <cell r="Y32"/>
         </row>
         <row r="33">
           <cell r="A33">
             <v>55110016</v>
           </cell>
-          <cell r="Y33">
-            <v>15</v>
-          </cell>
+          <cell r="Y33"/>
         </row>
         <row r="34">
           <cell r="A34">
             <v>55110017</v>
           </cell>
-          <cell r="Y34">
-            <v>8</v>
-          </cell>
+          <cell r="Y34"/>
         </row>
         <row r="35">
           <cell r="A35">
             <v>55110018</v>
           </cell>
-          <cell r="Y35">
-            <v>20</v>
-          </cell>
+          <cell r="Y35"/>
         </row>
         <row r="36">
           <cell r="A36">
             <v>55110019</v>
           </cell>
-          <cell r="Y36">
-            <v>30</v>
-          </cell>
+          <cell r="Y36"/>
         </row>
         <row r="37">
           <cell r="A37">
             <v>55110020</v>
           </cell>
-          <cell r="Y37">
-            <v>40</v>
-          </cell>
+          <cell r="Y37"/>
         </row>
         <row r="38">
           <cell r="A38">
             <v>55200001</v>
           </cell>
-          <cell r="Y38">
-            <v>40</v>
+          <cell r="Y38" t="str">
+            <v>coveraoe</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
             <v>55200002</v>
           </cell>
-          <cell r="Y39">
-            <v>20</v>
-          </cell>
+          <cell r="Y39"/>
         </row>
         <row r="40">
           <cell r="A40">
             <v>55200003</v>
           </cell>
-          <cell r="Y40">
-            <v>25</v>
-          </cell>
+          <cell r="Y40"/>
         </row>
         <row r="41">
           <cell r="A41">
             <v>55200004</v>
           </cell>
-          <cell r="Y41">
-            <v>40</v>
-          </cell>
+          <cell r="Y41"/>
         </row>
         <row r="42">
           <cell r="A42">
             <v>55200005</v>
           </cell>
-          <cell r="Y42">
-            <v>20</v>
-          </cell>
+          <cell r="Y42"/>
         </row>
         <row r="43">
           <cell r="A43">
             <v>55200006</v>
           </cell>
-          <cell r="Y43">
-            <v>20</v>
+          <cell r="Y43" t="str">
+            <v>coveraoe</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
             <v>55200007</v>
           </cell>
-          <cell r="Y44">
-            <v>20</v>
+          <cell r="Y44" t="str">
+            <v>coveraoe</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
             <v>55200008</v>
           </cell>
-          <cell r="Y45">
-            <v>25</v>
+          <cell r="Y45" t="str">
+            <v>coveraoe</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
             <v>55200009</v>
           </cell>
-          <cell r="Y46">
-            <v>25</v>
+          <cell r="Y46" t="str">
+            <v>coveraoe</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
             <v>55200010</v>
           </cell>
-          <cell r="Y47">
-            <v>25</v>
-          </cell>
+          <cell r="Y47"/>
         </row>
         <row r="48">
           <cell r="A48">
             <v>55200011</v>
           </cell>
-          <cell r="Y48">
-            <v>20</v>
-          </cell>
+          <cell r="Y48"/>
         </row>
         <row r="49">
           <cell r="A49">
             <v>55200012</v>
           </cell>
-          <cell r="Y49">
-            <v>30</v>
-          </cell>
+          <cell r="Y49"/>
         </row>
         <row r="50">
           <cell r="A50">
             <v>55200013</v>
           </cell>
-          <cell r="Y50">
-            <v>10</v>
-          </cell>
+          <cell r="Y50"/>
         </row>
         <row r="51">
           <cell r="A51">
             <v>55200014</v>
           </cell>
-          <cell r="Y51">
-            <v>25</v>
-          </cell>
+          <cell r="Y51"/>
         </row>
         <row r="52">
           <cell r="A52">
             <v>55200015</v>
           </cell>
-          <cell r="Y52">
-            <v>20</v>
-          </cell>
+          <cell r="Y52"/>
         </row>
         <row r="53">
           <cell r="A53">
             <v>55300001</v>
           </cell>
-          <cell r="Y53">
-            <v>40</v>
+          <cell r="Y53" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
             <v>55300002</v>
           </cell>
-          <cell r="Y54">
-            <v>30</v>
-          </cell>
+          <cell r="Y54"/>
         </row>
         <row r="55">
           <cell r="A55">
             <v>55300003</v>
           </cell>
-          <cell r="Y55">
-            <v>30</v>
-          </cell>
+          <cell r="Y55"/>
         </row>
         <row r="56">
           <cell r="A56">
             <v>55300004</v>
           </cell>
-          <cell r="Y56">
-            <v>30</v>
-          </cell>
+          <cell r="Y56"/>
         </row>
         <row r="57">
           <cell r="A57">
             <v>55300005</v>
           </cell>
-          <cell r="Y57">
-            <v>30</v>
-          </cell>
+          <cell r="Y57"/>
         </row>
         <row r="58">
           <cell r="A58">
             <v>55300006</v>
           </cell>
-          <cell r="Y58">
-            <v>25</v>
-          </cell>
+          <cell r="Y58"/>
         </row>
         <row r="59">
           <cell r="A59">
             <v>55300007</v>
           </cell>
-          <cell r="Y59">
-            <v>25</v>
-          </cell>
+          <cell r="Y59"/>
         </row>
         <row r="60">
           <cell r="A60">
             <v>55300008</v>
           </cell>
-          <cell r="Y60">
-            <v>30</v>
-          </cell>
+          <cell r="Y60"/>
         </row>
         <row r="61">
           <cell r="A61">
             <v>55300009</v>
           </cell>
-          <cell r="Y61">
-            <v>30</v>
-          </cell>
+          <cell r="Y61"/>
         </row>
         <row r="62">
           <cell r="A62">
             <v>55300010</v>
           </cell>
-          <cell r="Y62">
-            <v>35</v>
-          </cell>
+          <cell r="Y62"/>
         </row>
         <row r="63">
           <cell r="A63">
             <v>55300011</v>
           </cell>
-          <cell r="Y63">
-            <v>25</v>
-          </cell>
+          <cell r="Y63"/>
         </row>
         <row r="64">
           <cell r="A64">
             <v>55300012</v>
           </cell>
-          <cell r="Y64">
-            <v>5</v>
-          </cell>
+          <cell r="Y64"/>
         </row>
         <row r="65">
           <cell r="A65">
             <v>55300013</v>
           </cell>
-          <cell r="Y65">
-            <v>15</v>
-          </cell>
+          <cell r="Y65"/>
         </row>
         <row r="66">
           <cell r="A66">
             <v>55310001</v>
           </cell>
-          <cell r="Y66">
-            <v>100</v>
-          </cell>
+          <cell r="Y66"/>
         </row>
         <row r="67">
           <cell r="A67">
             <v>55310002</v>
           </cell>
-          <cell r="Y67">
-            <v>15</v>
-          </cell>
+          <cell r="Y67"/>
         </row>
         <row r="68">
           <cell r="A68">
             <v>55310003</v>
           </cell>
-          <cell r="Y68">
-            <v>13</v>
-          </cell>
+          <cell r="Y68"/>
         </row>
         <row r="69">
           <cell r="A69">
             <v>55400001</v>
           </cell>
-          <cell r="Y69">
-            <v>80</v>
-          </cell>
+          <cell r="Y69"/>
         </row>
         <row r="70">
           <cell r="A70">
             <v>55400002</v>
           </cell>
-          <cell r="Y70">
-            <v>80</v>
-          </cell>
+          <cell r="Y70"/>
         </row>
         <row r="71">
           <cell r="A71">
             <v>55400003</v>
           </cell>
-          <cell r="Y71">
-            <v>80</v>
-          </cell>
+          <cell r="Y71"/>
         </row>
         <row r="72">
           <cell r="A72">
             <v>55400005</v>
           </cell>
-          <cell r="Y72">
-            <v>55</v>
-          </cell>
+          <cell r="Y72"/>
         </row>
         <row r="73">
           <cell r="A73">
             <v>55400006</v>
           </cell>
-          <cell r="Y73">
-            <v>30</v>
-          </cell>
+          <cell r="Y73"/>
         </row>
         <row r="74">
           <cell r="A74">
             <v>55400007</v>
           </cell>
-          <cell r="Y74">
-            <v>25</v>
-          </cell>
+          <cell r="Y74"/>
         </row>
         <row r="75">
           <cell r="A75">
             <v>55410001</v>
           </cell>
-          <cell r="Y75">
-            <v>50</v>
-          </cell>
+          <cell r="Y75"/>
         </row>
         <row r="76">
           <cell r="A76">
             <v>55500001</v>
           </cell>
-          <cell r="Y76">
-            <v>5</v>
-          </cell>
+          <cell r="Y76"/>
         </row>
         <row r="77">
           <cell r="A77">
             <v>55500002</v>
           </cell>
-          <cell r="Y77">
-            <v>5</v>
-          </cell>
+          <cell r="Y77"/>
         </row>
         <row r="78">
           <cell r="A78">
             <v>55500003</v>
           </cell>
-          <cell r="Y78">
-            <v>5</v>
-          </cell>
+          <cell r="Y78"/>
         </row>
         <row r="79">
           <cell r="A79">
             <v>55500004</v>
           </cell>
-          <cell r="Y79">
-            <v>5</v>
-          </cell>
+          <cell r="Y79"/>
         </row>
         <row r="80">
           <cell r="A80">
             <v>55500005</v>
           </cell>
-          <cell r="Y80">
-            <v>5</v>
-          </cell>
+          <cell r="Y80"/>
         </row>
         <row r="81">
           <cell r="A81">
             <v>55500006</v>
           </cell>
-          <cell r="Y81">
-            <v>5</v>
-          </cell>
+          <cell r="Y81"/>
         </row>
         <row r="82">
           <cell r="A82">
             <v>55500007</v>
           </cell>
-          <cell r="Y82">
-            <v>5</v>
-          </cell>
+          <cell r="Y82"/>
         </row>
         <row r="83">
           <cell r="A83">
             <v>55500008</v>
           </cell>
-          <cell r="Y83">
-            <v>5</v>
-          </cell>
+          <cell r="Y83"/>
         </row>
         <row r="84">
           <cell r="A84">
             <v>55500009</v>
           </cell>
-          <cell r="Y84">
-            <v>5</v>
-          </cell>
+          <cell r="Y84"/>
         </row>
         <row r="85">
           <cell r="A85">
             <v>55500010</v>
           </cell>
-          <cell r="Y85">
-            <v>5</v>
-          </cell>
+          <cell r="Y85"/>
         </row>
         <row r="86">
           <cell r="A86">
             <v>55500011</v>
           </cell>
-          <cell r="Y86">
-            <v>5</v>
-          </cell>
+          <cell r="Y86"/>
         </row>
         <row r="87">
           <cell r="A87">
             <v>55500012</v>
           </cell>
-          <cell r="Y87">
-            <v>5</v>
-          </cell>
+          <cell r="Y87"/>
         </row>
         <row r="88">
           <cell r="A88">
             <v>55500013</v>
           </cell>
-          <cell r="Y88">
-            <v>5</v>
-          </cell>
+          <cell r="Y88"/>
         </row>
         <row r="89">
           <cell r="A89">
             <v>55500014</v>
           </cell>
-          <cell r="Y89">
-            <v>5</v>
-          </cell>
+          <cell r="Y89"/>
         </row>
         <row r="90">
           <cell r="A90">
             <v>55500015</v>
           </cell>
-          <cell r="Y90">
-            <v>5</v>
-          </cell>
+          <cell r="Y90"/>
         </row>
         <row r="91">
           <cell r="A91">
             <v>55500016</v>
           </cell>
-          <cell r="Y91">
-            <v>5</v>
-          </cell>
+          <cell r="Y91"/>
         </row>
         <row r="92">
           <cell r="A92">
             <v>55510001</v>
           </cell>
-          <cell r="Y92">
-            <v>12</v>
-          </cell>
+          <cell r="Y92"/>
         </row>
         <row r="93">
           <cell r="A93">
             <v>55510002</v>
           </cell>
-          <cell r="Y93">
-            <v>15</v>
-          </cell>
+          <cell r="Y93"/>
         </row>
         <row r="94">
           <cell r="A94">
             <v>55510003</v>
           </cell>
-          <cell r="Y94">
-            <v>15</v>
-          </cell>
+          <cell r="Y94"/>
         </row>
         <row r="95">
           <cell r="A95">
             <v>55510004</v>
           </cell>
-          <cell r="Y95">
-            <v>12</v>
-          </cell>
+          <cell r="Y95"/>
         </row>
         <row r="96">
           <cell r="A96">
             <v>55510006</v>
           </cell>
-          <cell r="Y96">
-            <v>25</v>
-          </cell>
+          <cell r="Y96"/>
         </row>
         <row r="97">
           <cell r="A97">
             <v>55510007</v>
           </cell>
-          <cell r="Y97">
-            <v>10</v>
-          </cell>
+          <cell r="Y97"/>
         </row>
         <row r="98">
           <cell r="A98">
             <v>55510009</v>
           </cell>
-          <cell r="Y98">
-            <v>50</v>
-          </cell>
+          <cell r="Y98"/>
         </row>
         <row r="99">
           <cell r="A99">
             <v>55510010</v>
           </cell>
-          <cell r="Y99">
-            <v>5</v>
-          </cell>
+          <cell r="Y99"/>
         </row>
         <row r="100">
           <cell r="A100">
             <v>55510011</v>
           </cell>
-          <cell r="Y100">
-            <v>15</v>
-          </cell>
+          <cell r="Y100"/>
         </row>
         <row r="101">
           <cell r="A101">
             <v>55510012</v>
           </cell>
-          <cell r="Y101">
-            <v>62</v>
-          </cell>
+          <cell r="Y101"/>
         </row>
         <row r="102">
           <cell r="A102">
             <v>55510013</v>
           </cell>
-          <cell r="Y102">
-            <v>12</v>
-          </cell>
+          <cell r="Y102"/>
         </row>
         <row r="103">
           <cell r="A103">
             <v>55510014</v>
           </cell>
-          <cell r="Y103">
-            <v>25</v>
-          </cell>
+          <cell r="Y103"/>
         </row>
         <row r="104">
           <cell r="A104">
             <v>55510018</v>
           </cell>
-          <cell r="Y104">
-            <v>37</v>
-          </cell>
+          <cell r="Y104"/>
         </row>
         <row r="105">
           <cell r="A105">
             <v>55510019</v>
           </cell>
-          <cell r="Y105">
-            <v>37</v>
-          </cell>
+          <cell r="Y105"/>
         </row>
         <row r="106">
           <cell r="A106">
             <v>55520001</v>
           </cell>
-          <cell r="Y106">
-            <v>-25</v>
-          </cell>
+          <cell r="Y106"/>
         </row>
         <row r="107">
           <cell r="A107">
             <v>55520002</v>
           </cell>
-          <cell r="Y107">
-            <v>62</v>
-          </cell>
+          <cell r="Y107"/>
         </row>
         <row r="108">
           <cell r="A108">
             <v>55520003</v>
           </cell>
-          <cell r="Y108">
-            <v>27</v>
-          </cell>
+          <cell r="Y108"/>
         </row>
         <row r="109">
           <cell r="A109">
             <v>55600001</v>
           </cell>
-          <cell r="Y109">
-            <v>8</v>
+          <cell r="Y109" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
             <v>55600002</v>
           </cell>
-          <cell r="Y110">
-            <v>10</v>
+          <cell r="Y110" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
             <v>55600004</v>
           </cell>
-          <cell r="Y111">
-            <v>8</v>
+          <cell r="Y111" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
             <v>55600005</v>
           </cell>
-          <cell r="Y112">
-            <v>15</v>
+          <cell r="Y112" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
             <v>55600006</v>
           </cell>
-          <cell r="Y113">
-            <v>15</v>
+          <cell r="Y113" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
             <v>55600007</v>
           </cell>
-          <cell r="Y114">
-            <v>20</v>
+          <cell r="Y114" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
             <v>55600008</v>
           </cell>
-          <cell r="Y115">
-            <v>30</v>
+          <cell r="Y115" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
             <v>55600009</v>
           </cell>
-          <cell r="Y116">
-            <v>13</v>
+          <cell r="Y116" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
             <v>55600010</v>
           </cell>
-          <cell r="Y117">
-            <v>30</v>
+          <cell r="Y117" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
             <v>55600011</v>
           </cell>
-          <cell r="Y118">
-            <v>20</v>
+          <cell r="Y118" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
             <v>55600012</v>
           </cell>
-          <cell r="Y119">
-            <v>30</v>
+          <cell r="Y119" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
             <v>55600013</v>
           </cell>
-          <cell r="Y120">
-            <v>15</v>
+          <cell r="Y120" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
             <v>55600014</v>
           </cell>
-          <cell r="Y121">
-            <v>30</v>
+          <cell r="Y121" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
             <v>55600015</v>
           </cell>
-          <cell r="Y122">
-            <v>10</v>
+          <cell r="Y122" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
             <v>55600016</v>
           </cell>
-          <cell r="Y123">
-            <v>15</v>
+          <cell r="Y123" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
             <v>55610001</v>
           </cell>
-          <cell r="Y124">
-            <v>30</v>
-          </cell>
+          <cell r="Y124"/>
         </row>
         <row r="125">
           <cell r="A125">
             <v>55610002</v>
           </cell>
-          <cell r="Y125">
-            <v>5</v>
-          </cell>
+          <cell r="Y125"/>
         </row>
         <row r="126">
           <cell r="A126">
             <v>55610003</v>
           </cell>
-          <cell r="Y126">
-            <v>5</v>
-          </cell>
+          <cell r="Y126"/>
         </row>
         <row r="127">
           <cell r="A127">
             <v>55610004</v>
           </cell>
-          <cell r="Y127">
-            <v>10</v>
-          </cell>
+          <cell r="Y127"/>
         </row>
         <row r="128">
           <cell r="A128">
             <v>55700001</v>
           </cell>
-          <cell r="Y128">
-            <v>20</v>
-          </cell>
+          <cell r="Y128"/>
         </row>
         <row r="129">
           <cell r="A129">
             <v>55700002</v>
           </cell>
-          <cell r="Y129">
-            <v>20</v>
-          </cell>
+          <cell r="Y129"/>
         </row>
         <row r="130">
           <cell r="A130">
             <v>55700003</v>
           </cell>
-          <cell r="Y130">
-            <v>20</v>
-          </cell>
+          <cell r="Y130"/>
         </row>
         <row r="131">
           <cell r="A131">
             <v>55700004</v>
           </cell>
-          <cell r="Y131">
-            <v>20</v>
-          </cell>
+          <cell r="Y131"/>
         </row>
         <row r="132">
           <cell r="A132">
             <v>55700005</v>
           </cell>
-          <cell r="Y132">
-            <v>40</v>
-          </cell>
+          <cell r="Y132"/>
         </row>
         <row r="133">
           <cell r="A133">
             <v>55700006</v>
           </cell>
-          <cell r="Y133">
-            <v>50</v>
-          </cell>
+          <cell r="Y133"/>
         </row>
         <row r="134">
           <cell r="A134">
             <v>55700007</v>
           </cell>
-          <cell r="Y134">
-            <v>35</v>
-          </cell>
+          <cell r="Y134"/>
         </row>
         <row r="135">
           <cell r="A135">
             <v>55900001</v>
           </cell>
-          <cell r="Y135">
-            <v>35</v>
+          <cell r="Y135" t="str">
+            <v>covertrans</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
             <v>55900002</v>
           </cell>
-          <cell r="Y136">
-            <v>30</v>
-          </cell>
+          <cell r="Y136"/>
         </row>
         <row r="137">
           <cell r="A137">
             <v>55900003</v>
           </cell>
-          <cell r="Y137">
-            <v>80</v>
-          </cell>
+          <cell r="Y137"/>
         </row>
         <row r="138">
           <cell r="A138">
             <v>55900004</v>
           </cell>
-          <cell r="Y138">
-            <v>-30</v>
-          </cell>
+          <cell r="Y138"/>
         </row>
         <row r="139">
           <cell r="A139">
             <v>55900005</v>
           </cell>
-          <cell r="Y139">
-            <v>20</v>
-          </cell>
+          <cell r="Y139"/>
         </row>
         <row r="140">
           <cell r="A140">
             <v>55900006</v>
           </cell>
-          <cell r="Y140">
-            <v>35</v>
-          </cell>
+          <cell r="Y140"/>
         </row>
         <row r="141">
           <cell r="A141">
             <v>55900007</v>
           </cell>
-          <cell r="Y141">
-            <v>25</v>
-          </cell>
+          <cell r="Y141"/>
         </row>
         <row r="142">
           <cell r="A142">
             <v>55900008</v>
           </cell>
-          <cell r="Y142">
-            <v>40</v>
-          </cell>
+          <cell r="Y142"/>
         </row>
         <row r="143">
           <cell r="A143">
             <v>55900009</v>
           </cell>
-          <cell r="Y143">
-            <v>30</v>
-          </cell>
+          <cell r="Y143"/>
         </row>
         <row r="144">
           <cell r="A144">
             <v>55900010</v>
           </cell>
-          <cell r="Y144">
-            <v>20</v>
-          </cell>
+          <cell r="Y144"/>
         </row>
         <row r="145">
           <cell r="A145">
             <v>55900011</v>
           </cell>
-          <cell r="Y145">
-            <v>15</v>
-          </cell>
+          <cell r="Y145"/>
         </row>
         <row r="146">
           <cell r="A146">
             <v>55900012</v>
           </cell>
-          <cell r="Y146">
-            <v>25</v>
-          </cell>
+          <cell r="Y146"/>
         </row>
         <row r="147">
           <cell r="A147">
             <v>55900013</v>
           </cell>
-          <cell r="Y147">
-            <v>10</v>
-          </cell>
+          <cell r="Y147"/>
         </row>
         <row r="148">
           <cell r="A148">
             <v>55900014</v>
           </cell>
-          <cell r="Y148">
-            <v>20</v>
-          </cell>
+          <cell r="Y148"/>
         </row>
         <row r="149">
           <cell r="A149">
             <v>55900015</v>
           </cell>
-          <cell r="Y149">
-            <v>30</v>
-          </cell>
+          <cell r="Y149"/>
         </row>
         <row r="150">
           <cell r="A150">
             <v>55900016</v>
           </cell>
-          <cell r="Y150">
-            <v>45</v>
-          </cell>
+          <cell r="Y150"/>
         </row>
         <row r="151">
           <cell r="A151">
             <v>55900017</v>
           </cell>
-          <cell r="Y151">
-            <v>10</v>
+          <cell r="Y151" t="str">
+            <v>covertrans</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
             <v>55900018</v>
           </cell>
-          <cell r="Y152">
-            <v>30</v>
+          <cell r="Y152" t="str">
+            <v>covertrans</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
             <v>55900019</v>
           </cell>
-          <cell r="Y153">
-            <v>80</v>
+          <cell r="Y153" t="str">
+            <v>covertrans</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
             <v>55900020</v>
           </cell>
-          <cell r="Y154">
-            <v>20</v>
-          </cell>
+          <cell r="Y154"/>
         </row>
         <row r="155">
           <cell r="A155">
             <v>55900021</v>
           </cell>
-          <cell r="Y155">
-            <v>10</v>
-          </cell>
+          <cell r="Y155"/>
         </row>
         <row r="156">
           <cell r="A156">
             <v>55900022</v>
           </cell>
-          <cell r="Y156">
-            <v>20</v>
-          </cell>
+          <cell r="Y156"/>
         </row>
         <row r="157">
           <cell r="A157">
             <v>55900023</v>
           </cell>
-          <cell r="Y157">
-            <v>25</v>
-          </cell>
+          <cell r="Y157"/>
         </row>
         <row r="158">
           <cell r="A158">
             <v>55900024</v>
           </cell>
-          <cell r="Y158">
-            <v>10</v>
-          </cell>
+          <cell r="Y158"/>
         </row>
         <row r="159">
           <cell r="A159">
             <v>55900025</v>
           </cell>
-          <cell r="Y159">
-            <v>10</v>
-          </cell>
+          <cell r="Y159"/>
         </row>
         <row r="160">
           <cell r="A160">
             <v>55900026</v>
           </cell>
-          <cell r="Y160">
-            <v>20</v>
-          </cell>
+          <cell r="Y160"/>
         </row>
         <row r="161">
           <cell r="A161">
             <v>55900027</v>
           </cell>
-          <cell r="Y161">
-            <v>35</v>
-          </cell>
+          <cell r="Y161"/>
         </row>
         <row r="162">
           <cell r="A162">
@@ -3955,393 +3776,297 @@
           <cell r="A163">
             <v>55900029</v>
           </cell>
-          <cell r="Y163">
-            <v>15</v>
-          </cell>
+          <cell r="Y163"/>
         </row>
         <row r="164">
           <cell r="A164">
             <v>55900030</v>
           </cell>
-          <cell r="Y164">
-            <v>25</v>
-          </cell>
+          <cell r="Y164"/>
         </row>
         <row r="165">
           <cell r="A165">
             <v>55900031</v>
           </cell>
-          <cell r="Y165">
-            <v>5</v>
-          </cell>
+          <cell r="Y165"/>
         </row>
         <row r="166">
           <cell r="A166">
             <v>55900032</v>
           </cell>
-          <cell r="Y166">
-            <v>20</v>
-          </cell>
+          <cell r="Y166"/>
         </row>
         <row r="167">
           <cell r="A167">
             <v>55900033</v>
           </cell>
-          <cell r="Y167">
-            <v>20</v>
-          </cell>
+          <cell r="Y167"/>
         </row>
         <row r="168">
           <cell r="A168">
             <v>55900034</v>
           </cell>
-          <cell r="Y168">
-            <v>14</v>
-          </cell>
+          <cell r="Y168"/>
         </row>
         <row r="169">
           <cell r="A169">
             <v>55900035</v>
           </cell>
-          <cell r="Y169">
-            <v>14</v>
-          </cell>
+          <cell r="Y169"/>
         </row>
         <row r="170">
           <cell r="A170">
             <v>55900036</v>
           </cell>
-          <cell r="Y170">
-            <v>50</v>
-          </cell>
+          <cell r="Y170"/>
         </row>
         <row r="171">
           <cell r="A171">
             <v>55900037</v>
           </cell>
-          <cell r="Y171">
-            <v>35</v>
-          </cell>
+          <cell r="Y171"/>
         </row>
         <row r="172">
           <cell r="A172">
             <v>55900038</v>
           </cell>
-          <cell r="Y172">
-            <v>40</v>
-          </cell>
+          <cell r="Y172"/>
         </row>
         <row r="173">
           <cell r="A173">
             <v>55900039</v>
           </cell>
-          <cell r="Y173">
-            <v>40</v>
+          <cell r="Y173" t="str">
+            <v>coverstar</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
             <v>55900040</v>
           </cell>
-          <cell r="Y174">
-            <v>30</v>
-          </cell>
+          <cell r="Y174"/>
         </row>
         <row r="175">
           <cell r="A175">
             <v>55900041</v>
           </cell>
-          <cell r="Y175">
-            <v>0</v>
-          </cell>
+          <cell r="Y175"/>
         </row>
         <row r="176">
           <cell r="A176">
             <v>55900042</v>
           </cell>
-          <cell r="Y176">
-            <v>25</v>
-          </cell>
+          <cell r="Y176"/>
         </row>
         <row r="177">
           <cell r="A177">
             <v>55900043</v>
           </cell>
-          <cell r="Y177">
-            <v>30</v>
-          </cell>
+          <cell r="Y177"/>
         </row>
         <row r="178">
           <cell r="A178">
             <v>55900044</v>
           </cell>
-          <cell r="Y178">
-            <v>40</v>
-          </cell>
+          <cell r="Y178"/>
         </row>
         <row r="179">
           <cell r="A179">
             <v>55900045</v>
           </cell>
-          <cell r="Y179">
-            <v>25</v>
-          </cell>
+          <cell r="Y179"/>
         </row>
         <row r="180">
           <cell r="A180">
             <v>55900046</v>
           </cell>
-          <cell r="Y180">
-            <v>25</v>
-          </cell>
+          <cell r="Y180"/>
         </row>
         <row r="181">
           <cell r="A181">
             <v>55900047</v>
           </cell>
-          <cell r="Y181">
-            <v>30</v>
-          </cell>
+          <cell r="Y181"/>
         </row>
         <row r="182">
           <cell r="A182">
             <v>55900048</v>
           </cell>
-          <cell r="Y182">
-            <v>80</v>
-          </cell>
+          <cell r="Y182"/>
         </row>
         <row r="183">
           <cell r="A183">
             <v>55900049</v>
           </cell>
-          <cell r="Y183">
-            <v>25</v>
-          </cell>
+          <cell r="Y183"/>
         </row>
         <row r="184">
           <cell r="A184">
             <v>55900050</v>
           </cell>
-          <cell r="Y184">
-            <v>20</v>
-          </cell>
+          <cell r="Y184"/>
         </row>
         <row r="185">
           <cell r="A185">
             <v>55900051</v>
           </cell>
-          <cell r="Y185">
-            <v>25</v>
-          </cell>
+          <cell r="Y185"/>
         </row>
         <row r="186">
           <cell r="A186">
             <v>55900052</v>
           </cell>
-          <cell r="Y186">
-            <v>5</v>
-          </cell>
+          <cell r="Y186"/>
         </row>
         <row r="187">
           <cell r="A187">
             <v>55900053</v>
           </cell>
-          <cell r="Y187">
-            <v>30</v>
-          </cell>
+          <cell r="Y187"/>
         </row>
         <row r="188">
           <cell r="A188">
             <v>55900054</v>
           </cell>
-          <cell r="Y188">
-            <v>15</v>
-          </cell>
+          <cell r="Y188"/>
         </row>
         <row r="189">
           <cell r="A189">
             <v>55900055</v>
           </cell>
-          <cell r="Y189">
-            <v>15</v>
-          </cell>
+          <cell r="Y189"/>
         </row>
         <row r="190">
           <cell r="A190">
             <v>55900056</v>
           </cell>
-          <cell r="Y190">
-            <v>10</v>
-          </cell>
+          <cell r="Y190"/>
         </row>
         <row r="191">
           <cell r="A191">
             <v>55990001</v>
           </cell>
-          <cell r="Y191">
-            <v>10</v>
-          </cell>
+          <cell r="Y191"/>
         </row>
         <row r="192">
           <cell r="A192">
             <v>55990002</v>
           </cell>
-          <cell r="Y192">
-            <v>10</v>
-          </cell>
+          <cell r="Y192"/>
         </row>
         <row r="193">
           <cell r="A193">
             <v>55990003</v>
           </cell>
-          <cell r="Y193">
-            <v>10</v>
-          </cell>
+          <cell r="Y193"/>
         </row>
         <row r="194">
           <cell r="A194">
             <v>55990004</v>
           </cell>
-          <cell r="Y194">
-            <v>10</v>
-          </cell>
+          <cell r="Y194"/>
         </row>
         <row r="195">
           <cell r="A195">
             <v>55990005</v>
           </cell>
-          <cell r="Y195">
-            <v>10</v>
-          </cell>
+          <cell r="Y195"/>
         </row>
         <row r="196">
           <cell r="A196">
             <v>55990006</v>
           </cell>
-          <cell r="Y196">
-            <v>10</v>
-          </cell>
+          <cell r="Y196"/>
         </row>
         <row r="197">
           <cell r="A197">
             <v>55990011</v>
           </cell>
-          <cell r="Y197">
-            <v>10</v>
-          </cell>
+          <cell r="Y197"/>
         </row>
         <row r="198">
           <cell r="A198">
             <v>55990012</v>
           </cell>
-          <cell r="Y198">
-            <v>10</v>
-          </cell>
+          <cell r="Y198"/>
         </row>
         <row r="199">
           <cell r="A199">
             <v>55990013</v>
           </cell>
-          <cell r="Y199">
-            <v>10</v>
-          </cell>
+          <cell r="Y199"/>
         </row>
         <row r="200">
           <cell r="A200">
             <v>55990014</v>
           </cell>
-          <cell r="Y200">
-            <v>10</v>
-          </cell>
+          <cell r="Y200"/>
         </row>
         <row r="201">
           <cell r="A201">
             <v>55990015</v>
           </cell>
-          <cell r="Y201">
-            <v>10</v>
-          </cell>
+          <cell r="Y201"/>
         </row>
         <row r="202">
           <cell r="A202">
             <v>55990016</v>
           </cell>
-          <cell r="Y202">
-            <v>10</v>
-          </cell>
+          <cell r="Y202"/>
         </row>
         <row r="203">
           <cell r="A203">
             <v>55990101</v>
           </cell>
-          <cell r="Y203">
-            <v>8</v>
-          </cell>
+          <cell r="Y203"/>
         </row>
         <row r="204">
           <cell r="A204">
             <v>55990102</v>
           </cell>
-          <cell r="Y204">
-            <v>25</v>
-          </cell>
+          <cell r="Y204"/>
         </row>
         <row r="205">
           <cell r="A205">
             <v>55990103</v>
           </cell>
-          <cell r="Y205">
-            <v>35</v>
-          </cell>
+          <cell r="Y205"/>
         </row>
         <row r="206">
           <cell r="A206">
             <v>55990104</v>
           </cell>
-          <cell r="Y206">
-            <v>50</v>
-          </cell>
+          <cell r="Y206"/>
         </row>
         <row r="207">
           <cell r="A207">
             <v>55990105</v>
           </cell>
-          <cell r="Y207">
-            <v>150</v>
-          </cell>
+          <cell r="Y207"/>
         </row>
         <row r="208">
           <cell r="A208">
             <v>55990106</v>
           </cell>
-          <cell r="Y208">
-            <v>80</v>
-          </cell>
+          <cell r="Y208"/>
         </row>
         <row r="209">
           <cell r="A209">
             <v>55990107</v>
           </cell>
-          <cell r="Y209">
-            <v>50</v>
-          </cell>
+          <cell r="Y209"/>
         </row>
         <row r="210">
           <cell r="A210">
             <v>55990108</v>
           </cell>
-          <cell r="Y210">
-            <v>4</v>
-          </cell>
+          <cell r="Y210"/>
         </row>
         <row r="211">
           <cell r="A211">
             <v>55990109</v>
           </cell>
-          <cell r="Y211">
-            <v>15</v>
-          </cell>
+          <cell r="Y211"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -4351,7 +4076,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Administrator" refreshedDate="42888.618098611114" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Administrator" refreshedDate="42888.618098611114" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
@@ -4676,7 +4401,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField dataField="1" showAll="0"/>
@@ -4753,56 +4478,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:AJ59" totalsRowShown="0">
-  <autoFilter ref="A3:AJ59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A4:AJ38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AK59" totalsRowShown="0">
+  <autoFilter ref="A3:AK59"/>
+  <sortState ref="A4:AK38">
     <sortCondition ref="A3:A38"/>
   </sortState>
-  <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Ename" dataDxfId="34"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Des" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quality" dataDxfId="32">
+  <tableColumns count="37">
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="34" name="Ename" dataDxfId="35"/>
+    <tableColumn id="32" name="Des" dataDxfId="34"/>
+    <tableColumn id="3" name="Quality" dataDxfId="33">
       <calculatedColumnFormula>IF(S4&gt;=23,4,IF(AND(S4&gt;=18,S4&lt;23),3,IF(AND(S4&gt;=13,S4&lt;18),2,IF(AND(S4&gt;=8,S4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Position"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Value" dataDxfId="31">
+    <tableColumn id="5" name="Position"/>
+    <tableColumn id="19" name="Value" dataDxfId="32">
       <calculatedColumnFormula>E4*50+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{15316E99-7CFD-4B6F-A4D5-1F0CAF29B6DA}" name="ComposeStone" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{DC63F603-DB56-43EE-8DE1-0977EDA4C68A}" name="ComposeWood" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="AtkR"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="VitR"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Def" dataDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Mag" dataDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Spd" dataDxfId="28"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Hit" dataDxfId="27"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Dhit" dataDxfId="26"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Crt" dataDxfId="25"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Luk" dataDxfId="24"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Sum" dataDxfId="23">
-      <calculatedColumnFormula>J4+K4+ SUM(L4:R4)*5+AC4+AD4</calculatedColumnFormula>
+    <tableColumn id="35" name="ComposeStone" dataDxfId="31"/>
+    <tableColumn id="36" name="ComposeWood" dataDxfId="30"/>
+    <tableColumn id="11" name="AtkR"/>
+    <tableColumn id="8" name="VitR"/>
+    <tableColumn id="6" name="Def" dataDxfId="29"/>
+    <tableColumn id="22" name="Mag" dataDxfId="28"/>
+    <tableColumn id="27" name="Spd" dataDxfId="27"/>
+    <tableColumn id="26" name="Hit" dataDxfId="26"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="25"/>
+    <tableColumn id="24" name="Crt" dataDxfId="24"/>
+    <tableColumn id="23" name="Luk" dataDxfId="23"/>
+    <tableColumn id="28" name="Sum" dataDxfId="22">
+      <calculatedColumnFormula>J4+K4+ SUM(L4:R4)*5+AD4+AE4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Range" dataDxfId="22"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Arrow" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SlotId" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="EnergyRate" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Durable"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="HeroSkillId"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="MonsterAtk" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="MonsterHp" dataDxfId="17"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="PickMethod" dataDxfId="16"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="~SkillMark2"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="~SkillMark22" dataDxfId="15">
-      <calculatedColumnFormula>IF(ISBLANK(AE4),0, LOOKUP(AE4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF4/100)</calculatedColumnFormula>
+    <tableColumn id="12" name="Range" dataDxfId="21"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="20"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="19"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="18"/>
+    <tableColumn id="37" name="DungeonAttrs" dataDxfId="0"/>
+    <tableColumn id="7" name="Durable"/>
+    <tableColumn id="20" name="HeroSkillId"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="17"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="16"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="15"/>
+    <tableColumn id="21" name="~SkillMark2"/>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="14">
+      <calculatedColumnFormula>IF(ISBLANK(AF4),0, LOOKUP(AF4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CommonSkillId"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CommonSkillRate"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Disable" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="RandomDrop" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="CanMerge" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Url"/>
+    <tableColumn id="13" name="CommonSkillId"/>
+    <tableColumn id="14" name="CommonSkillRate"/>
+    <tableColumn id="15" name="Disable" dataDxfId="13"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="12"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="11"/>
+    <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4816,7 +4542,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5128,11 +4854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5145,20 +4871,20 @@
     <col min="12" max="19" width="4.5" customWidth="1"/>
     <col min="20" max="21" width="5.125" customWidth="1"/>
     <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="8.625" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="8.625" customWidth="1"/>
-    <col min="26" max="27" width="4.875" customWidth="1"/>
-    <col min="28" max="28" width="16.375" customWidth="1"/>
-    <col min="29" max="29" width="8.625" customWidth="1"/>
-    <col min="30" max="30" width="5.875" customWidth="1"/>
-    <col min="31" max="31" width="8.625" customWidth="1"/>
-    <col min="32" max="32" width="5.25" customWidth="1"/>
-    <col min="33" max="35" width="6" customWidth="1"/>
-    <col min="38" max="38" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.625" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="28" width="4.875" customWidth="1"/>
+    <col min="29" max="29" width="16.375" customWidth="1"/>
+    <col min="30" max="30" width="8.625" customWidth="1"/>
+    <col min="31" max="31" width="5.875" customWidth="1"/>
+    <col min="32" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="33" width="5.25" customWidth="1"/>
+    <col min="34" max="36" width="6" customWidth="1"/>
+    <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -5229,46 +4955,49 @@
         <v>45</v>
       </c>
       <c r="X1" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="AF1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5339,46 +5068,49 @@
         <v>48</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="16" t="s">
         <v>83</v>
       </c>
       <c r="AB2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AD2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="AF2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AJ2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5449,46 +5181,49 @@
         <v>29</v>
       </c>
       <c r="X3" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Z3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="AA3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AB3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AC3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AD3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AG3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>21100001</v>
       </c>
@@ -5542,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="23">
-        <f t="shared" ref="S4:S38" si="1">J4+K4+ SUM(L4:R4)*5+AC4+AD4</f>
+        <f t="shared" ref="S4:S38" si="1">J4+K4+ SUM(L4:R4)*5+AD4+AE4</f>
         <v>-5</v>
       </c>
       <c r="T4" s="1"/>
@@ -5553,34 +5288,35 @@
       <c r="W4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1">
         <v>10</v>
       </c>
-      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1">
         <v>-10</v>
       </c>
-      <c r="AD4" s="1">
-        <f>IF(ISBLANK(AE4),0, LOOKUP(AE4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1"/>
+      <c r="AE4" s="1">
+        <f>IF(ISBLANK(AF4),0, LOOKUP(AF4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG4/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>21100002</v>
       </c>
@@ -5645,34 +5381,35 @@
       <c r="W5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1">
         <v>10</v>
       </c>
-      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="27">
-        <f>IF(ISBLANK(AE5),0, LOOKUP(AE5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="27">
+        <f>IF(ISBLANK(AF5),0, LOOKUP(AF5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG5/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="25"/>
       <c r="AI5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>21100003</v>
       </c>
@@ -5737,34 +5474,35 @@
       <c r="W6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
         <v>10</v>
       </c>
-      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="27">
-        <f>IF(ISBLANK(AE6),0, LOOKUP(AE6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="27">
+        <f>IF(ISBLANK(AF6),0, LOOKUP(AF6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG6/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="25"/>
       <c r="AI6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>21100004</v>
       </c>
@@ -5831,34 +5569,35 @@
       <c r="W7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
         <v>10</v>
       </c>
-      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="27">
-        <f>IF(ISBLANK(AE7),0, LOOKUP(AE7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF7/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="27">
+        <f>IF(ISBLANK(AF7),0, LOOKUP(AF7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG7/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="25"/>
       <c r="AI7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>21100005</v>
       </c>
@@ -5923,34 +5662,35 @@
       <c r="W8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
         <v>10</v>
       </c>
-      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="27">
-        <f>IF(ISBLANK(AE8),0, LOOKUP(AE8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF8/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="27">
+        <f>IF(ISBLANK(AF8),0, LOOKUP(AF8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG8/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="25"/>
       <c r="AI8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>21100006</v>
       </c>
@@ -6015,34 +5755,35 @@
       <c r="W9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1">
         <v>10</v>
       </c>
-      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1">
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1">
         <v>10</v>
       </c>
-      <c r="AD9" s="27">
-        <f>IF(ISBLANK(AE9),0, LOOKUP(AE9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF9/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1"/>
+      <c r="AE9" s="27">
+        <f>IF(ISBLANK(AF9),0, LOOKUP(AF9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG9/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="25"/>
       <c r="AI9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>21100007</v>
       </c>
@@ -6109,34 +5850,35 @@
       <c r="W10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1">
         <v>10</v>
       </c>
-      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="27">
-        <f>IF(ISBLANK(AE10),0, LOOKUP(AE10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF10/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="27">
+        <f>IF(ISBLANK(AF10),0, LOOKUP(AF10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG10/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="25"/>
       <c r="AI10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>21100008</v>
       </c>
@@ -6201,34 +5943,35 @@
       <c r="W11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1">
         <v>10</v>
       </c>
-      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="27">
-        <f>IF(ISBLANK(AE11),0, LOOKUP(AE11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF11/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="27">
+        <f>IF(ISBLANK(AF11),0, LOOKUP(AF11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG11/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="25"/>
       <c r="AI11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK11" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>21100009</v>
       </c>
@@ -6293,34 +6036,35 @@
       <c r="W12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1">
         <v>10</v>
       </c>
-      <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="27">
-        <f>IF(ISBLANK(AE12),0, LOOKUP(AE12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF12/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="27">
+        <f>IF(ISBLANK(AF12),0, LOOKUP(AF12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG12/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="25"/>
       <c r="AI12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK12" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>21100010</v>
       </c>
@@ -6385,34 +6129,35 @@
       <c r="W13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1">
         <v>10</v>
       </c>
-      <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1">
         <v>-10</v>
       </c>
-      <c r="AD13" s="27">
-        <f>IF(ISBLANK(AE13),0, LOOKUP(AE13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF13/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1"/>
+      <c r="AE13" s="27">
+        <f>IF(ISBLANK(AF13),0, LOOKUP(AF13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG13/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="25"/>
       <c r="AI13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK13" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>21100011</v>
       </c>
@@ -6477,34 +6222,35 @@
       <c r="W14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
         <v>10</v>
       </c>
-      <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="27">
-        <f>IF(ISBLANK(AE14),0, LOOKUP(AE14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF14/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="27">
+        <f>IF(ISBLANK(AF14),0, LOOKUP(AF14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG14/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="25"/>
       <c r="AI14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK14" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>21100012</v>
       </c>
@@ -6569,34 +6315,35 @@
       <c r="W15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1">
         <v>10</v>
       </c>
-      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="27">
-        <f>IF(ISBLANK(AE15),0, LOOKUP(AE15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF15/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="27">
+        <f>IF(ISBLANK(AF15),0, LOOKUP(AF15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG15/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="25"/>
       <c r="AI15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>21100013</v>
       </c>
@@ -6661,34 +6408,35 @@
       <c r="W16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1">
         <v>10</v>
       </c>
-      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1">
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1">
         <v>-10</v>
       </c>
-      <c r="AD16" s="27">
-        <f>IF(ISBLANK(AE16),0, LOOKUP(AE16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF16/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1"/>
+      <c r="AE16" s="27">
+        <f>IF(ISBLANK(AF16),0, LOOKUP(AF16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG16/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="25"/>
       <c r="AI16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK16" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>21100014</v>
       </c>
@@ -6753,34 +6501,35 @@
       <c r="W17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1">
         <v>10</v>
       </c>
-      <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="27">
-        <f>IF(ISBLANK(AE17),0, LOOKUP(AE17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF17/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="27">
+        <f>IF(ISBLANK(AF17),0, LOOKUP(AF17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG17/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="25"/>
       <c r="AI17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>21100015</v>
       </c>
@@ -6845,34 +6594,35 @@
       <c r="W18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1">
         <v>10</v>
       </c>
-      <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="27">
-        <f>IF(ISBLANK(AE18),0, LOOKUP(AE18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF18/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="27">
+        <f>IF(ISBLANK(AF18),0, LOOKUP(AF18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG18/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="25"/>
       <c r="AI18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK18" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>21200001</v>
       </c>
@@ -6937,38 +6687,39 @@
       <c r="W19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1">
         <v>10</v>
       </c>
-      <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1">
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1">
         <v>20</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>10</v>
       </c>
-      <c r="AD19" s="1">
-        <f>IF(ISBLANK(AE19),0, LOOKUP(AE19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF19/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="1"/>
+      <c r="AE19" s="1">
+        <f>IF(ISBLANK(AF19),0, LOOKUP(AF19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG19/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>21200002</v>
       </c>
@@ -7033,40 +6784,41 @@
       <c r="W20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1">
         <v>10</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1">
-        <v>14</v>
-      </c>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="1">
         <v>14</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>14</v>
       </c>
-      <c r="AD20" s="1">
-        <f>IF(ISBLANK(AE20),0, LOOKUP(AE20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF20/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="1"/>
+      <c r="AE20" s="1">
+        <f>IF(ISBLANK(AF20),0, LOOKUP(AF20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG20/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK20" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>21200003</v>
       </c>
@@ -7131,38 +6883,39 @@
       <c r="W21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
         <v>10</v>
       </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1">
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1">
         <v>25</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>12.5</v>
       </c>
-      <c r="AD21" s="1">
-        <f>IF(ISBLANK(AE21),0, LOOKUP(AE21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF21/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="1"/>
+      <c r="AE21" s="1">
+        <f>IF(ISBLANK(AF21),0, LOOKUP(AF21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG21/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
-      <c r="AH21" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK21" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21200004</v>
       </c>
@@ -7227,40 +6980,41 @@
       <c r="W22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>10</v>
       </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1">
-        <v>14</v>
-      </c>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="1">
         <v>14</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AB22" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC22" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>14</v>
       </c>
-      <c r="AD22" s="1">
-        <f>IF(ISBLANK(AE22),0, LOOKUP(AE22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF22/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="1"/>
+      <c r="AE22" s="1">
+        <f>IF(ISBLANK(AF22),0, LOOKUP(AF22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG22/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH22" s="1"/>
       <c r="AI22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK22" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21200005</v>
       </c>
@@ -7325,38 +7079,39 @@
       <c r="W23" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>10</v>
       </c>
-      <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1">
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1">
         <v>6</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AC23" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <v>6</v>
       </c>
-      <c r="AD23" s="1">
-        <f>IF(ISBLANK(AE23),0, LOOKUP(AE23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF23/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="1"/>
+      <c r="AE23" s="1">
+        <f>IF(ISBLANK(AF23),0, LOOKUP(AF23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG23/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH23" s="1"/>
       <c r="AI23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK23" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21200006</v>
       </c>
@@ -7421,38 +7176,39 @@
       <c r="W24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>10</v>
       </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1">
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1">
         <v>6</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="25" t="s">
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <v>6</v>
       </c>
-      <c r="AD24" s="1">
-        <f>IF(ISBLANK(AE24),0, LOOKUP(AE24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF24/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="1"/>
+      <c r="AE24" s="1">
+        <f>IF(ISBLANK(AF24),0, LOOKUP(AF24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG24/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH24" s="1"/>
       <c r="AI24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK24" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21200007</v>
       </c>
@@ -7517,40 +7273,41 @@
       <c r="W25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>10</v>
       </c>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1">
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1">
         <v>12</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>6</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AC25" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>9</v>
       </c>
-      <c r="AD25" s="1">
-        <f>IF(ISBLANK(AE25),0, LOOKUP(AE25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF25/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="1"/>
+      <c r="AE25" s="1">
+        <f>IF(ISBLANK(AF25),0, LOOKUP(AF25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG25/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH25" s="1"/>
       <c r="AI25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK25" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>21200008</v>
       </c>
@@ -7606,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="23">
-        <f t="shared" ref="S26:S27" si="16">J26+K26+ SUM(L26:R26)*5+AC26+AD26</f>
+        <f t="shared" ref="S26:S27" si="16">J26+K26+ SUM(L26:R26)*5+AD26+AE26</f>
         <v>18</v>
       </c>
       <c r="T26" s="1"/>
@@ -7615,40 +7372,41 @@
       <c r="W26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>10</v>
       </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1">
-        <v>12</v>
-      </c>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="1">
         <v>12</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AB26" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <v>18</v>
       </c>
-      <c r="AD26" s="1">
-        <f>IF(ISBLANK(AE26),0, LOOKUP(AE26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF26/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="1"/>
+      <c r="AE26" s="1">
+        <f>IF(ISBLANK(AF26),0, LOOKUP(AF26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG26/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK26" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>21200009</v>
       </c>
@@ -7713,40 +7471,41 @@
       <c r="W27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>10</v>
       </c>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1">
-        <v>10</v>
-      </c>
+      <c r="Z27" s="1"/>
       <c r="AA27" s="1">
         <v>10</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AB27" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>15</v>
       </c>
-      <c r="AD27" s="1">
-        <f>IF(ISBLANK(AE27),0, LOOKUP(AE27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF27/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="1">
+        <f>IF(ISBLANK(AF27),0, LOOKUP(AF27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG27/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH27" s="1"/>
       <c r="AI27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK27" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21200010</v>
       </c>
@@ -7802,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" ref="S28" si="19">J28+K28+ SUM(L28:R28)*5+AC28+AD28</f>
+        <f t="shared" ref="S28" si="19">J28+K28+ SUM(L28:R28)*5+AD28+AE28</f>
         <v>25</v>
       </c>
       <c r="T28" s="1"/>
@@ -7811,40 +7570,41 @@
       <c r="W28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>10</v>
       </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1">
-        <v>10</v>
-      </c>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="1">
         <v>10</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AB28" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>25</v>
       </c>
-      <c r="AD28" s="1">
-        <f>IF(ISBLANK(AE28),0, LOOKUP(AE28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF28/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="1"/>
+      <c r="AE28" s="1">
+        <f>IF(ISBLANK(AF28),0, LOOKUP(AF28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG28/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH28" s="1"/>
       <c r="AI28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK28" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>21300001</v>
       </c>
@@ -7909,34 +7669,35 @@
       <c r="W29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>10</v>
       </c>
-      <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC29" s="1"/>
       <c r="AD29" s="1">
-        <f>IF(ISBLANK(AE29),0, LOOKUP(AE29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF29/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <f>IF(ISBLANK(AF29),0, LOOKUP(AF29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG29/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH29" s="1"/>
       <c r="AI29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK29" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>21300002</v>
       </c>
@@ -7949,14 +7710,14 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <f t="shared" ref="E30:E31" si="20">IF(S30&gt;=23,4,IF(AND(S30&gt;=18,S30&lt;23),3,IF(AND(S30&gt;=13,S30&lt;18),2,IF(AND(S30&gt;=8,S30&lt;13),1,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H30" s="1">
         <v>100</v>
@@ -7991,7 +7752,7 @@
       </c>
       <c r="S30" s="23">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1" t="s">
@@ -8001,38 +7762,39 @@
       <c r="W30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>10</v>
       </c>
-      <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC30" s="1"/>
       <c r="AD30" s="1">
-        <f>IF(ISBLANK(AE30),0, LOOKUP(AE30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF30/100)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1">
+        <f>IF(ISBLANK(AF30),0, LOOKUP(AF30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG30/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
         <v>55510010</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AG30" s="1">
         <v>60</v>
       </c>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH30" s="1"/>
       <c r="AI30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK30" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>21300003</v>
       </c>
@@ -8099,34 +7861,35 @@
       <c r="W31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>10</v>
       </c>
-      <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC31" s="1"/>
       <c r="AD31" s="1">
-        <f>IF(ISBLANK(AE31),0, LOOKUP(AE31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF31/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>IF(ISBLANK(AF31),0, LOOKUP(AF31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG31/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH31" s="1"/>
       <c r="AI31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>21300004</v>
       </c>
@@ -8139,14 +7902,14 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <f t="shared" ref="E32:E33" si="21">IF(S32&gt;=23,4,IF(AND(S32&gt;=18,S32&lt;23),3,IF(AND(S32&gt;=13,S32&lt;18),2,IF(AND(S32&gt;=8,S32&lt;13),1,0))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H32" s="1">
         <v>50</v>
@@ -8183,7 +7946,7 @@
       </c>
       <c r="S32" s="23">
         <f t="shared" si="1"/>
-        <v>17.3</v>
+        <v>8</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
@@ -8193,38 +7956,39 @@
       <c r="W32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>10</v>
       </c>
-      <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC32" s="1"/>
       <c r="AD32" s="1">
-        <f>IF(ISBLANK(AE32),0, LOOKUP(AE32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF32/100)</f>
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1">
+        <f>IF(ISBLANK(AF32),0, LOOKUP(AF32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG32/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
         <v>55510012</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AG32" s="1">
         <v>15</v>
       </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH32" s="1"/>
       <c r="AI32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK32" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>21300005</v>
       </c>
@@ -8291,34 +8055,35 @@
       <c r="W33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>10</v>
       </c>
-      <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC33" s="1"/>
       <c r="AD33" s="1">
-        <f>IF(ISBLANK(AE33),0, LOOKUP(AE33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF33/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>IF(ISBLANK(AF33),0, LOOKUP(AF33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG33/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH33" s="1"/>
       <c r="AI33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK33" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>21300006</v>
       </c>
@@ -8383,34 +8148,35 @@
       <c r="W34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>10</v>
       </c>
-      <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC34" s="1"/>
       <c r="AD34" s="1">
-        <f>IF(ISBLANK(AE34),0, LOOKUP(AE34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF34/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <f>IF(ISBLANK(AF34),0, LOOKUP(AF34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG34/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
-      <c r="AH34" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH34" s="1"/>
       <c r="AI34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK34" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>21300007</v>
       </c>
@@ -8477,34 +8243,35 @@
       <c r="W35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>10</v>
       </c>
-      <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC35" s="1"/>
       <c r="AD35" s="1">
-        <f>IF(ISBLANK(AE35),0, LOOKUP(AE35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF35/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>IF(ISBLANK(AF35),0, LOOKUP(AF35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG35/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
-      <c r="AH35" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH35" s="1"/>
       <c r="AI35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK35" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>21300008</v>
       </c>
@@ -8569,34 +8336,35 @@
       <c r="W36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>10</v>
       </c>
-      <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC36" s="1"/>
       <c r="AD36" s="1">
-        <f>IF(ISBLANK(AE36),0, LOOKUP(AE36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF36/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>IF(ISBLANK(AF36),0, LOOKUP(AF36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG36/100)</f>
+        <v>0</v>
+      </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH36" s="1"/>
       <c r="AI36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK36" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>21300009</v>
       </c>
@@ -8609,14 +8377,14 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="24"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1">
         <v>70</v>
@@ -8653,7 +8421,7 @@
       </c>
       <c r="S37" s="23">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
@@ -8663,38 +8431,39 @@
       <c r="W37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>10</v>
       </c>
-      <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC37" s="1"/>
       <c r="AD37" s="1">
-        <f>IF(ISBLANK(AE37),0, LOOKUP(AE37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF37/100)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="1">
+        <f>IF(ISBLANK(AF37),0, LOOKUP(AF37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG37/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
         <v>55100007</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AG37" s="1">
         <v>100</v>
       </c>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH37" s="1"/>
       <c r="AI37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK37" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>21400001</v>
       </c>
@@ -8757,28 +8526,29 @@
       <c r="W38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="1"/>
+      <c r="Y38">
         <v>10</v>
       </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
       <c r="AD38">
-        <f>IF(ISBLANK(AE38),0, LOOKUP(AE38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF38/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f>IF(ISBLANK(AF38),0, LOOKUP(AF38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG38/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="11"/>
       <c r="AI38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ38" s="2" t="s">
+      <c r="AJ38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK38" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>21400002</v>
       </c>
@@ -8832,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="23">
-        <f t="shared" ref="S39:S56" si="27">J39+K39+ SUM(L39:R39)*5+AC39+AD39</f>
+        <f t="shared" ref="S39:S56" si="27">J39+K39+ SUM(L39:R39)*5+AD39+AE39</f>
         <v>10</v>
       </c>
       <c r="T39" s="7"/>
@@ -8841,28 +8611,29 @@
       <c r="W39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="1"/>
+      <c r="Y39">
         <v>10</v>
       </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
       <c r="AD39">
-        <f>IF(ISBLANK(AE39),0, LOOKUP(AE39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF39/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f>IF(ISBLANK(AF39),0, LOOKUP(AF39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG39/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="11"/>
       <c r="AI39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AJ39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK39" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>21400003</v>
       </c>
@@ -8875,14 +8646,14 @@
       <c r="D40" s="1"/>
       <c r="E40" s="21">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H40" s="29">
         <v>100</v>
@@ -8917,7 +8688,7 @@
       </c>
       <c r="S40" s="23">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -8925,34 +8696,35 @@
       <c r="W40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="1"/>
+      <c r="Y40">
         <v>10</v>
       </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
       <c r="AD40">
-        <f>IF(ISBLANK(AE40),0, LOOKUP(AE40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF40/100)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE40">
+        <f>IF(ISBLANK(AF40),0, LOOKUP(AF40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG40/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>55110005</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>50</v>
       </c>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH40" s="11"/>
       <c r="AI40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ40" s="2" t="s">
+      <c r="AJ40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK40" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>21400004</v>
       </c>
@@ -9015,28 +8787,29 @@
       <c r="W41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="1"/>
+      <c r="Y41">
         <v>10</v>
       </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
       <c r="AD41">
-        <f>IF(ISBLANK(AE41),0, LOOKUP(AE41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF41/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="11"/>
-      <c r="AH41" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f>IF(ISBLANK(AF41),0, LOOKUP(AF41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG41/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="11"/>
       <c r="AI41" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ41" s="2" t="s">
+      <c r="AJ41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK41" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>21400005</v>
       </c>
@@ -9099,28 +8872,29 @@
       <c r="W42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X42">
+      <c r="X42" s="1"/>
+      <c r="Y42">
         <v>10</v>
       </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
       <c r="AD42">
-        <f>IF(ISBLANK(AE42),0, LOOKUP(AE42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF42/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f>IF(ISBLANK(AF42),0, LOOKUP(AF42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG42/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="11"/>
       <c r="AI42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ42" s="2" t="s">
+      <c r="AJ42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK42" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>21400006</v>
       </c>
@@ -9185,28 +8959,29 @@
       <c r="W43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X43">
+      <c r="X43" s="1"/>
+      <c r="Y43">
         <v>10</v>
       </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
       <c r="AD43">
-        <f>IF(ISBLANK(AE43),0, LOOKUP(AE43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF43/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f>IF(ISBLANK(AF43),0, LOOKUP(AF43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG43/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="11"/>
       <c r="AI43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ43" s="2" t="s">
+      <c r="AJ43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK43" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>21400007</v>
       </c>
@@ -9269,28 +9044,29 @@
       <c r="W44" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X44">
+      <c r="X44" s="1"/>
+      <c r="Y44">
         <v>10</v>
       </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
       <c r="AD44">
-        <f>IF(ISBLANK(AE44),0, LOOKUP(AE44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF44/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f>IF(ISBLANK(AF44),0, LOOKUP(AF44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG44/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="11"/>
       <c r="AI44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ44" s="2" t="s">
+      <c r="AJ44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK44" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>21400008</v>
       </c>
@@ -9353,28 +9129,29 @@
       <c r="W45" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="1"/>
+      <c r="Y45">
         <v>10</v>
       </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
       <c r="AD45">
-        <f>IF(ISBLANK(AE45),0, LOOKUP(AE45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF45/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f>IF(ISBLANK(AF45),0, LOOKUP(AF45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG45/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="11"/>
       <c r="AI45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ45" s="2" t="s">
+      <c r="AJ45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK45" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>21400009</v>
       </c>
@@ -9439,28 +9216,29 @@
       <c r="W46" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X46">
+      <c r="X46" s="1"/>
+      <c r="Y46">
         <v>10</v>
       </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
       <c r="AD46">
-        <f>IF(ISBLANK(AE46),0, LOOKUP(AE46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF46/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f>IF(ISBLANK(AF46),0, LOOKUP(AF46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG46/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="11"/>
       <c r="AI46" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ46" s="2" t="s">
+      <c r="AJ46" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK46" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>21400010</v>
       </c>
@@ -9525,28 +9303,29 @@
       <c r="W47" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="1"/>
+      <c r="Y47">
         <v>10</v>
       </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
       <c r="AD47">
-        <f>IF(ISBLANK(AE47),0, LOOKUP(AE47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF47/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f>IF(ISBLANK(AF47),0, LOOKUP(AF47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG47/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="11"/>
       <c r="AI47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ47" s="2" t="s">
+      <c r="AJ47" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK47" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>21400011</v>
       </c>
@@ -9611,28 +9390,29 @@
       <c r="W48" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X48">
+      <c r="X48" s="1"/>
+      <c r="Y48">
         <v>10</v>
       </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
       <c r="AD48">
-        <f>IF(ISBLANK(AE48),0, LOOKUP(AE48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF48/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f>IF(ISBLANK(AF48),0, LOOKUP(AF48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG48/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="11"/>
       <c r="AI48" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ48" s="2" t="s">
+      <c r="AJ48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK48" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>21500001</v>
       </c>
@@ -9697,28 +9477,29 @@
       <c r="W49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="X49">
+      <c r="X49" s="1"/>
+      <c r="Y49">
         <v>10</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>10</v>
       </c>
-      <c r="AD49">
-        <f>IF(ISBLANK(AE49),0, LOOKUP(AE49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF49/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE49">
+        <f>IF(ISBLANK(AF49),0, LOOKUP(AF49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG49/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="11"/>
       <c r="AI49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ49" s="2" t="s">
+      <c r="AJ49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK49" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>21500002</v>
       </c>
@@ -9781,28 +9562,29 @@
       <c r="W50" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="1"/>
+      <c r="Y50">
         <v>10</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>5</v>
       </c>
-      <c r="AD50">
-        <f>IF(ISBLANK(AE50),0, LOOKUP(AE50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF50/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE50">
+        <f>IF(ISBLANK(AF50),0, LOOKUP(AF50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG50/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="11"/>
       <c r="AI50" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ50" s="2" t="s">
+      <c r="AJ50" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK50" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>21500003</v>
       </c>
@@ -9865,28 +9647,29 @@
       <c r="W51" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="X51">
+      <c r="X51" s="1"/>
+      <c r="Y51">
         <v>10</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>6</v>
       </c>
-      <c r="AD51">
-        <f>IF(ISBLANK(AE51),0, LOOKUP(AE51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF51/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE51">
+        <f>IF(ISBLANK(AF51),0, LOOKUP(AF51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG51/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="11"/>
       <c r="AI51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ51" s="2" t="s">
+      <c r="AJ51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK51" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>21500004</v>
       </c>
@@ -9899,14 +9682,14 @@
       <c r="D52" s="1"/>
       <c r="E52" s="21">
         <f t="shared" ref="E52:E53" si="38">IF(S52&gt;=23,4,IF(AND(S52&gt;=18,S52&lt;23),3,IF(AND(S52&gt;=13,S52&lt;18),2,IF(AND(S52&gt;=8,S52&lt;13),1,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="1">
@@ -9941,7 +9724,7 @@
       </c>
       <c r="S52" s="23">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -9949,34 +9732,35 @@
       <c r="W52" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="X52">
+      <c r="X52" s="1"/>
+      <c r="Y52">
         <v>10</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
       <c r="AD52">
-        <f>IF(ISBLANK(AE52),0, LOOKUP(AE52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF52/100)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE52">
+        <f>IF(ISBLANK(AF52),0, LOOKUP(AF52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG52/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF52">
         <v>55990108</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>100</v>
       </c>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH52" s="11"/>
       <c r="AI52" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ52" s="2" t="s">
+      <c r="AJ52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK52" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>21500005</v>
       </c>
@@ -10039,28 +9823,29 @@
       <c r="W53" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="1"/>
+      <c r="Y53">
         <v>10</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>10</v>
       </c>
-      <c r="AD53">
-        <f>IF(ISBLANK(AE53),0, LOOKUP(AE53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF53/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE53">
+        <f>IF(ISBLANK(AF53),0, LOOKUP(AF53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG53/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="11"/>
       <c r="AI53" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ53" s="2" t="s">
+      <c r="AJ53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK53" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>21500006</v>
       </c>
@@ -10073,14 +9858,14 @@
       <c r="D54" s="1"/>
       <c r="E54" s="21">
         <f t="shared" ref="E54:E55" si="39">IF(S54&gt;=23,4,IF(AND(S54&gt;=18,S54&lt;23),3,IF(AND(S54&gt;=13,S54&lt;18),2,IF(AND(S54&gt;=8,S54&lt;13),1,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="1">
@@ -10115,7 +9900,7 @@
       </c>
       <c r="S54" s="23">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
@@ -10123,34 +9908,35 @@
       <c r="W54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="1"/>
+      <c r="Y54">
         <v>10</v>
       </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
       <c r="AD54">
-        <f>IF(ISBLANK(AE54),0, LOOKUP(AE54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF54/100)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE54">
+        <f>IF(ISBLANK(AF54),0, LOOKUP(AF54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG54/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF54">
         <v>55990109</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>100</v>
       </c>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH54" s="11"/>
       <c r="AI54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ54" s="2" t="s">
+      <c r="AJ54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK54" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>21500007</v>
       </c>
@@ -10213,28 +9999,29 @@
       <c r="W55" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="1"/>
+      <c r="Y55">
         <v>10</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>8</v>
       </c>
-      <c r="AD55">
-        <f>IF(ISBLANK(AE55),0, LOOKUP(AE55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF55/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE55">
+        <f>IF(ISBLANK(AF55),0, LOOKUP(AF55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG55/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="11"/>
       <c r="AI55" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ55" s="2" t="s">
+      <c r="AJ55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK55" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>21500008</v>
       </c>
@@ -10247,14 +10034,14 @@
       <c r="D56" s="1"/>
       <c r="E56" s="21">
         <f t="shared" ref="E56:E57" si="41">IF(S56&gt;=23,4,IF(AND(S56&gt;=18,S56&lt;23),3,IF(AND(S56&gt;=13,S56&lt;18),2,IF(AND(S56&gt;=8,S56&lt;13),1,0))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
         <v>5</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="40"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="1">
@@ -10289,7 +10076,7 @@
       </c>
       <c r="S56" s="23">
         <f t="shared" si="27"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -10297,34 +10084,35 @@
       <c r="W56" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="X56">
+      <c r="X56" s="1"/>
+      <c r="Y56">
         <v>10</v>
       </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
       <c r="AD56">
-        <f>IF(ISBLANK(AE56),0, LOOKUP(AE56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF56/100)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE56">
+        <f>IF(ISBLANK(AF56),0, LOOKUP(AF56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG56/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF56">
         <v>55110003</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>40</v>
       </c>
-      <c r="AG56" s="11"/>
-      <c r="AH56" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH56" s="11"/>
       <c r="AI56" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ56" s="2" t="s">
+      <c r="AJ56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK56" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>21500009</v>
       </c>
@@ -10378,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="23">
-        <f t="shared" ref="S57" si="43">J57+K57+ SUM(L57:R57)*5+AC57+AD57</f>
+        <f t="shared" ref="S57" si="43">J57+K57+ SUM(L57:R57)*5+AD57+AE57</f>
         <v>10</v>
       </c>
       <c r="T57" s="7"/>
@@ -10387,31 +10175,32 @@
       <c r="W57" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="X57">
+      <c r="X57" s="1"/>
+      <c r="Y57">
         <v>10</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>31100001</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>10</v>
       </c>
-      <c r="AD57">
-        <f>IF(ISBLANK(AE57),0, LOOKUP(AE57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF57/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE57">
+        <f>IF(ISBLANK(AF57),0, LOOKUP(AF57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG57/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="11"/>
       <c r="AI57" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ57" s="2" t="s">
+      <c r="AJ57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK57" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>21500010</v>
       </c>
@@ -10465,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="23">
-        <f t="shared" ref="S58" si="45">J58+K58+ SUM(L58:R58)*5+AC58+AD58</f>
+        <f t="shared" ref="S58" si="45">J58+K58+ SUM(L58:R58)*5+AD58+AE58</f>
         <v>15</v>
       </c>
       <c r="T58" s="7"/>
@@ -10474,31 +10263,32 @@
       <c r="W58" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="1"/>
+      <c r="Y58">
         <v>10</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>31100002</v>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>15</v>
       </c>
-      <c r="AD58">
-        <f>IF(ISBLANK(AE58),0, LOOKUP(AE58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF58/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE58">
+        <f>IF(ISBLANK(AF58),0, LOOKUP(AF58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG58/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="11"/>
       <c r="AI58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ58" s="2" t="s">
+      <c r="AJ58" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK58" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>21500011</v>
       </c>
@@ -10552,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="23">
-        <f t="shared" ref="S59" si="47">J59+K59+ SUM(L59:R59)*5+AC59+AD59</f>
+        <f t="shared" ref="S59" si="47">J59+K59+ SUM(L59:R59)*5+AD59+AE59</f>
         <v>25</v>
       </c>
       <c r="T59" s="7"/>
@@ -10561,63 +10351,64 @@
       <c r="W59" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="1"/>
+      <c r="Y59">
         <v>10</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>31100003</v>
       </c>
-      <c r="AC59">
+      <c r="AD59">
         <v>25</v>
       </c>
-      <c r="AD59">
-        <f>IF(ISBLANK(AE59),0, LOOKUP(AE59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AF59/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE59">
+        <f>IF(ISBLANK(AF59),0, LOOKUP(AF59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG59/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="11"/>
       <c r="AI59" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ59" s="2" t="s">
+      <c r="AJ59" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK59" s="2" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E4:E24 E26 E28:E59">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 E27">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10631,7 +10422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="317">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1178,6 +1178,22 @@
   </si>
   <si>
     <t>DungeonAttrs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1;0;2;0;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;-1;0;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0;2;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;1;0;0;0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1957,9 +1973,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1968,9 +1981,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1981,26 +1991,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2036,6 +2037,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,82 +2105,6 @@
   <dxfs count="36">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2650,6 +2593,82 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4486,48 +4505,48 @@
   <tableColumns count="37">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="34" name="Ename" dataDxfId="35"/>
-    <tableColumn id="32" name="Des" dataDxfId="34"/>
-    <tableColumn id="3" name="Quality" dataDxfId="33">
+    <tableColumn id="34" name="Ename" dataDxfId="25"/>
+    <tableColumn id="32" name="Des" dataDxfId="24"/>
+    <tableColumn id="3" name="Quality" dataDxfId="23">
       <calculatedColumnFormula>IF(S4&gt;=23,4,IF(AND(S4&gt;=18,S4&lt;23),3,IF(AND(S4&gt;=13,S4&lt;18),2,IF(AND(S4&gt;=8,S4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="32">
+    <tableColumn id="19" name="Value" dataDxfId="22">
       <calculatedColumnFormula>E4*50+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="ComposeStone" dataDxfId="31"/>
-    <tableColumn id="36" name="ComposeWood" dataDxfId="30"/>
+    <tableColumn id="35" name="ComposeStone" dataDxfId="21"/>
+    <tableColumn id="36" name="ComposeWood" dataDxfId="20"/>
     <tableColumn id="11" name="AtkR"/>
     <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="29"/>
-    <tableColumn id="22" name="Mag" dataDxfId="28"/>
-    <tableColumn id="27" name="Spd" dataDxfId="27"/>
-    <tableColumn id="26" name="Hit" dataDxfId="26"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="25"/>
-    <tableColumn id="24" name="Crt" dataDxfId="24"/>
-    <tableColumn id="23" name="Luk" dataDxfId="23"/>
-    <tableColumn id="28" name="Sum" dataDxfId="22">
+    <tableColumn id="6" name="Def" dataDxfId="19"/>
+    <tableColumn id="22" name="Mag" dataDxfId="18"/>
+    <tableColumn id="27" name="Spd" dataDxfId="17"/>
+    <tableColumn id="26" name="Hit" dataDxfId="16"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="15"/>
+    <tableColumn id="24" name="Crt" dataDxfId="14"/>
+    <tableColumn id="23" name="Luk" dataDxfId="13"/>
+    <tableColumn id="28" name="Sum" dataDxfId="12">
       <calculatedColumnFormula>J4+K4+ SUM(L4:R4)*5+AD4+AE4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="21"/>
-    <tableColumn id="33" name="Arrow" dataDxfId="20"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="19"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="18"/>
+    <tableColumn id="12" name="Range" dataDxfId="11"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="10"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="9"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="8"/>
     <tableColumn id="37" name="DungeonAttrs" dataDxfId="0"/>
     <tableColumn id="7" name="Durable"/>
     <tableColumn id="20" name="HeroSkillId"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="17"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="16"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="15"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="7"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="6"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="5"/>
     <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="14">
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(AF4),0, LOOKUP(AF4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG4/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="CommonSkillId"/>
     <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="13"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="12"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="11"/>
+    <tableColumn id="15" name="Disable" dataDxfId="3"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="2"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="1"/>
     <tableColumn id="10" name="Url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4857,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4885,115 +4904,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5025,76 +5044,76 @@
       <c r="I2" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="13" t="s">
+      <c r="N2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="16" t="s">
+      <c r="T2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="Y2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="16" t="s">
+      <c r="Y2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="AH2" s="3" t="s">
@@ -5138,76 +5157,76 @@
       <c r="I3" t="s">
         <v>308</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AH3" t="s">
@@ -5255,28 +5274,28 @@
       <c r="K4" s="1">
         <v>5</v>
       </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23">
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
         <f t="shared" ref="S4:S38" si="1">J4+K4+ SUM(L4:R4)*5+AD4+AE4</f>
         <v>-5</v>
       </c>
@@ -5348,34 +5367,34 @@
       <c r="K5" s="1">
         <v>10</v>
       </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23">
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24" t="s">
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19" t="s">
         <v>95</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -5392,13 +5411,13 @@
       <c r="AD5" s="1">
         <v>0</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="22">
         <f>IF(ISBLANK(AF5),0, LOOKUP(AF5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG5/100)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="25"/>
+      <c r="AH5" s="20"/>
       <c r="AI5" s="1" t="s">
         <v>33</v>
       </c>
@@ -5441,34 +5460,34 @@
       <c r="K6" s="1">
         <v>14</v>
       </c>
-      <c r="L6" s="28">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="26">
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24" t="s">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19" t="s">
         <v>98</v>
       </c>
       <c r="W6" s="1" t="s">
@@ -5485,13 +5504,13 @@
       <c r="AD6" s="1">
         <v>0</v>
       </c>
-      <c r="AE6" s="27">
+      <c r="AE6" s="22">
         <f>IF(ISBLANK(AF6),0, LOOKUP(AF6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG6/100)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="25"/>
+      <c r="AH6" s="20"/>
       <c r="AI6" s="1" t="s">
         <v>33</v>
       </c>
@@ -5536,34 +5555,34 @@
       <c r="K7" s="1">
         <v>9</v>
       </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="23">
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24" t="s">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19" t="s">
         <v>102</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -5580,13 +5599,13 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AE7" s="22">
         <f>IF(ISBLANK(AF7),0, LOOKUP(AF7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG7/100)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="25"/>
+      <c r="AH7" s="20"/>
       <c r="AI7" s="1" t="s">
         <v>33</v>
       </c>
@@ -5629,34 +5648,34 @@
       <c r="K8" s="1">
         <v>8</v>
       </c>
-      <c r="L8" s="28">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>1</v>
       </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="26">
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24" t="s">
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19" t="s">
         <v>105</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -5673,13 +5692,13 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AE8" s="22">
         <f>IF(ISBLANK(AF8),0, LOOKUP(AF8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG8/100)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="25"/>
+      <c r="AH8" s="20"/>
       <c r="AI8" s="1" t="s">
         <v>33</v>
       </c>
@@ -5722,34 +5741,34 @@
       <c r="K9" s="1">
         <v>10</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="17">
         <v>1</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="23">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24" t="s">
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19" t="s">
         <v>108</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -5766,13 +5785,13 @@
       <c r="AD9" s="1">
         <v>10</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="AE9" s="22">
         <f>IF(ISBLANK(AF9),0, LOOKUP(AF9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG9/100)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="25"/>
+      <c r="AH9" s="20"/>
       <c r="AI9" s="1" t="s">
         <v>33</v>
       </c>
@@ -5817,34 +5836,34 @@
       <c r="K10" s="1">
         <v>9</v>
       </c>
-      <c r="L10" s="28">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="L10" s="23">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
         <v>1</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="26">
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24" t="s">
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19" t="s">
         <v>95</v>
       </c>
       <c r="W10" s="1" t="s">
@@ -5861,13 +5880,13 @@
       <c r="AD10" s="1">
         <v>0</v>
       </c>
-      <c r="AE10" s="27">
+      <c r="AE10" s="22">
         <f>IF(ISBLANK(AF10),0, LOOKUP(AF10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG10/100)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="25"/>
+      <c r="AH10" s="20"/>
       <c r="AI10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5910,34 +5929,34 @@
       <c r="K11" s="1">
         <v>15</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="17">
         <v>2</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="23">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24" t="s">
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19" t="s">
         <v>178</v>
       </c>
       <c r="W11" s="1" t="s">
@@ -5954,13 +5973,13 @@
       <c r="AD11" s="1">
         <v>0</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AE11" s="22">
         <f>IF(ISBLANK(AF11),0, LOOKUP(AF11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG11/100)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="25"/>
+      <c r="AH11" s="20"/>
       <c r="AI11" s="1" t="s">
         <v>33</v>
       </c>
@@ -6003,34 +6022,34 @@
       <c r="K12" s="1">
         <v>15</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="23">
         <v>1</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="26">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24" t="s">
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19" t="s">
         <v>182</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -6047,13 +6066,13 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="AE12" s="22">
         <f>IF(ISBLANK(AF12),0, LOOKUP(AF12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG12/100)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="25"/>
+      <c r="AH12" s="20"/>
       <c r="AI12" s="1" t="s">
         <v>33</v>
       </c>
@@ -6096,34 +6115,34 @@
       <c r="K13" s="1">
         <v>6</v>
       </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>1</v>
       </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="23">
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24" t="s">
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19" t="s">
         <v>185</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -6140,13 +6159,13 @@
       <c r="AD13" s="1">
         <v>-10</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AE13" s="22">
         <f>IF(ISBLANK(AF13),0, LOOKUP(AF13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG13/100)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="25"/>
+      <c r="AH13" s="20"/>
       <c r="AI13" s="1" t="s">
         <v>33</v>
       </c>
@@ -6189,34 +6208,34 @@
       <c r="K14" s="1">
         <v>5</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="23">
         <v>3</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="26">
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24" t="s">
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19" t="s">
         <v>188</v>
       </c>
       <c r="W14" s="1" t="s">
@@ -6233,13 +6252,13 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-      <c r="AE14" s="27">
+      <c r="AE14" s="22">
         <f>IF(ISBLANK(AF14),0, LOOKUP(AF14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG14/100)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="25"/>
+      <c r="AH14" s="20"/>
       <c r="AI14" s="1" t="s">
         <v>33</v>
       </c>
@@ -6282,34 +6301,34 @@
       <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
         <v>4</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="23">
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24" t="s">
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19" t="s">
         <v>200</v>
       </c>
       <c r="W15" s="1" t="s">
@@ -6326,13 +6345,13 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AE15" s="22">
         <f>IF(ISBLANK(AF15),0, LOOKUP(AF15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG15/100)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="25"/>
+      <c r="AH15" s="20"/>
       <c r="AI15" s="1" t="s">
         <v>33</v>
       </c>
@@ -6375,34 +6394,34 @@
       <c r="K16" s="1">
         <v>5</v>
       </c>
-      <c r="L16" s="28">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="L16" s="23">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
         <v>4</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24" t="s">
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19" t="s">
         <v>204</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -6419,13 +6438,13 @@
       <c r="AD16" s="1">
         <v>-10</v>
       </c>
-      <c r="AE16" s="27">
+      <c r="AE16" s="22">
         <f>IF(ISBLANK(AF16),0, LOOKUP(AF16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG16/100)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="25"/>
+      <c r="AH16" s="20"/>
       <c r="AI16" s="1" t="s">
         <v>33</v>
       </c>
@@ -6468,34 +6487,34 @@
       <c r="K17" s="1">
         <v>7</v>
       </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
         <v>1</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="23">
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24" t="s">
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19" t="s">
         <v>207</v>
       </c>
       <c r="W17" s="1" t="s">
@@ -6512,13 +6531,13 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AE17" s="22">
         <f>IF(ISBLANK(AF17),0, LOOKUP(AF17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG17/100)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="25"/>
+      <c r="AH17" s="20"/>
       <c r="AI17" s="1" t="s">
         <v>33</v>
       </c>
@@ -6561,34 +6580,34 @@
       <c r="K18" s="1">
         <v>11</v>
       </c>
-      <c r="L18" s="28">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-      <c r="S18" s="26">
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24" t="s">
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19" t="s">
         <v>210</v>
       </c>
       <c r="W18" s="1" t="s">
@@ -6605,13 +6624,13 @@
       <c r="AD18" s="1">
         <v>0</v>
       </c>
-      <c r="AE18" s="27">
+      <c r="AE18" s="22">
         <f>IF(ISBLANK(AF18),0, LOOKUP(AF18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG18/100)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="25"/>
+      <c r="AH18" s="20"/>
       <c r="AI18" s="1" t="s">
         <v>33</v>
       </c>
@@ -6649,35 +6668,35 @@
       <c r="H19" s="1">
         <v>100</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="L19" s="22">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="23">
+      <c r="L19" s="17">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -6746,35 +6765,35 @@
       <c r="H20" s="1">
         <v>100</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="1">
         <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-      <c r="S20" s="23">
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -6845,35 +6864,35 @@
       <c r="H21" s="1">
         <v>100</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="1">
         <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-      <c r="S21" s="23">
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="18">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
@@ -6942,35 +6961,35 @@
       <c r="H22" s="1">
         <v>100</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="1">
         <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-      <c r="S22" s="23">
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -7041,35 +7060,35 @@
       <c r="H23" s="1">
         <v>100</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-      <c r="S23" s="23">
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -7088,7 +7107,7 @@
       <c r="AB23" s="1">
         <v>6</v>
       </c>
-      <c r="AC23" s="25" t="s">
+      <c r="AC23" s="20" t="s">
         <v>231</v>
       </c>
       <c r="AD23" s="1">
@@ -7138,35 +7157,35 @@
       <c r="H24" s="1">
         <v>100</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="23">
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -7185,7 +7204,7 @@
         <v>6</v>
       </c>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="25" t="s">
+      <c r="AC24" s="20" t="s">
         <v>231</v>
       </c>
       <c r="AD24" s="1">
@@ -7235,35 +7254,35 @@
       <c r="H25" s="1">
         <v>100</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-      <c r="S25" s="23">
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -7334,35 +7353,35 @@
       <c r="H26" s="1">
         <v>100</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="1">
         <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
-      <c r="L26" s="22">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="23">
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="18">
         <f t="shared" ref="S26:S27" si="16">J26+K26+ SUM(L26:R26)*5+AD26+AE26</f>
         <v>18</v>
       </c>
@@ -7433,35 +7452,35 @@
       <c r="H27" s="1">
         <v>100</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="L27" s="22">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-      <c r="S27" s="23">
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="18">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
@@ -7532,35 +7551,35 @@
       <c r="H28" s="1">
         <v>100</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="1">
         <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="22">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0</v>
-      </c>
-      <c r="S28" s="23">
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="18">
         <f t="shared" ref="S28" si="19">J28+K28+ SUM(L28:R28)*5+AD28+AE28</f>
         <v>25</v>
       </c>
@@ -7636,28 +7655,28 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
-      <c r="L29" s="22">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="23">
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -7729,28 +7748,28 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-      <c r="S30" s="23">
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -7828,28 +7847,28 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
-      <c r="L31" s="22">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
         <v>2</v>
       </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-      <c r="S31" s="23">
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -7923,28 +7942,28 @@
       <c r="K32" s="1">
         <v>0</v>
       </c>
-      <c r="L32" s="22">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-      <c r="S32" s="23">
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -8022,28 +8041,28 @@
       <c r="K33" s="1">
         <v>0</v>
       </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-      <c r="S33" s="23">
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8115,28 +8134,28 @@
       <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="L34" s="22">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-      <c r="S34" s="23">
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8210,28 +8229,28 @@
       <c r="K35" s="1">
         <v>0</v>
       </c>
-      <c r="L35" s="22">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
         <v>5</v>
       </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-      <c r="S35" s="23">
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
+      </c>
+      <c r="S35" s="18">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -8303,28 +8322,28 @@
       <c r="K36" s="1">
         <v>0</v>
       </c>
-      <c r="L36" s="22">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-      <c r="S36" s="23">
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0</v>
+      </c>
+      <c r="S36" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8398,28 +8417,28 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
-      <c r="L37" s="22">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
         <v>-4</v>
       </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0</v>
-      </c>
-      <c r="R37" s="7">
-        <v>0</v>
-      </c>
-      <c r="S37" s="23">
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0</v>
+      </c>
+      <c r="S37" s="18">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
@@ -8474,7 +8493,7 @@
         <v>282</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="21">
+      <c r="E38" s="16">
         <f t="shared" ref="E38" si="25">IF(S38&gt;=23,4,IF(AND(S38&gt;=18,S38&lt;23),3,IF(AND(S38&gt;=13,S38&lt;18),2,IF(AND(S38&gt;=8,S38&lt;13),1,0))))</f>
         <v>0</v>
       </c>
@@ -8485,45 +8504,45 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="24">
         <v>100</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0</v>
-      </c>
-      <c r="L38" s="22">
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
         <v>1</v>
       </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7">
-        <v>0</v>
-      </c>
-      <c r="S38" s="23">
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0</v>
+      </c>
+      <c r="S38" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="11" t="s">
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="X38" s="1"/>
@@ -8537,11 +8556,11 @@
         <f>IF(ISBLANK(AF38),0, LOOKUP(AF38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG38/100)</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ38" s="11" t="s">
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ38" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK38" s="2" t="s">
@@ -8559,7 +8578,7 @@
         <v>283</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="21">
+      <c r="E39" s="16">
         <f t="shared" ref="E39:E40" si="26">IF(S39&gt;=23,4,IF(AND(S39&gt;=18,S39&lt;23),3,IF(AND(S39&gt;=13,S39&lt;18),2,IF(AND(S39&gt;=8,S39&lt;13),1,0))))</f>
         <v>1</v>
       </c>
@@ -8570,45 +8589,45 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H39" s="29"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="1">
         <v>100</v>
       </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0</v>
-      </c>
-      <c r="L39" s="22">
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
         <v>2</v>
       </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-      <c r="S39" s="23">
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0</v>
+      </c>
+      <c r="S39" s="18">
         <f t="shared" ref="S39:S56" si="27">J39+K39+ SUM(L39:R39)*5+AD39+AE39</f>
         <v>10</v>
       </c>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="11" t="s">
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="9" t="s">
         <v>17</v>
       </c>
       <c r="X39" s="1"/>
@@ -8622,11 +8641,11 @@
         <f>IF(ISBLANK(AF39),0, LOOKUP(AF39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG39/100)</f>
         <v>0</v>
       </c>
-      <c r="AH39" s="11"/>
-      <c r="AI39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ39" s="11" t="s">
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ39" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK39" s="2" t="s">
@@ -8644,7 +8663,7 @@
         <v>284</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="21">
+      <c r="E40" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -8655,45 +8674,45 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="24">
         <v>100</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0</v>
-      </c>
-      <c r="L40" s="22">
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
         <v>1</v>
       </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="23">
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0</v>
+      </c>
+      <c r="S40" s="18">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="11" t="s">
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X40" s="1"/>
@@ -8713,11 +8732,11 @@
       <c r="AG40">
         <v>50</v>
       </c>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ40" s="11" t="s">
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK40" s="2" t="s">
@@ -8735,7 +8754,7 @@
         <v>285</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="21">
+      <c r="E41" s="16">
         <f t="shared" ref="E41:E42" si="28">IF(S41&gt;=23,4,IF(AND(S41&gt;=18,S41&lt;23),3,IF(AND(S41&gt;=13,S41&lt;18),2,IF(AND(S41&gt;=8,S41&lt;13),1,0))))</f>
         <v>3</v>
       </c>
@@ -8746,45 +8765,45 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H41" s="29"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="1">
         <v>100</v>
       </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>0</v>
-      </c>
-      <c r="L41" s="22">
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
         <v>4</v>
       </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-      <c r="S41" s="23">
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0</v>
+      </c>
+      <c r="S41" s="18">
         <f t="shared" si="27"/>
         <v>20</v>
       </c>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="11" t="s">
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X41" s="1"/>
@@ -8798,11 +8817,11 @@
         <f>IF(ISBLANK(AF41),0, LOOKUP(AF41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG41/100)</f>
         <v>0</v>
       </c>
-      <c r="AH41" s="11"/>
-      <c r="AI41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ41" s="11" t="s">
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ41" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK41" s="2" t="s">
@@ -8820,7 +8839,7 @@
         <v>286</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="21">
+      <c r="E42" s="16">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
@@ -8831,45 +8850,45 @@
         <f t="shared" ref="G42:G43" si="29">E42*50+50</f>
         <v>100</v>
       </c>
-      <c r="H42" s="29"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1">
         <v>100</v>
       </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
         <v>3</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="17">
         <v>1</v>
       </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-      <c r="S42" s="23">
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0</v>
+      </c>
+      <c r="R42" s="6">
+        <v>0</v>
+      </c>
+      <c r="S42" s="18">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="11" t="s">
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X42" s="1"/>
@@ -8883,11 +8902,11 @@
         <f>IF(ISBLANK(AF42),0, LOOKUP(AF42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG42/100)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="11"/>
-      <c r="AI42" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ42" s="11" t="s">
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ42" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK42" s="2" t="s">
@@ -8905,7 +8924,7 @@
         <v>287</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="21">
+      <c r="E43" s="16">
         <f t="shared" ref="E43:E44" si="30">IF(S43&gt;=23,4,IF(AND(S43&gt;=18,S43&lt;23),3,IF(AND(S43&gt;=13,S43&lt;18),2,IF(AND(S43&gt;=8,S43&lt;13),1,0))))</f>
         <v>2</v>
       </c>
@@ -8916,47 +8935,47 @@
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="24">
         <v>50</v>
       </c>
       <c r="I43" s="1">
         <v>50</v>
       </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
         <v>4</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="17">
         <v>2</v>
       </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-      <c r="S43" s="23">
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
+      <c r="S43" s="18">
         <f t="shared" si="27"/>
         <v>14</v>
       </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="11" t="s">
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X43" s="1"/>
@@ -8970,11 +8989,11 @@
         <f>IF(ISBLANK(AF43),0, LOOKUP(AF43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG43/100)</f>
         <v>0</v>
       </c>
-      <c r="AH43" s="11"/>
-      <c r="AI43" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ43" s="11" t="s">
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ43" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK43" s="2" t="s">
@@ -8992,7 +9011,7 @@
         <v>288</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="21">
+      <c r="E44" s="16">
         <f t="shared" si="30"/>
         <v>3</v>
       </c>
@@ -9003,45 +9022,45 @@
         <f t="shared" ref="G44:G45" si="31">E44*50+50</f>
         <v>200</v>
       </c>
-      <c r="H44" s="29"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="1">
         <v>100</v>
       </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0</v>
-      </c>
-      <c r="L44" s="22">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7">
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="6">
         <v>4</v>
       </c>
-      <c r="Q44" s="7">
-        <v>0</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-      <c r="S44" s="23">
+      <c r="Q44" s="6">
+        <v>0</v>
+      </c>
+      <c r="R44" s="6">
+        <v>0</v>
+      </c>
+      <c r="S44" s="18">
         <f t="shared" si="27"/>
         <v>20</v>
       </c>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="11" t="s">
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X44" s="1"/>
@@ -9055,11 +9074,11 @@
         <f>IF(ISBLANK(AF44),0, LOOKUP(AF44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG44/100)</f>
         <v>0</v>
       </c>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ44" s="11" t="s">
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ44" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK44" s="2" t="s">
@@ -9077,7 +9096,7 @@
         <v>289</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="21">
+      <c r="E45" s="16">
         <f t="shared" ref="E45:E46" si="32">IF(S45&gt;=23,4,IF(AND(S45&gt;=18,S45&lt;23),3,IF(AND(S45&gt;=13,S45&lt;18),2,IF(AND(S45&gt;=8,S45&lt;13),1,0))))</f>
         <v>0</v>
       </c>
@@ -9088,45 +9107,45 @@
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="24">
         <v>100</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0</v>
-      </c>
-      <c r="L45" s="22">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
-        <v>0</v>
-      </c>
-      <c r="S45" s="23">
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0</v>
+      </c>
+      <c r="R45" s="6">
+        <v>0</v>
+      </c>
+      <c r="S45" s="18">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="11" t="s">
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X45" s="1"/>
@@ -9140,11 +9159,11 @@
         <f>IF(ISBLANK(AF45),0, LOOKUP(AF45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG45/100)</f>
         <v>0</v>
       </c>
-      <c r="AH45" s="11"/>
-      <c r="AI45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ45" s="11" t="s">
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ45" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK45" s="2" t="s">
@@ -9162,7 +9181,7 @@
         <v>290</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="21">
+      <c r="E46" s="16">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
@@ -9173,47 +9192,47 @@
         <f t="shared" ref="G46:G47" si="33">E46*50+50</f>
         <v>150</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="24">
         <v>50</v>
       </c>
       <c r="I46" s="1">
         <v>50</v>
       </c>
-      <c r="J46" s="7">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
         <v>3</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="17">
         <v>2</v>
       </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>0</v>
-      </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-      <c r="S46" s="23">
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0</v>
+      </c>
+      <c r="R46" s="6">
+        <v>0</v>
+      </c>
+      <c r="S46" s="18">
         <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="11" t="s">
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X46" s="1"/>
@@ -9227,11 +9246,11 @@
         <f>IF(ISBLANK(AF46),0, LOOKUP(AF46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG46/100)</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ46" s="11" t="s">
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ46" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK46" s="2" t="s">
@@ -9249,7 +9268,7 @@
         <v>291</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="21">
+      <c r="E47" s="16">
         <f t="shared" ref="E47:E48" si="34">IF(S47&gt;=23,4,IF(AND(S47&gt;=18,S47&lt;23),3,IF(AND(S47&gt;=13,S47&lt;18),2,IF(AND(S47&gt;=8,S47&lt;13),1,0))))</f>
         <v>2</v>
       </c>
@@ -9260,47 +9279,47 @@
         <f t="shared" si="33"/>
         <v>150</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="24">
         <v>50</v>
       </c>
       <c r="I47" s="1">
         <v>50</v>
       </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7">
-        <v>0</v>
-      </c>
-      <c r="L47" s="22">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7">
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
         <v>3</v>
       </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>0</v>
-      </c>
-      <c r="R47" s="7">
-        <v>0</v>
-      </c>
-      <c r="S47" s="23">
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>0</v>
+      </c>
+      <c r="R47" s="6">
+        <v>0</v>
+      </c>
+      <c r="S47" s="18">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="11" t="s">
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X47" s="1"/>
@@ -9314,11 +9333,11 @@
         <f>IF(ISBLANK(AF47),0, LOOKUP(AF47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG47/100)</f>
         <v>0</v>
       </c>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ47" s="11" t="s">
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ47" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK47" s="2" t="s">
@@ -9336,7 +9355,7 @@
         <v>292</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="21">
+      <c r="E48" s="16">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
@@ -9347,47 +9366,47 @@
         <f t="shared" ref="G48" si="35">E48*50+50</f>
         <v>250</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="24">
         <v>50</v>
       </c>
       <c r="I48" s="1">
         <v>50</v>
       </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7">
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
         <v>5</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="17">
         <v>3</v>
       </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0</v>
-      </c>
-      <c r="P48" s="7">
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
         <v>2</v>
       </c>
-      <c r="Q48" s="7">
-        <v>0</v>
-      </c>
-      <c r="R48" s="7">
-        <v>0</v>
-      </c>
-      <c r="S48" s="23">
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+      <c r="R48" s="6">
+        <v>0</v>
+      </c>
+      <c r="S48" s="18">
         <f t="shared" si="27"/>
         <v>30</v>
       </c>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="11" t="s">
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X48" s="1"/>
@@ -9401,11 +9420,11 @@
         <f>IF(ISBLANK(AF48),0, LOOKUP(AF48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG48/100)</f>
         <v>0</v>
       </c>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ48" s="11" t="s">
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ48" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK48" s="2" t="s">
@@ -9423,7 +9442,7 @@
         <v>309</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="21">
+      <c r="E49" s="16">
         <f t="shared" ref="E49" si="36">IF(S49&gt;=23,4,IF(AND(S49&gt;=18,S49&lt;23),3,IF(AND(S49&gt;=13,S49&lt;18),2,IF(AND(S49&gt;=8,S49&lt;13),1,0))))</f>
         <v>1</v>
       </c>
@@ -9434,47 +9453,47 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H49" s="29"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="1">
         <v>100</v>
       </c>
-      <c r="J49" s="7">
-        <v>0</v>
-      </c>
-      <c r="K49" s="7">
-        <v>0</v>
-      </c>
-      <c r="L49" s="22">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-      <c r="P49" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>0</v>
-      </c>
-      <c r="R49" s="7">
-        <v>0</v>
-      </c>
-      <c r="S49" s="23">
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0</v>
+      </c>
+      <c r="R49" s="6">
+        <v>0</v>
+      </c>
+      <c r="S49" s="18">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="6">
         <v>5</v>
       </c>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="11" t="s">
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="9" t="s">
         <v>77</v>
       </c>
       <c r="X49" s="1"/>
@@ -9488,11 +9507,11 @@
         <f>IF(ISBLANK(AF49),0, LOOKUP(AF49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG49/100)</f>
         <v>0</v>
       </c>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ49" s="11" t="s">
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ49" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK49" s="2" t="s">
@@ -9510,7 +9529,7 @@
         <v>293</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="21">
+      <c r="E50" s="16">
         <f t="shared" ref="E50:E51" si="37">IF(S50&gt;=23,4,IF(AND(S50&gt;=18,S50&lt;23),3,IF(AND(S50&gt;=13,S50&lt;18),2,IF(AND(S50&gt;=8,S50&lt;13),1,0))))</f>
         <v>1</v>
       </c>
@@ -9521,48 +9540,50 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H50" s="29"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="1">
         <v>100</v>
       </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0</v>
-      </c>
-      <c r="L50" s="22">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7">
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="17">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
         <v>1</v>
       </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-      <c r="P50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>0</v>
-      </c>
-      <c r="R50" s="7">
-        <v>0</v>
-      </c>
-      <c r="S50" s="23">
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6">
+        <v>0</v>
+      </c>
+      <c r="S50" s="18">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="11" t="s">
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="X50" s="1"/>
+      <c r="X50" s="31" t="s">
+        <v>313</v>
+      </c>
       <c r="Y50">
         <v>10</v>
       </c>
@@ -9573,11 +9594,11 @@
         <f>IF(ISBLANK(AF50),0, LOOKUP(AF50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG50/100)</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ50" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK50" s="2" t="s">
@@ -9595,7 +9616,7 @@
         <v>294</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="21">
+      <c r="E51" s="16">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
@@ -9606,48 +9627,50 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H51" s="29"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="1">
         <v>100</v>
       </c>
-      <c r="J51" s="7">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0</v>
-      </c>
-      <c r="L51" s="22">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7">
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
         <v>1</v>
       </c>
-      <c r="P51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>0</v>
-      </c>
-      <c r="R51" s="7">
-        <v>0</v>
-      </c>
-      <c r="S51" s="23">
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0</v>
+      </c>
+      <c r="R51" s="6">
+        <v>0</v>
+      </c>
+      <c r="S51" s="18">
         <f t="shared" si="27"/>
         <v>11</v>
       </c>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="11" t="s">
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="X51" s="1"/>
+      <c r="X51" s="31" t="s">
+        <v>314</v>
+      </c>
       <c r="Y51">
         <v>10</v>
       </c>
@@ -9658,11 +9681,11 @@
         <f>IF(ISBLANK(AF51),0, LOOKUP(AF51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG51/100)</f>
         <v>0</v>
       </c>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ51" s="11" t="s">
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK51" s="2" t="s">
@@ -9680,7 +9703,7 @@
         <v>295</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="21">
+      <c r="E52" s="16">
         <f t="shared" ref="E52:E53" si="38">IF(S52&gt;=23,4,IF(AND(S52&gt;=18,S52&lt;23),3,IF(AND(S52&gt;=13,S52&lt;18),2,IF(AND(S52&gt;=8,S52&lt;13),1,0))))</f>
         <v>0</v>
       </c>
@@ -9691,45 +9714,45 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H52" s="29"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="1">
         <v>100</v>
       </c>
-      <c r="J52" s="7">
-        <v>0</v>
-      </c>
-      <c r="K52" s="7">
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
         <v>4</v>
       </c>
-      <c r="L52" s="22">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7">
-        <v>0</v>
-      </c>
-      <c r="P52" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>0</v>
-      </c>
-      <c r="R52" s="7">
-        <v>0</v>
-      </c>
-      <c r="S52" s="23">
+      <c r="L52" s="17">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0</v>
+      </c>
+      <c r="R52" s="6">
+        <v>0</v>
+      </c>
+      <c r="S52" s="18">
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="11" t="s">
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="9" t="s">
         <v>77</v>
       </c>
       <c r="X52" s="1"/>
@@ -9749,11 +9772,11 @@
       <c r="AG52">
         <v>100</v>
       </c>
-      <c r="AH52" s="11"/>
-      <c r="AI52" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ52" s="11" t="s">
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ52" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK52" s="2" t="s">
@@ -9771,7 +9794,7 @@
         <v>296</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="21">
+      <c r="E53" s="16">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
@@ -9782,48 +9805,50 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H53" s="29"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="1">
         <v>100</v>
       </c>
-      <c r="J53" s="7">
-        <v>0</v>
-      </c>
-      <c r="K53" s="7">
-        <v>0</v>
-      </c>
-      <c r="L53" s="22">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-      <c r="P53" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>0</v>
-      </c>
-      <c r="R53" s="7">
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>0</v>
+      </c>
+      <c r="R53" s="6">
         <v>1</v>
       </c>
-      <c r="S53" s="23">
+      <c r="S53" s="18">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="11" t="s">
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="X53" s="1"/>
+      <c r="X53" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="Y53">
         <v>10</v>
       </c>
@@ -9834,11 +9859,11 @@
         <f>IF(ISBLANK(AF53),0, LOOKUP(AF53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG53/100)</f>
         <v>0</v>
       </c>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ53" s="11" t="s">
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ53" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK53" s="2" t="s">
@@ -9856,7 +9881,7 @@
         <v>297</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="21">
+      <c r="E54" s="16">
         <f t="shared" ref="E54:E55" si="39">IF(S54&gt;=23,4,IF(AND(S54&gt;=18,S54&lt;23),3,IF(AND(S54&gt;=13,S54&lt;18),2,IF(AND(S54&gt;=8,S54&lt;13),1,0))))</f>
         <v>0</v>
       </c>
@@ -9867,45 +9892,45 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H54" s="29"/>
+      <c r="H54" s="24"/>
       <c r="I54" s="1">
         <v>100</v>
       </c>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="7">
-        <v>0</v>
-      </c>
-      <c r="L54" s="22">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7">
-        <v>0</v>
-      </c>
-      <c r="P54" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>0</v>
-      </c>
-      <c r="R54" s="7">
-        <v>0</v>
-      </c>
-      <c r="S54" s="23">
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="17">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
+        <v>0</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>0</v>
+      </c>
+      <c r="R54" s="6">
+        <v>0</v>
+      </c>
+      <c r="S54" s="18">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="11" t="s">
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="9" t="s">
         <v>77</v>
       </c>
       <c r="X54" s="1"/>
@@ -9925,11 +9950,11 @@
       <c r="AG54">
         <v>100</v>
       </c>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ54" s="11" t="s">
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ54" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK54" s="2" t="s">
@@ -9947,7 +9972,7 @@
         <v>298</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="21">
+      <c r="E55" s="16">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
@@ -9958,45 +9983,45 @@
         <f t="shared" ref="G55:G56" si="40">E55*50+50</f>
         <v>100</v>
       </c>
-      <c r="H55" s="29"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="1">
         <v>100</v>
       </c>
-      <c r="J55" s="7">
-        <v>0</v>
-      </c>
-      <c r="K55" s="7">
-        <v>0</v>
-      </c>
-      <c r="L55" s="22">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-      <c r="P55" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>0</v>
-      </c>
-      <c r="R55" s="7">
-        <v>0</v>
-      </c>
-      <c r="S55" s="23">
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="17">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>0</v>
+      </c>
+      <c r="R55" s="6">
+        <v>0</v>
+      </c>
+      <c r="S55" s="18">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="11" t="s">
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="9" t="s">
         <v>170</v>
       </c>
       <c r="X55" s="1"/>
@@ -10010,11 +10035,11 @@
         <f>IF(ISBLANK(AF55),0, LOOKUP(AF55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG55/100)</f>
         <v>0</v>
       </c>
-      <c r="AH55" s="11"/>
-      <c r="AI55" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ55" s="11" t="s">
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ55" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK55" s="2" t="s">
@@ -10032,7 +10057,7 @@
         <v>299</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="21">
+      <c r="E56" s="16">
         <f t="shared" ref="E56:E57" si="41">IF(S56&gt;=23,4,IF(AND(S56&gt;=18,S56&lt;23),3,IF(AND(S56&gt;=13,S56&lt;18),2,IF(AND(S56&gt;=8,S56&lt;13),1,0))))</f>
         <v>2</v>
       </c>
@@ -10043,45 +10068,45 @@
         <f t="shared" si="40"/>
         <v>150</v>
       </c>
-      <c r="H56" s="29"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="1">
         <v>100</v>
       </c>
-      <c r="J56" s="7">
-        <v>0</v>
-      </c>
-      <c r="K56" s="7">
-        <v>0</v>
-      </c>
-      <c r="L56" s="22">
-        <v>0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7">
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
         <v>3</v>
       </c>
-      <c r="P56" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>0</v>
-      </c>
-      <c r="R56" s="7">
-        <v>0</v>
-      </c>
-      <c r="S56" s="23">
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0</v>
+      </c>
+      <c r="R56" s="6">
+        <v>0</v>
+      </c>
+      <c r="S56" s="18">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="11" t="s">
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="9" t="s">
         <v>112</v>
       </c>
       <c r="X56" s="1"/>
@@ -10101,11 +10126,11 @@
       <c r="AG56">
         <v>40</v>
       </c>
-      <c r="AH56" s="11"/>
-      <c r="AI56" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ56" s="11" t="s">
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ56" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK56" s="2" t="s">
@@ -10123,7 +10148,7 @@
         <v>300</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="21">
+      <c r="E57" s="16">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
@@ -10134,45 +10159,45 @@
         <f t="shared" ref="G57:G58" si="42">E57*50+50</f>
         <v>100</v>
       </c>
-      <c r="H57" s="29"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="1">
         <v>100</v>
       </c>
-      <c r="J57" s="7">
-        <v>0</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0</v>
-      </c>
-      <c r="L57" s="22">
-        <v>0</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7">
-        <v>0</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-      <c r="P57" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>0</v>
-      </c>
-      <c r="R57" s="7">
-        <v>0</v>
-      </c>
-      <c r="S57" s="23">
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="17">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>0</v>
+      </c>
+      <c r="R57" s="6">
+        <v>0</v>
+      </c>
+      <c r="S57" s="18">
         <f t="shared" ref="S57" si="43">J57+K57+ SUM(L57:R57)*5+AD57+AE57</f>
         <v>10</v>
       </c>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="11" t="s">
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="9" t="s">
         <v>112</v>
       </c>
       <c r="X57" s="1"/>
@@ -10189,11 +10214,11 @@
         <f>IF(ISBLANK(AF57),0, LOOKUP(AF57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG57/100)</f>
         <v>0</v>
       </c>
-      <c r="AH57" s="11"/>
-      <c r="AI57" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ57" s="11" t="s">
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ57" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK57" s="2" t="s">
@@ -10211,7 +10236,7 @@
         <v>301</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="21">
+      <c r="E58" s="16">
         <f t="shared" ref="E58:E59" si="44">IF(S58&gt;=23,4,IF(AND(S58&gt;=18,S58&lt;23),3,IF(AND(S58&gt;=13,S58&lt;18),2,IF(AND(S58&gt;=8,S58&lt;13),1,0))))</f>
         <v>2</v>
       </c>
@@ -10222,48 +10247,50 @@
         <f t="shared" si="42"/>
         <v>150</v>
       </c>
-      <c r="H58" s="29"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="1">
         <v>100</v>
       </c>
-      <c r="J58" s="7">
-        <v>0</v>
-      </c>
-      <c r="K58" s="7">
-        <v>0</v>
-      </c>
-      <c r="L58" s="22">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-      <c r="P58" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>0</v>
-      </c>
-      <c r="R58" s="7">
-        <v>0</v>
-      </c>
-      <c r="S58" s="23">
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="17">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
+        <v>0</v>
+      </c>
+      <c r="P58" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>0</v>
+      </c>
+      <c r="R58" s="6">
+        <v>0</v>
+      </c>
+      <c r="S58" s="18">
         <f t="shared" ref="S58" si="45">J58+K58+ SUM(L58:R58)*5+AD58+AE58</f>
         <v>15</v>
       </c>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="11" t="s">
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="X58" s="1"/>
+      <c r="X58" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="Y58">
         <v>10</v>
       </c>
@@ -10277,11 +10304,11 @@
         <f>IF(ISBLANK(AF58),0, LOOKUP(AF58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG58/100)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ58" s="11" t="s">
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ58" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK58" s="2" t="s">
@@ -10299,7 +10326,7 @@
         <v>302</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="21">
+      <c r="E59" s="16">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
@@ -10310,45 +10337,45 @@
         <f t="shared" ref="G59" si="46">E59*50+50</f>
         <v>250</v>
       </c>
-      <c r="H59" s="29"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="1">
         <v>100</v>
       </c>
-      <c r="J59" s="7">
-        <v>0</v>
-      </c>
-      <c r="K59" s="7">
-        <v>0</v>
-      </c>
-      <c r="L59" s="22">
-        <v>0</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
-      <c r="O59" s="7">
-        <v>0</v>
-      </c>
-      <c r="P59" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>0</v>
-      </c>
-      <c r="R59" s="7">
-        <v>0</v>
-      </c>
-      <c r="S59" s="23">
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="17">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
+        <v>0</v>
+      </c>
+      <c r="P59" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0</v>
+      </c>
+      <c r="R59" s="6">
+        <v>0</v>
+      </c>
+      <c r="S59" s="18">
         <f t="shared" ref="S59" si="47">J59+K59+ SUM(L59:R59)*5+AD59+AE59</f>
         <v>25</v>
       </c>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="11" t="s">
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X59" s="1"/>
@@ -10365,11 +10392,11 @@
         <f>IF(ISBLANK(AF59),0, LOOKUP(AF59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG59/100)</f>
         <v>0</v>
       </c>
-      <c r="AH59" s="11"/>
-      <c r="AI59" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ59" s="11" t="s">
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ59" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK59" s="2" t="s">
@@ -10379,36 +10406,36 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E4:E24 E26 E28:E59">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 E27">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10440,7 +10467,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10459,13 +10486,13 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>6</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -31,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>是否可用</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>是否可以锻造</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -181,21 +184,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Disable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>是否可以锻造</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>CanMerge</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1194,6 +1182,18 @@
   </si>
   <si>
     <t>0;1;0;0;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成消耗道具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComposeItemId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,14 +1380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,15 +1403,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1671,14 +1656,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1799,35 +1778,6 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1960,14 +1910,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
@@ -1979,16 +1926,10 @@
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2009,37 +1950,7 @@
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,13 +1959,13 @@
     <xf numFmtId="0" fontId="19" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2102,9 +2013,109 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2113,7 +2124,42 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2136,15 +2182,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2165,15 +2228,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2194,16 +2255,55 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2282,15 +2382,13 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2424,15 +2522,13 @@
         <family val="3"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2491,16 +2587,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2595,79 +2700,32 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2738,6 +2796,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF9751CB"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4505,49 +4566,49 @@
   <tableColumns count="37">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="34" name="Ename" dataDxfId="25"/>
-    <tableColumn id="32" name="Des" dataDxfId="24"/>
-    <tableColumn id="3" name="Quality" dataDxfId="23">
-      <calculatedColumnFormula>IF(S4&gt;=23,4,IF(AND(S4&gt;=18,S4&lt;23),3,IF(AND(S4&gt;=13,S4&lt;18),2,IF(AND(S4&gt;=8,S4&lt;13),1,0))))</calculatedColumnFormula>
+    <tableColumn id="34" name="Ename" dataDxfId="39"/>
+    <tableColumn id="32" name="Des" dataDxfId="38"/>
+    <tableColumn id="3" name="Quality" dataDxfId="36">
+      <calculatedColumnFormula>IF(T4&gt;=23,4,IF(AND(T4&gt;=18,T4&lt;23),3,IF(AND(T4&gt;=13,T4&lt;18),2,IF(AND(T4&gt;=8,T4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="22">
+    <tableColumn id="19" name="Value" dataDxfId="37">
       <calculatedColumnFormula>E4*50+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="ComposeStone" dataDxfId="21"/>
-    <tableColumn id="36" name="ComposeWood" dataDxfId="20"/>
-    <tableColumn id="11" name="AtkR"/>
-    <tableColumn id="8" name="VitR"/>
-    <tableColumn id="6" name="Def" dataDxfId="19"/>
-    <tableColumn id="22" name="Mag" dataDxfId="18"/>
-    <tableColumn id="27" name="Spd" dataDxfId="17"/>
-    <tableColumn id="26" name="Hit" dataDxfId="16"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="15"/>
-    <tableColumn id="24" name="Crt" dataDxfId="14"/>
-    <tableColumn id="23" name="Luk" dataDxfId="13"/>
-    <tableColumn id="28" name="Sum" dataDxfId="12">
-      <calculatedColumnFormula>J4+K4+ SUM(L4:R4)*5+AD4+AE4</calculatedColumnFormula>
+    <tableColumn id="35" name="ComposeStone" dataDxfId="35"/>
+    <tableColumn id="36" name="ComposeWood" dataDxfId="34"/>
+    <tableColumn id="15" name="ComposeItemId" dataDxfId="0"/>
+    <tableColumn id="11" name="AtkR" dataDxfId="33"/>
+    <tableColumn id="8" name="VitR" dataDxfId="32"/>
+    <tableColumn id="6" name="Def" dataDxfId="31"/>
+    <tableColumn id="22" name="Mag" dataDxfId="30"/>
+    <tableColumn id="27" name="Spd" dataDxfId="29"/>
+    <tableColumn id="26" name="Hit" dataDxfId="28"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="27"/>
+    <tableColumn id="24" name="Crt" dataDxfId="26"/>
+    <tableColumn id="23" name="Luk" dataDxfId="25"/>
+    <tableColumn id="28" name="Sum" dataDxfId="24">
+      <calculatedColumnFormula>K4+L4+ SUM(M4:S4)*5+AE4+AF4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="11"/>
-    <tableColumn id="33" name="Arrow" dataDxfId="10"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="9"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="8"/>
-    <tableColumn id="37" name="DungeonAttrs" dataDxfId="0"/>
-    <tableColumn id="7" name="Durable"/>
-    <tableColumn id="20" name="HeroSkillId"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="7"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="6"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="5"/>
-    <tableColumn id="21" name="~SkillMark2"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="4">
-      <calculatedColumnFormula>IF(ISBLANK(AF4),0, LOOKUP(AF4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG4/100)</calculatedColumnFormula>
+    <tableColumn id="12" name="Range" dataDxfId="23"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="22"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="21"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="20"/>
+    <tableColumn id="37" name="DungeonAttrs" dataDxfId="19"/>
+    <tableColumn id="7" name="Durable" dataDxfId="18"/>
+    <tableColumn id="20" name="HeroSkillId" dataDxfId="17"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="16"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="15"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="14"/>
+    <tableColumn id="21" name="~SkillMark2" dataDxfId="13"/>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="12">
+      <calculatedColumnFormula>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CommonSkillId"/>
-    <tableColumn id="14" name="CommonSkillRate"/>
-    <tableColumn id="15" name="Disable" dataDxfId="3"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="2"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="1"/>
-    <tableColumn id="10" name="Url"/>
+    <tableColumn id="13" name="CommonSkillId" dataDxfId="11"/>
+    <tableColumn id="14" name="CommonSkillRate" dataDxfId="10"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="9"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="8"/>
+    <tableColumn id="10" name="Url" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4876,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4886,246 +4947,247 @@
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="9" width="6.5" customWidth="1"/>
-    <col min="10" max="11" width="5.125" customWidth="1"/>
-    <col min="12" max="19" width="4.5" customWidth="1"/>
-    <col min="20" max="21" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="5" customWidth="1"/>
-    <col min="26" max="26" width="8.625" customWidth="1"/>
-    <col min="27" max="28" width="4.875" customWidth="1"/>
-    <col min="29" max="29" width="16.375" customWidth="1"/>
-    <col min="30" max="30" width="8.625" customWidth="1"/>
-    <col min="31" max="31" width="5.875" customWidth="1"/>
-    <col min="32" max="32" width="8.625" customWidth="1"/>
-    <col min="33" max="33" width="5.25" customWidth="1"/>
-    <col min="34" max="36" width="6" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="20" width="4.5" customWidth="1"/>
+    <col min="21" max="22" width="5.125" customWidth="1"/>
+    <col min="23" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="25" width="8.625" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="8.625" customWidth="1"/>
+    <col min="28" max="29" width="4.875" customWidth="1"/>
+    <col min="30" max="30" width="16.375" customWidth="1"/>
+    <col min="31" max="31" width="8.625" customWidth="1"/>
+    <col min="32" max="32" width="5.875" customWidth="1"/>
+    <col min="33" max="33" width="8.625" customWidth="1"/>
+    <col min="34" max="34" width="5.25" customWidth="1"/>
+    <col min="35" max="36" width="6" customWidth="1"/>
     <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="G1" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="Q1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="R1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="S1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="W1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="X1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AB1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="26" t="s">
+      <c r="AH1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AJ1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10" t="s">
+      <c r="M2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" s="3" t="s">
+      <c r="X2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5137,10 +5199,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5152,91 +5214,91 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="R3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="S3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" s="15" t="s">
+      <c r="T3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="U3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" s="13" t="s">
+      <c r="X3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AA3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AE3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH3" t="s">
-        <v>32</v>
-      </c>
       <c r="AI3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AJ3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AK3" t="s">
         <v>12</v>
@@ -5247,14 +5309,14 @@
         <v>21100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E14" si="0">IF(S4&gt;=23,4,IF(AND(S4&gt;=18,S4&lt;23),3,IF(AND(S4&gt;=13,S4&lt;18),2,IF(AND(S4&gt;=8,S4&lt;13),1,0))))</f>
+        <f t="shared" ref="E4:E14" si="0">IF(T4&gt;=23,4,IF(AND(T4&gt;=18,T4&lt;23),3,IF(AND(T4&gt;=13,T4&lt;18),2,IF(AND(T4&gt;=8,T4&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F4" s="1">
@@ -5264,75 +5326,77 @@
         <f>E4*50+50</f>
         <v>50</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="18">
         <v>100</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
         <v>5</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
         <v>0</v>
       </c>
       <c r="S4" s="18">
-        <f t="shared" ref="S4:S38" si="1">J4+K4+ SUM(L4:R4)*5+AD4+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <f t="shared" ref="T4:T38" si="1">K4+L4+ SUM(M4:S4)*5+AE4+AF4</f>
         <v>-5</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1">
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18">
         <v>10</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1">
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18">
         <v>-10</v>
       </c>
-      <c r="AE4" s="1">
-        <f>IF(ISBLANK(AF4),0, LOOKUP(AF4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>72</v>
+      <c r="AF4" s="18">
+        <f>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH4/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
@@ -5340,10 +5404,10 @@
         <v>21100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -5357,75 +5421,77 @@
         <f t="shared" ref="G5:G54" si="2">E5*50+50</f>
         <v>100</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="J5" s="18">
+        <v>22100403</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
         <v>10</v>
       </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
         <v>0</v>
       </c>
       <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="X5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1">
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18">
         <v>10</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="22">
-        <f>IF(ISBLANK(AF5),0, LOOKUP(AF5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>94</v>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="18">
+        <f>IF(ISBLANK(AG5),0, LOOKUP(AG5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH5/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK5" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.15">
@@ -5433,10 +5499,10 @@
         <v>21100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -5450,75 +5516,77 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
         <v>100</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="J6" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
         <v>14</v>
       </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="21">
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1">
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18">
         <v>10</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="22">
-        <f>IF(ISBLANK(AF6),0, LOOKUP(AF6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>97</v>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="18">
+        <f>IF(ISBLANK(AG6),0, LOOKUP(AG6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH6/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK6" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.15">
@@ -5526,10 +5594,10 @@
         <v>21100004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -5543,77 +5611,79 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="18">
         <v>50</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="18">
         <v>50</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="J7" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
         <v>9</v>
       </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
         <v>0</v>
       </c>
       <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1">
+      <c r="X7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18">
         <v>10</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="22">
-        <f>IF(ISBLANK(AF7),0, LOOKUP(AF7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG7/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>100</v>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
+        <f>IF(ISBLANK(AG7),0, LOOKUP(AG7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH7/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
@@ -5621,10 +5691,10 @@
         <v>21100005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -5638,75 +5708,77 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18">
         <v>100</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
         <v>8</v>
       </c>
-      <c r="L8" s="23">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
         <v>1</v>
       </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="21">
+      <c r="R8" s="18">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1">
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18">
         <v>10</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="22">
-        <f>IF(ISBLANK(AF8),0, LOOKUP(AF8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG8/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>103</v>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <f>IF(ISBLANK(AG8),0, LOOKUP(AG8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH8/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.15">
@@ -5714,10 +5786,10 @@
         <v>21100006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -5731,75 +5803,77 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
         <v>100</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J9" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
         <v>10</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="18">
         <v>1</v>
       </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
         <v>0</v>
       </c>
       <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1">
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18">
         <v>10</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18">
         <v>10</v>
       </c>
-      <c r="AE9" s="22">
-        <f>IF(ISBLANK(AF9),0, LOOKUP(AF9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG9/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>106</v>
+      <c r="AF9" s="18">
+        <f>IF(ISBLANK(AG9),0, LOOKUP(AG9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.15">
@@ -5807,10 +5881,10 @@
         <v>21100007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -5824,77 +5898,79 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H10" s="1">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="18">
+        <v>30</v>
+      </c>
+      <c r="I10" s="18">
         <v>70</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="J10" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
         <v>9</v>
       </c>
-      <c r="L10" s="23">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
         <v>1</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="21">
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1">
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18">
         <v>10</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="22">
-        <f>IF(ISBLANK(AF10),0, LOOKUP(AF10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG10/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>109</v>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="18">
+        <f>IF(ISBLANK(AG10),0, LOOKUP(AG10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH10/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.15">
@@ -5902,10 +5978,10 @@
         <v>21100008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -5919,75 +5995,77 @@
         <f t="shared" ref="G11:G12" si="3">E11*50+50</f>
         <v>250</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
         <v>100</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="J11" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
         <v>15</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="18">
         <v>2</v>
       </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
         <v>0</v>
       </c>
       <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1">
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18">
         <v>10</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="22">
-        <f>IF(ISBLANK(AF11),0, LOOKUP(AF11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG11/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>177</v>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18">
+        <f>IF(ISBLANK(AG11),0, LOOKUP(AG11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH11/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.15">
@@ -5995,10 +6073,10 @@
         <v>21100009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -6012,75 +6090,77 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18">
         <v>100</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="J12" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
         <v>15</v>
       </c>
-      <c r="L12" s="23">
+      <c r="M12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="21">
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1">
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18">
         <v>10</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="22">
-        <f>IF(ISBLANK(AF12),0, LOOKUP(AF12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG12/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>180</v>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="18">
+        <f>IF(ISBLANK(AG12),0, LOOKUP(AG12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH12/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK12" s="18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.15">
@@ -6088,10 +6168,10 @@
         <v>21100010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -6105,75 +6185,77 @@
         <f t="shared" ref="G13:G14" si="4">E13*50+50</f>
         <v>50</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
         <v>100</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="J13" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
         <v>6</v>
       </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
         <v>1</v>
       </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
       <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1">
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18">
         <v>10</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1">
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18">
         <v>-10</v>
       </c>
-      <c r="AE13" s="22">
-        <f>IF(ISBLANK(AF13),0, LOOKUP(AF13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG13/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>183</v>
+      <c r="AF13" s="18">
+        <f>IF(ISBLANK(AG13),0, LOOKUP(AG13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH13/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK13" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
@@ -6181,10 +6263,10 @@
         <v>21100011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
@@ -6198,75 +6280,77 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18">
         <v>100</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="J14" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
         <v>5</v>
       </c>
-      <c r="L14" s="23">
+      <c r="M14" s="18">
         <v>3</v>
       </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21">
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1">
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18">
         <v>10</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="22">
-        <f>IF(ISBLANK(AF14),0, LOOKUP(AF14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG14/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>186</v>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="18">
+        <f>IF(ISBLANK(AG14),0, LOOKUP(AG14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK14" s="18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.15">
@@ -6274,14 +6358,14 @@
         <v>21100012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E16" si="5">IF(S15&gt;=23,4,IF(AND(S15&gt;=18,S15&lt;23),3,IF(AND(S15&gt;=13,S15&lt;18),2,IF(AND(S15&gt;=8,S15&lt;13),1,0))))</f>
+        <f t="shared" ref="E15:E16" si="5">IF(T15&gt;=23,4,IF(AND(T15&gt;=18,T15&lt;23),3,IF(AND(T15&gt;=13,T15&lt;18),2,IF(AND(T15&gt;=8,T15&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="F15" s="1">
@@ -6291,75 +6375,77 @@
         <f t="shared" ref="G15:G16" si="6">E15*50+50</f>
         <v>200</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18">
         <v>100</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="J15" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
         <v>2</v>
       </c>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
         <v>4</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
         <v>0</v>
       </c>
       <c r="S15" s="18">
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1">
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18">
         <v>10</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="22">
-        <f>IF(ISBLANK(AF15),0, LOOKUP(AF15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG15/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>199</v>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="18">
+        <f>IF(ISBLANK(AG15),0, LOOKUP(AG15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH15/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK15" s="18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.15">
@@ -6367,10 +6453,10 @@
         <v>21100013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -6384,75 +6470,77 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18">
         <v>100</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="J16" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
         <v>5</v>
       </c>
-      <c r="L16" s="23">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0</v>
+      </c>
+      <c r="S16" s="18">
         <v>4</v>
       </c>
-      <c r="S16" s="21">
+      <c r="T16" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1">
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18">
         <v>10</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1">
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18">
         <v>-10</v>
       </c>
-      <c r="AE16" s="22">
-        <f>IF(ISBLANK(AF16),0, LOOKUP(AF16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG16/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>202</v>
+      <c r="AF16" s="18">
+        <f>IF(ISBLANK(AG16),0, LOOKUP(AG16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH16/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK16" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.15">
@@ -6460,14 +6548,14 @@
         <v>21100014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E18" si="7">IF(S17&gt;=23,4,IF(AND(S17&gt;=18,S17&lt;23),3,IF(AND(S17&gt;=13,S17&lt;18),2,IF(AND(S17&gt;=8,S17&lt;13),1,0))))</f>
+        <f t="shared" ref="E17:E18" si="7">IF(T17&gt;=23,4,IF(AND(T17&gt;=18,T17&lt;23),3,IF(AND(T17&gt;=13,T17&lt;18),2,IF(AND(T17&gt;=8,T17&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F17" s="1">
@@ -6477,75 +6565,77 @@
         <f t="shared" ref="G17:G18" si="8">E17*50+50</f>
         <v>100</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="18">
         <v>100</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="I17" s="18"/>
+      <c r="J17" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
         <v>7</v>
       </c>
-      <c r="L17" s="17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="18">
         <v>1</v>
       </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
+      <c r="R17" s="18">
         <v>0</v>
       </c>
       <c r="S17" s="18">
+        <v>0</v>
+      </c>
+      <c r="T17" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1">
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18">
         <v>10</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="22">
-        <f>IF(ISBLANK(AF17),0, LOOKUP(AF17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG17/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>205</v>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="18">
+        <f>IF(ISBLANK(AG17),0, LOOKUP(AG17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH17/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK17" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.15">
@@ -6553,10 +6643,10 @@
         <v>21100015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -6570,75 +6660,77 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
         <v>100</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="J18" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
         <v>11</v>
       </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21">
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1">
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18">
         <v>10</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="22">
-        <f>IF(ISBLANK(AF18),0, LOOKUP(AF18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG18/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>208</v>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="18">
+        <f>IF(ISBLANK(AG18),0, LOOKUP(AG18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH18/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK18" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.15">
@@ -6646,16 +6738,16 @@
         <v>21200001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E29" si="9">IF(S19&gt;=23,4,IF(AND(S19&gt;=18,S19&lt;23),3,IF(AND(S19&gt;=13,S19&lt;18),2,IF(AND(S19&gt;=8,S19&lt;13),1,0))))</f>
+        <f t="shared" ref="E19:E29" si="9">IF(T19&gt;=23,4,IF(AND(T19&gt;=18,T19&lt;23),3,IF(AND(T19&gt;=13,T19&lt;18),2,IF(AND(T19&gt;=8,T19&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F19" s="1">
@@ -6665,77 +6757,79 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="18">
         <v>100</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="18">
         <v>0</v>
       </c>
       <c r="S19" s="18">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1" t="s">
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1">
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18">
         <v>10</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1">
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18">
         <v>20</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE19" s="18">
         <v>10</v>
       </c>
-      <c r="AE19" s="1">
-        <f>IF(ISBLANK(AF19),0, LOOKUP(AF19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG19/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>73</v>
+      <c r="AF19" s="18">
+        <f>IF(ISBLANK(AG19),0, LOOKUP(AG19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH19/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK19" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.15">
@@ -6743,16 +6837,16 @@
         <v>21200002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E21" si="10">IF(S20&gt;=23,4,IF(AND(S20&gt;=18,S20&lt;23),3,IF(AND(S20&gt;=13,S20&lt;18),2,IF(AND(S20&gt;=8,S20&lt;13),1,0))))</f>
+        <f t="shared" ref="E20:E21" si="10">IF(T20&gt;=23,4,IF(AND(T20&gt;=18,T20&lt;23),3,IF(AND(T20&gt;=13,T20&lt;18),2,IF(AND(T20&gt;=8,T20&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F20" s="1">
@@ -6762,79 +6856,81 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="18">
         <v>100</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18">
         <v>0</v>
       </c>
       <c r="S20" s="18">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1">
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18">
         <v>10</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1">
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18">
         <v>14</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="18">
         <v>14</v>
       </c>
-      <c r="AC20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE20" s="18">
         <v>14</v>
       </c>
-      <c r="AE20" s="1">
-        <f>IF(ISBLANK(AF20),0, LOOKUP(AF20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG20/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>111</v>
+      <c r="AF20" s="18">
+        <f>IF(ISBLANK(AG20),0, LOOKUP(AG20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH20/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK20" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.15">
@@ -6842,13 +6938,13 @@
         <v>21200003</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="10"/>
@@ -6861,77 +6957,79 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="18">
         <v>100</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="17">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18">
         <v>0</v>
       </c>
       <c r="S21" s="18">
+        <v>0</v>
+      </c>
+      <c r="T21" s="18">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1">
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18">
         <v>10</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1">
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18">
         <v>25</v>
       </c>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD21" s="1">
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE21" s="18">
         <v>12.5</v>
       </c>
-      <c r="AE21" s="1">
-        <f>IF(ISBLANK(AF21),0, LOOKUP(AF21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG21/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>113</v>
+      <c r="AF21" s="18">
+        <f>IF(ISBLANK(AG21),0, LOOKUP(AG21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH21/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK21" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.15">
@@ -6939,16 +7037,16 @@
         <v>21200004</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22" si="11">IF(S22&gt;=23,4,IF(AND(S22&gt;=18,S22&lt;23),3,IF(AND(S22&gt;=13,S22&lt;18),2,IF(AND(S22&gt;=8,S22&lt;13),1,0))))</f>
+        <f t="shared" ref="E22" si="11">IF(T22&gt;=23,4,IF(AND(T22&gt;=18,T22&lt;23),3,IF(AND(T22&gt;=13,T22&lt;18),2,IF(AND(T22&gt;=8,T22&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F22" s="1">
@@ -6958,79 +7056,81 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="18">
         <v>100</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="17">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>0</v>
+      </c>
+      <c r="R22" s="18">
         <v>0</v>
       </c>
       <c r="S22" s="18">
+        <v>0</v>
+      </c>
+      <c r="T22" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1">
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18">
         <v>10</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1">
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18">
         <v>14</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="18">
         <v>14</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE22" s="18">
         <v>14</v>
       </c>
-      <c r="AE22" s="1">
-        <f>IF(ISBLANK(AF22),0, LOOKUP(AF22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG22/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>114</v>
+      <c r="AF22" s="18">
+        <f>IF(ISBLANK(AG22),0, LOOKUP(AG22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH22/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK22" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.15">
@@ -7038,16 +7138,16 @@
         <v>21200005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:E25" si="12">IF(S23&gt;=23,4,IF(AND(S23&gt;=18,S23&lt;23),3,IF(AND(S23&gt;=13,S23&lt;18),2,IF(AND(S23&gt;=8,S23&lt;13),1,0))))</f>
+        <f t="shared" ref="E23:E25" si="12">IF(T23&gt;=23,4,IF(AND(T23&gt;=18,T23&lt;23),3,IF(AND(T23&gt;=13,T23&lt;18),2,IF(AND(T23&gt;=8,T23&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F23" s="1">
@@ -7057,77 +7157,79 @@
         <f t="shared" ref="G23:G25" si="13">E23*50+50</f>
         <v>50</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="18">
         <v>100</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
+      <c r="I23" s="18"/>
+      <c r="J23" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
         <v>0</v>
       </c>
       <c r="S23" s="18">
+        <v>0</v>
+      </c>
+      <c r="T23" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1">
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18">
         <v>10</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1">
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18">
         <v>6</v>
       </c>
-      <c r="AC23" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE23" s="18">
         <v>6</v>
       </c>
-      <c r="AE23" s="1">
-        <f>IF(ISBLANK(AF23),0, LOOKUP(AF23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG23/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>211</v>
+      <c r="AF23" s="18">
+        <f>IF(ISBLANK(AG23),0, LOOKUP(AG23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH23/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK23" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.15">
@@ -7135,13 +7237,13 @@
         <v>21200006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="12"/>
@@ -7154,77 +7256,79 @@
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="18">
         <v>100</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
+      <c r="I24" s="18"/>
+      <c r="J24" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+      <c r="O24" s="18">
+        <v>0</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
         <v>0</v>
       </c>
       <c r="S24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1">
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18">
         <v>10</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1">
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18">
         <v>6</v>
       </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD24" s="1">
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE24" s="18">
         <v>6</v>
       </c>
-      <c r="AE24" s="1">
-        <f>IF(ISBLANK(AF24),0, LOOKUP(AF24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG24/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>215</v>
+      <c r="AF24" s="18">
+        <f>IF(ISBLANK(AG24),0, LOOKUP(AG24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK24" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.15">
@@ -7232,13 +7336,13 @@
         <v>21200007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="12"/>
@@ -7251,79 +7355,81 @@
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="18">
         <v>100</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="17">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0</v>
+      </c>
+      <c r="P25" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
         <v>0</v>
       </c>
       <c r="S25" s="18">
+        <v>0</v>
+      </c>
+      <c r="T25" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1">
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18">
         <v>10</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1">
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18">
         <v>12</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="18">
         <v>6</v>
       </c>
-      <c r="AC25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD25" s="1">
+      <c r="AD25" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE25" s="18">
         <v>9</v>
       </c>
-      <c r="AE25" s="1">
-        <f>IF(ISBLANK(AF25),0, LOOKUP(AF25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG25/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>220</v>
+      <c r="AF25" s="18">
+        <f>IF(ISBLANK(AG25),0, LOOKUP(AG25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK25" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.15">
@@ -7331,16 +7437,16 @@
         <v>21200008</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26:E27" si="14">IF(S26&gt;=23,4,IF(AND(S26&gt;=18,S26&lt;23),3,IF(AND(S26&gt;=13,S26&lt;18),2,IF(AND(S26&gt;=8,S26&lt;13),1,0))))</f>
+        <f t="shared" ref="E26:E27" si="14">IF(T26&gt;=23,4,IF(AND(T26&gt;=18,T26&lt;23),3,IF(AND(T26&gt;=13,T26&lt;18),2,IF(AND(T26&gt;=8,T26&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="F26" s="1">
@@ -7350,79 +7456,81 @@
         <f t="shared" ref="G26:G27" si="15">E26*50+50</f>
         <v>200</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="18">
         <v>100</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="17">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
         <v>0</v>
       </c>
       <c r="S26" s="18">
-        <f t="shared" ref="S26:S27" si="16">J26+K26+ SUM(L26:R26)*5+AD26+AE26</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="18">
+        <f t="shared" ref="T26:T27" si="16">K26+L26+ SUM(M26:S26)*5+AE26+AF26</f>
         <v>18</v>
       </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1">
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18">
         <v>10</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1">
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18">
         <v>12</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="18">
         <v>12</v>
       </c>
-      <c r="AC26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE26" s="18">
         <v>18</v>
       </c>
-      <c r="AE26" s="1">
-        <f>IF(ISBLANK(AF26),0, LOOKUP(AF26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG26/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>221</v>
+      <c r="AF26" s="18">
+        <f>IF(ISBLANK(AG26),0, LOOKUP(AG26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH26/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK26" s="18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.15">
@@ -7430,13 +7538,13 @@
         <v>21200009</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="14"/>
@@ -7449,79 +7557,81 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="18">
         <v>100</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="17">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="I27" s="18"/>
+      <c r="J27" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>0</v>
+      </c>
+      <c r="O27" s="18">
+        <v>0</v>
+      </c>
+      <c r="P27" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>0</v>
+      </c>
+      <c r="R27" s="18">
         <v>0</v>
       </c>
       <c r="S27" s="18">
+        <v>0</v>
+      </c>
+      <c r="T27" s="18">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1">
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18">
         <v>10</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1">
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18">
         <v>10</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="18">
         <v>10</v>
       </c>
-      <c r="AC27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD27" s="1">
+      <c r="AD27" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE27" s="18">
         <v>15</v>
       </c>
-      <c r="AE27" s="1">
-        <f>IF(ISBLANK(AF27),0, LOOKUP(AF27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG27/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>224</v>
+      <c r="AF27" s="18">
+        <f>IF(ISBLANK(AG27),0, LOOKUP(AG27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH27/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK27" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.15">
@@ -7529,16 +7639,16 @@
         <v>21200010</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28" si="17">IF(S28&gt;=23,4,IF(AND(S28&gt;=18,S28&lt;23),3,IF(AND(S28&gt;=13,S28&lt;18),2,IF(AND(S28&gt;=8,S28&lt;13),1,0))))</f>
+        <f t="shared" ref="E28" si="17">IF(T28&gt;=23,4,IF(AND(T28&gt;=18,T28&lt;23),3,IF(AND(T28&gt;=13,T28&lt;18),2,IF(AND(T28&gt;=8,T28&lt;13),1,0))))</f>
         <v>4</v>
       </c>
       <c r="F28" s="1">
@@ -7548,79 +7658,81 @@
         <f t="shared" ref="G28" si="18">E28*50+50</f>
         <v>250</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="18">
         <v>100</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="O28" s="18">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
         <v>0</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" ref="S28" si="19">J28+K28+ SUM(L28:R28)*5+AD28+AE28</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="18">
+        <f t="shared" ref="T28" si="19">K28+L28+ SUM(M28:S28)*5+AE28+AF28</f>
         <v>25</v>
       </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1">
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18">
         <v>10</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1">
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18">
         <v>10</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="18">
         <v>10</v>
       </c>
-      <c r="AC28" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD28" s="1">
+      <c r="AD28" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE28" s="18">
         <v>25</v>
       </c>
-      <c r="AE28" s="1">
-        <f>IF(ISBLANK(AF28),0, LOOKUP(AF28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG28/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>227</v>
+      <c r="AF28" s="18">
+        <f>IF(ISBLANK(AG28),0, LOOKUP(AG28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH28/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK28" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.15">
@@ -7628,10 +7740,10 @@
         <v>21300001</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
@@ -7645,75 +7757,77 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="18">
         <v>100</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1">
+      <c r="I29" s="18"/>
+      <c r="J29" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K29" s="18">
         <v>5</v>
       </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="17">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>0</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>0</v>
+      </c>
+      <c r="R29" s="18">
         <v>0</v>
       </c>
       <c r="S29" s="18">
+        <v>0</v>
+      </c>
+      <c r="T29" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1" t="s">
+      <c r="U29" s="18"/>
+      <c r="V29" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1">
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18">
         <v>10</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="1">
-        <f>IF(ISBLANK(AF29),0, LOOKUP(AF29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG29/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>75</v>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="18">
+        <f>IF(ISBLANK(AG29),0, LOOKUP(AG29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH29/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK29" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.15">
@@ -7721,14 +7835,14 @@
         <v>21300002</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <f t="shared" ref="E30:E31" si="20">IF(S30&gt;=23,4,IF(AND(S30&gt;=18,S30&lt;23),3,IF(AND(S30&gt;=13,S30&lt;18),2,IF(AND(S30&gt;=8,S30&lt;13),1,0))))</f>
+        <f t="shared" ref="E30:E31" si="20">IF(T30&gt;=23,4,IF(AND(T30&gt;=18,T30&lt;23),3,IF(AND(T30&gt;=13,T30&lt;18),2,IF(AND(T30&gt;=8,T30&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F30" s="1">
@@ -7738,79 +7852,81 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="18">
         <v>100</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1">
+      <c r="I30" s="18"/>
+      <c r="J30" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K30" s="18">
         <v>6</v>
       </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="17">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0</v>
+      </c>
+      <c r="O30" s="18">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>0</v>
+      </c>
+      <c r="R30" s="18">
         <v>0</v>
       </c>
       <c r="S30" s="18">
+        <v>0</v>
+      </c>
+      <c r="T30" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1">
+      <c r="U30" s="18"/>
+      <c r="V30" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18">
         <v>10</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="1">
-        <f>IF(ISBLANK(AF30),0, LOOKUP(AF30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG30/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="1">
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="18">
+        <f>IF(ISBLANK(AG30),0, LOOKUP(AG30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH30/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="18">
         <v>55510010</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AH30" s="18">
         <v>60</v>
       </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>118</v>
+      <c r="AI30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK30" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.15">
@@ -7818,10 +7934,10 @@
         <v>21300003</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -7835,77 +7951,79 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="18">
         <v>50</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="18">
         <v>50</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K31" s="18">
         <v>6</v>
       </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="17">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>0</v>
+      </c>
+      <c r="O31" s="18">
+        <v>0</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
         <v>2</v>
       </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
       <c r="S31" s="18">
+        <v>0</v>
+      </c>
+      <c r="T31" s="18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1">
+      <c r="U31" s="18"/>
+      <c r="V31" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18">
         <v>10</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1">
-        <f>IF(ISBLANK(AF31),0, LOOKUP(AF31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG31/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>119</v>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="18">
+        <f>IF(ISBLANK(AG31),0, LOOKUP(AG31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH31/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK31" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.15">
@@ -7913,14 +8031,14 @@
         <v>21300004</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <f t="shared" ref="E32:E33" si="21">IF(S32&gt;=23,4,IF(AND(S32&gt;=18,S32&lt;23),3,IF(AND(S32&gt;=13,S32&lt;18),2,IF(AND(S32&gt;=8,S32&lt;13),1,0))))</f>
+        <f t="shared" ref="E32:E33" si="21">IF(T32&gt;=23,4,IF(AND(T32&gt;=18,T32&lt;23),3,IF(AND(T32&gt;=13,T32&lt;18),2,IF(AND(T32&gt;=8,T32&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F32" s="1">
@@ -7930,81 +8048,83 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="18">
         <v>50</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="18">
         <v>50</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K32" s="18">
         <v>8</v>
       </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="17">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32" s="6">
+      <c r="L32" s="18">
+        <v>0</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
+        <v>0</v>
+      </c>
+      <c r="O32" s="18">
+        <v>0</v>
+      </c>
+      <c r="P32" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>0</v>
+      </c>
+      <c r="R32" s="18">
         <v>0</v>
       </c>
       <c r="S32" s="18">
+        <v>0</v>
+      </c>
+      <c r="T32" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1">
+      <c r="U32" s="18"/>
+      <c r="V32" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18">
         <v>10</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
-        <f>IF(ISBLANK(AF32),0, LOOKUP(AF32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG32/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="1">
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="18">
+        <f>IF(ISBLANK(AG32),0, LOOKUP(AG32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH32/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="18">
         <v>55510012</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AH32" s="18">
         <v>15</v>
       </c>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>121</v>
+      <c r="AI32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK32" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.15">
@@ -8012,10 +8132,10 @@
         <v>21300005</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -8029,77 +8149,79 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="18">
         <v>70</v>
       </c>
-      <c r="I33" s="1">
-        <v>30</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="18">
+        <v>30</v>
+      </c>
+      <c r="J33" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K33" s="18">
         <v>12</v>
       </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
+      <c r="L33" s="18">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <v>0</v>
+      </c>
+      <c r="O33" s="18">
+        <v>0</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
         <v>0</v>
       </c>
       <c r="S33" s="18">
+        <v>0</v>
+      </c>
+      <c r="T33" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1">
+      <c r="U33" s="18"/>
+      <c r="V33" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18">
         <v>10</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1">
-        <f>IF(ISBLANK(AF33),0, LOOKUP(AF33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG33/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>147</v>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="18">
+        <f>IF(ISBLANK(AG33),0, LOOKUP(AG33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH33/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK33" s="18" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.15">
@@ -8107,14 +8229,14 @@
         <v>21300006</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E35" si="22">IF(S34&gt;=23,4,IF(AND(S34&gt;=18,S34&lt;23),3,IF(AND(S34&gt;=13,S34&lt;18),2,IF(AND(S34&gt;=8,S34&lt;13),1,0))))</f>
+        <f t="shared" ref="E34:E35" si="22">IF(T34&gt;=23,4,IF(AND(T34&gt;=18,T34&lt;23),3,IF(AND(T34&gt;=13,T34&lt;18),2,IF(AND(T34&gt;=8,T34&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="F34" s="1">
@@ -8124,75 +8246,77 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="18">
         <v>100</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1">
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K34" s="18">
         <v>20</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6">
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
         <v>0</v>
       </c>
       <c r="S34" s="18">
+        <v>0</v>
+      </c>
+      <c r="T34" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1">
+      <c r="U34" s="18"/>
+      <c r="V34" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18">
         <v>10</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
-        <f>IF(ISBLANK(AF34),0, LOOKUP(AF34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG34/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>149</v>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="18">
+        <f>IF(ISBLANK(AG34),0, LOOKUP(AG34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH34/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK34" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.15">
@@ -8200,10 +8324,10 @@
         <v>21300007</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
@@ -8217,77 +8341,79 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="18">
         <v>50</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="18">
         <v>50</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K35" s="18">
         <v>5</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="17">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
+      <c r="L35" s="18">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0</v>
+      </c>
+      <c r="O35" s="18">
         <v>5</v>
       </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
+      <c r="P35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>0</v>
+      </c>
+      <c r="R35" s="18">
         <v>0</v>
       </c>
       <c r="S35" s="18">
+        <v>0</v>
+      </c>
+      <c r="T35" s="18">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1">
+      <c r="U35" s="18"/>
+      <c r="V35" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18">
         <v>10</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
-        <f>IF(ISBLANK(AF35),0, LOOKUP(AF35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG35/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>151</v>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="18">
+        <f>IF(ISBLANK(AG35),0, LOOKUP(AG35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH35/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK35" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.15">
@@ -8295,14 +8421,14 @@
         <v>21300008</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E37" si="23">IF(S36&gt;=23,4,IF(AND(S36&gt;=18,S36&lt;23),3,IF(AND(S36&gt;=13,S36&lt;18),2,IF(AND(S36&gt;=8,S36&lt;13),1,0))))</f>
+        <f t="shared" ref="E36:E37" si="23">IF(T36&gt;=23,4,IF(AND(T36&gt;=18,T36&lt;23),3,IF(AND(T36&gt;=13,T36&lt;18),2,IF(AND(T36&gt;=8,T36&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F36" s="1">
@@ -8312,75 +8438,77 @@
         <f t="shared" ref="G36:G37" si="24">E36*50+50</f>
         <v>50</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="18">
         <v>100</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K36" s="18">
         <v>1</v>
       </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6">
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="18">
+        <v>0</v>
+      </c>
+      <c r="P36" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>0</v>
+      </c>
+      <c r="R36" s="18">
         <v>0</v>
       </c>
       <c r="S36" s="18">
+        <v>0</v>
+      </c>
+      <c r="T36" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1">
+      <c r="U36" s="18"/>
+      <c r="V36" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18">
         <v>10</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1">
-        <f>IF(ISBLANK(AF36),0, LOOKUP(AF36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG36/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>167</v>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="18">
+        <f>IF(ISBLANK(AG36),0, LOOKUP(AG36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH36/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK36" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.15">
@@ -8388,10 +8516,10 @@
         <v>21300009</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -8405,81 +8533,83 @@
         <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="18">
         <v>70</v>
       </c>
-      <c r="I37" s="1">
-        <v>30</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="18">
+        <v>30</v>
+      </c>
+      <c r="J37" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K37" s="18">
         <v>5</v>
       </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>0</v>
+      </c>
+      <c r="O37" s="18">
         <v>-4</v>
       </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
+      <c r="P37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>0</v>
+      </c>
+      <c r="R37" s="18">
         <v>0</v>
       </c>
       <c r="S37" s="18">
+        <v>0</v>
+      </c>
+      <c r="T37" s="18">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1">
+      <c r="U37" s="18"/>
+      <c r="V37" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18">
         <v>10</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1">
-        <f>IF(ISBLANK(AF37),0, LOOKUP(AF37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG37/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1">
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="18">
+        <f>IF(ISBLANK(AG37),0, LOOKUP(AG37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH37/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="18">
         <v>55100007</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AH37" s="18">
         <v>100</v>
       </c>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>173</v>
+      <c r="AI37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK37" s="18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.15">
@@ -8487,14 +8617,14 @@
         <v>21400001</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="16">
-        <f t="shared" ref="E38" si="25">IF(S38&gt;=23,4,IF(AND(S38&gt;=18,S38&lt;23),3,IF(AND(S38&gt;=13,S38&lt;18),2,IF(AND(S38&gt;=8,S38&lt;13),1,0))))</f>
+      <c r="E38" s="1">
+        <f t="shared" ref="E38" si="25">IF(T38&gt;=23,4,IF(AND(T38&gt;=18,T38&lt;23),3,IF(AND(T38&gt;=13,T38&lt;18),2,IF(AND(T38&gt;=8,T38&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F38" s="1">
@@ -8504,67 +8634,75 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="18">
         <v>100</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="17">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
         <v>1</v>
       </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0</v>
-      </c>
-      <c r="R38" s="6">
+      <c r="N38" s="18">
+        <v>0</v>
+      </c>
+      <c r="O38" s="18">
+        <v>0</v>
+      </c>
+      <c r="P38" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>0</v>
+      </c>
+      <c r="R38" s="18">
         <v>0</v>
       </c>
       <c r="S38" s="18">
+        <v>0</v>
+      </c>
+      <c r="T38" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="9" t="s">
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X38" s="1"/>
-      <c r="Y38">
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18">
         <v>10</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <f>IF(ISBLANK(AF38),0, LOOKUP(AF38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG38/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK38" s="2" t="s">
-        <v>78</v>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="18">
+        <f>IF(ISBLANK(AG38),0, LOOKUP(AG38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH38/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK38" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.15">
@@ -8572,14 +8710,14 @@
         <v>21400002</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="16">
-        <f t="shared" ref="E39:E40" si="26">IF(S39&gt;=23,4,IF(AND(S39&gt;=18,S39&lt;23),3,IF(AND(S39&gt;=13,S39&lt;18),2,IF(AND(S39&gt;=8,S39&lt;13),1,0))))</f>
+      <c r="E39" s="1">
+        <f t="shared" ref="E39:E40" si="26">IF(T39&gt;=23,4,IF(AND(T39&gt;=18,T39&lt;23),3,IF(AND(T39&gt;=13,T39&lt;18),2,IF(AND(T39&gt;=8,T39&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -8589,67 +8727,75 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="1">
+      <c r="H39" s="18"/>
+      <c r="I39" s="18">
         <v>100</v>
       </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="17">
+      <c r="J39" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K39" s="18">
+        <v>0</v>
+      </c>
+      <c r="L39" s="18">
+        <v>0</v>
+      </c>
+      <c r="M39" s="18">
         <v>2</v>
       </c>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <v>0</v>
-      </c>
-      <c r="P39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0</v>
-      </c>
-      <c r="R39" s="6">
+      <c r="N39" s="18">
+        <v>0</v>
+      </c>
+      <c r="O39" s="18">
+        <v>0</v>
+      </c>
+      <c r="P39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>0</v>
+      </c>
+      <c r="R39" s="18">
         <v>0</v>
       </c>
       <c r="S39" s="18">
-        <f t="shared" ref="S39:S56" si="27">J39+K39+ SUM(L39:R39)*5+AD39+AE39</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="18">
+        <f t="shared" ref="T39:T56" si="27">K39+L39+ SUM(M39:S39)*5+AE39+AF39</f>
         <v>10</v>
       </c>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="9" t="s">
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X39" s="1"/>
-      <c r="Y39">
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18">
         <v>10</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <f>IF(ISBLANK(AF39),0, LOOKUP(AF39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG39/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK39" s="2" t="s">
-        <v>127</v>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="18">
+        <f>IF(ISBLANK(AG39),0, LOOKUP(AG39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH39/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK39" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.15">
@@ -8657,13 +8803,13 @@
         <v>21400003</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="16">
+      <c r="E40" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -8674,73 +8820,79 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="18">
         <v>100</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="17">
+      <c r="I40" s="18"/>
+      <c r="J40" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
         <v>1</v>
       </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>0</v>
-      </c>
-      <c r="R40" s="6">
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18">
+        <v>0</v>
+      </c>
+      <c r="P40" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>0</v>
+      </c>
+      <c r="R40" s="18">
         <v>0</v>
       </c>
       <c r="S40" s="18">
+        <v>0</v>
+      </c>
+      <c r="T40" s="18">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X40" s="1"/>
-      <c r="Y40">
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18">
         <v>10</v>
       </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <f>IF(ISBLANK(AF40),0, LOOKUP(AF40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG40/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF40">
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="18">
+        <f>IF(ISBLANK(AG40),0, LOOKUP(AG40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH40/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="18">
         <v>55110005</v>
       </c>
-      <c r="AG40">
+      <c r="AH40" s="18">
         <v>50</v>
       </c>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK40" s="2" t="s">
-        <v>130</v>
+      <c r="AI40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK40" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.15">
@@ -8748,14 +8900,14 @@
         <v>21400004</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="16">
-        <f t="shared" ref="E41:E42" si="28">IF(S41&gt;=23,4,IF(AND(S41&gt;=18,S41&lt;23),3,IF(AND(S41&gt;=13,S41&lt;18),2,IF(AND(S41&gt;=8,S41&lt;13),1,0))))</f>
+      <c r="E41" s="1">
+        <f t="shared" ref="E41:E42" si="28">IF(T41&gt;=23,4,IF(AND(T41&gt;=18,T41&lt;23),3,IF(AND(T41&gt;=13,T41&lt;18),2,IF(AND(T41&gt;=8,T41&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="F41" s="1">
@@ -8765,67 +8917,75 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="1">
+      <c r="H41" s="18"/>
+      <c r="I41" s="18">
         <v>100</v>
       </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="17">
+      <c r="J41" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
+        <v>0</v>
+      </c>
+      <c r="M41" s="18">
         <v>4</v>
       </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0</v>
-      </c>
-      <c r="R41" s="6">
+      <c r="N41" s="18">
+        <v>0</v>
+      </c>
+      <c r="O41" s="18">
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>0</v>
+      </c>
+      <c r="R41" s="18">
         <v>0</v>
       </c>
       <c r="S41" s="18">
+        <v>0</v>
+      </c>
+      <c r="T41" s="18">
         <f t="shared" si="27"/>
         <v>20</v>
       </c>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X41" s="1"/>
-      <c r="Y41">
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18">
         <v>10</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <f>IF(ISBLANK(AF41),0, LOOKUP(AF41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG41/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK41" s="2" t="s">
-        <v>135</v>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="18">
+        <f>IF(ISBLANK(AG41),0, LOOKUP(AG41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH41/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK41" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.15">
@@ -8833,13 +8993,13 @@
         <v>21400005</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="16">
+      <c r="E42" s="1">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
@@ -8850,67 +9010,75 @@
         <f t="shared" ref="G42:G43" si="29">E42*50+50</f>
         <v>100</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="1">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18">
         <v>100</v>
       </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
+      <c r="J42" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
         <v>3</v>
       </c>
-      <c r="L42" s="17">
+      <c r="M42" s="18">
         <v>1</v>
       </c>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>0</v>
-      </c>
-      <c r="R42" s="6">
+      <c r="N42" s="18">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18">
+        <v>0</v>
+      </c>
+      <c r="P42" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>0</v>
+      </c>
+      <c r="R42" s="18">
         <v>0</v>
       </c>
       <c r="S42" s="18">
+        <v>0</v>
+      </c>
+      <c r="T42" s="18">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X42" s="1"/>
-      <c r="Y42">
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18">
         <v>10</v>
       </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <f>IF(ISBLANK(AF42),0, LOOKUP(AF42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG42/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK42" s="2" t="s">
-        <v>153</v>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="18">
+        <f>IF(ISBLANK(AG42),0, LOOKUP(AG42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH42/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK42" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.15">
@@ -8918,14 +9086,14 @@
         <v>21400006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="16">
-        <f t="shared" ref="E43:E44" si="30">IF(S43&gt;=23,4,IF(AND(S43&gt;=18,S43&lt;23),3,IF(AND(S43&gt;=13,S43&lt;18),2,IF(AND(S43&gt;=8,S43&lt;13),1,0))))</f>
+      <c r="E43" s="1">
+        <f t="shared" ref="E43:E44" si="30">IF(T43&gt;=23,4,IF(AND(T43&gt;=18,T43&lt;23),3,IF(AND(T43&gt;=13,T43&lt;18),2,IF(AND(T43&gt;=8,T43&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F43" s="1">
@@ -8935,69 +9103,77 @@
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="18">
         <v>50</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="18">
         <v>50</v>
       </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
+      <c r="J43" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
         <v>4</v>
       </c>
-      <c r="L43" s="17">
+      <c r="M43" s="18">
         <v>2</v>
       </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <v>0</v>
-      </c>
-      <c r="P43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>0</v>
-      </c>
-      <c r="R43" s="6">
+      <c r="N43" s="18">
+        <v>0</v>
+      </c>
+      <c r="O43" s="18">
+        <v>0</v>
+      </c>
+      <c r="P43" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>0</v>
+      </c>
+      <c r="R43" s="18">
         <v>0</v>
       </c>
       <c r="S43" s="18">
+        <v>0</v>
+      </c>
+      <c r="T43" s="18">
         <f t="shared" si="27"/>
         <v>14</v>
       </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X43" s="1"/>
-      <c r="Y43">
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18">
         <v>10</v>
       </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <f>IF(ISBLANK(AF43),0, LOOKUP(AF43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG43/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK43" s="2" t="s">
-        <v>155</v>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="18">
+        <f>IF(ISBLANK(AG43),0, LOOKUP(AG43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH43/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK43" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.15">
@@ -9005,13 +9181,13 @@
         <v>21400007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="16">
+      <c r="E44" s="1">
         <f t="shared" si="30"/>
         <v>3</v>
       </c>
@@ -9022,67 +9198,75 @@
         <f t="shared" ref="G44:G45" si="31">E44*50+50</f>
         <v>200</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="1">
+      <c r="H44" s="18"/>
+      <c r="I44" s="18">
         <v>100</v>
       </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0</v>
-      </c>
-      <c r="L44" s="17">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <v>0</v>
-      </c>
-      <c r="P44" s="6">
+      <c r="J44" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
+      <c r="L44" s="18">
+        <v>0</v>
+      </c>
+      <c r="M44" s="18">
+        <v>0</v>
+      </c>
+      <c r="N44" s="18">
+        <v>0</v>
+      </c>
+      <c r="O44" s="18">
+        <v>0</v>
+      </c>
+      <c r="P44" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="18">
         <v>4</v>
       </c>
-      <c r="Q44" s="6">
-        <v>0</v>
-      </c>
-      <c r="R44" s="6">
+      <c r="R44" s="18">
         <v>0</v>
       </c>
       <c r="S44" s="18">
+        <v>0</v>
+      </c>
+      <c r="T44" s="18">
         <f t="shared" si="27"/>
         <v>20</v>
       </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X44" s="1"/>
-      <c r="Y44">
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18">
         <v>10</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <f>IF(ISBLANK(AF44),0, LOOKUP(AF44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG44/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK44" s="2" t="s">
-        <v>157</v>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="18">
+        <f>IF(ISBLANK(AG44),0, LOOKUP(AG44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH44/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK44" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.15">
@@ -9090,14 +9274,14 @@
         <v>21400008</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="16">
-        <f t="shared" ref="E45:E46" si="32">IF(S45&gt;=23,4,IF(AND(S45&gt;=18,S45&lt;23),3,IF(AND(S45&gt;=13,S45&lt;18),2,IF(AND(S45&gt;=8,S45&lt;13),1,0))))</f>
+      <c r="E45" s="1">
+        <f t="shared" ref="E45:E46" si="32">IF(T45&gt;=23,4,IF(AND(T45&gt;=18,T45&lt;23),3,IF(AND(T45&gt;=13,T45&lt;18),2,IF(AND(T45&gt;=8,T45&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F45" s="1">
@@ -9107,67 +9291,75 @@
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="18">
         <v>100</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45" s="17">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>0</v>
-      </c>
-      <c r="R45" s="6">
+      <c r="I45" s="18"/>
+      <c r="J45" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K45" s="18">
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0</v>
+      </c>
+      <c r="M45" s="18">
+        <v>0</v>
+      </c>
+      <c r="N45" s="18">
+        <v>0</v>
+      </c>
+      <c r="O45" s="18">
+        <v>0</v>
+      </c>
+      <c r="P45" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>0</v>
+      </c>
+      <c r="R45" s="18">
         <v>0</v>
       </c>
       <c r="S45" s="18">
+        <v>0</v>
+      </c>
+      <c r="T45" s="18">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X45" s="1"/>
-      <c r="Y45">
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18">
         <v>10</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <f>IF(ISBLANK(AF45),0, LOOKUP(AF45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG45/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>159</v>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="18">
+        <f>IF(ISBLANK(AG45),0, LOOKUP(AG45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH45/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK45" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.15">
@@ -9175,13 +9367,13 @@
         <v>21400009</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="16">
+      <c r="E46" s="1">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
@@ -9192,69 +9384,77 @@
         <f t="shared" ref="G46:G47" si="33">E46*50+50</f>
         <v>150</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="18">
         <v>50</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="18">
         <v>50</v>
       </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
+      <c r="J46" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
         <v>3</v>
       </c>
-      <c r="L46" s="17">
+      <c r="M46" s="18">
         <v>2</v>
       </c>
-      <c r="M46" s="6">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="6">
-        <v>0</v>
-      </c>
-      <c r="P46" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>0</v>
-      </c>
-      <c r="R46" s="6">
+      <c r="N46" s="18">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18">
+        <v>0</v>
+      </c>
+      <c r="P46" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>0</v>
+      </c>
+      <c r="R46" s="18">
         <v>0</v>
       </c>
       <c r="S46" s="18">
+        <v>0</v>
+      </c>
+      <c r="T46" s="18">
         <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X46" s="1"/>
-      <c r="Y46">
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18">
         <v>10</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <f>IF(ISBLANK(AF46),0, LOOKUP(AF46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG46/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK46" s="2" t="s">
-        <v>161</v>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="18">
+        <f>IF(ISBLANK(AG46),0, LOOKUP(AG46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH46/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK46" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.15">
@@ -9262,14 +9462,14 @@
         <v>21400010</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="16">
-        <f t="shared" ref="E47:E48" si="34">IF(S47&gt;=23,4,IF(AND(S47&gt;=18,S47&lt;23),3,IF(AND(S47&gt;=13,S47&lt;18),2,IF(AND(S47&gt;=8,S47&lt;13),1,0))))</f>
+      <c r="E47" s="1">
+        <f t="shared" ref="E47:E48" si="34">IF(T47&gt;=23,4,IF(AND(T47&gt;=18,T47&lt;23),3,IF(AND(T47&gt;=13,T47&lt;18),2,IF(AND(T47&gt;=8,T47&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F47" s="1">
@@ -9279,69 +9479,77 @@
         <f t="shared" si="33"/>
         <v>150</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="18">
         <v>50</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="18">
         <v>50</v>
       </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="17">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
+      <c r="J47" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K47" s="18">
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
+        <v>0</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
         <v>3</v>
       </c>
-      <c r="N47" s="6">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6">
-        <v>0</v>
-      </c>
-      <c r="P47" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="6">
-        <v>0</v>
-      </c>
-      <c r="R47" s="6">
+      <c r="O47" s="18">
+        <v>0</v>
+      </c>
+      <c r="P47" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="18">
+        <v>0</v>
+      </c>
+      <c r="R47" s="18">
         <v>0</v>
       </c>
       <c r="S47" s="18">
+        <v>0</v>
+      </c>
+      <c r="T47" s="18">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X47" s="1"/>
-      <c r="Y47">
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18">
         <v>10</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <f>IF(ISBLANK(AF47),0, LOOKUP(AF47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG47/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK47" s="2" t="s">
-        <v>163</v>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="18">
+        <f>IF(ISBLANK(AG47),0, LOOKUP(AG47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH47/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK47" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.15">
@@ -9349,13 +9557,13 @@
         <v>21400011</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="16">
+      <c r="E48" s="1">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
@@ -9366,69 +9574,77 @@
         <f t="shared" ref="G48" si="35">E48*50+50</f>
         <v>250</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="18">
         <v>50</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="18">
         <v>50</v>
       </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
+      <c r="J48" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K48" s="18">
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
         <v>5</v>
       </c>
-      <c r="L48" s="17">
+      <c r="M48" s="18">
         <v>3</v>
       </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
+      <c r="N48" s="18">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18">
+        <v>0</v>
+      </c>
+      <c r="P48" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="18">
         <v>2</v>
       </c>
-      <c r="Q48" s="6">
-        <v>0</v>
-      </c>
-      <c r="R48" s="6">
+      <c r="R48" s="18">
         <v>0</v>
       </c>
       <c r="S48" s="18">
+        <v>0</v>
+      </c>
+      <c r="T48" s="18">
         <f t="shared" si="27"/>
         <v>30</v>
       </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X48" s="1"/>
-      <c r="Y48">
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18">
         <v>10</v>
       </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <f>IF(ISBLANK(AF48),0, LOOKUP(AF48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG48/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK48" s="2" t="s">
-        <v>165</v>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="18">
+        <f>IF(ISBLANK(AG48),0, LOOKUP(AG48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH48/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK48" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.15">
@@ -9436,14 +9652,14 @@
         <v>21500001</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="16">
-        <f t="shared" ref="E49" si="36">IF(S49&gt;=23,4,IF(AND(S49&gt;=18,S49&lt;23),3,IF(AND(S49&gt;=13,S49&lt;18),2,IF(AND(S49&gt;=8,S49&lt;13),1,0))))</f>
+      <c r="E49" s="1">
+        <f t="shared" ref="E49" si="36">IF(T49&gt;=23,4,IF(AND(T49&gt;=18,T49&lt;23),3,IF(AND(T49&gt;=13,T49&lt;18),2,IF(AND(T49&gt;=8,T49&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F49" s="1">
@@ -9453,69 +9669,77 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="1">
+      <c r="H49" s="18"/>
+      <c r="I49" s="18">
         <v>100</v>
       </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="17">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>0</v>
-      </c>
-      <c r="R49" s="6">
+      <c r="J49" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K49" s="18">
+        <v>0</v>
+      </c>
+      <c r="L49" s="18">
+        <v>0</v>
+      </c>
+      <c r="M49" s="18">
+        <v>0</v>
+      </c>
+      <c r="N49" s="18">
+        <v>0</v>
+      </c>
+      <c r="O49" s="18">
+        <v>0</v>
+      </c>
+      <c r="P49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>0</v>
+      </c>
+      <c r="R49" s="18">
         <v>0</v>
       </c>
       <c r="S49" s="18">
+        <v>0</v>
+      </c>
+      <c r="T49" s="18">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="T49" s="6">
+      <c r="U49" s="18">
         <v>5</v>
       </c>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="9" t="s">
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18">
+        <v>10</v>
+      </c>
+      <c r="AF49" s="18">
+        <f>IF(ISBLANK(AG49),0, LOOKUP(AG49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH49/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK49" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="X49" s="1"/>
-      <c r="Y49">
-        <v>10</v>
-      </c>
-      <c r="AD49">
-        <v>10</v>
-      </c>
-      <c r="AE49">
-        <f>IF(ISBLANK(AF49),0, LOOKUP(AF49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG49/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK49" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.15">
@@ -9523,14 +9747,14 @@
         <v>21500002</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="16">
-        <f t="shared" ref="E50:E51" si="37">IF(S50&gt;=23,4,IF(AND(S50&gt;=18,S50&lt;23),3,IF(AND(S50&gt;=13,S50&lt;18),2,IF(AND(S50&gt;=8,S50&lt;13),1,0))))</f>
+      <c r="E50" s="1">
+        <f t="shared" ref="E50:E51" si="37">IF(T50&gt;=23,4,IF(AND(T50&gt;=18,T50&lt;23),3,IF(AND(T50&gt;=13,T50&lt;18),2,IF(AND(T50&gt;=8,T50&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F50" s="1">
@@ -9540,69 +9764,77 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="1">
+      <c r="H50" s="18"/>
+      <c r="I50" s="18">
         <v>100</v>
       </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="17">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
+      <c r="J50" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K50" s="18">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0</v>
+      </c>
+      <c r="N50" s="18">
         <v>1</v>
       </c>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0</v>
-      </c>
-      <c r="R50" s="6">
+      <c r="O50" s="18">
+        <v>0</v>
+      </c>
+      <c r="P50" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="18">
+        <v>0</v>
+      </c>
+      <c r="R50" s="18">
         <v>0</v>
       </c>
       <c r="S50" s="18">
+        <v>0</v>
+      </c>
+      <c r="T50" s="18">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="X50" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y50">
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y50" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z50" s="18">
         <v>10</v>
       </c>
-      <c r="AD50">
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18">
         <v>5</v>
       </c>
-      <c r="AE50">
-        <f>IF(ISBLANK(AF50),0, LOOKUP(AF50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG50/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK50" s="2" t="s">
-        <v>132</v>
+      <c r="AF50" s="18">
+        <f>IF(ISBLANK(AG50),0, LOOKUP(AG50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH50/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK50" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.15">
@@ -9610,13 +9842,13 @@
         <v>21500003</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="16">
+      <c r="E51" s="1">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
@@ -9627,69 +9859,77 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="1">
+      <c r="H51" s="18"/>
+      <c r="I51" s="18">
         <v>100</v>
       </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="17">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6">
+      <c r="J51" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K51" s="18">
+        <v>0</v>
+      </c>
+      <c r="L51" s="18">
+        <v>0</v>
+      </c>
+      <c r="M51" s="18">
+        <v>0</v>
+      </c>
+      <c r="N51" s="18">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18">
+        <v>0</v>
+      </c>
+      <c r="P51" s="18">
         <v>1</v>
       </c>
-      <c r="P51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>0</v>
-      </c>
-      <c r="R51" s="6">
+      <c r="Q51" s="18">
+        <v>0</v>
+      </c>
+      <c r="R51" s="18">
         <v>0</v>
       </c>
       <c r="S51" s="18">
+        <v>0</v>
+      </c>
+      <c r="T51" s="18">
         <f t="shared" si="27"/>
         <v>11</v>
       </c>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X51" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y51">
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y51" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z51" s="18">
         <v>10</v>
       </c>
-      <c r="AD51">
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18">
         <v>6</v>
       </c>
-      <c r="AE51">
-        <f>IF(ISBLANK(AF51),0, LOOKUP(AF51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG51/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK51" s="2" t="s">
-        <v>137</v>
+      <c r="AF51" s="18">
+        <f>IF(ISBLANK(AG51),0, LOOKUP(AG51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH51/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK51" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.15">
@@ -9697,14 +9937,14 @@
         <v>21500004</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="16">
-        <f t="shared" ref="E52:E53" si="38">IF(S52&gt;=23,4,IF(AND(S52&gt;=18,S52&lt;23),3,IF(AND(S52&gt;=13,S52&lt;18),2,IF(AND(S52&gt;=8,S52&lt;13),1,0))))</f>
+      <c r="E52" s="1">
+        <f t="shared" ref="E52:E53" si="38">IF(T52&gt;=23,4,IF(AND(T52&gt;=18,T52&lt;23),3,IF(AND(T52&gt;=13,T52&lt;18),2,IF(AND(T52&gt;=8,T52&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F52" s="1">
@@ -9714,73 +9954,79 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="1">
+      <c r="H52" s="18"/>
+      <c r="I52" s="18">
         <v>100</v>
       </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
+      <c r="J52" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K52" s="18">
+        <v>0</v>
+      </c>
+      <c r="L52" s="18">
         <v>4</v>
       </c>
-      <c r="L52" s="17">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>0</v>
-      </c>
-      <c r="R52" s="6">
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+      <c r="N52" s="18">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18">
+        <v>0</v>
+      </c>
+      <c r="P52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>0</v>
+      </c>
+      <c r="R52" s="18">
         <v>0</v>
       </c>
       <c r="S52" s="18">
+        <v>0</v>
+      </c>
+      <c r="T52" s="18">
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="X52" s="1"/>
-      <c r="Y52">
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18">
         <v>10</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <f>IF(ISBLANK(AF52),0, LOOKUP(AF52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG52/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF52">
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="18">
+        <f>IF(ISBLANK(AG52),0, LOOKUP(AG52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH52/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="18">
         <v>55990108</v>
       </c>
-      <c r="AG52">
+      <c r="AH52" s="18">
         <v>100</v>
       </c>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ52" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK52" s="2" t="s">
-        <v>140</v>
+      <c r="AI52" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ52" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK52" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.15">
@@ -9788,13 +10034,13 @@
         <v>21500005</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="16">
+      <c r="E53" s="1">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
@@ -9805,69 +10051,77 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="1">
+      <c r="H53" s="18"/>
+      <c r="I53" s="18">
         <v>100</v>
       </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>0</v>
-      </c>
-      <c r="L53" s="17">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>0</v>
-      </c>
-      <c r="R53" s="6">
+      <c r="J53" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K53" s="18">
+        <v>0</v>
+      </c>
+      <c r="L53" s="18">
+        <v>0</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="18">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18">
+        <v>0</v>
+      </c>
+      <c r="P53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>0</v>
+      </c>
+      <c r="R53" s="18">
+        <v>0</v>
+      </c>
+      <c r="S53" s="18">
         <v>1</v>
       </c>
-      <c r="S53" s="18">
+      <c r="T53" s="18">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y53">
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y53" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z53" s="18">
         <v>10</v>
       </c>
-      <c r="AD53">
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18">
         <v>10</v>
       </c>
-      <c r="AE53">
-        <f>IF(ISBLANK(AF53),0, LOOKUP(AF53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG53/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK53" s="2" t="s">
-        <v>142</v>
+      <c r="AF53" s="18">
+        <f>IF(ISBLANK(AG53),0, LOOKUP(AG53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH53/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK53" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.15">
@@ -9875,14 +10129,14 @@
         <v>21500006</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="16">
-        <f t="shared" ref="E54:E55" si="39">IF(S54&gt;=23,4,IF(AND(S54&gt;=18,S54&lt;23),3,IF(AND(S54&gt;=13,S54&lt;18),2,IF(AND(S54&gt;=8,S54&lt;13),1,0))))</f>
+      <c r="E54" s="1">
+        <f t="shared" ref="E54:E55" si="39">IF(T54&gt;=23,4,IF(AND(T54&gt;=18,T54&lt;23),3,IF(AND(T54&gt;=13,T54&lt;18),2,IF(AND(T54&gt;=8,T54&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F54" s="1">
@@ -9892,73 +10146,79 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="1">
+      <c r="H54" s="18"/>
+      <c r="I54" s="18">
         <v>100</v>
       </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="17">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>0</v>
-      </c>
-      <c r="R54" s="6">
+      <c r="J54" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
+        <v>0</v>
+      </c>
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+      <c r="N54" s="18">
+        <v>0</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>0</v>
+      </c>
+      <c r="R54" s="18">
         <v>0</v>
       </c>
       <c r="S54" s="18">
+        <v>0</v>
+      </c>
+      <c r="T54" s="18">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="X54" s="1"/>
-      <c r="Y54">
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18">
         <v>10</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <f>IF(ISBLANK(AF54),0, LOOKUP(AF54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG54/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF54">
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="18">
+        <f>IF(ISBLANK(AG54),0, LOOKUP(AG54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH54/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="18">
         <v>55990109</v>
       </c>
-      <c r="AG54">
+      <c r="AH54" s="18">
         <v>100</v>
       </c>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ54" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK54" s="2" t="s">
-        <v>145</v>
+      <c r="AI54" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ54" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK54" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.15">
@@ -9966,13 +10226,13 @@
         <v>21500007</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="16">
+      <c r="E55" s="1">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
@@ -9983,67 +10243,75 @@
         <f t="shared" ref="G55:G56" si="40">E55*50+50</f>
         <v>100</v>
       </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="1">
+      <c r="H55" s="18"/>
+      <c r="I55" s="18">
         <v>100</v>
       </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="17">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6">
-        <v>0</v>
-      </c>
-      <c r="P55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="6">
-        <v>0</v>
-      </c>
-      <c r="R55" s="6">
+      <c r="J55" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K55" s="18">
+        <v>0</v>
+      </c>
+      <c r="L55" s="18">
+        <v>0</v>
+      </c>
+      <c r="M55" s="18">
+        <v>0</v>
+      </c>
+      <c r="N55" s="18">
+        <v>0</v>
+      </c>
+      <c r="O55" s="18">
+        <v>0</v>
+      </c>
+      <c r="P55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>0</v>
+      </c>
+      <c r="R55" s="18">
         <v>0</v>
       </c>
       <c r="S55" s="18">
+        <v>0</v>
+      </c>
+      <c r="T55" s="18">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="X55" s="1"/>
-      <c r="Y55">
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18">
         <v>10</v>
       </c>
-      <c r="AD55">
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18">
         <v>8</v>
       </c>
-      <c r="AE55">
-        <f>IF(ISBLANK(AF55),0, LOOKUP(AF55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG55/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ55" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK55" s="2" t="s">
-        <v>169</v>
+      <c r="AF55" s="18">
+        <f>IF(ISBLANK(AG55),0, LOOKUP(AG55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH55/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ55" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK55" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.15">
@@ -10051,14 +10319,14 @@
         <v>21500008</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="16">
-        <f t="shared" ref="E56:E57" si="41">IF(S56&gt;=23,4,IF(AND(S56&gt;=18,S56&lt;23),3,IF(AND(S56&gt;=13,S56&lt;18),2,IF(AND(S56&gt;=8,S56&lt;13),1,0))))</f>
+      <c r="E56" s="1">
+        <f t="shared" ref="E56:E57" si="41">IF(T56&gt;=23,4,IF(AND(T56&gt;=18,T56&lt;23),3,IF(AND(T56&gt;=13,T56&lt;18),2,IF(AND(T56&gt;=8,T56&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F56" s="1">
@@ -10068,73 +10336,79 @@
         <f t="shared" si="40"/>
         <v>150</v>
       </c>
-      <c r="H56" s="24"/>
-      <c r="I56" s="1">
+      <c r="H56" s="18"/>
+      <c r="I56" s="18">
         <v>100</v>
       </c>
-      <c r="J56" s="6">
-        <v>0</v>
-      </c>
-      <c r="K56" s="6">
-        <v>0</v>
-      </c>
-      <c r="L56" s="17">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c r="O56" s="6">
+      <c r="J56" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K56" s="18">
+        <v>0</v>
+      </c>
+      <c r="L56" s="18">
+        <v>0</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+      <c r="N56" s="18">
+        <v>0</v>
+      </c>
+      <c r="O56" s="18">
+        <v>0</v>
+      </c>
+      <c r="P56" s="18">
         <v>3</v>
       </c>
-      <c r="P56" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0</v>
-      </c>
-      <c r="R56" s="6">
+      <c r="Q56" s="18">
+        <v>0</v>
+      </c>
+      <c r="R56" s="18">
         <v>0</v>
       </c>
       <c r="S56" s="18">
+        <v>0</v>
+      </c>
+      <c r="T56" s="18">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X56" s="1"/>
-      <c r="Y56">
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18">
         <v>10</v>
       </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <f>IF(ISBLANK(AF56),0, LOOKUP(AF56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG56/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AF56">
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="18">
+        <f>IF(ISBLANK(AG56),0, LOOKUP(AG56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH56/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="18">
         <v>55110003</v>
       </c>
-      <c r="AG56">
+      <c r="AH56" s="18">
         <v>40</v>
       </c>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ56" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK56" s="2" t="s">
-        <v>175</v>
+      <c r="AI56" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ56" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK56" s="18" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.15">
@@ -10142,13 +10416,13 @@
         <v>21500009</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="16">
+      <c r="E57" s="1">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
@@ -10159,70 +10433,77 @@
         <f t="shared" ref="G57:G58" si="42">E57*50+50</f>
         <v>100</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="1">
+      <c r="H57" s="18"/>
+      <c r="I57" s="18">
         <v>100</v>
       </c>
-      <c r="J57" s="6">
-        <v>0</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0</v>
-      </c>
-      <c r="L57" s="17">
-        <v>0</v>
-      </c>
-      <c r="M57" s="6">
-        <v>0</v>
-      </c>
-      <c r="N57" s="6">
-        <v>0</v>
-      </c>
-      <c r="O57" s="6">
-        <v>0</v>
-      </c>
-      <c r="P57" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>0</v>
-      </c>
-      <c r="R57" s="6">
+      <c r="J57" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <v>0</v>
+      </c>
+      <c r="M57" s="18">
+        <v>0</v>
+      </c>
+      <c r="N57" s="18">
+        <v>0</v>
+      </c>
+      <c r="O57" s="18">
+        <v>0</v>
+      </c>
+      <c r="P57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>0</v>
+      </c>
+      <c r="R57" s="18">
         <v>0</v>
       </c>
       <c r="S57" s="18">
-        <f t="shared" ref="S57" si="43">J57+K57+ SUM(L57:R57)*5+AD57+AE57</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="18">
+        <f t="shared" ref="T57" si="43">K57+L57+ SUM(M57:S57)*5+AE57+AF57</f>
         <v>10</v>
       </c>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X57" s="1"/>
-      <c r="Y57">
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18">
         <v>10</v>
       </c>
-      <c r="Z57">
+      <c r="AA57" s="18">
         <v>31100001</v>
       </c>
-      <c r="AD57">
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18">
         <v>10</v>
       </c>
-      <c r="AE57">
-        <f>IF(ISBLANK(AF57),0, LOOKUP(AF57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG57/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ57" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK57" s="2" t="s">
-        <v>232</v>
+      <c r="AF57" s="18">
+        <f>IF(ISBLANK(AG57),0, LOOKUP(AG57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH57/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ57" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK57" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.15">
@@ -10230,14 +10511,14 @@
         <v>21500010</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="16">
-        <f t="shared" ref="E58:E59" si="44">IF(S58&gt;=23,4,IF(AND(S58&gt;=18,S58&lt;23),3,IF(AND(S58&gt;=13,S58&lt;18),2,IF(AND(S58&gt;=8,S58&lt;13),1,0))))</f>
+      <c r="E58" s="1">
+        <f t="shared" ref="E58:E59" si="44">IF(T58&gt;=23,4,IF(AND(T58&gt;=18,T58&lt;23),3,IF(AND(T58&gt;=13,T58&lt;18),2,IF(AND(T58&gt;=8,T58&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F58" s="1">
@@ -10247,72 +10528,79 @@
         <f t="shared" si="42"/>
         <v>150</v>
       </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="1">
+      <c r="H58" s="18"/>
+      <c r="I58" s="18">
         <v>100</v>
       </c>
-      <c r="J58" s="6">
-        <v>0</v>
-      </c>
-      <c r="K58" s="6">
-        <v>0</v>
-      </c>
-      <c r="L58" s="17">
-        <v>0</v>
-      </c>
-      <c r="M58" s="6">
-        <v>0</v>
-      </c>
-      <c r="N58" s="6">
-        <v>0</v>
-      </c>
-      <c r="O58" s="6">
-        <v>0</v>
-      </c>
-      <c r="P58" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>0</v>
-      </c>
-      <c r="R58" s="6">
+      <c r="J58" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
+      <c r="L58" s="18">
+        <v>0</v>
+      </c>
+      <c r="M58" s="18">
+        <v>0</v>
+      </c>
+      <c r="N58" s="18">
+        <v>0</v>
+      </c>
+      <c r="O58" s="18">
+        <v>0</v>
+      </c>
+      <c r="P58" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>0</v>
+      </c>
+      <c r="R58" s="18">
         <v>0</v>
       </c>
       <c r="S58" s="18">
-        <f t="shared" ref="S58" si="45">J58+K58+ SUM(L58:R58)*5+AD58+AE58</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="18">
+        <f t="shared" ref="T58" si="45">K58+L58+ SUM(M58:S58)*5+AE58+AF58</f>
         <v>15</v>
       </c>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y58">
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y58" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z58" s="18">
         <v>10</v>
       </c>
-      <c r="Z58">
+      <c r="AA58" s="18">
         <v>31100002</v>
       </c>
-      <c r="AD58">
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="18"/>
+      <c r="AE58" s="18">
         <v>15</v>
       </c>
-      <c r="AE58">
-        <f>IF(ISBLANK(AF58),0, LOOKUP(AF58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG58/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ58" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK58" s="2" t="s">
-        <v>234</v>
+      <c r="AF58" s="18">
+        <f>IF(ISBLANK(AG58),0, LOOKUP(AG58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH58/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK58" s="18" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.15">
@@ -10320,13 +10608,13 @@
         <v>21500011</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="16">
+      <c r="E59" s="1">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
@@ -10337,106 +10625,101 @@
         <f t="shared" ref="G59" si="46">E59*50+50</f>
         <v>250</v>
       </c>
-      <c r="H59" s="24"/>
-      <c r="I59" s="1">
+      <c r="H59" s="18"/>
+      <c r="I59" s="18">
         <v>100</v>
       </c>
-      <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0</v>
-      </c>
-      <c r="L59" s="17">
-        <v>0</v>
-      </c>
-      <c r="M59" s="6">
-        <v>0</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0</v>
-      </c>
-      <c r="O59" s="6">
-        <v>0</v>
-      </c>
-      <c r="P59" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>0</v>
-      </c>
-      <c r="R59" s="6">
+      <c r="J59" s="18">
+        <v>22100402</v>
+      </c>
+      <c r="K59" s="18">
+        <v>0</v>
+      </c>
+      <c r="L59" s="18">
+        <v>0</v>
+      </c>
+      <c r="M59" s="18">
+        <v>0</v>
+      </c>
+      <c r="N59" s="18">
+        <v>0</v>
+      </c>
+      <c r="O59" s="18">
+        <v>0</v>
+      </c>
+      <c r="P59" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>0</v>
+      </c>
+      <c r="R59" s="18">
         <v>0</v>
       </c>
       <c r="S59" s="18">
-        <f t="shared" ref="S59" si="47">J59+K59+ SUM(L59:R59)*5+AD59+AE59</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="18">
+        <f t="shared" ref="T59" si="47">K59+L59+ SUM(M59:S59)*5+AE59+AF59</f>
         <v>25</v>
       </c>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X59" s="1"/>
-      <c r="Y59">
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18">
         <v>10</v>
       </c>
-      <c r="Z59">
+      <c r="AA59" s="18">
         <v>31100003</v>
       </c>
-      <c r="AD59">
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
+      <c r="AE59" s="18">
         <v>25</v>
       </c>
-      <c r="AE59">
-        <f>IF(ISBLANK(AF59),0, LOOKUP(AF59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AG59/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AH59" s="9"/>
-      <c r="AI59" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ59" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK59" s="2" t="s">
-        <v>236</v>
+      <c r="AF59" s="18">
+        <f>IF(ISBLANK(AG59),0, LOOKUP(AG59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH59/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ59" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK59" s="18" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="E4:E24 E26 E28:E59">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E4:E59">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25 E27">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThanOrEqual">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
-      <formula>4</formula>
+  <conditionalFormatting sqref="H4:AK59">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10467,7 +10750,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10486,13 +10769,13 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>6</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2015,25 +2015,6 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
@@ -2621,6 +2602,54 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2698,104 +2727,9 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF9751CB"/>
     </mruColors>
@@ -4568,47 +4502,47 @@
     <tableColumn id="2" name="Name"/>
     <tableColumn id="34" name="Ename" dataDxfId="39"/>
     <tableColumn id="32" name="Des" dataDxfId="38"/>
-    <tableColumn id="3" name="Quality" dataDxfId="36">
+    <tableColumn id="3" name="Quality" dataDxfId="37">
       <calculatedColumnFormula>IF(T4&gt;=23,4,IF(AND(T4&gt;=18,T4&lt;23),3,IF(AND(T4&gt;=13,T4&lt;18),2,IF(AND(T4&gt;=8,T4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="37">
+    <tableColumn id="19" name="Value" dataDxfId="36">
       <calculatedColumnFormula>E4*50+50</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="35" name="ComposeStone" dataDxfId="35"/>
     <tableColumn id="36" name="ComposeWood" dataDxfId="34"/>
-    <tableColumn id="15" name="ComposeItemId" dataDxfId="0"/>
-    <tableColumn id="11" name="AtkR" dataDxfId="33"/>
-    <tableColumn id="8" name="VitR" dataDxfId="32"/>
-    <tableColumn id="6" name="Def" dataDxfId="31"/>
-    <tableColumn id="22" name="Mag" dataDxfId="30"/>
-    <tableColumn id="27" name="Spd" dataDxfId="29"/>
-    <tableColumn id="26" name="Hit" dataDxfId="28"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="27"/>
-    <tableColumn id="24" name="Crt" dataDxfId="26"/>
-    <tableColumn id="23" name="Luk" dataDxfId="25"/>
-    <tableColumn id="28" name="Sum" dataDxfId="24">
+    <tableColumn id="15" name="ComposeItemId" dataDxfId="33"/>
+    <tableColumn id="11" name="AtkR" dataDxfId="32"/>
+    <tableColumn id="8" name="VitR" dataDxfId="31"/>
+    <tableColumn id="6" name="Def" dataDxfId="30"/>
+    <tableColumn id="22" name="Mag" dataDxfId="29"/>
+    <tableColumn id="27" name="Spd" dataDxfId="28"/>
+    <tableColumn id="26" name="Hit" dataDxfId="27"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="26"/>
+    <tableColumn id="24" name="Crt" dataDxfId="25"/>
+    <tableColumn id="23" name="Luk" dataDxfId="24"/>
+    <tableColumn id="28" name="Sum" dataDxfId="23">
       <calculatedColumnFormula>K4+L4+ SUM(M4:S4)*5+AE4+AF4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="23"/>
-    <tableColumn id="33" name="Arrow" dataDxfId="22"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="21"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="20"/>
-    <tableColumn id="37" name="DungeonAttrs" dataDxfId="19"/>
-    <tableColumn id="7" name="Durable" dataDxfId="18"/>
-    <tableColumn id="20" name="HeroSkillId" dataDxfId="17"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="16"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="15"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="14"/>
-    <tableColumn id="21" name="~SkillMark2" dataDxfId="13"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="12">
+    <tableColumn id="12" name="Range" dataDxfId="22"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="21"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="20"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="19"/>
+    <tableColumn id="37" name="DungeonAttrs" dataDxfId="18"/>
+    <tableColumn id="7" name="Durable" dataDxfId="17"/>
+    <tableColumn id="20" name="HeroSkillId" dataDxfId="16"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="15"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="14"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="13"/>
+    <tableColumn id="21" name="~SkillMark2" dataDxfId="12"/>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CommonSkillId" dataDxfId="11"/>
-    <tableColumn id="14" name="CommonSkillRate" dataDxfId="10"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="9"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="8"/>
-    <tableColumn id="10" name="Url" dataDxfId="7"/>
+    <tableColumn id="13" name="CommonSkillId" dataDxfId="10"/>
+    <tableColumn id="14" name="CommonSkillRate" dataDxfId="9"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="8"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="7"/>
+    <tableColumn id="10" name="Url" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4622,7 +4556,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4938,7 +4872,7 @@
   <dimension ref="A1:AK59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5331,7 +5265,7 @@
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18">
-        <v>22100402</v>
+        <v>22100401</v>
       </c>
       <c r="K4" s="18">
         <v>0</v>
@@ -5521,7 +5455,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="18">
-        <v>22100402</v>
+        <v>22100205</v>
       </c>
       <c r="K6" s="18">
         <v>0</v>
@@ -5618,7 +5552,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="18">
-        <v>22100402</v>
+        <v>22100406</v>
       </c>
       <c r="K7" s="18">
         <v>0</v>
@@ -5713,7 +5647,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="18">
-        <v>22100402</v>
+        <v>22100206</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
@@ -5808,7 +5742,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="18">
-        <v>22100402</v>
+        <v>22100208</v>
       </c>
       <c r="K9" s="18">
         <v>0</v>
@@ -5905,7 +5839,7 @@
         <v>70</v>
       </c>
       <c r="J10" s="18">
-        <v>22100402</v>
+        <v>22100214</v>
       </c>
       <c r="K10" s="18">
         <v>0</v>
@@ -6000,7 +5934,7 @@
         <v>100</v>
       </c>
       <c r="J11" s="18">
-        <v>22100402</v>
+        <v>22100218</v>
       </c>
       <c r="K11" s="18">
         <v>0</v>
@@ -6095,7 +6029,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="18">
-        <v>22100402</v>
+        <v>22100210</v>
       </c>
       <c r="K12" s="18">
         <v>0</v>
@@ -6190,7 +6124,7 @@
         <v>100</v>
       </c>
       <c r="J13" s="18">
-        <v>22100402</v>
+        <v>22100201</v>
       </c>
       <c r="K13" s="18">
         <v>0</v>
@@ -6285,7 +6219,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="18">
-        <v>22100402</v>
+        <v>22100207</v>
       </c>
       <c r="K14" s="18">
         <v>0</v>
@@ -6380,7 +6314,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="18">
-        <v>22100402</v>
+        <v>22100213</v>
       </c>
       <c r="K15" s="18">
         <v>0</v>
@@ -6475,7 +6409,7 @@
         <v>100</v>
       </c>
       <c r="J16" s="18">
-        <v>22100402</v>
+        <v>22100205</v>
       </c>
       <c r="K16" s="18">
         <v>0</v>
@@ -6570,7 +6504,7 @@
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18">
-        <v>22100402</v>
+        <v>22100401</v>
       </c>
       <c r="K17" s="18">
         <v>0</v>
@@ -6665,7 +6599,7 @@
         <v>100</v>
       </c>
       <c r="J18" s="18">
-        <v>22100402</v>
+        <v>22100219</v>
       </c>
       <c r="K18" s="18">
         <v>0</v>
@@ -6762,7 +6696,7 @@
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>22100402</v>
+        <v>22100406</v>
       </c>
       <c r="K19" s="18">
         <v>0</v>
@@ -6861,7 +6795,7 @@
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18">
-        <v>22100402</v>
+        <v>22100405</v>
       </c>
       <c r="K20" s="18">
         <v>0</v>
@@ -6962,7 +6896,7 @@
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18">
-        <v>22100402</v>
+        <v>22100406</v>
       </c>
       <c r="K21" s="18">
         <v>0</v>
@@ -7061,7 +6995,7 @@
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18">
-        <v>22100402</v>
+        <v>22100405</v>
       </c>
       <c r="K22" s="18">
         <v>0</v>
@@ -7162,7 +7096,7 @@
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18">
-        <v>22100402</v>
+        <v>22100416</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
@@ -7261,7 +7195,7 @@
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18">
-        <v>22100402</v>
+        <v>22100416</v>
       </c>
       <c r="K24" s="18">
         <v>0</v>
@@ -7360,7 +7294,7 @@
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18">
-        <v>22100402</v>
+        <v>22100406</v>
       </c>
       <c r="K25" s="18">
         <v>0</v>
@@ -7461,7 +7395,7 @@
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18">
-        <v>22100402</v>
+        <v>22100404</v>
       </c>
       <c r="K26" s="18">
         <v>0</v>
@@ -7562,7 +7496,7 @@
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18">
-        <v>22100402</v>
+        <v>22100410</v>
       </c>
       <c r="K27" s="18">
         <v>0</v>
@@ -7663,7 +7597,7 @@
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18">
-        <v>22100402</v>
+        <v>22100412</v>
       </c>
       <c r="K28" s="18">
         <v>0</v>
@@ -7958,7 +7892,7 @@
         <v>50</v>
       </c>
       <c r="J31" s="18">
-        <v>22100402</v>
+        <v>22100415</v>
       </c>
       <c r="K31" s="18">
         <v>6</v>
@@ -8055,7 +7989,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="18">
-        <v>22100402</v>
+        <v>22100407</v>
       </c>
       <c r="K32" s="18">
         <v>8</v>
@@ -8156,7 +8090,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="18">
-        <v>22100402</v>
+        <v>22100407</v>
       </c>
       <c r="K33" s="18">
         <v>12</v>
@@ -8251,7 +8185,7 @@
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18">
-        <v>22100402</v>
+        <v>22100408</v>
       </c>
       <c r="K34" s="18">
         <v>20</v>
@@ -8348,7 +8282,7 @@
         <v>50</v>
       </c>
       <c r="J35" s="18">
-        <v>22100402</v>
+        <v>22100411</v>
       </c>
       <c r="K35" s="18">
         <v>5</v>
@@ -8443,7 +8377,7 @@
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18">
-        <v>22100402</v>
+        <v>22100416</v>
       </c>
       <c r="K36" s="18">
         <v>1</v>
@@ -8732,7 +8666,7 @@
         <v>100</v>
       </c>
       <c r="J39" s="18">
-        <v>22100402</v>
+        <v>22100202</v>
       </c>
       <c r="K39" s="18">
         <v>0</v>
@@ -8825,7 +8759,7 @@
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18">
-        <v>22100402</v>
+        <v>22100414</v>
       </c>
       <c r="K40" s="18">
         <v>0</v>
@@ -8922,7 +8856,7 @@
         <v>100</v>
       </c>
       <c r="J41" s="18">
-        <v>22100402</v>
+        <v>22100209</v>
       </c>
       <c r="K41" s="18">
         <v>0</v>
@@ -9015,7 +8949,7 @@
         <v>100</v>
       </c>
       <c r="J42" s="18">
-        <v>22100402</v>
+        <v>22100201</v>
       </c>
       <c r="K42" s="18">
         <v>0</v>
@@ -9110,7 +9044,7 @@
         <v>50</v>
       </c>
       <c r="J43" s="18">
-        <v>22100402</v>
+        <v>22100202</v>
       </c>
       <c r="K43" s="18">
         <v>0</v>
@@ -9203,7 +9137,7 @@
         <v>100</v>
       </c>
       <c r="J44" s="18">
-        <v>22100402</v>
+        <v>22100213</v>
       </c>
       <c r="K44" s="18">
         <v>0</v>
@@ -9296,7 +9230,7 @@
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18">
-        <v>22100402</v>
+        <v>22100414</v>
       </c>
       <c r="K45" s="18">
         <v>0</v>
@@ -9391,7 +9325,7 @@
         <v>50</v>
       </c>
       <c r="J46" s="18">
-        <v>22100402</v>
+        <v>22100215</v>
       </c>
       <c r="K46" s="18">
         <v>0</v>
@@ -9486,7 +9420,7 @@
         <v>50</v>
       </c>
       <c r="J47" s="18">
-        <v>22100402</v>
+        <v>22100205</v>
       </c>
       <c r="K47" s="18">
         <v>0</v>
@@ -9581,7 +9515,7 @@
         <v>50</v>
       </c>
       <c r="J48" s="18">
-        <v>22100402</v>
+        <v>22100411</v>
       </c>
       <c r="K48" s="18">
         <v>0</v>
@@ -9674,7 +9608,7 @@
         <v>100</v>
       </c>
       <c r="J49" s="18">
-        <v>22100402</v>
+        <v>22100204</v>
       </c>
       <c r="K49" s="18">
         <v>0</v>
@@ -9769,7 +9703,7 @@
         <v>100</v>
       </c>
       <c r="J50" s="18">
-        <v>22100402</v>
+        <v>22100204</v>
       </c>
       <c r="K50" s="18">
         <v>0</v>
@@ -9864,7 +9798,7 @@
         <v>100</v>
       </c>
       <c r="J51" s="18">
-        <v>22100402</v>
+        <v>22100215</v>
       </c>
       <c r="K51" s="18">
         <v>0</v>
@@ -9959,7 +9893,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="18">
-        <v>22100402</v>
+        <v>22100215</v>
       </c>
       <c r="K52" s="18">
         <v>0</v>
@@ -10056,7 +9990,7 @@
         <v>100</v>
       </c>
       <c r="J53" s="18">
-        <v>22100402</v>
+        <v>22100206</v>
       </c>
       <c r="K53" s="18">
         <v>0</v>
@@ -10151,7 +10085,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="18">
-        <v>22100402</v>
+        <v>22100203</v>
       </c>
       <c r="K54" s="18">
         <v>0</v>
@@ -10248,7 +10182,7 @@
         <v>100</v>
       </c>
       <c r="J55" s="18">
-        <v>22100402</v>
+        <v>22100203</v>
       </c>
       <c r="K55" s="18">
         <v>0</v>
@@ -10341,7 +10275,7 @@
         <v>100</v>
       </c>
       <c r="J56" s="18">
-        <v>22100402</v>
+        <v>22100214</v>
       </c>
       <c r="K56" s="18">
         <v>0</v>
@@ -10438,7 +10372,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="18">
-        <v>22100402</v>
+        <v>22100219</v>
       </c>
       <c r="K57" s="18">
         <v>0</v>
@@ -10533,7 +10467,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="18">
-        <v>22100402</v>
+        <v>22100214</v>
       </c>
       <c r="K58" s="18">
         <v>0</v>
@@ -10630,7 +10564,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="18">
-        <v>22100402</v>
+        <v>22100218</v>
       </c>
       <c r="K59" s="18">
         <v>0</v>
@@ -10701,24 +10635,24 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E4:E59">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AK59">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2013,7 +2013,10 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2066,6 +2069,71 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9751CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2141,9 +2209,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2758,1329 +2823,1814 @@
           <cell r="A1" t="str">
             <v>序列</v>
           </cell>
-          <cell r="Y1" t="str">
-            <v>卡牌表面特效</v>
+          <cell r="AB1" t="str">
+            <v>评分</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
             <v>int</v>
           </cell>
-          <cell r="Y2" t="str">
-            <v>string</v>
+          <cell r="AB2" t="str">
+            <v>int</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>Id</v>
           </cell>
-          <cell r="Y3" t="str">
-            <v>Cover</v>
+          <cell r="AB3" t="str">
+            <v>Mark</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
             <v>55100001</v>
           </cell>
-          <cell r="Y4"/>
+          <cell r="AB4">
+            <v>10</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5">
             <v>55100002</v>
           </cell>
-          <cell r="Y5"/>
+          <cell r="AB5">
+            <v>15</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
             <v>55100003</v>
           </cell>
-          <cell r="Y6"/>
+          <cell r="AB6">
+            <v>15</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
             <v>55100004</v>
           </cell>
-          <cell r="Y7"/>
+          <cell r="AB7">
+            <v>15</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
             <v>55100005</v>
           </cell>
-          <cell r="Y8"/>
+          <cell r="AB8">
+            <v>30</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
             <v>55100006</v>
           </cell>
-          <cell r="Y9"/>
+          <cell r="AB9">
+            <v>45</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
             <v>55100007</v>
           </cell>
-          <cell r="Y10"/>
+          <cell r="AB10">
+            <v>35</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11">
             <v>55100008</v>
           </cell>
-          <cell r="Y11"/>
+          <cell r="AB11">
+            <v>15</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>55100010</v>
-          </cell>
-          <cell r="Y12" t="str">
-            <v>coverstar</v>
+            <v>55100009</v>
+          </cell>
+          <cell r="AB12">
+            <v>15</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>55100011</v>
-          </cell>
-          <cell r="Y13"/>
+            <v>55100010</v>
+          </cell>
+          <cell r="AB13">
+            <v>30</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>55100012</v>
-          </cell>
-          <cell r="Y14" t="str">
-            <v>coverstar</v>
+            <v>55100011</v>
+          </cell>
+          <cell r="AB14">
+            <v>6</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>55100013</v>
-          </cell>
-          <cell r="Y15"/>
+            <v>55100012</v>
+          </cell>
+          <cell r="AB15">
+            <v>15</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>55100014</v>
-          </cell>
-          <cell r="Y16"/>
+            <v>55100013</v>
+          </cell>
+          <cell r="AB16">
+            <v>10</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>55100015</v>
-          </cell>
-          <cell r="Y17"/>
+            <v>55100014</v>
+          </cell>
+          <cell r="AB17">
+            <v>24</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>55110001</v>
-          </cell>
-          <cell r="Y18"/>
+            <v>55100015</v>
+          </cell>
+          <cell r="AB18">
+            <v>16</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>55110002</v>
-          </cell>
-          <cell r="Y19"/>
+            <v>55100016</v>
+          </cell>
+          <cell r="AB19">
+            <v>0</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>55110003</v>
-          </cell>
-          <cell r="Y20"/>
+            <v>55100017</v>
+          </cell>
+          <cell r="AB20">
+            <v>35</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>55110004</v>
-          </cell>
-          <cell r="Y21"/>
+            <v>55100018</v>
+          </cell>
+          <cell r="AB21">
+            <v>40</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>55110005</v>
-          </cell>
-          <cell r="Y22"/>
+            <v>55100019</v>
+          </cell>
+          <cell r="AB22">
+            <v>10</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>55110006</v>
-          </cell>
-          <cell r="Y23"/>
+            <v>55110001</v>
+          </cell>
+          <cell r="AB23">
+            <v>5</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>55110007</v>
-          </cell>
-          <cell r="Y24"/>
+            <v>55110002</v>
+          </cell>
+          <cell r="AB24">
+            <v>8</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>55110008</v>
-          </cell>
-          <cell r="Y25"/>
+            <v>55110003</v>
+          </cell>
+          <cell r="AB25">
+            <v>25</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>55110009</v>
-          </cell>
-          <cell r="Y26"/>
+            <v>55110004</v>
+          </cell>
+          <cell r="AB26">
+            <v>25</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>55110010</v>
-          </cell>
-          <cell r="Y27"/>
+            <v>55110005</v>
+          </cell>
+          <cell r="AB27">
+            <v>20</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>55110011</v>
-          </cell>
-          <cell r="Y28"/>
+            <v>55110006</v>
+          </cell>
+          <cell r="AB28">
+            <v>15</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>55110012</v>
-          </cell>
-          <cell r="Y29"/>
+            <v>55110007</v>
+          </cell>
+          <cell r="AB29">
+            <v>10</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>55110013</v>
-          </cell>
-          <cell r="Y30"/>
+            <v>55110008</v>
+          </cell>
+          <cell r="AB30">
+            <v>50</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>55110014</v>
-          </cell>
-          <cell r="Y31"/>
+            <v>55110009</v>
+          </cell>
+          <cell r="AB31">
+            <v>12</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>55110015</v>
-          </cell>
-          <cell r="Y32"/>
+            <v>55110010</v>
+          </cell>
+          <cell r="AB32">
+            <v>20</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>55110016</v>
-          </cell>
-          <cell r="Y33"/>
+            <v>55110011</v>
+          </cell>
+          <cell r="AB33">
+            <v>10</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>55110017</v>
-          </cell>
-          <cell r="Y34"/>
+            <v>55110012</v>
+          </cell>
+          <cell r="AB34">
+            <v>30</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>55110018</v>
-          </cell>
-          <cell r="Y35"/>
+            <v>55110013</v>
+          </cell>
+          <cell r="AB35">
+            <v>200</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>55110019</v>
-          </cell>
-          <cell r="Y36"/>
+            <v>55110014</v>
+          </cell>
+          <cell r="AB36">
+            <v>50</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>55110020</v>
-          </cell>
-          <cell r="Y37"/>
+            <v>55110015</v>
+          </cell>
+          <cell r="AB37">
+            <v>20</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>55200001</v>
-          </cell>
-          <cell r="Y38" t="str">
-            <v>coveraoe</v>
+            <v>55110016</v>
+          </cell>
+          <cell r="AB38">
+            <v>15</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>55200002</v>
-          </cell>
-          <cell r="Y39"/>
+            <v>55110017</v>
+          </cell>
+          <cell r="AB39">
+            <v>8</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>55200003</v>
-          </cell>
-          <cell r="Y40"/>
+            <v>55110018</v>
+          </cell>
+          <cell r="AB40">
+            <v>20</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>55200004</v>
-          </cell>
-          <cell r="Y41"/>
+            <v>55110019</v>
+          </cell>
+          <cell r="AB41">
+            <v>30</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>55200005</v>
-          </cell>
-          <cell r="Y42"/>
+            <v>55110020</v>
+          </cell>
+          <cell r="AB42">
+            <v>40</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>55200006</v>
-          </cell>
-          <cell r="Y43" t="str">
-            <v>coveraoe</v>
+            <v>55200001</v>
+          </cell>
+          <cell r="AB43">
+            <v>40</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>55200007</v>
-          </cell>
-          <cell r="Y44" t="str">
-            <v>coveraoe</v>
+            <v>55200002</v>
+          </cell>
+          <cell r="AB44">
+            <v>28</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>55200008</v>
-          </cell>
-          <cell r="Y45" t="str">
-            <v>coveraoe</v>
+            <v>55200003</v>
+          </cell>
+          <cell r="AB45">
+            <v>25</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>55200009</v>
-          </cell>
-          <cell r="Y46" t="str">
-            <v>coveraoe</v>
+            <v>55200004</v>
+          </cell>
+          <cell r="AB46">
+            <v>40</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>55200010</v>
-          </cell>
-          <cell r="Y47"/>
+            <v>55200005</v>
+          </cell>
+          <cell r="AB47">
+            <v>20</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>55200011</v>
-          </cell>
-          <cell r="Y48"/>
+            <v>55200006</v>
+          </cell>
+          <cell r="AB48">
+            <v>20</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>55200012</v>
-          </cell>
-          <cell r="Y49"/>
+            <v>55200007</v>
+          </cell>
+          <cell r="AB49">
+            <v>20</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>55200013</v>
-          </cell>
-          <cell r="Y50"/>
+            <v>55200008</v>
+          </cell>
+          <cell r="AB50">
+            <v>25</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>55200014</v>
-          </cell>
-          <cell r="Y51"/>
+            <v>55200009</v>
+          </cell>
+          <cell r="AB51">
+            <v>25</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>55200015</v>
-          </cell>
-          <cell r="Y52"/>
+            <v>55200010</v>
+          </cell>
+          <cell r="AB52">
+            <v>25</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>55300001</v>
-          </cell>
-          <cell r="Y53" t="str">
-            <v>coverauro</v>
+            <v>55200011</v>
+          </cell>
+          <cell r="AB53">
+            <v>20</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>55300002</v>
-          </cell>
-          <cell r="Y54"/>
+            <v>55200012</v>
+          </cell>
+          <cell r="AB54">
+            <v>30</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>55300003</v>
-          </cell>
-          <cell r="Y55"/>
+            <v>55200013</v>
+          </cell>
+          <cell r="AB55">
+            <v>10</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>55300004</v>
-          </cell>
-          <cell r="Y56"/>
+            <v>55200014</v>
+          </cell>
+          <cell r="AB56">
+            <v>25</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>55300005</v>
-          </cell>
-          <cell r="Y57"/>
+            <v>55200015</v>
+          </cell>
+          <cell r="AB57">
+            <v>20</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>55300006</v>
-          </cell>
-          <cell r="Y58"/>
+            <v>55200016</v>
+          </cell>
+          <cell r="AB58">
+            <v>30</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>55300007</v>
-          </cell>
-          <cell r="Y59"/>
+            <v>55200017</v>
+          </cell>
+          <cell r="AB59">
+            <v>35</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>55300008</v>
-          </cell>
-          <cell r="Y60"/>
+            <v>55200018</v>
+          </cell>
+          <cell r="AB60">
+            <v>50</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>55300009</v>
-          </cell>
-          <cell r="Y61"/>
+            <v>55300001</v>
+          </cell>
+          <cell r="AB61">
+            <v>40</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>55300010</v>
-          </cell>
-          <cell r="Y62"/>
+            <v>55300002</v>
+          </cell>
+          <cell r="AB62">
+            <v>30</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>55300011</v>
-          </cell>
-          <cell r="Y63"/>
+            <v>55300003</v>
+          </cell>
+          <cell r="AB63">
+            <v>30</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>55300012</v>
-          </cell>
-          <cell r="Y64"/>
+            <v>55300004</v>
+          </cell>
+          <cell r="AB64">
+            <v>30</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>55300013</v>
-          </cell>
-          <cell r="Y65"/>
+            <v>55300005</v>
+          </cell>
+          <cell r="AB65">
+            <v>30</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>55310001</v>
-          </cell>
-          <cell r="Y66"/>
+            <v>55300006</v>
+          </cell>
+          <cell r="AB66">
+            <v>25</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>55310002</v>
-          </cell>
-          <cell r="Y67"/>
+            <v>55300007</v>
+          </cell>
+          <cell r="AB67">
+            <v>25</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>55310003</v>
-          </cell>
-          <cell r="Y68"/>
+            <v>55300008</v>
+          </cell>
+          <cell r="AB68">
+            <v>30</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>55400001</v>
-          </cell>
-          <cell r="Y69"/>
+            <v>55300009</v>
+          </cell>
+          <cell r="AB69">
+            <v>30</v>
+          </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>55400002</v>
-          </cell>
-          <cell r="Y70"/>
+            <v>55300010</v>
+          </cell>
+          <cell r="AB70">
+            <v>35</v>
+          </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>55400003</v>
-          </cell>
-          <cell r="Y71"/>
+            <v>55300011</v>
+          </cell>
+          <cell r="AB71">
+            <v>25</v>
+          </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>55400005</v>
-          </cell>
-          <cell r="Y72"/>
+            <v>55300012</v>
+          </cell>
+          <cell r="AB72">
+            <v>5</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>55400006</v>
-          </cell>
-          <cell r="Y73"/>
+            <v>55300013</v>
+          </cell>
+          <cell r="AB73">
+            <v>25</v>
+          </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>55400007</v>
-          </cell>
-          <cell r="Y74"/>
+            <v>55310001</v>
+          </cell>
+          <cell r="AB74">
+            <v>100</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>55410001</v>
-          </cell>
-          <cell r="Y75"/>
+            <v>55310002</v>
+          </cell>
+          <cell r="AB75">
+            <v>15</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>55500001</v>
-          </cell>
-          <cell r="Y76"/>
+            <v>55310003</v>
+          </cell>
+          <cell r="AB76">
+            <v>13</v>
+          </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>55500002</v>
-          </cell>
-          <cell r="Y77"/>
+            <v>55400001</v>
+          </cell>
+          <cell r="AB77">
+            <v>80</v>
+          </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>55500003</v>
-          </cell>
-          <cell r="Y78"/>
+            <v>55400002</v>
+          </cell>
+          <cell r="AB78">
+            <v>80</v>
+          </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>55500004</v>
-          </cell>
-          <cell r="Y79"/>
+            <v>55400003</v>
+          </cell>
+          <cell r="AB79">
+            <v>80</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>55500005</v>
-          </cell>
-          <cell r="Y80"/>
+            <v>55400005</v>
+          </cell>
+          <cell r="AB80">
+            <v>55</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>55500006</v>
-          </cell>
-          <cell r="Y81"/>
+            <v>55400006</v>
+          </cell>
+          <cell r="AB81">
+            <v>30</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>55500007</v>
-          </cell>
-          <cell r="Y82"/>
+            <v>55400007</v>
+          </cell>
+          <cell r="AB82">
+            <v>25</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>55500008</v>
-          </cell>
-          <cell r="Y83"/>
+            <v>55400008</v>
+          </cell>
+          <cell r="AB83">
+            <v>35</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>55500009</v>
-          </cell>
-          <cell r="Y84"/>
+            <v>55410001</v>
+          </cell>
+          <cell r="AB84">
+            <v>50</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>55500010</v>
-          </cell>
-          <cell r="Y85"/>
+            <v>55500001</v>
+          </cell>
+          <cell r="AB85">
+            <v>5</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>55500011</v>
-          </cell>
-          <cell r="Y86"/>
+            <v>55500002</v>
+          </cell>
+          <cell r="AB86">
+            <v>5</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>55500012</v>
-          </cell>
-          <cell r="Y87"/>
+            <v>55500003</v>
+          </cell>
+          <cell r="AB87">
+            <v>5</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>55500013</v>
-          </cell>
-          <cell r="Y88"/>
+            <v>55500004</v>
+          </cell>
+          <cell r="AB88">
+            <v>5</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>55500014</v>
-          </cell>
-          <cell r="Y89"/>
+            <v>55500005</v>
+          </cell>
+          <cell r="AB89">
+            <v>5</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>55500015</v>
-          </cell>
-          <cell r="Y90"/>
+            <v>55500006</v>
+          </cell>
+          <cell r="AB90">
+            <v>5</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>55500016</v>
-          </cell>
-          <cell r="Y91"/>
+            <v>55500007</v>
+          </cell>
+          <cell r="AB91">
+            <v>5</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>55510001</v>
-          </cell>
-          <cell r="Y92"/>
+            <v>55500008</v>
+          </cell>
+          <cell r="AB92">
+            <v>5</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>55510002</v>
-          </cell>
-          <cell r="Y93"/>
+            <v>55500009</v>
+          </cell>
+          <cell r="AB93">
+            <v>5</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>55510003</v>
-          </cell>
-          <cell r="Y94"/>
+            <v>55500010</v>
+          </cell>
+          <cell r="AB94">
+            <v>5</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>55510004</v>
-          </cell>
-          <cell r="Y95"/>
+            <v>55500011</v>
+          </cell>
+          <cell r="AB95">
+            <v>5</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55510006</v>
-          </cell>
-          <cell r="Y96"/>
+            <v>55500012</v>
+          </cell>
+          <cell r="AB96">
+            <v>5</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55510007</v>
-          </cell>
-          <cell r="Y97"/>
+            <v>55500013</v>
+          </cell>
+          <cell r="AB97">
+            <v>5</v>
+          </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55510009</v>
-          </cell>
-          <cell r="Y98"/>
+            <v>55500014</v>
+          </cell>
+          <cell r="AB98">
+            <v>5</v>
+          </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55510010</v>
-          </cell>
-          <cell r="Y99"/>
+            <v>55500015</v>
+          </cell>
+          <cell r="AB99">
+            <v>5</v>
+          </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55510011</v>
-          </cell>
-          <cell r="Y100"/>
+            <v>55500016</v>
+          </cell>
+          <cell r="AB100">
+            <v>5</v>
+          </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55510012</v>
-          </cell>
-          <cell r="Y101"/>
+            <v>55510001</v>
+          </cell>
+          <cell r="AB101">
+            <v>12</v>
+          </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55510013</v>
-          </cell>
-          <cell r="Y102"/>
+            <v>55510002</v>
+          </cell>
+          <cell r="AB102">
+            <v>15</v>
+          </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55510014</v>
-          </cell>
-          <cell r="Y103"/>
+            <v>55510003</v>
+          </cell>
+          <cell r="AB103">
+            <v>15</v>
+          </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55510018</v>
-          </cell>
-          <cell r="Y104"/>
+            <v>55510004</v>
+          </cell>
+          <cell r="AB104">
+            <v>12</v>
+          </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55510019</v>
-          </cell>
-          <cell r="Y105"/>
+            <v>55510006</v>
+          </cell>
+          <cell r="AB105">
+            <v>25</v>
+          </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55520001</v>
-          </cell>
-          <cell r="Y106"/>
+            <v>55510007</v>
+          </cell>
+          <cell r="AB106">
+            <v>10</v>
+          </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55520002</v>
-          </cell>
-          <cell r="Y107"/>
+            <v>55510009</v>
+          </cell>
+          <cell r="AB107">
+            <v>50</v>
+          </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55520003</v>
-          </cell>
-          <cell r="Y108"/>
+            <v>55510010</v>
+          </cell>
+          <cell r="AB108">
+            <v>10</v>
+          </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55600001</v>
-          </cell>
-          <cell r="Y109" t="str">
-            <v>coverauro</v>
+            <v>55510011</v>
+          </cell>
+          <cell r="AB109">
+            <v>15</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55600002</v>
-          </cell>
-          <cell r="Y110" t="str">
-            <v>coverauro</v>
+            <v>55510012</v>
+          </cell>
+          <cell r="AB110">
+            <v>62</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55600004</v>
-          </cell>
-          <cell r="Y111" t="str">
-            <v>coverauro</v>
+            <v>55510013</v>
+          </cell>
+          <cell r="AB111">
+            <v>12</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55600005</v>
-          </cell>
-          <cell r="Y112" t="str">
-            <v>coverauro</v>
+            <v>55510014</v>
+          </cell>
+          <cell r="AB112">
+            <v>25</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55600006</v>
-          </cell>
-          <cell r="Y113" t="str">
-            <v>coverauro</v>
+            <v>55510018</v>
+          </cell>
+          <cell r="AB113">
+            <v>37</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55600007</v>
-          </cell>
-          <cell r="Y114" t="str">
-            <v>coverauro</v>
+            <v>55510019</v>
+          </cell>
+          <cell r="AB114">
+            <v>37</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55600008</v>
-          </cell>
-          <cell r="Y115" t="str">
-            <v>coverauro</v>
+            <v>55520001</v>
+          </cell>
+          <cell r="AB115">
+            <v>-25</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55600009</v>
-          </cell>
-          <cell r="Y116" t="str">
-            <v>coverauro</v>
+            <v>55520002</v>
+          </cell>
+          <cell r="AB116">
+            <v>62</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55600010</v>
-          </cell>
-          <cell r="Y117" t="str">
-            <v>coverauro</v>
+            <v>55520003</v>
+          </cell>
+          <cell r="AB117">
+            <v>27</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55600011</v>
-          </cell>
-          <cell r="Y118" t="str">
-            <v>coverauro</v>
+            <v>55600001</v>
+          </cell>
+          <cell r="AB118">
+            <v>8</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55600012</v>
-          </cell>
-          <cell r="Y119" t="str">
-            <v>coverauro</v>
+            <v>55600002</v>
+          </cell>
+          <cell r="AB119">
+            <v>10</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55600013</v>
-          </cell>
-          <cell r="Y120" t="str">
-            <v>coverauro</v>
+            <v>55600004</v>
+          </cell>
+          <cell r="AB120">
+            <v>8</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55600014</v>
-          </cell>
-          <cell r="Y121" t="str">
-            <v>coverauro</v>
+            <v>55600005</v>
+          </cell>
+          <cell r="AB121">
+            <v>15</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55600015</v>
-          </cell>
-          <cell r="Y122" t="str">
-            <v>coverauro</v>
+            <v>55600006</v>
+          </cell>
+          <cell r="AB122">
+            <v>15</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55600016</v>
-          </cell>
-          <cell r="Y123" t="str">
-            <v>coverauro</v>
+            <v>55600007</v>
+          </cell>
+          <cell r="AB123">
+            <v>20</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55610001</v>
-          </cell>
-          <cell r="Y124"/>
+            <v>55600008</v>
+          </cell>
+          <cell r="AB124">
+            <v>30</v>
+          </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55610002</v>
-          </cell>
-          <cell r="Y125"/>
+            <v>55600009</v>
+          </cell>
+          <cell r="AB125">
+            <v>13</v>
+          </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55610003</v>
-          </cell>
-          <cell r="Y126"/>
+            <v>55600010</v>
+          </cell>
+          <cell r="AB126">
+            <v>30</v>
+          </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55610004</v>
-          </cell>
-          <cell r="Y127"/>
+            <v>55600011</v>
+          </cell>
+          <cell r="AB127">
+            <v>20</v>
+          </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55700001</v>
-          </cell>
-          <cell r="Y128"/>
+            <v>55600012</v>
+          </cell>
+          <cell r="AB128">
+            <v>30</v>
+          </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55700002</v>
-          </cell>
-          <cell r="Y129"/>
+            <v>55600013</v>
+          </cell>
+          <cell r="AB129">
+            <v>15</v>
+          </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55700003</v>
-          </cell>
-          <cell r="Y130"/>
+            <v>55600014</v>
+          </cell>
+          <cell r="AB130">
+            <v>30</v>
+          </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55700004</v>
-          </cell>
-          <cell r="Y131"/>
+            <v>55600015</v>
+          </cell>
+          <cell r="AB131">
+            <v>10</v>
+          </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55700005</v>
-          </cell>
-          <cell r="Y132"/>
+            <v>55600016</v>
+          </cell>
+          <cell r="AB132">
+            <v>15</v>
+          </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55700006</v>
-          </cell>
-          <cell r="Y133"/>
+            <v>55600017</v>
+          </cell>
+          <cell r="AB133">
+            <v>20</v>
+          </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55700007</v>
-          </cell>
-          <cell r="Y134"/>
+            <v>55610001</v>
+          </cell>
+          <cell r="AB134">
+            <v>30</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55900001</v>
-          </cell>
-          <cell r="Y135" t="str">
-            <v>covertrans</v>
+            <v>55610002</v>
+          </cell>
+          <cell r="AB135">
+            <v>5</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55900002</v>
-          </cell>
-          <cell r="Y136"/>
+            <v>55610003</v>
+          </cell>
+          <cell r="AB136">
+            <v>5</v>
+          </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55900003</v>
-          </cell>
-          <cell r="Y137"/>
+            <v>55610004</v>
+          </cell>
+          <cell r="AB137">
+            <v>10</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55900004</v>
-          </cell>
-          <cell r="Y138"/>
+            <v>55700001</v>
+          </cell>
+          <cell r="AB138">
+            <v>20</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55900005</v>
-          </cell>
-          <cell r="Y139"/>
+            <v>55700002</v>
+          </cell>
+          <cell r="AB139">
+            <v>20</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55900006</v>
-          </cell>
-          <cell r="Y140"/>
+            <v>55700003</v>
+          </cell>
+          <cell r="AB140">
+            <v>20</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55900007</v>
-          </cell>
-          <cell r="Y141"/>
+            <v>55700004</v>
+          </cell>
+          <cell r="AB141">
+            <v>20</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55900008</v>
-          </cell>
-          <cell r="Y142"/>
+            <v>55700005</v>
+          </cell>
+          <cell r="AB142">
+            <v>40</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55900009</v>
-          </cell>
-          <cell r="Y143"/>
+            <v>55700006</v>
+          </cell>
+          <cell r="AB143">
+            <v>50</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55900010</v>
-          </cell>
-          <cell r="Y144"/>
+            <v>55700007</v>
+          </cell>
+          <cell r="AB144">
+            <v>35</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55900011</v>
-          </cell>
-          <cell r="Y145"/>
+            <v>55900001</v>
+          </cell>
+          <cell r="AB145">
+            <v>35</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55900012</v>
-          </cell>
-          <cell r="Y146"/>
+            <v>55900002</v>
+          </cell>
+          <cell r="AB146">
+            <v>30</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55900013</v>
-          </cell>
-          <cell r="Y147"/>
+            <v>55900003</v>
+          </cell>
+          <cell r="AB147">
+            <v>80</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55900014</v>
-          </cell>
-          <cell r="Y148"/>
+            <v>55900004</v>
+          </cell>
+          <cell r="AB148">
+            <v>15</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55900015</v>
-          </cell>
-          <cell r="Y149"/>
+            <v>55900005</v>
+          </cell>
+          <cell r="AB149">
+            <v>20</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55900016</v>
-          </cell>
-          <cell r="Y150"/>
+            <v>55900006</v>
+          </cell>
+          <cell r="AB150">
+            <v>35</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55900017</v>
-          </cell>
-          <cell r="Y151" t="str">
-            <v>covertrans</v>
+            <v>55900007</v>
+          </cell>
+          <cell r="AB151">
+            <v>25</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55900018</v>
-          </cell>
-          <cell r="Y152" t="str">
-            <v>covertrans</v>
+            <v>55900008</v>
+          </cell>
+          <cell r="AB152">
+            <v>40</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55900019</v>
-          </cell>
-          <cell r="Y153" t="str">
-            <v>covertrans</v>
+            <v>55900009</v>
+          </cell>
+          <cell r="AB153">
+            <v>30</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55900020</v>
-          </cell>
-          <cell r="Y154"/>
+            <v>55900010</v>
+          </cell>
+          <cell r="AB154">
+            <v>20</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55900021</v>
-          </cell>
-          <cell r="Y155"/>
+            <v>55900011</v>
+          </cell>
+          <cell r="AB155">
+            <v>15</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55900022</v>
-          </cell>
-          <cell r="Y156"/>
+            <v>55900012</v>
+          </cell>
+          <cell r="AB156">
+            <v>25</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55900023</v>
-          </cell>
-          <cell r="Y157"/>
+            <v>55900013</v>
+          </cell>
+          <cell r="AB157">
+            <v>10</v>
+          </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55900024</v>
-          </cell>
-          <cell r="Y158"/>
+            <v>55900014</v>
+          </cell>
+          <cell r="AB158">
+            <v>20</v>
+          </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55900025</v>
-          </cell>
-          <cell r="Y159"/>
+            <v>55900015</v>
+          </cell>
+          <cell r="AB159">
+            <v>30</v>
+          </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55900026</v>
-          </cell>
-          <cell r="Y160"/>
+            <v>55900016</v>
+          </cell>
+          <cell r="AB160">
+            <v>45</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55900027</v>
-          </cell>
-          <cell r="Y161"/>
+            <v>55900017</v>
+          </cell>
+          <cell r="AB161">
+            <v>10</v>
+          </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55900028</v>
-          </cell>
-          <cell r="Y162"/>
+            <v>55900018</v>
+          </cell>
+          <cell r="AB162">
+            <v>30</v>
+          </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55900029</v>
-          </cell>
-          <cell r="Y163"/>
+            <v>55900019</v>
+          </cell>
+          <cell r="AB163">
+            <v>80</v>
+          </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>55900030</v>
-          </cell>
-          <cell r="Y164"/>
+            <v>55900020</v>
+          </cell>
+          <cell r="AB164">
+            <v>20</v>
+          </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>55900031</v>
-          </cell>
-          <cell r="Y165"/>
+            <v>55900021</v>
+          </cell>
+          <cell r="AB165">
+            <v>10</v>
+          </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>55900032</v>
-          </cell>
-          <cell r="Y166"/>
+            <v>55900022</v>
+          </cell>
+          <cell r="AB166">
+            <v>20</v>
+          </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>55900033</v>
-          </cell>
-          <cell r="Y167"/>
+            <v>55900023</v>
+          </cell>
+          <cell r="AB167">
+            <v>25</v>
+          </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>55900034</v>
-          </cell>
-          <cell r="Y168"/>
+            <v>55900024</v>
+          </cell>
+          <cell r="AB168">
+            <v>10</v>
+          </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>55900035</v>
-          </cell>
-          <cell r="Y169"/>
+            <v>55900025</v>
+          </cell>
+          <cell r="AB169">
+            <v>10</v>
+          </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>55900036</v>
-          </cell>
-          <cell r="Y170"/>
+            <v>55900026</v>
+          </cell>
+          <cell r="AB170">
+            <v>20</v>
+          </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>55900037</v>
-          </cell>
-          <cell r="Y171"/>
+            <v>55900027</v>
+          </cell>
+          <cell r="AB171">
+            <v>35</v>
+          </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>55900038</v>
-          </cell>
-          <cell r="Y172"/>
+            <v>55900028</v>
+          </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>55900039</v>
-          </cell>
-          <cell r="Y173" t="str">
-            <v>coverstar</v>
+            <v>55900029</v>
+          </cell>
+          <cell r="AB173">
+            <v>15</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>55900040</v>
-          </cell>
-          <cell r="Y174"/>
+            <v>55900030</v>
+          </cell>
+          <cell r="AB174">
+            <v>15</v>
+          </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>55900041</v>
-          </cell>
-          <cell r="Y175"/>
+            <v>55900031</v>
+          </cell>
+          <cell r="AB175">
+            <v>5</v>
+          </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>55900042</v>
-          </cell>
-          <cell r="Y176"/>
+            <v>55900032</v>
+          </cell>
+          <cell r="AB176">
+            <v>20</v>
+          </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>55900043</v>
-          </cell>
-          <cell r="Y177"/>
+            <v>55900033</v>
+          </cell>
+          <cell r="AB177">
+            <v>20</v>
+          </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55900044</v>
-          </cell>
-          <cell r="Y178"/>
+            <v>55900034</v>
+          </cell>
+          <cell r="AB178">
+            <v>14</v>
+          </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55900045</v>
-          </cell>
-          <cell r="Y179"/>
+            <v>55900035</v>
+          </cell>
+          <cell r="AB179">
+            <v>14</v>
+          </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55900046</v>
-          </cell>
-          <cell r="Y180"/>
+            <v>55900036</v>
+          </cell>
+          <cell r="AB180">
+            <v>50</v>
+          </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>55900047</v>
-          </cell>
-          <cell r="Y181"/>
+            <v>55900037</v>
+          </cell>
+          <cell r="AB181">
+            <v>35</v>
+          </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55900048</v>
-          </cell>
-          <cell r="Y182"/>
+            <v>55900038</v>
+          </cell>
+          <cell r="AB182">
+            <v>40</v>
+          </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55900049</v>
-          </cell>
-          <cell r="Y183"/>
+            <v>55900039</v>
+          </cell>
+          <cell r="AB183">
+            <v>40</v>
+          </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55900050</v>
-          </cell>
-          <cell r="Y184"/>
+            <v>55900040</v>
+          </cell>
+          <cell r="AB184">
+            <v>30</v>
+          </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55900051</v>
-          </cell>
-          <cell r="Y185"/>
+            <v>55900041</v>
+          </cell>
+          <cell r="AB185">
+            <v>0</v>
+          </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55900052</v>
-          </cell>
-          <cell r="Y186"/>
+            <v>55900042</v>
+          </cell>
+          <cell r="AB186">
+            <v>25</v>
+          </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55900053</v>
-          </cell>
-          <cell r="Y187"/>
+            <v>55900043</v>
+          </cell>
+          <cell r="AB187">
+            <v>30</v>
+          </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55900054</v>
-          </cell>
-          <cell r="Y188"/>
+            <v>55900044</v>
+          </cell>
+          <cell r="AB188">
+            <v>40</v>
+          </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55900055</v>
-          </cell>
-          <cell r="Y189"/>
+            <v>55900045</v>
+          </cell>
+          <cell r="AB189">
+            <v>25</v>
+          </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55900056</v>
-          </cell>
-          <cell r="Y190"/>
+            <v>55900046</v>
+          </cell>
+          <cell r="AB190">
+            <v>25</v>
+          </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55990001</v>
-          </cell>
-          <cell r="Y191"/>
+            <v>55900047</v>
+          </cell>
+          <cell r="AB191">
+            <v>30</v>
+          </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55990002</v>
-          </cell>
-          <cell r="Y192"/>
+            <v>55900048</v>
+          </cell>
+          <cell r="AB192">
+            <v>60</v>
+          </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55990003</v>
-          </cell>
-          <cell r="Y193"/>
+            <v>55900049</v>
+          </cell>
+          <cell r="AB193">
+            <v>25</v>
+          </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55990004</v>
-          </cell>
-          <cell r="Y194"/>
+            <v>55900050</v>
+          </cell>
+          <cell r="AB194">
+            <v>20</v>
+          </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55990005</v>
-          </cell>
-          <cell r="Y195"/>
+            <v>55900051</v>
+          </cell>
+          <cell r="AB195">
+            <v>25</v>
+          </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55990006</v>
-          </cell>
-          <cell r="Y196"/>
+            <v>55900052</v>
+          </cell>
+          <cell r="AB196">
+            <v>5</v>
+          </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55990011</v>
-          </cell>
-          <cell r="Y197"/>
+            <v>55900053</v>
+          </cell>
+          <cell r="AB197">
+            <v>30</v>
+          </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>55990012</v>
-          </cell>
-          <cell r="Y198"/>
+            <v>55900054</v>
+          </cell>
+          <cell r="AB198">
+            <v>15</v>
+          </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>55990013</v>
-          </cell>
-          <cell r="Y199"/>
+            <v>55900055</v>
+          </cell>
+          <cell r="AB199">
+            <v>15</v>
+          </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>55990014</v>
-          </cell>
-          <cell r="Y200"/>
+            <v>55900056</v>
+          </cell>
+          <cell r="AB200">
+            <v>10</v>
+          </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>55990015</v>
-          </cell>
-          <cell r="Y201"/>
+            <v>55900057</v>
+          </cell>
+          <cell r="AB201">
+            <v>40</v>
+          </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>55990016</v>
-          </cell>
-          <cell r="Y202"/>
+            <v>55900058</v>
+          </cell>
+          <cell r="AB202">
+            <v>80</v>
+          </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>55990101</v>
-          </cell>
-          <cell r="Y203"/>
+            <v>55900059</v>
+          </cell>
+          <cell r="AB203">
+            <v>-30</v>
+          </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>55990102</v>
-          </cell>
-          <cell r="Y204"/>
+            <v>55900060</v>
+          </cell>
+          <cell r="AB204">
+            <v>60</v>
+          </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>55990103</v>
-          </cell>
-          <cell r="Y205"/>
+            <v>55900061</v>
+          </cell>
+          <cell r="AB205">
+            <v>20</v>
+          </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>55990104</v>
-          </cell>
-          <cell r="Y206"/>
+            <v>55900062</v>
+          </cell>
+          <cell r="AB206">
+            <v>15</v>
+          </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>55990105</v>
-          </cell>
-          <cell r="Y207"/>
+            <v>55990001</v>
+          </cell>
+          <cell r="AB207">
+            <v>10</v>
+          </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>55990106</v>
-          </cell>
-          <cell r="Y208"/>
+            <v>55990002</v>
+          </cell>
+          <cell r="AB208">
+            <v>10</v>
+          </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>55990107</v>
-          </cell>
-          <cell r="Y209"/>
+            <v>55990003</v>
+          </cell>
+          <cell r="AB209">
+            <v>10</v>
+          </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>55990108</v>
-          </cell>
-          <cell r="Y210"/>
+            <v>55990004</v>
+          </cell>
+          <cell r="AB210">
+            <v>10</v>
+          </cell>
         </row>
         <row r="211">
           <cell r="A211">
+            <v>55990005</v>
+          </cell>
+          <cell r="AB211">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>55990006</v>
+          </cell>
+          <cell r="AB212">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>55990011</v>
+          </cell>
+          <cell r="AB213">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>55990012</v>
+          </cell>
+          <cell r="AB214">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>55990013</v>
+          </cell>
+          <cell r="AB215">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>55990014</v>
+          </cell>
+          <cell r="AB216">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>55990015</v>
+          </cell>
+          <cell r="AB217">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>55990016</v>
+          </cell>
+          <cell r="AB218">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>55990101</v>
+          </cell>
+          <cell r="AB219">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>55990102</v>
+          </cell>
+          <cell r="AB220">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>55990103</v>
+          </cell>
+          <cell r="AB221">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>55990104</v>
+          </cell>
+          <cell r="AB222">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>55990105</v>
+          </cell>
+          <cell r="AB223">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>55990106</v>
+          </cell>
+          <cell r="AB224">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>55990107</v>
+          </cell>
+          <cell r="AB225">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>55990108</v>
+          </cell>
+          <cell r="AB226">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
             <v>55990109</v>
           </cell>
-          <cell r="Y211"/>
+          <cell r="AB227">
+            <v>15</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -4500,49 +5050,49 @@
   <tableColumns count="37">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="34" name="Ename" dataDxfId="39"/>
-    <tableColumn id="32" name="Des" dataDxfId="38"/>
-    <tableColumn id="3" name="Quality" dataDxfId="37">
+    <tableColumn id="34" name="Ename" dataDxfId="45"/>
+    <tableColumn id="32" name="Des" dataDxfId="44"/>
+    <tableColumn id="3" name="Quality" dataDxfId="43">
       <calculatedColumnFormula>IF(T4&gt;=23,4,IF(AND(T4&gt;=18,T4&lt;23),3,IF(AND(T4&gt;=13,T4&lt;18),2,IF(AND(T4&gt;=8,T4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="36">
+    <tableColumn id="19" name="Value" dataDxfId="42">
       <calculatedColumnFormula>E4*50+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="ComposeStone" dataDxfId="35"/>
-    <tableColumn id="36" name="ComposeWood" dataDxfId="34"/>
-    <tableColumn id="15" name="ComposeItemId" dataDxfId="33"/>
-    <tableColumn id="11" name="AtkR" dataDxfId="32"/>
-    <tableColumn id="8" name="VitR" dataDxfId="31"/>
-    <tableColumn id="6" name="Def" dataDxfId="30"/>
-    <tableColumn id="22" name="Mag" dataDxfId="29"/>
-    <tableColumn id="27" name="Spd" dataDxfId="28"/>
-    <tableColumn id="26" name="Hit" dataDxfId="27"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="26"/>
-    <tableColumn id="24" name="Crt" dataDxfId="25"/>
-    <tableColumn id="23" name="Luk" dataDxfId="24"/>
-    <tableColumn id="28" name="Sum" dataDxfId="23">
+    <tableColumn id="35" name="ComposeStone" dataDxfId="41"/>
+    <tableColumn id="36" name="ComposeWood" dataDxfId="40"/>
+    <tableColumn id="15" name="ComposeItemId" dataDxfId="39"/>
+    <tableColumn id="11" name="AtkR" dataDxfId="38"/>
+    <tableColumn id="8" name="VitR" dataDxfId="37"/>
+    <tableColumn id="6" name="Def" dataDxfId="36"/>
+    <tableColumn id="22" name="Mag" dataDxfId="35"/>
+    <tableColumn id="27" name="Spd" dataDxfId="34"/>
+    <tableColumn id="26" name="Hit" dataDxfId="33"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="32"/>
+    <tableColumn id="24" name="Crt" dataDxfId="31"/>
+    <tableColumn id="23" name="Luk" dataDxfId="30"/>
+    <tableColumn id="28" name="Sum" dataDxfId="29">
       <calculatedColumnFormula>K4+L4+ SUM(M4:S4)*5+AE4+AF4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="22"/>
-    <tableColumn id="33" name="Arrow" dataDxfId="21"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="20"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="19"/>
-    <tableColumn id="37" name="DungeonAttrs" dataDxfId="18"/>
-    <tableColumn id="7" name="Durable" dataDxfId="17"/>
-    <tableColumn id="20" name="HeroSkillId" dataDxfId="16"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="15"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="14"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="13"/>
-    <tableColumn id="21" name="~SkillMark2" dataDxfId="12"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="11">
-      <calculatedColumnFormula>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH4/100)</calculatedColumnFormula>
+    <tableColumn id="12" name="Range" dataDxfId="28"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="27"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="26"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="25"/>
+    <tableColumn id="37" name="DungeonAttrs" dataDxfId="24"/>
+    <tableColumn id="7" name="Durable" dataDxfId="23"/>
+    <tableColumn id="20" name="HeroSkillId" dataDxfId="22"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="21"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="20"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="19"/>
+    <tableColumn id="21" name="~SkillMark2" dataDxfId="18"/>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CommonSkillId" dataDxfId="10"/>
-    <tableColumn id="14" name="CommonSkillRate" dataDxfId="9"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="8"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="7"/>
-    <tableColumn id="10" name="Url" dataDxfId="6"/>
+    <tableColumn id="13" name="CommonSkillId" dataDxfId="17"/>
+    <tableColumn id="14" name="CommonSkillRate" dataDxfId="16"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="15"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="14"/>
+    <tableColumn id="10" name="Url" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4871,8 +5421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5318,7 +5868,7 @@
         <v>-10</v>
       </c>
       <c r="AF4" s="18">
-        <f>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH4/100)</f>
+        <f>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH4/100)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="18"/>
@@ -5413,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="18">
-        <f>IF(ISBLANK(AG5),0, LOOKUP(AG5,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH5/100)</f>
+        <f>IF(ISBLANK(AG5),0, LOOKUP(AG5,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH5/100)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="18"/>
@@ -5508,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="18">
-        <f>IF(ISBLANK(AG6),0, LOOKUP(AG6,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH6/100)</f>
+        <f>IF(ISBLANK(AG6),0, LOOKUP(AG6,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH6/100)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="18"/>
@@ -5605,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="18">
-        <f>IF(ISBLANK(AG7),0, LOOKUP(AG7,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH7/100)</f>
+        <f>IF(ISBLANK(AG7),0, LOOKUP(AG7,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH7/100)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="18"/>
@@ -5700,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="18">
-        <f>IF(ISBLANK(AG8),0, LOOKUP(AG8,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH8/100)</f>
+        <f>IF(ISBLANK(AG8),0, LOOKUP(AG8,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH8/100)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="18"/>
@@ -5795,7 +6345,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="18">
-        <f>IF(ISBLANK(AG9),0, LOOKUP(AG9,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH9/100)</f>
+        <f>IF(ISBLANK(AG9),0, LOOKUP(AG9,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH9/100)</f>
         <v>0</v>
       </c>
       <c r="AG9" s="18"/>
@@ -5892,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="18">
-        <f>IF(ISBLANK(AG10),0, LOOKUP(AG10,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH10/100)</f>
+        <f>IF(ISBLANK(AG10),0, LOOKUP(AG10,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH10/100)</f>
         <v>0</v>
       </c>
       <c r="AG10" s="18"/>
@@ -5987,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="18">
-        <f>IF(ISBLANK(AG11),0, LOOKUP(AG11,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH11/100)</f>
+        <f>IF(ISBLANK(AG11),0, LOOKUP(AG11,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH11/100)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="18"/>
@@ -6082,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="18">
-        <f>IF(ISBLANK(AG12),0, LOOKUP(AG12,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH12/100)</f>
+        <f>IF(ISBLANK(AG12),0, LOOKUP(AG12,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH12/100)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="18"/>
@@ -6177,7 +6727,7 @@
         <v>-10</v>
       </c>
       <c r="AF13" s="18">
-        <f>IF(ISBLANK(AG13),0, LOOKUP(AG13,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH13/100)</f>
+        <f>IF(ISBLANK(AG13),0, LOOKUP(AG13,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH13/100)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="18"/>
@@ -6272,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="18">
-        <f>IF(ISBLANK(AG14),0, LOOKUP(AG14,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH14/100)</f>
+        <f>IF(ISBLANK(AG14),0, LOOKUP(AG14,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH14/100)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="18"/>
@@ -6367,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="18">
-        <f>IF(ISBLANK(AG15),0, LOOKUP(AG15,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH15/100)</f>
+        <f>IF(ISBLANK(AG15),0, LOOKUP(AG15,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH15/100)</f>
         <v>0</v>
       </c>
       <c r="AG15" s="18"/>
@@ -6462,7 +7012,7 @@
         <v>-10</v>
       </c>
       <c r="AF16" s="18">
-        <f>IF(ISBLANK(AG16),0, LOOKUP(AG16,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH16/100)</f>
+        <f>IF(ISBLANK(AG16),0, LOOKUP(AG16,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH16/100)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="18"/>
@@ -6557,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="18">
-        <f>IF(ISBLANK(AG17),0, LOOKUP(AG17,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH17/100)</f>
+        <f>IF(ISBLANK(AG17),0, LOOKUP(AG17,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH17/100)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="18"/>
@@ -6652,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="18">
-        <f>IF(ISBLANK(AG18),0, LOOKUP(AG18,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH18/100)</f>
+        <f>IF(ISBLANK(AG18),0, LOOKUP(AG18,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH18/100)</f>
         <v>0</v>
       </c>
       <c r="AG18" s="18"/>
@@ -6751,7 +7301,7 @@
         <v>10</v>
       </c>
       <c r="AF19" s="18">
-        <f>IF(ISBLANK(AG19),0, LOOKUP(AG19,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH19/100)</f>
+        <f>IF(ISBLANK(AG19),0, LOOKUP(AG19,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH19/100)</f>
         <v>0</v>
       </c>
       <c r="AG19" s="18"/>
@@ -6852,7 +7402,7 @@
         <v>14</v>
       </c>
       <c r="AF20" s="18">
-        <f>IF(ISBLANK(AG20),0, LOOKUP(AG20,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH20/100)</f>
+        <f>IF(ISBLANK(AG20),0, LOOKUP(AG20,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH20/100)</f>
         <v>0</v>
       </c>
       <c r="AG20" s="18"/>
@@ -6951,7 +7501,7 @@
         <v>12.5</v>
       </c>
       <c r="AF21" s="18">
-        <f>IF(ISBLANK(AG21),0, LOOKUP(AG21,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH21/100)</f>
+        <f>IF(ISBLANK(AG21),0, LOOKUP(AG21,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH21/100)</f>
         <v>0</v>
       </c>
       <c r="AG21" s="18"/>
@@ -7052,7 +7602,7 @@
         <v>14</v>
       </c>
       <c r="AF22" s="18">
-        <f>IF(ISBLANK(AG22),0, LOOKUP(AG22,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH22/100)</f>
+        <f>IF(ISBLANK(AG22),0, LOOKUP(AG22,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH22/100)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="18"/>
@@ -7151,7 +7701,7 @@
         <v>6</v>
       </c>
       <c r="AF23" s="18">
-        <f>IF(ISBLANK(AG23),0, LOOKUP(AG23,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH23/100)</f>
+        <f>IF(ISBLANK(AG23),0, LOOKUP(AG23,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH23/100)</f>
         <v>0</v>
       </c>
       <c r="AG23" s="18"/>
@@ -7250,7 +7800,7 @@
         <v>6</v>
       </c>
       <c r="AF24" s="18">
-        <f>IF(ISBLANK(AG24),0, LOOKUP(AG24,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH24/100)</f>
+        <f>IF(ISBLANK(AG24),0, LOOKUP(AG24,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH24/100)</f>
         <v>0</v>
       </c>
       <c r="AG24" s="18"/>
@@ -7351,7 +7901,7 @@
         <v>9</v>
       </c>
       <c r="AF25" s="18">
-        <f>IF(ISBLANK(AG25),0, LOOKUP(AG25,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH25/100)</f>
+        <f>IF(ISBLANK(AG25),0, LOOKUP(AG25,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH25/100)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="18"/>
@@ -7452,7 +8002,7 @@
         <v>18</v>
       </c>
       <c r="AF26" s="18">
-        <f>IF(ISBLANK(AG26),0, LOOKUP(AG26,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH26/100)</f>
+        <f>IF(ISBLANK(AG26),0, LOOKUP(AG26,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH26/100)</f>
         <v>0</v>
       </c>
       <c r="AG26" s="18"/>
@@ -7553,7 +8103,7 @@
         <v>15</v>
       </c>
       <c r="AF27" s="18">
-        <f>IF(ISBLANK(AG27),0, LOOKUP(AG27,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH27/100)</f>
+        <f>IF(ISBLANK(AG27),0, LOOKUP(AG27,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH27/100)</f>
         <v>0</v>
       </c>
       <c r="AG27" s="18"/>
@@ -7654,7 +8204,7 @@
         <v>25</v>
       </c>
       <c r="AF28" s="18">
-        <f>IF(ISBLANK(AG28),0, LOOKUP(AG28,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH28/100)</f>
+        <f>IF(ISBLANK(AG28),0, LOOKUP(AG28,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH28/100)</f>
         <v>0</v>
       </c>
       <c r="AG28" s="18"/>
@@ -7749,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="18">
-        <f>IF(ISBLANK(AG29),0, LOOKUP(AG29,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH29/100)</f>
+        <f>IF(ISBLANK(AG29),0, LOOKUP(AG29,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH29/100)</f>
         <v>0</v>
       </c>
       <c r="AG29" s="18"/>
@@ -7777,14 +8327,14 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <f t="shared" ref="E30:E31" si="20">IF(T30&gt;=23,4,IF(AND(T30&gt;=18,T30&lt;23),3,IF(AND(T30&gt;=13,T30&lt;18),2,IF(AND(T30&gt;=8,T30&lt;13),1,0))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H30" s="18">
         <v>100</v>
@@ -7822,7 +8372,7 @@
       </c>
       <c r="T30" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U30" s="18"/>
       <c r="V30" s="18" t="s">
@@ -7844,8 +8394,8 @@
         <v>0</v>
       </c>
       <c r="AF30" s="18">
-        <f>IF(ISBLANK(AG30),0, LOOKUP(AG30,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH30/100)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(AG30),0, LOOKUP(AG30,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH30/100)</f>
+        <v>6</v>
       </c>
       <c r="AG30" s="18">
         <v>55510010</v>
@@ -7945,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="18">
-        <f>IF(ISBLANK(AG31),0, LOOKUP(AG31,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH31/100)</f>
+        <f>IF(ISBLANK(AG31),0, LOOKUP(AG31,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH31/100)</f>
         <v>0</v>
       </c>
       <c r="AG31" s="18"/>
@@ -7973,14 +8523,14 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <f t="shared" ref="E32:E33" si="21">IF(T32&gt;=23,4,IF(AND(T32&gt;=18,T32&lt;23),3,IF(AND(T32&gt;=13,T32&lt;18),2,IF(AND(T32&gt;=8,T32&lt;13),1,0))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H32" s="18">
         <v>50</v>
@@ -8020,7 +8570,7 @@
       </c>
       <c r="T32" s="18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>17.3</v>
       </c>
       <c r="U32" s="18"/>
       <c r="V32" s="18" t="s">
@@ -8042,8 +8592,8 @@
         <v>0</v>
       </c>
       <c r="AF32" s="18">
-        <f>IF(ISBLANK(AG32),0, LOOKUP(AG32,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH32/100)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(AG32),0, LOOKUP(AG32,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH32/100)</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AG32" s="18">
         <v>55510012</v>
@@ -8143,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="18">
-        <f>IF(ISBLANK(AG33),0, LOOKUP(AG33,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH33/100)</f>
+        <f>IF(ISBLANK(AG33),0, LOOKUP(AG33,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH33/100)</f>
         <v>0</v>
       </c>
       <c r="AG33" s="18"/>
@@ -8238,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="18">
-        <f>IF(ISBLANK(AG34),0, LOOKUP(AG34,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH34/100)</f>
+        <f>IF(ISBLANK(AG34),0, LOOKUP(AG34,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH34/100)</f>
         <v>0</v>
       </c>
       <c r="AG34" s="18"/>
@@ -8335,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="18">
-        <f>IF(ISBLANK(AG35),0, LOOKUP(AG35,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH35/100)</f>
+        <f>IF(ISBLANK(AG35),0, LOOKUP(AG35,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH35/100)</f>
         <v>0</v>
       </c>
       <c r="AG35" s="18"/>
@@ -8430,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="18">
-        <f>IF(ISBLANK(AG36),0, LOOKUP(AG36,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH36/100)</f>
+        <f>IF(ISBLANK(AG36),0, LOOKUP(AG36,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH36/100)</f>
         <v>0</v>
       </c>
       <c r="AG36" s="18"/>
@@ -8458,14 +9008,14 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="24"/>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H37" s="18">
         <v>70</v>
@@ -8505,7 +9055,7 @@
       </c>
       <c r="T37" s="18">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="U37" s="18"/>
       <c r="V37" s="18" t="s">
@@ -8527,8 +9077,8 @@
         <v>0</v>
       </c>
       <c r="AF37" s="18">
-        <f>IF(ISBLANK(AG37),0, LOOKUP(AG37,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH37/100)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(AG37),0, LOOKUP(AG37,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH37/100)</f>
+        <v>35</v>
       </c>
       <c r="AG37" s="18">
         <v>55100007</v>
@@ -8624,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="18">
-        <f>IF(ISBLANK(AG38),0, LOOKUP(AG38,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH38/100)</f>
+        <f>IF(ISBLANK(AG38),0, LOOKUP(AG38,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH38/100)</f>
         <v>0</v>
       </c>
       <c r="AG38" s="18"/>
@@ -8717,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="18">
-        <f>IF(ISBLANK(AG39),0, LOOKUP(AG39,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH39/100)</f>
+        <f>IF(ISBLANK(AG39),0, LOOKUP(AG39,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH39/100)</f>
         <v>0</v>
       </c>
       <c r="AG39" s="18"/>
@@ -8745,14 +9295,14 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H40" s="18">
         <v>100</v>
@@ -8790,7 +9340,7 @@
       </c>
       <c r="T40" s="18">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
@@ -8810,8 +9360,8 @@
         <v>0</v>
       </c>
       <c r="AF40" s="18">
-        <f>IF(ISBLANK(AG40),0, LOOKUP(AG40,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH40/100)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(AG40),0, LOOKUP(AG40,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH40/100)</f>
+        <v>10</v>
       </c>
       <c r="AG40" s="18">
         <v>55110005</v>
@@ -8907,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="18">
-        <f>IF(ISBLANK(AG41),0, LOOKUP(AG41,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH41/100)</f>
+        <f>IF(ISBLANK(AG41),0, LOOKUP(AG41,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH41/100)</f>
         <v>0</v>
       </c>
       <c r="AG41" s="18"/>
@@ -9000,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="18">
-        <f>IF(ISBLANK(AG42),0, LOOKUP(AG42,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH42/100)</f>
+        <f>IF(ISBLANK(AG42),0, LOOKUP(AG42,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH42/100)</f>
         <v>0</v>
       </c>
       <c r="AG42" s="18"/>
@@ -9095,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="18">
-        <f>IF(ISBLANK(AG43),0, LOOKUP(AG43,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH43/100)</f>
+        <f>IF(ISBLANK(AG43),0, LOOKUP(AG43,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH43/100)</f>
         <v>0</v>
       </c>
       <c r="AG43" s="18"/>
@@ -9188,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="18">
-        <f>IF(ISBLANK(AG44),0, LOOKUP(AG44,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH44/100)</f>
+        <f>IF(ISBLANK(AG44),0, LOOKUP(AG44,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH44/100)</f>
         <v>0</v>
       </c>
       <c r="AG44" s="18"/>
@@ -9281,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="18">
-        <f>IF(ISBLANK(AG45),0, LOOKUP(AG45,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH45/100)</f>
+        <f>IF(ISBLANK(AG45),0, LOOKUP(AG45,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH45/100)</f>
         <v>0</v>
       </c>
       <c r="AG45" s="18"/>
@@ -9376,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="18">
-        <f>IF(ISBLANK(AG46),0, LOOKUP(AG46,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH46/100)</f>
+        <f>IF(ISBLANK(AG46),0, LOOKUP(AG46,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH46/100)</f>
         <v>0</v>
       </c>
       <c r="AG46" s="18"/>
@@ -9471,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="18">
-        <f>IF(ISBLANK(AG47),0, LOOKUP(AG47,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH47/100)</f>
+        <f>IF(ISBLANK(AG47),0, LOOKUP(AG47,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH47/100)</f>
         <v>0</v>
       </c>
       <c r="AG47" s="18"/>
@@ -9566,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="18">
-        <f>IF(ISBLANK(AG48),0, LOOKUP(AG48,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH48/100)</f>
+        <f>IF(ISBLANK(AG48),0, LOOKUP(AG48,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH48/100)</f>
         <v>0</v>
       </c>
       <c r="AG48" s="18"/>
@@ -9661,7 +10211,7 @@
         <v>10</v>
       </c>
       <c r="AF49" s="18">
-        <f>IF(ISBLANK(AG49),0, LOOKUP(AG49,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH49/100)</f>
+        <f>IF(ISBLANK(AG49),0, LOOKUP(AG49,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH49/100)</f>
         <v>0</v>
       </c>
       <c r="AG49" s="18"/>
@@ -9756,7 +10306,7 @@
         <v>5</v>
       </c>
       <c r="AF50" s="18">
-        <f>IF(ISBLANK(AG50),0, LOOKUP(AG50,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH50/100)</f>
+        <f>IF(ISBLANK(AG50),0, LOOKUP(AG50,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH50/100)</f>
         <v>0</v>
       </c>
       <c r="AG50" s="18"/>
@@ -9851,7 +10401,7 @@
         <v>6</v>
       </c>
       <c r="AF51" s="18">
-        <f>IF(ISBLANK(AG51),0, LOOKUP(AG51,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH51/100)</f>
+        <f>IF(ISBLANK(AG51),0, LOOKUP(AG51,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH51/100)</f>
         <v>0</v>
       </c>
       <c r="AG51" s="18"/>
@@ -9879,14 +10429,14 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1">
         <f t="shared" ref="E52:E53" si="38">IF(T52&gt;=23,4,IF(AND(T52&gt;=18,T52&lt;23),3,IF(AND(T52&gt;=13,T52&lt;18),2,IF(AND(T52&gt;=8,T52&lt;13),1,0))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="18">
@@ -9924,7 +10474,7 @@
       </c>
       <c r="T52" s="18">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
@@ -9944,8 +10494,8 @@
         <v>0</v>
       </c>
       <c r="AF52" s="18">
-        <f>IF(ISBLANK(AG52),0, LOOKUP(AG52,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH52/100)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(AG52),0, LOOKUP(AG52,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH52/100)</f>
+        <v>4</v>
       </c>
       <c r="AG52" s="18">
         <v>55990108</v>
@@ -10043,7 +10593,7 @@
         <v>10</v>
       </c>
       <c r="AF53" s="18">
-        <f>IF(ISBLANK(AG53),0, LOOKUP(AG53,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH53/100)</f>
+        <f>IF(ISBLANK(AG53),0, LOOKUP(AG53,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH53/100)</f>
         <v>0</v>
       </c>
       <c r="AG53" s="18"/>
@@ -10071,14 +10621,14 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1">
         <f t="shared" ref="E54:E55" si="39">IF(T54&gt;=23,4,IF(AND(T54&gt;=18,T54&lt;23),3,IF(AND(T54&gt;=13,T54&lt;18),2,IF(AND(T54&gt;=8,T54&lt;13),1,0))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H54" s="18"/>
       <c r="I54" s="18">
@@ -10116,7 +10666,7 @@
       </c>
       <c r="T54" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U54" s="18"/>
       <c r="V54" s="18"/>
@@ -10136,8 +10686,8 @@
         <v>0</v>
       </c>
       <c r="AF54" s="18">
-        <f>IF(ISBLANK(AG54),0, LOOKUP(AG54,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH54/100)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(AG54),0, LOOKUP(AG54,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH54/100)</f>
+        <v>15</v>
       </c>
       <c r="AG54" s="18">
         <v>55990109</v>
@@ -10233,7 +10783,7 @@
         <v>8</v>
       </c>
       <c r="AF55" s="18">
-        <f>IF(ISBLANK(AG55),0, LOOKUP(AG55,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH55/100)</f>
+        <f>IF(ISBLANK(AG55),0, LOOKUP(AG55,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH55/100)</f>
         <v>0</v>
       </c>
       <c r="AG55" s="18"/>
@@ -10261,14 +10811,14 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1">
         <f t="shared" ref="E56:E57" si="41">IF(T56&gt;=23,4,IF(AND(T56&gt;=18,T56&lt;23),3,IF(AND(T56&gt;=13,T56&lt;18),2,IF(AND(T56&gt;=8,T56&lt;13),1,0))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1">
         <v>5</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="40"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="18">
@@ -10306,7 +10856,7 @@
       </c>
       <c r="T56" s="18">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
@@ -10326,8 +10876,8 @@
         <v>0</v>
       </c>
       <c r="AF56" s="18">
-        <f>IF(ISBLANK(AG56),0, LOOKUP(AG56,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH56/100)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(AG56),0, LOOKUP(AG56,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH56/100)</f>
+        <v>10</v>
       </c>
       <c r="AG56" s="18">
         <v>55110003</v>
@@ -10425,7 +10975,7 @@
         <v>10</v>
       </c>
       <c r="AF57" s="18">
-        <f>IF(ISBLANK(AG57),0, LOOKUP(AG57,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH57/100)</f>
+        <f>IF(ISBLANK(AG57),0, LOOKUP(AG57,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH57/100)</f>
         <v>0</v>
       </c>
       <c r="AG57" s="18"/>
@@ -10522,7 +11072,7 @@
         <v>15</v>
       </c>
       <c r="AF58" s="18">
-        <f>IF(ISBLANK(AG58),0, LOOKUP(AG58,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH58/100)</f>
+        <f>IF(ISBLANK(AG58),0, LOOKUP(AG58,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH58/100)</f>
         <v>0</v>
       </c>
       <c r="AG58" s="18"/>
@@ -10617,7 +11167,7 @@
         <v>25</v>
       </c>
       <c r="AF59" s="18">
-        <f>IF(ISBLANK(AG59),0, LOOKUP(AG59,[1]Skill!$A:$A,[1]Skill!$Y:$Y)*AH59/100)</f>
+        <f>IF(ISBLANK(AG59),0, LOOKUP(AG59,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH59/100)</f>
         <v>0</v>
       </c>
       <c r="AG59" s="18"/>
@@ -10635,24 +11185,24 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E4:E59">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AK59">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Equip.xlsx
+++ b/ConfigData/Xlsx/Equip.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="315">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Durable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>列标签</t>
   </si>
   <si>
@@ -219,10 +215,6 @@
   </si>
   <si>
     <t>魔法点获取的比率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备耐久</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2013,10 +2005,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -2068,72 +2057,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9751CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2209,6 +2133,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2309,25 +2236,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4191,6 +4099,7 @@
           <cell r="A172">
             <v>55900028</v>
           </cell>
+          <cell r="AB172"/>
         </row>
         <row r="173">
           <cell r="A173">
@@ -5042,57 +4951,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AK59" totalsRowShown="0">
-  <autoFilter ref="A3:AK59"/>
-  <sortState ref="A4:AK38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AJ59" totalsRowShown="0">
+  <autoFilter ref="A3:AJ59"/>
+  <sortState ref="A4:AJ38">
     <sortCondition ref="A3:A38"/>
   </sortState>
-  <tableColumns count="37">
+  <tableColumns count="36">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="34" name="Ename" dataDxfId="45"/>
-    <tableColumn id="32" name="Des" dataDxfId="44"/>
-    <tableColumn id="3" name="Quality" dataDxfId="43">
+    <tableColumn id="34" name="Ename" dataDxfId="38"/>
+    <tableColumn id="32" name="Des" dataDxfId="37"/>
+    <tableColumn id="3" name="Quality" dataDxfId="36">
       <calculatedColumnFormula>IF(T4&gt;=23,4,IF(AND(T4&gt;=18,T4&lt;23),3,IF(AND(T4&gt;=13,T4&lt;18),2,IF(AND(T4&gt;=8,T4&lt;13),1,0))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Position"/>
-    <tableColumn id="19" name="Value" dataDxfId="42">
+    <tableColumn id="19" name="Value" dataDxfId="35">
       <calculatedColumnFormula>E4*50+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="ComposeStone" dataDxfId="41"/>
-    <tableColumn id="36" name="ComposeWood" dataDxfId="40"/>
-    <tableColumn id="15" name="ComposeItemId" dataDxfId="39"/>
-    <tableColumn id="11" name="AtkR" dataDxfId="38"/>
-    <tableColumn id="8" name="VitR" dataDxfId="37"/>
-    <tableColumn id="6" name="Def" dataDxfId="36"/>
-    <tableColumn id="22" name="Mag" dataDxfId="35"/>
-    <tableColumn id="27" name="Spd" dataDxfId="34"/>
-    <tableColumn id="26" name="Hit" dataDxfId="33"/>
-    <tableColumn id="25" name="Dhit" dataDxfId="32"/>
-    <tableColumn id="24" name="Crt" dataDxfId="31"/>
-    <tableColumn id="23" name="Luk" dataDxfId="30"/>
-    <tableColumn id="28" name="Sum" dataDxfId="29">
-      <calculatedColumnFormula>K4+L4+ SUM(M4:S4)*5+AE4+AF4</calculatedColumnFormula>
+    <tableColumn id="35" name="ComposeStone" dataDxfId="34"/>
+    <tableColumn id="36" name="ComposeWood" dataDxfId="33"/>
+    <tableColumn id="15" name="ComposeItemId" dataDxfId="32"/>
+    <tableColumn id="11" name="AtkR" dataDxfId="31"/>
+    <tableColumn id="8" name="VitR" dataDxfId="30"/>
+    <tableColumn id="6" name="Def" dataDxfId="29"/>
+    <tableColumn id="22" name="Mag" dataDxfId="28"/>
+    <tableColumn id="27" name="Spd" dataDxfId="27"/>
+    <tableColumn id="26" name="Hit" dataDxfId="26"/>
+    <tableColumn id="25" name="Dhit" dataDxfId="25"/>
+    <tableColumn id="24" name="Crt" dataDxfId="24"/>
+    <tableColumn id="23" name="Luk" dataDxfId="23"/>
+    <tableColumn id="28" name="Sum" dataDxfId="22">
+      <calculatedColumnFormula>K4+L4+ SUM(M4:S4)*5+AD4+AE4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Range" dataDxfId="28"/>
-    <tableColumn id="33" name="Arrow" dataDxfId="27"/>
-    <tableColumn id="4" name="SlotId" dataDxfId="26"/>
-    <tableColumn id="9" name="EnergyRate" dataDxfId="25"/>
-    <tableColumn id="37" name="DungeonAttrs" dataDxfId="24"/>
-    <tableColumn id="7" name="Durable" dataDxfId="23"/>
-    <tableColumn id="20" name="HeroSkillId" dataDxfId="22"/>
-    <tableColumn id="29" name="MonsterAtk" dataDxfId="21"/>
-    <tableColumn id="30" name="MonsterHp" dataDxfId="20"/>
-    <tableColumn id="31" name="PickMethod" dataDxfId="19"/>
-    <tableColumn id="21" name="~SkillMark2" dataDxfId="18"/>
-    <tableColumn id="18" name="~SkillMark22" dataDxfId="0">
-      <calculatedColumnFormula>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH4/100)</calculatedColumnFormula>
+    <tableColumn id="12" name="Range" dataDxfId="21"/>
+    <tableColumn id="33" name="Arrow" dataDxfId="20"/>
+    <tableColumn id="4" name="SlotId" dataDxfId="19"/>
+    <tableColumn id="9" name="EnergyRate" dataDxfId="18"/>
+    <tableColumn id="37" name="DungeonAttrs" dataDxfId="17"/>
+    <tableColumn id="20" name="HeroSkillId" dataDxfId="16"/>
+    <tableColumn id="29" name="MonsterAtk" dataDxfId="15"/>
+    <tableColumn id="30" name="MonsterHp" dataDxfId="14"/>
+    <tableColumn id="31" name="PickMethod" dataDxfId="13"/>
+    <tableColumn id="21" name="~SkillMark2" dataDxfId="12"/>
+    <tableColumn id="18" name="~SkillMark22" dataDxfId="11">
+      <calculatedColumnFormula>IF(ISBLANK(AF4),0, LOOKUP(AF4,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CommonSkillId" dataDxfId="17"/>
-    <tableColumn id="14" name="CommonSkillRate" dataDxfId="16"/>
-    <tableColumn id="17" name="RandomDrop" dataDxfId="15"/>
-    <tableColumn id="16" name="CanMerge" dataDxfId="14"/>
-    <tableColumn id="10" name="Url" dataDxfId="13"/>
+    <tableColumn id="13" name="CommonSkillId" dataDxfId="10"/>
+    <tableColumn id="14" name="CommonSkillRate" dataDxfId="9"/>
+    <tableColumn id="17" name="RandomDrop" dataDxfId="8"/>
+    <tableColumn id="16" name="CanMerge" dataDxfId="7"/>
+    <tableColumn id="10" name="Url" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5419,10 +5327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK59"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5436,20 +5344,18 @@
     <col min="13" max="20" width="4.5" customWidth="1"/>
     <col min="21" max="22" width="5.125" customWidth="1"/>
     <col min="23" max="23" width="10.875" customWidth="1"/>
-    <col min="24" max="25" width="8.625" customWidth="1"/>
-    <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="8.625" customWidth="1"/>
-    <col min="28" max="29" width="4.875" customWidth="1"/>
-    <col min="30" max="30" width="16.375" customWidth="1"/>
-    <col min="31" max="31" width="8.625" customWidth="1"/>
-    <col min="32" max="32" width="5.875" customWidth="1"/>
-    <col min="33" max="33" width="8.625" customWidth="1"/>
-    <col min="34" max="34" width="5.25" customWidth="1"/>
-    <col min="35" max="36" width="6" customWidth="1"/>
-    <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="28" width="4.875" customWidth="1"/>
+    <col min="29" max="29" width="16.375" customWidth="1"/>
+    <col min="30" max="30" width="8.625" customWidth="1"/>
+    <col min="31" max="31" width="5.875" customWidth="1"/>
+    <col min="32" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="33" width="5.25" customWidth="1"/>
+    <col min="34" max="35" width="6" customWidth="1"/>
+    <col min="38" max="38" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -5457,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>4</v>
@@ -5469,16 +5375,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>302</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>13</v>
@@ -5487,82 +5393,79 @@
         <v>15</v>
       </c>
       <c r="M1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="T1" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="AA1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="AG1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5570,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -5585,13 +5488,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>14</v>
@@ -5603,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>0</v>
@@ -5621,61 +5524,58 @@
         <v>0</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5683,10 +5583,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5698,105 +5598,102 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="R3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="AA3" s="10" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="AB3" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AG3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AH3" s="8" t="s">
-        <v>28</v>
+      <c r="AH3" t="s">
+        <v>34</v>
       </c>
       <c r="AI3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>21100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -5845,53 +5742,50 @@
         <v>0</v>
       </c>
       <c r="T4" s="18">
-        <f t="shared" ref="T4:T38" si="1">K4+L4+ SUM(M4:S4)*5+AE4+AF4</f>
+        <f>K4+L4+ SUM(M4:S4)*5+AD4+AE4</f>
         <v>-5</v>
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z4" s="18"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
+      <c r="AD4" s="18">
+        <v>-10</v>
+      </c>
       <c r="AE4" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AF4" s="18">
-        <f>IF(ISBLANK(AG4),0, LOOKUP(AG4,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH4/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF4),0, LOOKUP(AF4,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG4/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
+      <c r="AH4" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK4" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>21100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -5902,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G54" si="2">E5*50+50</f>
+        <f t="shared" ref="G5:G54" si="1">E5*50+50</f>
         <v>100</v>
       </c>
       <c r="H5" s="18"/>
@@ -5940,53 +5834,50 @@
         <v>0</v>
       </c>
       <c r="T5" s="18">
-        <f t="shared" si="1"/>
+        <f>K5+L5+ SUM(M5:S5)*5+AD5+AE5</f>
         <v>10</v>
       </c>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="Y5" s="18"/>
-      <c r="Z5" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z5" s="18"/>
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
+      <c r="AD5" s="18">
+        <v>0</v>
+      </c>
       <c r="AE5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="18">
-        <f>IF(ISBLANK(AG5),0, LOOKUP(AG5,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH5/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF5),0, LOOKUP(AF5,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG5/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
+      <c r="AH5" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK5" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>21100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -5997,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H6" s="18"/>
@@ -6035,53 +5926,50 @@
         <v>0</v>
       </c>
       <c r="T6" s="18">
-        <f t="shared" si="1"/>
+        <f>K6+L6+ SUM(M6:S6)*5+AD6+AE6</f>
         <v>14</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="Y6" s="18"/>
-      <c r="Z6" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
+      <c r="AD6" s="18">
+        <v>0</v>
+      </c>
       <c r="AE6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="18">
-        <f>IF(ISBLANK(AG6),0, LOOKUP(AG6,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH6/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF6),0, LOOKUP(AF6,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG6/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
+      <c r="AH6" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK6" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>21100004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -6092,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H7" s="18">
@@ -6132,53 +6020,50 @@
         <v>0</v>
       </c>
       <c r="T7" s="18">
-        <f t="shared" si="1"/>
+        <f>K7+L7+ SUM(M7:S7)*5+AD7+AE7</f>
         <v>9</v>
       </c>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y7" s="18"/>
-      <c r="Z7" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
+      <c r="AD7" s="18">
+        <v>0</v>
+      </c>
       <c r="AE7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18">
-        <f>IF(ISBLANK(AG7),0, LOOKUP(AG7,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH7/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF7),0, LOOKUP(AF7,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG7/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AH7" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI7" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK7" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>21100005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -6189,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H8" s="18"/>
@@ -6227,53 +6112,50 @@
         <v>0</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="1"/>
+        <f>K8+L8+ SUM(M8:S8)*5+AD8+AE8</f>
         <v>13</v>
       </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y8" s="18"/>
-      <c r="Z8" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
+      <c r="AD8" s="18">
+        <v>0</v>
+      </c>
       <c r="AE8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18">
-        <f>IF(ISBLANK(AG8),0, LOOKUP(AG8,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH8/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF8),0, LOOKUP(AF8,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG8/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
+      <c r="AH8" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK8" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>21100006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -6284,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="H9" s="18"/>
@@ -6322,53 +6204,50 @@
         <v>0</v>
       </c>
       <c r="T9" s="18">
-        <f t="shared" si="1"/>
+        <f>K9+L9+ SUM(M9:S9)*5+AD9+AE9</f>
         <v>25</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
+      <c r="AD9" s="18">
+        <v>10</v>
+      </c>
       <c r="AE9" s="18">
-        <v>10</v>
-      </c>
-      <c r="AF9" s="18">
-        <f>IF(ISBLANK(AG9),0, LOOKUP(AG9,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH9/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF9),0, LOOKUP(AF9,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
+      <c r="AH9" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK9" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>21100007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -6379,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H10" s="18">
@@ -6419,53 +6298,50 @@
         <v>0</v>
       </c>
       <c r="T10" s="18">
-        <f t="shared" si="1"/>
+        <f>K10+L10+ SUM(M10:S10)*5+AD10+AE10</f>
         <v>14</v>
       </c>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y10" s="18"/>
-      <c r="Z10" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
+      <c r="AD10" s="18">
+        <v>0</v>
+      </c>
       <c r="AE10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="18">
-        <f>IF(ISBLANK(AG10),0, LOOKUP(AG10,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH10/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF10),0, LOOKUP(AF10,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG10/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
+      <c r="AH10" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>21100008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -6476,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G12" si="3">E11*50+50</f>
+        <f t="shared" ref="G11:G12" si="2">E11*50+50</f>
         <v>250</v>
       </c>
       <c r="H11" s="18"/>
@@ -6514,53 +6390,50 @@
         <v>0</v>
       </c>
       <c r="T11" s="18">
-        <f t="shared" si="1"/>
+        <f>K11+L11+ SUM(M11:S11)*5+AD11+AE11</f>
         <v>25</v>
       </c>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y11" s="18"/>
-      <c r="Z11" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
+      <c r="AD11" s="18">
+        <v>0</v>
+      </c>
       <c r="AE11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="18">
-        <f>IF(ISBLANK(AG11),0, LOOKUP(AG11,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH11/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF11),0, LOOKUP(AF11,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG11/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18"/>
       <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
+      <c r="AH11" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK11" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>21100009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -6571,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H12" s="18"/>
@@ -6609,53 +6482,50 @@
         <v>0</v>
       </c>
       <c r="T12" s="18">
-        <f t="shared" si="1"/>
+        <f>K12+L12+ SUM(M12:S12)*5+AD12+AE12</f>
         <v>20</v>
       </c>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y12" s="18"/>
-      <c r="Z12" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z12" s="18"/>
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
+      <c r="AD12" s="18">
+        <v>0</v>
+      </c>
       <c r="AE12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="18">
-        <f>IF(ISBLANK(AG12),0, LOOKUP(AG12,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH12/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF12),0, LOOKUP(AF12,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG12/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="18"/>
       <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
+      <c r="AH12" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK12" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>21100010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -6666,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:G14" si="4">E13*50+50</f>
+        <f t="shared" ref="G13:G14" si="3">E13*50+50</f>
         <v>50</v>
       </c>
       <c r="H13" s="18"/>
@@ -6704,53 +6574,50 @@
         <v>0</v>
       </c>
       <c r="T13" s="18">
-        <f t="shared" si="1"/>
+        <f>K13+L13+ SUM(M13:S13)*5+AD13+AE13</f>
         <v>1</v>
       </c>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="18"/>
-      <c r="Z13" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="AD13" s="18">
+        <v>-10</v>
+      </c>
       <c r="AE13" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AF13" s="18">
-        <f>IF(ISBLANK(AG13),0, LOOKUP(AG13,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH13/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF13),0, LOOKUP(AF13,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG13/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="18"/>
       <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
+      <c r="AH13" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK13" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>21100011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
@@ -6761,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H14" s="18"/>
@@ -6799,64 +6666,61 @@
         <v>0</v>
       </c>
       <c r="T14" s="18">
-        <f t="shared" si="1"/>
+        <f>K14+L14+ SUM(M14:S14)*5+AD14+AE14</f>
         <v>20</v>
       </c>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y14" s="18"/>
-      <c r="Z14" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
+      <c r="AD14" s="18">
+        <v>0</v>
+      </c>
       <c r="AE14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="18">
-        <f>IF(ISBLANK(AG14),0, LOOKUP(AG14,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH14/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF14),0, LOOKUP(AF14,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="18"/>
       <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
+      <c r="AH14" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK14" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>21100012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E16" si="5">IF(T15&gt;=23,4,IF(AND(T15&gt;=18,T15&lt;23),3,IF(AND(T15&gt;=13,T15&lt;18),2,IF(AND(T15&gt;=8,T15&lt;13),1,0))))</f>
+        <f t="shared" ref="E15:E16" si="4">IF(T15&gt;=23,4,IF(AND(T15&gt;=18,T15&lt;23),3,IF(AND(T15&gt;=13,T15&lt;18),2,IF(AND(T15&gt;=8,T15&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:G16" si="6">E15*50+50</f>
+        <f t="shared" ref="G15:G16" si="5">E15*50+50</f>
         <v>200</v>
       </c>
       <c r="H15" s="18"/>
@@ -6894,64 +6758,61 @@
         <v>0</v>
       </c>
       <c r="T15" s="18">
-        <f t="shared" si="1"/>
+        <f>K15+L15+ SUM(M15:S15)*5+AD15+AE15</f>
         <v>22</v>
       </c>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
+      <c r="AD15" s="18">
+        <v>0</v>
+      </c>
       <c r="AE15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="18">
-        <f>IF(ISBLANK(AG15),0, LOOKUP(AG15,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH15/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF15),0, LOOKUP(AF15,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG15/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="18"/>
       <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
+      <c r="AH15" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK15" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>21100013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="H16" s="18"/>
@@ -6989,64 +6850,61 @@
         <v>4</v>
       </c>
       <c r="T16" s="18">
-        <f t="shared" si="1"/>
+        <f>K16+L16+ SUM(M16:S16)*5+AD16+AE16</f>
         <v>15</v>
       </c>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
+      <c r="AD16" s="18">
+        <v>-10</v>
+      </c>
       <c r="AE16" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AF16" s="18">
-        <f>IF(ISBLANK(AG16),0, LOOKUP(AG16,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH16/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF16),0, LOOKUP(AF16,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG16/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="18"/>
       <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
+      <c r="AH16" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI16" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK16" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>21100014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E18" si="7">IF(T17&gt;=23,4,IF(AND(T17&gt;=18,T17&lt;23),3,IF(AND(T17&gt;=13,T17&lt;18),2,IF(AND(T17&gt;=8,T17&lt;13),1,0))))</f>
+        <f t="shared" ref="E17:E18" si="6">IF(T17&gt;=23,4,IF(AND(T17&gt;=18,T17&lt;23),3,IF(AND(T17&gt;=13,T17&lt;18),2,IF(AND(T17&gt;=8,T17&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G18" si="8">E17*50+50</f>
+        <f t="shared" ref="G17:G18" si="7">E17*50+50</f>
         <v>100</v>
       </c>
       <c r="H17" s="18">
@@ -7084,64 +6942,61 @@
         <v>0</v>
       </c>
       <c r="T17" s="18">
-        <f t="shared" si="1"/>
+        <f>K17+L17+ SUM(M17:S17)*5+AD17+AE17</f>
         <v>12</v>
       </c>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y17" s="18"/>
-      <c r="Z17" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
+      <c r="AD17" s="18">
+        <v>0</v>
+      </c>
       <c r="AE17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="18">
-        <f>IF(ISBLANK(AG17),0, LOOKUP(AG17,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH17/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF17),0, LOOKUP(AF17,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG17/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="18"/>
       <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
+      <c r="AH17" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI17" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK17" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>21100015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="H18" s="18"/>
@@ -7179,66 +7034,63 @@
         <v>0</v>
       </c>
       <c r="T18" s="18">
-        <f t="shared" si="1"/>
+        <f>K18+L18+ SUM(M18:S18)*5+AD18+AE18</f>
         <v>11</v>
       </c>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
+      <c r="AD18" s="18">
+        <v>0</v>
+      </c>
       <c r="AE18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="18">
-        <f>IF(ISBLANK(AG18),0, LOOKUP(AG18,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH18/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF18),0, LOOKUP(AF18,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG18/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
+      <c r="AH18" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI18" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK18" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>21200001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E29" si="9">IF(T19&gt;=23,4,IF(AND(T19&gt;=18,T19&lt;23),3,IF(AND(T19&gt;=13,T19&lt;18),2,IF(AND(T19&gt;=8,T19&lt;13),1,0))))</f>
+        <f t="shared" ref="E19:E29" si="8">IF(T19&gt;=23,4,IF(AND(T19&gt;=18,T19&lt;23),3,IF(AND(T19&gt;=13,T19&lt;18),2,IF(AND(T19&gt;=8,T19&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H19" s="18">
@@ -7276,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="18">
-        <f t="shared" si="1"/>
+        <f>K19+L19+ SUM(M19:S19)*5+AD19+AE19</f>
         <v>10</v>
       </c>
       <c r="U19" s="18"/>
@@ -7286,58 +7138,55 @@
         <v>17</v>
       </c>
       <c r="Y19" s="18"/>
-      <c r="Z19" s="18">
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD19" s="18">
         <v>10</v>
       </c>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18">
-        <v>20</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>235</v>
-      </c>
       <c r="AE19" s="18">
-        <v>10</v>
-      </c>
-      <c r="AF19" s="18">
-        <f>IF(ISBLANK(AG19),0, LOOKUP(AG19,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH19/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF19),0, LOOKUP(AF19,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG19/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
+      <c r="AH19" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI19" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK19" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>21200002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E21" si="10">IF(T20&gt;=23,4,IF(AND(T20&gt;=18,T20&lt;23),3,IF(AND(T20&gt;=13,T20&lt;18),2,IF(AND(T20&gt;=8,T20&lt;13),1,0))))</f>
+        <f t="shared" ref="E20:E21" si="9">IF(T20&gt;=23,4,IF(AND(T20&gt;=18,T20&lt;23),3,IF(AND(T20&gt;=13,T20&lt;18),2,IF(AND(T20&gt;=8,T20&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H20" s="18">
@@ -7375,70 +7224,67 @@
         <v>0</v>
       </c>
       <c r="T20" s="18">
-        <f t="shared" si="1"/>
+        <f>K20+L20+ SUM(M20:S20)*5+AD20+AE20</f>
         <v>14</v>
       </c>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y20" s="18"/>
-      <c r="Z20" s="18">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18">
+        <v>14</v>
+      </c>
       <c r="AB20" s="18">
         <v>14</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD20" s="18">
         <v>14</v>
       </c>
-      <c r="AD20" s="18" t="s">
-        <v>236</v>
-      </c>
       <c r="AE20" s="18">
-        <v>14</v>
-      </c>
-      <c r="AF20" s="18">
-        <f>IF(ISBLANK(AG20),0, LOOKUP(AG20,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH20/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF20),0, LOOKUP(AF20,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG20/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="18"/>
       <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
+      <c r="AH20" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI20" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK20" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>21200003</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H21" s="18">
@@ -7476,68 +7322,65 @@
         <v>0</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="1"/>
+        <f>K21+L21+ SUM(M21:S21)*5+AD21+AE21</f>
         <v>12.5</v>
       </c>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y21" s="18"/>
-      <c r="Z21" s="18">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18">
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18">
         <v>25</v>
       </c>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18" t="s">
-        <v>237</v>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD21" s="18">
+        <v>12.5</v>
       </c>
       <c r="AE21" s="18">
-        <v>12.5</v>
-      </c>
-      <c r="AF21" s="18">
-        <f>IF(ISBLANK(AG21),0, LOOKUP(AG21,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH21/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF21),0, LOOKUP(AF21,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG21/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="18"/>
       <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
+      <c r="AH21" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI21" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21200004</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22" si="11">IF(T22&gt;=23,4,IF(AND(T22&gt;=18,T22&lt;23),3,IF(AND(T22&gt;=13,T22&lt;18),2,IF(AND(T22&gt;=8,T22&lt;13),1,0))))</f>
+        <f t="shared" ref="E22" si="10">IF(T22&gt;=23,4,IF(AND(T22&gt;=18,T22&lt;23),3,IF(AND(T22&gt;=13,T22&lt;18),2,IF(AND(T22&gt;=8,T22&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H22" s="18">
@@ -7575,70 +7418,67 @@
         <v>0</v>
       </c>
       <c r="T22" s="18">
-        <f t="shared" si="1"/>
+        <f>K22+L22+ SUM(M22:S22)*5+AD22+AE22</f>
         <v>14</v>
       </c>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y22" s="18"/>
-      <c r="Z22" s="18">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18">
+        <v>14</v>
+      </c>
       <c r="AB22" s="18">
         <v>14</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AC22" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD22" s="18">
         <v>14</v>
       </c>
-      <c r="AD22" s="18" t="s">
-        <v>238</v>
-      </c>
       <c r="AE22" s="18">
-        <v>14</v>
-      </c>
-      <c r="AF22" s="18">
-        <f>IF(ISBLANK(AG22),0, LOOKUP(AG22,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH22/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF22),0, LOOKUP(AF22,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG22/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="18"/>
       <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
+      <c r="AH22" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI22" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK22" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21200005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:E25" si="12">IF(T23&gt;=23,4,IF(AND(T23&gt;=18,T23&lt;23),3,IF(AND(T23&gt;=13,T23&lt;18),2,IF(AND(T23&gt;=8,T23&lt;13),1,0))))</f>
+        <f t="shared" ref="E23:E25" si="11">IF(T23&gt;=23,4,IF(AND(T23&gt;=18,T23&lt;23),3,IF(AND(T23&gt;=13,T23&lt;18),2,IF(AND(T23&gt;=8,T23&lt;13),1,0))))</f>
         <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G25" si="13">E23*50+50</f>
+        <f t="shared" ref="G23:G25" si="12">E23*50+50</f>
         <v>50</v>
       </c>
       <c r="H23" s="18">
@@ -7676,68 +7516,65 @@
         <v>0</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="1"/>
+        <f>K23+L23+ SUM(M23:S23)*5+AD23+AE23</f>
         <v>6</v>
       </c>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y23" s="18"/>
-      <c r="Z23" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18">
+      <c r="AB23" s="18">
         <v>6</v>
       </c>
-      <c r="AD23" s="18" t="s">
-        <v>228</v>
+      <c r="AC23" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD23" s="18">
+        <v>6</v>
       </c>
       <c r="AE23" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF23" s="18">
-        <f>IF(ISBLANK(AG23),0, LOOKUP(AG23,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH23/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF23),0, LOOKUP(AF23,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG23/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
+      <c r="AH23" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI23" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK23" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21200006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="H24" s="18">
@@ -7775,68 +7612,65 @@
         <v>0</v>
       </c>
       <c r="T24" s="18">
-        <f t="shared" si="1"/>
+        <f>K24+L24+ SUM(M24:S24)*5+AD24+AE24</f>
         <v>6</v>
       </c>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="X24" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y24" s="18"/>
-      <c r="Z24" s="18">
-        <v>10</v>
-      </c>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18">
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18">
         <v>6</v>
       </c>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18" t="s">
-        <v>228</v>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD24" s="18">
+        <v>6</v>
       </c>
       <c r="AE24" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF24" s="18">
-        <f>IF(ISBLANK(AG24),0, LOOKUP(AG24,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH24/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF24),0, LOOKUP(AF24,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
+      <c r="AH24" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI24" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK24" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21200007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="H25" s="18">
@@ -7874,70 +7708,67 @@
         <v>0</v>
       </c>
       <c r="T25" s="18">
-        <f t="shared" si="1"/>
+        <f>K25+L25+ SUM(M25:S25)*5+AD25+AE25</f>
         <v>9</v>
       </c>
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
       <c r="X25" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y25" s="18"/>
-      <c r="Z25" s="18">
-        <v>10</v>
-      </c>
-      <c r="AA25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18">
+        <v>12</v>
+      </c>
       <c r="AB25" s="18">
-        <v>12</v>
-      </c>
-      <c r="AC25" s="18">
         <v>6</v>
       </c>
-      <c r="AD25" s="18" t="s">
-        <v>239</v>
+      <c r="AC25" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD25" s="18">
+        <v>9</v>
       </c>
       <c r="AE25" s="18">
-        <v>9</v>
-      </c>
-      <c r="AF25" s="18">
-        <f>IF(ISBLANK(AG25),0, LOOKUP(AG25,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH25/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF25),0, LOOKUP(AF25,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
+      <c r="AH25" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI25" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK25" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>21200008</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26:E27" si="14">IF(T26&gt;=23,4,IF(AND(T26&gt;=18,T26&lt;23),3,IF(AND(T26&gt;=13,T26&lt;18),2,IF(AND(T26&gt;=8,T26&lt;13),1,0))))</f>
+        <f t="shared" ref="E26:E27" si="13">IF(T26&gt;=23,4,IF(AND(T26&gt;=18,T26&lt;23),3,IF(AND(T26&gt;=13,T26&lt;18),2,IF(AND(T26&gt;=8,T26&lt;13),1,0))))</f>
         <v>3</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G27" si="15">E26*50+50</f>
+        <f t="shared" ref="G26:G27" si="14">E26*50+50</f>
         <v>200</v>
       </c>
       <c r="H26" s="18">
@@ -7975,70 +7806,67 @@
         <v>0</v>
       </c>
       <c r="T26" s="18">
-        <f t="shared" ref="T26:T27" si="16">K26+L26+ SUM(M26:S26)*5+AE26+AF26</f>
+        <f>K26+L26+ SUM(M26:S26)*5+AD26+AE26</f>
         <v>18</v>
       </c>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
       <c r="X26" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y26" s="18"/>
-      <c r="Z26" s="18">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18">
+        <v>12</v>
+      </c>
       <c r="AB26" s="18">
         <v>12</v>
       </c>
-      <c r="AC26" s="18">
-        <v>12</v>
-      </c>
-      <c r="AD26" s="18" t="s">
-        <v>240</v>
+      <c r="AC26" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD26" s="18">
+        <v>18</v>
       </c>
       <c r="AE26" s="18">
-        <v>18</v>
-      </c>
-      <c r="AF26" s="18">
-        <f>IF(ISBLANK(AG26),0, LOOKUP(AG26,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH26/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF26),0, LOOKUP(AF26,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG26/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="18"/>
       <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
+      <c r="AH26" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI26" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK26" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>21200009</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="H27" s="18">
@@ -8076,70 +7904,67 @@
         <v>0</v>
       </c>
       <c r="T27" s="18">
-        <f t="shared" si="16"/>
+        <f>K27+L27+ SUM(M27:S27)*5+AD27+AE27</f>
         <v>15</v>
       </c>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
       <c r="X27" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y27" s="18"/>
-      <c r="Z27" s="18">
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18">
         <v>10</v>
       </c>
-      <c r="AA27" s="18"/>
       <c r="AB27" s="18">
         <v>10</v>
       </c>
-      <c r="AC27" s="18">
-        <v>10</v>
-      </c>
-      <c r="AD27" s="18" t="s">
-        <v>241</v>
+      <c r="AC27" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD27" s="18">
+        <v>15</v>
       </c>
       <c r="AE27" s="18">
-        <v>15</v>
-      </c>
-      <c r="AF27" s="18">
-        <f>IF(ISBLANK(AG27),0, LOOKUP(AG27,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH27/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF27),0, LOOKUP(AF27,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG27/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="18"/>
       <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
+      <c r="AH27" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI27" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK27" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21200010</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28" si="17">IF(T28&gt;=23,4,IF(AND(T28&gt;=18,T28&lt;23),3,IF(AND(T28&gt;=13,T28&lt;18),2,IF(AND(T28&gt;=8,T28&lt;13),1,0))))</f>
+        <f t="shared" ref="E28" si="15">IF(T28&gt;=23,4,IF(AND(T28&gt;=18,T28&lt;23),3,IF(AND(T28&gt;=13,T28&lt;18),2,IF(AND(T28&gt;=8,T28&lt;13),1,0))))</f>
         <v>4</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ref="G28" si="18">E28*50+50</f>
+        <f t="shared" ref="G28" si="16">E28*50+50</f>
         <v>250</v>
       </c>
       <c r="H28" s="18">
@@ -8177,68 +8002,65 @@
         <v>0</v>
       </c>
       <c r="T28" s="18">
-        <f t="shared" ref="T28" si="19">K28+L28+ SUM(M28:S28)*5+AE28+AF28</f>
+        <f>K28+L28+ SUM(M28:S28)*5+AD28+AE28</f>
         <v>25</v>
       </c>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
       <c r="X28" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y28" s="18"/>
-      <c r="Z28" s="18">
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18">
         <v>10</v>
       </c>
-      <c r="AA28" s="18"/>
       <c r="AB28" s="18">
         <v>10</v>
       </c>
-      <c r="AC28" s="18">
-        <v>10</v>
-      </c>
-      <c r="AD28" s="18" t="s">
-        <v>225</v>
+      <c r="AC28" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD28" s="18">
+        <v>25</v>
       </c>
       <c r="AE28" s="18">
-        <v>25</v>
-      </c>
-      <c r="AF28" s="18">
-        <f>IF(ISBLANK(AG28),0, LOOKUP(AG28,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH28/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF28),0, LOOKUP(AF28,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG28/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="18"/>
       <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
+      <c r="AH28" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI28" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ28" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK28" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>21300001</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H29" s="18">
@@ -8276,64 +8098,61 @@
         <v>0</v>
       </c>
       <c r="T29" s="18">
-        <f t="shared" si="1"/>
+        <f>K29+L29+ SUM(M29:S29)*5+AD29+AE29</f>
         <v>5</v>
       </c>
       <c r="U29" s="18"/>
       <c r="V29" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="W29" s="18"/>
       <c r="X29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="Y29" s="18"/>
-      <c r="Z29" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="18"/>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
+      <c r="AD29" s="18">
+        <v>0</v>
+      </c>
       <c r="AE29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="18">
-        <f>IF(ISBLANK(AG29),0, LOOKUP(AG29,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH29/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF29),0, LOOKUP(AF29,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG29/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="18"/>
       <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
+      <c r="AH29" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI29" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK29" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>21300002</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <f t="shared" ref="E30:E31" si="20">IF(T30&gt;=23,4,IF(AND(T30&gt;=18,T30&lt;23),3,IF(AND(T30&gt;=13,T30&lt;18),2,IF(AND(T30&gt;=8,T30&lt;13),1,0))))</f>
+        <f t="shared" ref="E30:E31" si="17">IF(T30&gt;=23,4,IF(AND(T30&gt;=18,T30&lt;23),3,IF(AND(T30&gt;=13,T30&lt;18),2,IF(AND(T30&gt;=8,T30&lt;13),1,0))))</f>
         <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H30" s="18">
@@ -8371,68 +8190,65 @@
         <v>0</v>
       </c>
       <c r="T30" s="18">
-        <f t="shared" si="1"/>
+        <f>K30+L30+ SUM(M30:S30)*5+AD30+AE30</f>
         <v>12</v>
       </c>
       <c r="U30" s="18"/>
       <c r="V30" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W30" s="18"/>
       <c r="X30" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y30" s="18"/>
-      <c r="Z30" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
       <c r="AB30" s="18"/>
       <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
+      <c r="AD30" s="18">
+        <v>0</v>
+      </c>
       <c r="AE30" s="18">
-        <v>0</v>
+        <f>IF(ISBLANK(AF30),0, LOOKUP(AF30,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG30/100)</f>
+        <v>6</v>
       </c>
       <c r="AF30" s="18">
-        <f>IF(ISBLANK(AG30),0, LOOKUP(AG30,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH30/100)</f>
-        <v>6</v>
+        <v>55510010</v>
       </c>
       <c r="AG30" s="18">
-        <v>55510010</v>
-      </c>
-      <c r="AH30" s="18">
         <v>60</v>
       </c>
+      <c r="AH30" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI30" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ30" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK30" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>21300003</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H31" s="18">
@@ -8472,64 +8288,61 @@
         <v>0</v>
       </c>
       <c r="T31" s="18">
-        <f t="shared" si="1"/>
+        <f>K31+L31+ SUM(M31:S31)*5+AD31+AE31</f>
         <v>16</v>
       </c>
       <c r="U31" s="18"/>
       <c r="V31" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W31" s="18"/>
       <c r="X31" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y31" s="18"/>
-      <c r="Z31" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
       <c r="AB31" s="18"/>
       <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
+      <c r="AD31" s="18">
+        <v>0</v>
+      </c>
       <c r="AE31" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="18">
-        <f>IF(ISBLANK(AG31),0, LOOKUP(AG31,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH31/100)</f>
-        <v>0</v>
-      </c>
+        <f>IF(ISBLANK(AF31),0, LOOKUP(AF31,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG31/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="18"/>
       <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
+      <c r="AH31" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI31" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK31" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>21300004</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <f t="shared" ref="E32:E33" si="21">IF(T32&gt;=23,4,IF(AND(T32&gt;=18,T32&lt;23),3,IF(AND(T32&gt;=13,T32&lt;18),2,IF(AND(T32&gt;=8,T32&lt;13),1,0))))</f>
+        <f t="shared" ref="E32:E33" si="18">IF(T32&gt;=23,4,IF(AND(T32&gt;=18,T32&lt;23),3,IF(AND(T32&gt;=13,T32&lt;18),2,IF(AND(T32&gt;=8,T32&lt;13),1,0))))</f>
         <v>2</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H32" s="18">
@@ -8569,68 +8382,65 @@
         <v>0</v>
       </c>
       <c r="T32" s="18">
-        <f t="shared" si="1"/>
+        <f>K32+L32+ SUM(M32:S32)*5+AD32+AE32</f>
         <v>17.3</v>
       </c>
       <c r="U32" s="18"/>
       <c r="V32" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W32" s="18"/>
       <c r="X32" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y32" s="18"/>
-      <c r="Z32" s="18">
-        <v>10</v>
-      </c>
+      <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
       <c r="AB32" s="18"/>
       <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
+      <c r="AD32" s="18">
+        <v>0</v>
+      </c>
       <c r="AE32" s="18">
-        <v>0</v>
+        <f>IF(ISBLANK(AF32),0, LOOKUP(AF32,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AG32/100)</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AF32" s="18">
-        <f>IF(ISBLANK(AG32),0, LOOKUP(AG32,[1]Skill!$A:$A,[1]Skill!$AB:$AB)*AH32/100)</f>
-        <v>9.3000000000000007</v>
+        <v>55510012</v>
       </c>
       <c r="AG32" s="18">
-        <v>55510012</v>
-      </c>
-      <c r="AH32" s="18">
         <v>15</v>
       </c>
+      <c r="AH32" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="AI32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ32" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK32" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>21300005</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H33" s="18">
@@ -8670,64 +8480,61 @@
         <v>0</v>
       </c>
       <c r="T33" s="18">
-        <f t="shared" si="1"/>
+        <f>K33+L33+ SUM(M33:S33)*5+AD33+AE33</f>
         <v>12</v>
       </c>
       <c r="U33" s="18"/>
       <c r="V33" s="